--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B335DC-B85B-460B-8404-7BD497B6E1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C7EAF-C94E-4ED0-AA89-9CAF6DC881A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="2100" windowWidth="28020" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="825" windowWidth="22440" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -383,54 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_tuto2_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_tuto1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_tuto2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_tuto2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_tuto2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_tuto2_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_tuto2_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈 속에서(Q_tuto1_0) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옆 방으로 이동(Q_tuto2_1) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집 밖으로 탈출(Q_tuto2_2) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화(Q_tuto2_3) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대피 시작(Q_tuto2_4) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문서 버전</t>
   </si>
   <si>
@@ -446,6 +398,158 @@
   <si>
     <t>위치</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chptor00_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆 방으로 이동(Q_Chapter01_1_1) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈 속에서(Q_Chptor00_1_0) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 밖으로 탈출(Q_Chapter01_1_2) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화(Q_Chapter01_1_3) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피 시작(Q_Chapter01_1_4) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침낭 말리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침공, 그리고 탈출(Q_Chapter01_1_0) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느덧 재앙이 일어난 지 10년이 지났다. 과거의 삶과는 많이 달라졌지만 사람들은 여전히 살아가고 있다. 오늘은 날이 맑으니 아침부터 침낭을 널어 말리는 게 좋겠다. 텐트 안에 들어가 침낭을 획득한 후 목표 지점에 가져가자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐트로 이동하여 침낭 아이템 획득 후 마크를 따라 지점까지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크 리스트 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침낭 말리기(Q_Chapter02_1_1) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이른 아침이지만 미리 할 일을 확인하는 것이 좋겠다.
+캠프장 주거구역의 (주거구역 NPC)에게 가보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 캠프장 주거구역의 (주거구역NPC)에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주거구역 NPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_0 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_5 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_4 퀘스트 활성화
+전화기 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_3 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_2 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_0 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_2 퀘스트 활성화
+침낭 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_3 퀘스트 활성화
+캠프장 구조(주거,취사,무기술,보급 등) 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 완료시 발생하는 작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1070,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1176,48 +1280,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,6 +1339,54 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U1000"/>
+  <dimension ref="B1:U1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1519,13 +1629,13 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="U2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1533,22 +1643,22 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="U3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
@@ -1718,41 +1828,47 @@
     </row>
     <row r="20" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:6" ht="27.95" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+    <row r="23" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" ht="27.95" customHeight="1">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
@@ -1764,21 +1880,21 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="2:6" ht="27.95" customHeight="1"/>
+    <row r="27" spans="2:6" ht="27.95" customHeight="1">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
     <row r="28" spans="2:6" ht="27.95" customHeight="1"/>
     <row r="29" spans="2:6" ht="27.95" customHeight="1"/>
     <row r="30" spans="2:6" ht="27.95" customHeight="1"/>
     <row r="31" spans="2:6" ht="27.95" customHeight="1"/>
-    <row r="32" spans="2:6" ht="27.95" customHeight="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-    </row>
+    <row r="32" spans="2:6" ht="27.95" customHeight="1"/>
     <row r="33" spans="2:3" ht="27.95" customHeight="1">
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="2:3" ht="27.95" customHeight="1">
-      <c r="B34" s="14"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="14"/>
     </row>
     <row r="35" spans="2:3" ht="27.95" customHeight="1">
@@ -1786,12 +1902,12 @@
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:3" ht="27.95" customHeight="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:3" ht="27.95" customHeight="1">
       <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="2:3" ht="27.95" customHeight="1">
       <c r="B38" s="13"/>
@@ -1802,7 +1918,7 @@
       <c r="C39" s="14"/>
     </row>
     <row r="40" spans="2:3" ht="27.95" customHeight="1">
-      <c r="B40" s="14"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="14"/>
     </row>
     <row r="41" spans="2:3" ht="27.95" customHeight="1">
@@ -1841,8 +1957,11 @@
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="2:3" ht="27.95" customHeight="1"/>
-    <row r="51" spans="2:3" ht="16.5" customHeight="1"/>
+    <row r="50" spans="2:3" ht="27.95" customHeight="1">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="2:3" ht="27.95" customHeight="1"/>
     <row r="52" spans="2:3" ht="16.5" customHeight="1"/>
     <row r="53" spans="2:3" ht="16.5" customHeight="1"/>
     <row r="54" spans="2:3" ht="16.5" customHeight="1"/>
@@ -2792,6 +2911,7 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
@@ -2823,714 +2943,714 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>104</v>
+      <c r="A1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
     </row>
     <row r="41" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
     </row>
     <row r="43" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
     </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
     </row>
     <row r="50" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
     </row>
     <row r="51" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
     </row>
     <row r="52" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
     </row>
     <row r="56" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
     </row>
     <row r="57" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
     </row>
     <row r="58" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
     </row>
     <row r="59" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="68"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="68"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
     </row>
     <row r="61" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
     </row>
     <row r="62" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
     </row>
     <row r="63" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A63" s="64"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="68"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54"/>
     </row>
     <row r="64" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="68"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
     </row>
     <row r="65" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
     </row>
     <row r="66" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="68"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
     </row>
     <row r="67" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A67" s="64"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="68"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
     </row>
     <row r="68" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A68" s="64"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="68"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
     </row>
     <row r="69" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="68"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
     </row>
     <row r="70" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A70" s="64"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="68"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
     </row>
     <row r="71" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A71" s="64"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="68"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="54"/>
     </row>
     <row r="72" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A72" s="64"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="68"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
     </row>
     <row r="73" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="68"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="54"/>
     </row>
     <row r="74" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A74" s="64"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="68"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="54"/>
     </row>
     <row r="75" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A75" s="64"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="68"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="54"/>
     </row>
     <row r="76" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="68"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
     </row>
     <row r="77" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="68"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="54"/>
     </row>
     <row r="78" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="68"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="68"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="68"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="54"/>
     </row>
     <row r="81" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="68"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="54"/>
     </row>
     <row r="82" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A82" s="64"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="68"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
     </row>
     <row r="83" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A83" s="64"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="68"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="54"/>
     </row>
     <row r="84" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="68"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="54"/>
     </row>
     <row r="85" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="68"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="54"/>
     </row>
     <row r="86" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A86" s="64"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="68"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="68"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="68"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="54"/>
     </row>
     <row r="89" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="68"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
     </row>
     <row r="90" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="68"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="54"/>
     </row>
     <row r="91" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A91" s="64"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="68"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
     </row>
     <row r="92" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A92" s="64"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="68"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
     </row>
     <row r="93" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="68"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A94" s="64"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="68"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A95" s="64"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="68"/>
+      <c r="A95" s="50"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="68"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="54"/>
     </row>
     <row r="97" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="68"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="54"/>
     </row>
     <row r="98" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A98" s="64"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="68"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="54"/>
     </row>
     <row r="99" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A99" s="64"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="68"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="54"/>
     </row>
     <row r="100" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A100" s="64"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="68"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3540,77 +3660,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U982"/>
+  <dimension ref="A1:V982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="J1:T2"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.875" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="7.625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="12.625" style="1"/>
+    <col min="17" max="17" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="7.625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="22" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:22" s="22" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="42" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="42" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="66" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="23" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:22" s="23" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>65</v>
       </c>
@@ -3623,7 +3745,7 @@
       <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
@@ -3658,22 +3780,25 @@
         <v>13</v>
       </c>
       <c r="Q2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="33.75" thickTop="1">
+      <c r="V2" s="67"/>
+    </row>
+    <row r="3" spans="1:22" ht="33.75" thickTop="1">
       <c r="A3" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>87</v>
@@ -3681,7 +3806,9 @@
       <c r="C3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="30" t="s">
         <v>66</v>
       </c>
@@ -3718,8 +3845,8 @@
       <c r="P3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="27" t="s">
-        <v>53</v>
+      <c r="Q3" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>53</v>
@@ -3730,17 +3857,20 @@
       <c r="T3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="32"/>
-    </row>
-    <row r="4" spans="1:21" ht="33">
-      <c r="A4" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="U3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:22" ht="33">
+      <c r="A4" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>58</v>
@@ -3752,7 +3882,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>86</v>
@@ -3781,8 +3911,8 @@
       <c r="P4" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="27" t="s">
-        <v>53</v>
+      <c r="Q4" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>53</v>
@@ -3793,13 +3923,16 @@
       <c r="T4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="32"/>
-    </row>
-    <row r="5" spans="1:21" ht="33">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="U4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="32"/>
+    </row>
+    <row r="5" spans="1:22" ht="33">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>68</v>
@@ -3811,7 +3944,7 @@
         <v>69</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>84</v>
@@ -3840,8 +3973,8 @@
       <c r="P5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="27" t="s">
-        <v>53</v>
+      <c r="Q5" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>53</v>
@@ -3852,13 +3985,16 @@
       <c r="T5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="32"/>
-    </row>
-    <row r="6" spans="1:21" ht="49.5">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="U5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="32"/>
+    </row>
+    <row r="6" spans="1:22" ht="49.5">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="31" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>75</v>
@@ -3870,7 +4006,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>72</v>
@@ -3899,8 +4035,8 @@
       <c r="P6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="27" t="s">
-        <v>53</v>
+      <c r="Q6" s="70" t="s">
+        <v>123</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>53</v>
@@ -3911,13 +4047,16 @@
       <c r="T6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="32"/>
-    </row>
-    <row r="7" spans="1:21" ht="33">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="29" t="s">
-        <v>93</v>
+      <c r="U6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="32"/>
+    </row>
+    <row r="7" spans="1:22" ht="33">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>82</v>
@@ -3929,7 +4068,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>72</v>
@@ -3958,8 +4097,8 @@
       <c r="P7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="27" t="s">
-        <v>53</v>
+      <c r="Q7" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>53</v>
@@ -3970,13 +4109,16 @@
       <c r="T7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="32"/>
-    </row>
-    <row r="8" spans="1:21" ht="33">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="29" t="s">
-        <v>94</v>
+      <c r="U7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="32"/>
+    </row>
+    <row r="8" spans="1:22" ht="33">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>80</v>
@@ -3988,7 +4130,7 @@
         <v>81</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>72</v>
@@ -4017,8 +4159,8 @@
       <c r="P8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="27" t="s">
-        <v>53</v>
+      <c r="Q8" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>53</v>
@@ -4029,60 +4171,149 @@
       <c r="T8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="32"/>
-    </row>
-    <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="32"/>
-    </row>
-    <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="32"/>
+    </row>
+    <row r="9" spans="1:22" ht="66">
+      <c r="A9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="32"/>
+    </row>
+    <row r="10" spans="1:22" ht="49.5">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="32"/>
-    </row>
-    <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="C10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="32"/>
+    </row>
+    <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="31"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -4094,13 +4325,14 @@
       <c r="N11" s="27"/>
       <c r="O11" s="31"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U11" s="27"/>
+      <c r="V11" s="32"/>
+    </row>
+    <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="29"/>
@@ -4117,13 +4349,14 @@
       <c r="N12" s="27"/>
       <c r="O12" s="31"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="32"/>
-    </row>
-    <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U12" s="27"/>
+      <c r="V12" s="32"/>
+    </row>
+    <row r="13" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
@@ -4139,13 +4372,14 @@
       <c r="N13" s="27"/>
       <c r="O13" s="31"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="55"/>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="32"/>
-    </row>
-    <row r="14" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U13" s="27"/>
+      <c r="V13" s="32"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="29"/>
@@ -4162,13 +4396,14 @@
       <c r="N14" s="27"/>
       <c r="O14" s="31"/>
       <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="55"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
-      <c r="U14" s="32"/>
-    </row>
-    <row r="15" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U14" s="27"/>
+      <c r="V14" s="32"/>
+    </row>
+    <row r="15" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
@@ -4185,13 +4420,14 @@
       <c r="N15" s="27"/>
       <c r="O15" s="31"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="Q15" s="55"/>
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="32"/>
-    </row>
-    <row r="16" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U15" s="27"/>
+      <c r="V15" s="32"/>
+    </row>
+    <row r="16" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="29"/>
@@ -4208,13 +4444,14 @@
       <c r="N16" s="27"/>
       <c r="O16" s="31"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="Q16" s="55"/>
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
-      <c r="U16" s="32"/>
-    </row>
-    <row r="17" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U16" s="27"/>
+      <c r="V16" s="32"/>
+    </row>
+    <row r="17" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="29"/>
@@ -4231,13 +4468,14 @@
       <c r="N17" s="27"/>
       <c r="O17" s="31"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="55"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U17" s="27"/>
+      <c r="V17" s="32"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="29"/>
@@ -4254,13 +4492,14 @@
       <c r="N18" s="27"/>
       <c r="O18" s="31"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="55"/>
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
-      <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U18" s="27"/>
+      <c r="V18" s="32"/>
+    </row>
+    <row r="19" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="29"/>
@@ -4277,13 +4516,14 @@
       <c r="N19" s="27"/>
       <c r="O19" s="31"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="55"/>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="32"/>
-    </row>
-    <row r="20" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U19" s="27"/>
+      <c r="V19" s="32"/>
+    </row>
+    <row r="20" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="29"/>
@@ -4300,13 +4540,14 @@
       <c r="N20" s="27"/>
       <c r="O20" s="31"/>
       <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="55"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
-      <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U20" s="27"/>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="29"/>
@@ -4323,13 +4564,14 @@
       <c r="N21" s="27"/>
       <c r="O21" s="31"/>
       <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="55"/>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="32"/>
-    </row>
-    <row r="22" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U21" s="27"/>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="29"/>
@@ -4346,13 +4588,14 @@
       <c r="N22" s="27"/>
       <c r="O22" s="31"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="55"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="32"/>
-    </row>
-    <row r="23" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U22" s="27"/>
+      <c r="V22" s="32"/>
+    </row>
+    <row r="23" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="29"/>
@@ -4369,13 +4612,14 @@
       <c r="N23" s="27"/>
       <c r="O23" s="31"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="55"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="32"/>
-    </row>
-    <row r="24" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U23" s="27"/>
+      <c r="V23" s="32"/>
+    </row>
+    <row r="24" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="29"/>
@@ -4392,13 +4636,14 @@
       <c r="N24" s="27"/>
       <c r="O24" s="31"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="55"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
-      <c r="U24" s="32"/>
-    </row>
-    <row r="25" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U24" s="27"/>
+      <c r="V24" s="32"/>
+    </row>
+    <row r="25" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
@@ -4415,13 +4660,14 @@
       <c r="N25" s="27"/>
       <c r="O25" s="31"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="55"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
-      <c r="U25" s="32"/>
-    </row>
-    <row r="26" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U25" s="27"/>
+      <c r="V25" s="32"/>
+    </row>
+    <row r="26" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="29"/>
@@ -4438,13 +4684,14 @@
       <c r="N26" s="27"/>
       <c r="O26" s="31"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="55"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
-      <c r="U26" s="32"/>
-    </row>
-    <row r="27" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U26" s="27"/>
+      <c r="V26" s="32"/>
+    </row>
+    <row r="27" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="29"/>
@@ -4461,13 +4708,14 @@
       <c r="N27" s="27"/>
       <c r="O27" s="31"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="55"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="32"/>
-    </row>
-    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U27" s="27"/>
+      <c r="V27" s="32"/>
+    </row>
+    <row r="28" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="29"/>
@@ -4484,13 +4732,14 @@
       <c r="N28" s="27"/>
       <c r="O28" s="31"/>
       <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="55"/>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
-      <c r="U28" s="32"/>
-    </row>
-    <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U28" s="27"/>
+      <c r="V28" s="32"/>
+    </row>
+    <row r="29" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="29"/>
@@ -4507,13 +4756,14 @@
       <c r="N29" s="27"/>
       <c r="O29" s="31"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="55"/>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
-      <c r="U29" s="32"/>
-    </row>
-    <row r="30" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U29" s="27"/>
+      <c r="V29" s="32"/>
+    </row>
+    <row r="30" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
@@ -4530,13 +4780,14 @@
       <c r="N30" s="27"/>
       <c r="O30" s="31"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="55"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="32"/>
-    </row>
-    <row r="31" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U30" s="27"/>
+      <c r="V30" s="32"/>
+    </row>
+    <row r="31" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
@@ -4553,13 +4804,14 @@
       <c r="N31" s="27"/>
       <c r="O31" s="31"/>
       <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="55"/>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
-      <c r="U31" s="32"/>
-    </row>
-    <row r="32" spans="1:21" ht="17.100000000000001" customHeight="1">
+      <c r="U31" s="27"/>
+      <c r="V31" s="32"/>
+    </row>
+    <row r="32" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="29"/>
@@ -4576,13 +4828,14 @@
       <c r="N32" s="27"/>
       <c r="O32" s="31"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="55"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
-      <c r="U32" s="32"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U32" s="27"/>
+      <c r="V32" s="32"/>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="29"/>
@@ -4599,13 +4852,14 @@
       <c r="N33" s="27"/>
       <c r="O33" s="31"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="Q33" s="55"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
-      <c r="U33" s="32"/>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U33" s="27"/>
+      <c r="V33" s="32"/>
+    </row>
+    <row r="34" spans="1:22" ht="16.5" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="29"/>
@@ -4622,13 +4876,14 @@
       <c r="N34" s="27"/>
       <c r="O34" s="31"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="55"/>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
-      <c r="U34" s="32"/>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U34" s="27"/>
+      <c r="V34" s="32"/>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="29"/>
@@ -4645,13 +4900,14 @@
       <c r="N35" s="27"/>
       <c r="O35" s="31"/>
       <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="55"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
-      <c r="U35" s="32"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U35" s="27"/>
+      <c r="V35" s="32"/>
+    </row>
+    <row r="36" spans="1:22" ht="16.5" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="29"/>
@@ -4668,13 +4924,14 @@
       <c r="N36" s="27"/>
       <c r="O36" s="31"/>
       <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
+      <c r="Q36" s="55"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
-      <c r="U36" s="32"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U36" s="27"/>
+      <c r="V36" s="32"/>
+    </row>
+    <row r="37" spans="1:22" ht="16.5" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="29"/>
@@ -4691,13 +4948,14 @@
       <c r="N37" s="27"/>
       <c r="O37" s="31"/>
       <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
+      <c r="Q37" s="55"/>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U37" s="27"/>
+      <c r="V37" s="32"/>
+    </row>
+    <row r="38" spans="1:22" ht="16.5" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="29"/>
@@ -4714,13 +4972,14 @@
       <c r="N38" s="27"/>
       <c r="O38" s="31"/>
       <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="Q38" s="55"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
-      <c r="U38" s="32"/>
-    </row>
-    <row r="39" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U38" s="27"/>
+      <c r="V38" s="32"/>
+    </row>
+    <row r="39" spans="1:22" ht="16.5" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="29"/>
@@ -4737,13 +4996,14 @@
       <c r="N39" s="27"/>
       <c r="O39" s="31"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="Q39" s="55"/>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
-      <c r="U39" s="32"/>
-    </row>
-    <row r="40" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U39" s="27"/>
+      <c r="V39" s="32"/>
+    </row>
+    <row r="40" spans="1:22" ht="16.5" customHeight="1">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="29"/>
@@ -4760,13 +5020,14 @@
       <c r="N40" s="27"/>
       <c r="O40" s="31"/>
       <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="Q40" s="55"/>
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
-      <c r="U40" s="32"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U40" s="27"/>
+      <c r="V40" s="32"/>
+    </row>
+    <row r="41" spans="1:22" ht="16.5" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
@@ -4783,13 +5044,14 @@
       <c r="N41" s="27"/>
       <c r="O41" s="31"/>
       <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="Q41" s="55"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
-      <c r="U41" s="32"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U41" s="27"/>
+      <c r="V41" s="32"/>
+    </row>
+    <row r="42" spans="1:22" ht="16.5" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="29"/>
@@ -4806,13 +5068,14 @@
       <c r="N42" s="27"/>
       <c r="O42" s="31"/>
       <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="Q42" s="55"/>
       <c r="R42" s="27"/>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
-      <c r="U42" s="32"/>
-    </row>
-    <row r="43" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U42" s="27"/>
+      <c r="V42" s="32"/>
+    </row>
+    <row r="43" spans="1:22" ht="16.5" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="29"/>
@@ -4829,13 +5092,14 @@
       <c r="N43" s="27"/>
       <c r="O43" s="31"/>
       <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="Q43" s="55"/>
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
-      <c r="U43" s="32"/>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U43" s="27"/>
+      <c r="V43" s="32"/>
+    </row>
+    <row r="44" spans="1:22" ht="16.5" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="29"/>
@@ -4852,13 +5116,14 @@
       <c r="N44" s="27"/>
       <c r="O44" s="31"/>
       <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
+      <c r="Q44" s="55"/>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
-      <c r="U44" s="32"/>
-    </row>
-    <row r="45" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U44" s="27"/>
+      <c r="V44" s="32"/>
+    </row>
+    <row r="45" spans="1:22" ht="16.5" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="29"/>
@@ -4875,13 +5140,14 @@
       <c r="N45" s="27"/>
       <c r="O45" s="31"/>
       <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
+      <c r="Q45" s="55"/>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
-      <c r="U45" s="32"/>
-    </row>
-    <row r="46" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U45" s="27"/>
+      <c r="V45" s="32"/>
+    </row>
+    <row r="46" spans="1:22" ht="16.5" customHeight="1">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="29"/>
@@ -4898,13 +5164,14 @@
       <c r="N46" s="27"/>
       <c r="O46" s="31"/>
       <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+      <c r="Q46" s="55"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
-      <c r="U46" s="32"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U46" s="27"/>
+      <c r="V46" s="32"/>
+    </row>
+    <row r="47" spans="1:22" ht="16.5" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="29"/>
@@ -4921,13 +5188,14 @@
       <c r="N47" s="27"/>
       <c r="O47" s="31"/>
       <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
+      <c r="Q47" s="55"/>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
-      <c r="U47" s="32"/>
-    </row>
-    <row r="48" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U47" s="27"/>
+      <c r="V47" s="32"/>
+    </row>
+    <row r="48" spans="1:22" ht="16.5" customHeight="1">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="29"/>
@@ -4944,13 +5212,14 @@
       <c r="N48" s="27"/>
       <c r="O48" s="31"/>
       <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
+      <c r="Q48" s="55"/>
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
       <c r="T48" s="27"/>
-      <c r="U48" s="32"/>
-    </row>
-    <row r="49" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U48" s="27"/>
+      <c r="V48" s="32"/>
+    </row>
+    <row r="49" spans="1:22" ht="16.5" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="29"/>
@@ -4967,13 +5236,14 @@
       <c r="N49" s="27"/>
       <c r="O49" s="31"/>
       <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
+      <c r="Q49" s="55"/>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
-      <c r="U49" s="32"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U49" s="27"/>
+      <c r="V49" s="32"/>
+    </row>
+    <row r="50" spans="1:22" ht="16.5" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="29"/>
@@ -4990,13 +5260,14 @@
       <c r="N50" s="27"/>
       <c r="O50" s="31"/>
       <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
+      <c r="Q50" s="55"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
-      <c r="U50" s="32"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U50" s="27"/>
+      <c r="V50" s="32"/>
+    </row>
+    <row r="51" spans="1:22" ht="16.5" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="29"/>
@@ -5013,13 +5284,14 @@
       <c r="N51" s="27"/>
       <c r="O51" s="31"/>
       <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
+      <c r="Q51" s="55"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
-      <c r="U51" s="32"/>
-    </row>
-    <row r="52" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U51" s="27"/>
+      <c r="V51" s="32"/>
+    </row>
+    <row r="52" spans="1:22" ht="16.5" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="29"/>
@@ -5036,13 +5308,14 @@
       <c r="N52" s="27"/>
       <c r="O52" s="31"/>
       <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
+      <c r="Q52" s="55"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
-      <c r="U52" s="32"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U52" s="27"/>
+      <c r="V52" s="32"/>
+    </row>
+    <row r="53" spans="1:22" ht="16.5" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="29"/>
@@ -5059,13 +5332,14 @@
       <c r="N53" s="27"/>
       <c r="O53" s="31"/>
       <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
+      <c r="Q53" s="55"/>
       <c r="R53" s="27"/>
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
-      <c r="U53" s="32"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U53" s="27"/>
+      <c r="V53" s="32"/>
+    </row>
+    <row r="54" spans="1:22" ht="16.5" customHeight="1">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="29"/>
@@ -5082,13 +5356,14 @@
       <c r="N54" s="27"/>
       <c r="O54" s="31"/>
       <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
+      <c r="Q54" s="55"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
-      <c r="U54" s="32"/>
-    </row>
-    <row r="55" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U54" s="27"/>
+      <c r="V54" s="32"/>
+    </row>
+    <row r="55" spans="1:22" ht="16.5" customHeight="1">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="29"/>
@@ -5105,13 +5380,14 @@
       <c r="N55" s="27"/>
       <c r="O55" s="31"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
+      <c r="Q55" s="55"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
-      <c r="U55" s="32"/>
-    </row>
-    <row r="56" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U55" s="27"/>
+      <c r="V55" s="32"/>
+    </row>
+    <row r="56" spans="1:22" ht="16.5" customHeight="1">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="29"/>
@@ -5128,13 +5404,14 @@
       <c r="N56" s="27"/>
       <c r="O56" s="31"/>
       <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
+      <c r="Q56" s="55"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
       <c r="T56" s="27"/>
-      <c r="U56" s="32"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U56" s="27"/>
+      <c r="V56" s="32"/>
+    </row>
+    <row r="57" spans="1:22" ht="16.5" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="29"/>
@@ -5151,13 +5428,14 @@
       <c r="N57" s="27"/>
       <c r="O57" s="31"/>
       <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
+      <c r="Q57" s="55"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27"/>
       <c r="T57" s="27"/>
-      <c r="U57" s="32"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U57" s="27"/>
+      <c r="V57" s="32"/>
+    </row>
+    <row r="58" spans="1:22" ht="16.5" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="29"/>
@@ -5174,13 +5452,14 @@
       <c r="N58" s="27"/>
       <c r="O58" s="31"/>
       <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
+      <c r="Q58" s="55"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27"/>
       <c r="T58" s="27"/>
-      <c r="U58" s="32"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U58" s="27"/>
+      <c r="V58" s="32"/>
+    </row>
+    <row r="59" spans="1:22" ht="16.5" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="29"/>
@@ -5197,13 +5476,14 @@
       <c r="N59" s="27"/>
       <c r="O59" s="31"/>
       <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
+      <c r="Q59" s="55"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
-      <c r="U59" s="32"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U59" s="27"/>
+      <c r="V59" s="32"/>
+    </row>
+    <row r="60" spans="1:22" ht="16.5" customHeight="1">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="29"/>
@@ -5220,13 +5500,14 @@
       <c r="N60" s="27"/>
       <c r="O60" s="31"/>
       <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
+      <c r="Q60" s="55"/>
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
       <c r="T60" s="27"/>
-      <c r="U60" s="32"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U60" s="27"/>
+      <c r="V60" s="32"/>
+    </row>
+    <row r="61" spans="1:22" ht="16.5" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="29"/>
@@ -5243,13 +5524,14 @@
       <c r="N61" s="27"/>
       <c r="O61" s="31"/>
       <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
+      <c r="Q61" s="55"/>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
       <c r="T61" s="27"/>
-      <c r="U61" s="32"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U61" s="27"/>
+      <c r="V61" s="32"/>
+    </row>
+    <row r="62" spans="1:22" ht="16.5" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="29"/>
@@ -5266,13 +5548,14 @@
       <c r="N62" s="27"/>
       <c r="O62" s="31"/>
       <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
+      <c r="Q62" s="55"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
       <c r="T62" s="27"/>
-      <c r="U62" s="32"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U62" s="27"/>
+      <c r="V62" s="32"/>
+    </row>
+    <row r="63" spans="1:22" ht="16.5" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="29"/>
@@ -5289,13 +5572,14 @@
       <c r="N63" s="27"/>
       <c r="O63" s="31"/>
       <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
+      <c r="Q63" s="55"/>
       <c r="R63" s="27"/>
       <c r="S63" s="27"/>
       <c r="T63" s="27"/>
-      <c r="U63" s="32"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U63" s="27"/>
+      <c r="V63" s="32"/>
+    </row>
+    <row r="64" spans="1:22" ht="16.5" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="29"/>
@@ -5312,13 +5596,14 @@
       <c r="N64" s="27"/>
       <c r="O64" s="31"/>
       <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
+      <c r="Q64" s="55"/>
       <c r="R64" s="27"/>
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
-      <c r="U64" s="32"/>
-    </row>
-    <row r="65" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U64" s="27"/>
+      <c r="V64" s="32"/>
+    </row>
+    <row r="65" spans="1:22" ht="16.5" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="29"/>
@@ -5335,13 +5620,14 @@
       <c r="N65" s="27"/>
       <c r="O65" s="31"/>
       <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
+      <c r="Q65" s="55"/>
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
       <c r="T65" s="27"/>
-      <c r="U65" s="32"/>
-    </row>
-    <row r="66" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U65" s="27"/>
+      <c r="V65" s="32"/>
+    </row>
+    <row r="66" spans="1:22" ht="16.5" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="29"/>
@@ -5358,13 +5644,14 @@
       <c r="N66" s="27"/>
       <c r="O66" s="31"/>
       <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
+      <c r="Q66" s="55"/>
       <c r="R66" s="27"/>
       <c r="S66" s="27"/>
       <c r="T66" s="27"/>
-      <c r="U66" s="32"/>
-    </row>
-    <row r="67" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U66" s="27"/>
+      <c r="V66" s="32"/>
+    </row>
+    <row r="67" spans="1:22" ht="16.5" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="29"/>
@@ -5381,13 +5668,14 @@
       <c r="N67" s="27"/>
       <c r="O67" s="31"/>
       <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
+      <c r="Q67" s="55"/>
       <c r="R67" s="27"/>
       <c r="S67" s="27"/>
       <c r="T67" s="27"/>
-      <c r="U67" s="32"/>
-    </row>
-    <row r="68" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U67" s="27"/>
+      <c r="V67" s="32"/>
+    </row>
+    <row r="68" spans="1:22" ht="16.5" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="29"/>
@@ -5404,13 +5692,14 @@
       <c r="N68" s="27"/>
       <c r="O68" s="31"/>
       <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
+      <c r="Q68" s="55"/>
       <c r="R68" s="27"/>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
-      <c r="U68" s="32"/>
-    </row>
-    <row r="69" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U68" s="27"/>
+      <c r="V68" s="32"/>
+    </row>
+    <row r="69" spans="1:22" ht="16.5" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="29"/>
@@ -5427,13 +5716,14 @@
       <c r="N69" s="27"/>
       <c r="O69" s="31"/>
       <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
+      <c r="Q69" s="55"/>
       <c r="R69" s="27"/>
       <c r="S69" s="27"/>
       <c r="T69" s="27"/>
-      <c r="U69" s="32"/>
-    </row>
-    <row r="70" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U69" s="27"/>
+      <c r="V69" s="32"/>
+    </row>
+    <row r="70" spans="1:22" ht="16.5" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
       <c r="C70" s="29"/>
@@ -5450,13 +5740,14 @@
       <c r="N70" s="27"/>
       <c r="O70" s="31"/>
       <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
+      <c r="Q70" s="55"/>
       <c r="R70" s="27"/>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
-      <c r="U70" s="32"/>
-    </row>
-    <row r="71" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U70" s="27"/>
+      <c r="V70" s="32"/>
+    </row>
+    <row r="71" spans="1:22" ht="16.5" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="29"/>
@@ -5473,13 +5764,14 @@
       <c r="N71" s="27"/>
       <c r="O71" s="31"/>
       <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
+      <c r="Q71" s="55"/>
       <c r="R71" s="27"/>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
-      <c r="U71" s="32"/>
-    </row>
-    <row r="72" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U71" s="27"/>
+      <c r="V71" s="32"/>
+    </row>
+    <row r="72" spans="1:22" ht="16.5" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="29"/>
@@ -5496,13 +5788,14 @@
       <c r="N72" s="27"/>
       <c r="O72" s="31"/>
       <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
+      <c r="Q72" s="55"/>
       <c r="R72" s="27"/>
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
-      <c r="U72" s="32"/>
-    </row>
-    <row r="73" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U72" s="27"/>
+      <c r="V72" s="32"/>
+    </row>
+    <row r="73" spans="1:22" ht="16.5" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
       <c r="C73" s="29"/>
@@ -5519,13 +5812,14 @@
       <c r="N73" s="27"/>
       <c r="O73" s="31"/>
       <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
+      <c r="Q73" s="55"/>
       <c r="R73" s="27"/>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
-      <c r="U73" s="32"/>
-    </row>
-    <row r="74" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U73" s="27"/>
+      <c r="V73" s="32"/>
+    </row>
+    <row r="74" spans="1:22" ht="16.5" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="29"/>
@@ -5542,13 +5836,14 @@
       <c r="N74" s="27"/>
       <c r="O74" s="31"/>
       <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
+      <c r="Q74" s="55"/>
       <c r="R74" s="27"/>
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
-      <c r="U74" s="32"/>
-    </row>
-    <row r="75" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U74" s="27"/>
+      <c r="V74" s="32"/>
+    </row>
+    <row r="75" spans="1:22" ht="16.5" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="29"/>
@@ -5565,13 +5860,14 @@
       <c r="N75" s="27"/>
       <c r="O75" s="31"/>
       <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
+      <c r="Q75" s="55"/>
       <c r="R75" s="27"/>
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
-      <c r="U75" s="32"/>
-    </row>
-    <row r="76" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U75" s="27"/>
+      <c r="V75" s="32"/>
+    </row>
+    <row r="76" spans="1:22" ht="16.5" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="29"/>
@@ -5588,13 +5884,14 @@
       <c r="N76" s="27"/>
       <c r="O76" s="31"/>
       <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
+      <c r="Q76" s="55"/>
       <c r="R76" s="27"/>
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
-      <c r="U76" s="32"/>
-    </row>
-    <row r="77" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U76" s="27"/>
+      <c r="V76" s="32"/>
+    </row>
+    <row r="77" spans="1:22" ht="16.5" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="29"/>
@@ -5611,13 +5908,14 @@
       <c r="N77" s="27"/>
       <c r="O77" s="31"/>
       <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
+      <c r="Q77" s="55"/>
       <c r="R77" s="27"/>
       <c r="S77" s="27"/>
       <c r="T77" s="27"/>
-      <c r="U77" s="32"/>
-    </row>
-    <row r="78" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U77" s="27"/>
+      <c r="V77" s="32"/>
+    </row>
+    <row r="78" spans="1:22" ht="16.5" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="29"/>
@@ -5634,13 +5932,14 @@
       <c r="N78" s="27"/>
       <c r="O78" s="31"/>
       <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
+      <c r="Q78" s="55"/>
       <c r="R78" s="27"/>
       <c r="S78" s="27"/>
       <c r="T78" s="27"/>
-      <c r="U78" s="32"/>
-    </row>
-    <row r="79" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U78" s="27"/>
+      <c r="V78" s="32"/>
+    </row>
+    <row r="79" spans="1:22" ht="16.5" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="29"/>
@@ -5657,13 +5956,14 @@
       <c r="N79" s="27"/>
       <c r="O79" s="31"/>
       <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
+      <c r="Q79" s="55"/>
       <c r="R79" s="27"/>
       <c r="S79" s="27"/>
       <c r="T79" s="27"/>
-      <c r="U79" s="32"/>
-    </row>
-    <row r="80" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U79" s="27"/>
+      <c r="V79" s="32"/>
+    </row>
+    <row r="80" spans="1:22" ht="16.5" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="29"/>
@@ -5680,13 +5980,14 @@
       <c r="N80" s="27"/>
       <c r="O80" s="31"/>
       <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
+      <c r="Q80" s="55"/>
       <c r="R80" s="27"/>
       <c r="S80" s="27"/>
       <c r="T80" s="27"/>
-      <c r="U80" s="32"/>
-    </row>
-    <row r="81" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U80" s="27"/>
+      <c r="V80" s="32"/>
+    </row>
+    <row r="81" spans="1:22" ht="16.5" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="29"/>
@@ -5703,13 +6004,14 @@
       <c r="N81" s="27"/>
       <c r="O81" s="31"/>
       <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
+      <c r="Q81" s="55"/>
       <c r="R81" s="27"/>
       <c r="S81" s="27"/>
       <c r="T81" s="27"/>
-      <c r="U81" s="32"/>
-    </row>
-    <row r="82" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U81" s="27"/>
+      <c r="V81" s="32"/>
+    </row>
+    <row r="82" spans="1:22" ht="16.5" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="29"/>
@@ -5726,13 +6028,14 @@
       <c r="N82" s="27"/>
       <c r="O82" s="31"/>
       <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
+      <c r="Q82" s="55"/>
       <c r="R82" s="27"/>
       <c r="S82" s="27"/>
       <c r="T82" s="27"/>
-      <c r="U82" s="32"/>
-    </row>
-    <row r="83" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U82" s="27"/>
+      <c r="V82" s="32"/>
+    </row>
+    <row r="83" spans="1:22" ht="16.5" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="29"/>
@@ -5749,13 +6052,14 @@
       <c r="N83" s="27"/>
       <c r="O83" s="31"/>
       <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
+      <c r="Q83" s="55"/>
       <c r="R83" s="27"/>
       <c r="S83" s="27"/>
       <c r="T83" s="27"/>
-      <c r="U83" s="32"/>
-    </row>
-    <row r="84" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U83" s="27"/>
+      <c r="V83" s="32"/>
+    </row>
+    <row r="84" spans="1:22" ht="16.5" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="29"/>
@@ -5772,13 +6076,14 @@
       <c r="N84" s="27"/>
       <c r="O84" s="31"/>
       <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
+      <c r="Q84" s="55"/>
       <c r="R84" s="27"/>
       <c r="S84" s="27"/>
       <c r="T84" s="27"/>
-      <c r="U84" s="32"/>
-    </row>
-    <row r="85" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U84" s="27"/>
+      <c r="V84" s="32"/>
+    </row>
+    <row r="85" spans="1:22" ht="16.5" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="29"/>
@@ -5795,13 +6100,14 @@
       <c r="N85" s="27"/>
       <c r="O85" s="31"/>
       <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
+      <c r="Q85" s="55"/>
       <c r="R85" s="27"/>
       <c r="S85" s="27"/>
       <c r="T85" s="27"/>
-      <c r="U85" s="32"/>
-    </row>
-    <row r="86" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U85" s="27"/>
+      <c r="V85" s="32"/>
+    </row>
+    <row r="86" spans="1:22" ht="16.5" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="29"/>
@@ -5818,13 +6124,14 @@
       <c r="N86" s="27"/>
       <c r="O86" s="31"/>
       <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
+      <c r="Q86" s="55"/>
       <c r="R86" s="27"/>
       <c r="S86" s="27"/>
       <c r="T86" s="27"/>
-      <c r="U86" s="32"/>
-    </row>
-    <row r="87" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U86" s="27"/>
+      <c r="V86" s="32"/>
+    </row>
+    <row r="87" spans="1:22" ht="16.5" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="29"/>
@@ -5841,13 +6148,14 @@
       <c r="N87" s="27"/>
       <c r="O87" s="31"/>
       <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
+      <c r="Q87" s="55"/>
       <c r="R87" s="27"/>
       <c r="S87" s="27"/>
       <c r="T87" s="27"/>
-      <c r="U87" s="32"/>
-    </row>
-    <row r="88" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U87" s="27"/>
+      <c r="V87" s="32"/>
+    </row>
+    <row r="88" spans="1:22" ht="16.5" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="29"/>
@@ -5864,13 +6172,14 @@
       <c r="N88" s="27"/>
       <c r="O88" s="31"/>
       <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
+      <c r="Q88" s="55"/>
       <c r="R88" s="27"/>
       <c r="S88" s="27"/>
       <c r="T88" s="27"/>
-      <c r="U88" s="32"/>
-    </row>
-    <row r="89" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U88" s="27"/>
+      <c r="V88" s="32"/>
+    </row>
+    <row r="89" spans="1:22" ht="16.5" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="29"/>
@@ -5887,13 +6196,14 @@
       <c r="N89" s="27"/>
       <c r="O89" s="31"/>
       <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
+      <c r="Q89" s="55"/>
       <c r="R89" s="27"/>
       <c r="S89" s="27"/>
       <c r="T89" s="27"/>
-      <c r="U89" s="32"/>
-    </row>
-    <row r="90" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U89" s="27"/>
+      <c r="V89" s="32"/>
+    </row>
+    <row r="90" spans="1:22" ht="16.5" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="29"/>
@@ -5910,13 +6220,14 @@
       <c r="N90" s="27"/>
       <c r="O90" s="31"/>
       <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
+      <c r="Q90" s="55"/>
       <c r="R90" s="27"/>
       <c r="S90" s="27"/>
       <c r="T90" s="27"/>
-      <c r="U90" s="32"/>
-    </row>
-    <row r="91" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U90" s="27"/>
+      <c r="V90" s="32"/>
+    </row>
+    <row r="91" spans="1:22" ht="16.5" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="29"/>
@@ -5933,13 +6244,14 @@
       <c r="N91" s="27"/>
       <c r="O91" s="31"/>
       <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
+      <c r="Q91" s="55"/>
       <c r="R91" s="27"/>
       <c r="S91" s="27"/>
       <c r="T91" s="27"/>
-      <c r="U91" s="32"/>
-    </row>
-    <row r="92" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U91" s="27"/>
+      <c r="V91" s="32"/>
+    </row>
+    <row r="92" spans="1:22" ht="16.5" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="29"/>
@@ -5956,13 +6268,14 @@
       <c r="N92" s="27"/>
       <c r="O92" s="31"/>
       <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
+      <c r="Q92" s="55"/>
       <c r="R92" s="27"/>
       <c r="S92" s="27"/>
       <c r="T92" s="27"/>
-      <c r="U92" s="32"/>
-    </row>
-    <row r="93" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U92" s="27"/>
+      <c r="V92" s="32"/>
+    </row>
+    <row r="93" spans="1:22" ht="16.5" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="29"/>
@@ -5979,13 +6292,14 @@
       <c r="N93" s="27"/>
       <c r="O93" s="31"/>
       <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
+      <c r="Q93" s="55"/>
       <c r="R93" s="27"/>
       <c r="S93" s="27"/>
       <c r="T93" s="27"/>
-      <c r="U93" s="32"/>
-    </row>
-    <row r="94" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U93" s="27"/>
+      <c r="V93" s="32"/>
+    </row>
+    <row r="94" spans="1:22" ht="16.5" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="29"/>
@@ -6002,13 +6316,14 @@
       <c r="N94" s="27"/>
       <c r="O94" s="31"/>
       <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
+      <c r="Q94" s="55"/>
       <c r="R94" s="27"/>
       <c r="S94" s="27"/>
       <c r="T94" s="27"/>
-      <c r="U94" s="32"/>
-    </row>
-    <row r="95" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U94" s="27"/>
+      <c r="V94" s="32"/>
+    </row>
+    <row r="95" spans="1:22" ht="16.5" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="29"/>
@@ -6025,13 +6340,14 @@
       <c r="N95" s="27"/>
       <c r="O95" s="31"/>
       <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
+      <c r="Q95" s="55"/>
       <c r="R95" s="27"/>
       <c r="S95" s="27"/>
       <c r="T95" s="27"/>
-      <c r="U95" s="32"/>
-    </row>
-    <row r="96" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U95" s="27"/>
+      <c r="V95" s="32"/>
+    </row>
+    <row r="96" spans="1:22" ht="16.5" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="29"/>
@@ -6048,13 +6364,14 @@
       <c r="N96" s="27"/>
       <c r="O96" s="31"/>
       <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
+      <c r="Q96" s="55"/>
       <c r="R96" s="27"/>
       <c r="S96" s="27"/>
       <c r="T96" s="27"/>
-      <c r="U96" s="32"/>
-    </row>
-    <row r="97" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U96" s="27"/>
+      <c r="V96" s="32"/>
+    </row>
+    <row r="97" spans="1:22" ht="16.5" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="29"/>
@@ -6071,13 +6388,14 @@
       <c r="N97" s="27"/>
       <c r="O97" s="31"/>
       <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
+      <c r="Q97" s="55"/>
       <c r="R97" s="27"/>
       <c r="S97" s="27"/>
       <c r="T97" s="27"/>
-      <c r="U97" s="32"/>
-    </row>
-    <row r="98" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U97" s="27"/>
+      <c r="V97" s="32"/>
+    </row>
+    <row r="98" spans="1:22" ht="16.5" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="29"/>
@@ -6094,13 +6412,14 @@
       <c r="N98" s="27"/>
       <c r="O98" s="31"/>
       <c r="P98" s="27"/>
-      <c r="Q98" s="27"/>
+      <c r="Q98" s="55"/>
       <c r="R98" s="27"/>
       <c r="S98" s="27"/>
       <c r="T98" s="27"/>
-      <c r="U98" s="32"/>
-    </row>
-    <row r="99" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U98" s="27"/>
+      <c r="V98" s="32"/>
+    </row>
+    <row r="99" spans="1:22" ht="16.5" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="29"/>
@@ -6117,13 +6436,14 @@
       <c r="N99" s="27"/>
       <c r="O99" s="31"/>
       <c r="P99" s="27"/>
-      <c r="Q99" s="27"/>
+      <c r="Q99" s="55"/>
       <c r="R99" s="27"/>
       <c r="S99" s="27"/>
       <c r="T99" s="27"/>
-      <c r="U99" s="32"/>
-    </row>
-    <row r="100" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U99" s="27"/>
+      <c r="V99" s="32"/>
+    </row>
+    <row r="100" spans="1:22" ht="16.5" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="29"/>
@@ -6140,13 +6460,14 @@
       <c r="N100" s="27"/>
       <c r="O100" s="31"/>
       <c r="P100" s="27"/>
-      <c r="Q100" s="27"/>
+      <c r="Q100" s="55"/>
       <c r="R100" s="27"/>
       <c r="S100" s="27"/>
       <c r="T100" s="27"/>
-      <c r="U100" s="32"/>
-    </row>
-    <row r="101" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U100" s="27"/>
+      <c r="V100" s="32"/>
+    </row>
+    <row r="101" spans="1:22" ht="16.5" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="29"/>
@@ -6163,13 +6484,14 @@
       <c r="N101" s="27"/>
       <c r="O101" s="31"/>
       <c r="P101" s="27"/>
-      <c r="Q101" s="27"/>
+      <c r="Q101" s="55"/>
       <c r="R101" s="27"/>
       <c r="S101" s="27"/>
       <c r="T101" s="27"/>
-      <c r="U101" s="32"/>
-    </row>
-    <row r="102" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U101" s="27"/>
+      <c r="V101" s="32"/>
+    </row>
+    <row r="102" spans="1:22" ht="16.5" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="29"/>
@@ -6186,13 +6508,14 @@
       <c r="N102" s="27"/>
       <c r="O102" s="31"/>
       <c r="P102" s="27"/>
-      <c r="Q102" s="27"/>
+      <c r="Q102" s="55"/>
       <c r="R102" s="27"/>
       <c r="S102" s="27"/>
       <c r="T102" s="27"/>
-      <c r="U102" s="32"/>
-    </row>
-    <row r="103" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U102" s="27"/>
+      <c r="V102" s="32"/>
+    </row>
+    <row r="103" spans="1:22" ht="16.5" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="29"/>
@@ -6209,13 +6532,14 @@
       <c r="N103" s="27"/>
       <c r="O103" s="31"/>
       <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
+      <c r="Q103" s="55"/>
       <c r="R103" s="27"/>
       <c r="S103" s="27"/>
       <c r="T103" s="27"/>
-      <c r="U103" s="32"/>
-    </row>
-    <row r="104" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U103" s="27"/>
+      <c r="V103" s="32"/>
+    </row>
+    <row r="104" spans="1:22" ht="16.5" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="29"/>
@@ -6232,13 +6556,14 @@
       <c r="N104" s="27"/>
       <c r="O104" s="31"/>
       <c r="P104" s="27"/>
-      <c r="Q104" s="27"/>
+      <c r="Q104" s="55"/>
       <c r="R104" s="27"/>
       <c r="S104" s="27"/>
       <c r="T104" s="27"/>
-      <c r="U104" s="32"/>
-    </row>
-    <row r="105" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U104" s="27"/>
+      <c r="V104" s="32"/>
+    </row>
+    <row r="105" spans="1:22" ht="16.5" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="29"/>
@@ -6255,13 +6580,14 @@
       <c r="N105" s="27"/>
       <c r="O105" s="31"/>
       <c r="P105" s="27"/>
-      <c r="Q105" s="27"/>
+      <c r="Q105" s="55"/>
       <c r="R105" s="27"/>
       <c r="S105" s="27"/>
       <c r="T105" s="27"/>
-      <c r="U105" s="32"/>
-    </row>
-    <row r="106" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U105" s="27"/>
+      <c r="V105" s="32"/>
+    </row>
+    <row r="106" spans="1:22" ht="16.5" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="29"/>
@@ -6278,13 +6604,14 @@
       <c r="N106" s="27"/>
       <c r="O106" s="31"/>
       <c r="P106" s="27"/>
-      <c r="Q106" s="27"/>
+      <c r="Q106" s="55"/>
       <c r="R106" s="27"/>
       <c r="S106" s="27"/>
       <c r="T106" s="27"/>
-      <c r="U106" s="32"/>
-    </row>
-    <row r="107" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U106" s="27"/>
+      <c r="V106" s="32"/>
+    </row>
+    <row r="107" spans="1:22" ht="16.5" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="29"/>
@@ -6301,13 +6628,14 @@
       <c r="N107" s="27"/>
       <c r="O107" s="31"/>
       <c r="P107" s="27"/>
-      <c r="Q107" s="27"/>
+      <c r="Q107" s="55"/>
       <c r="R107" s="27"/>
       <c r="S107" s="27"/>
       <c r="T107" s="27"/>
-      <c r="U107" s="32"/>
-    </row>
-    <row r="108" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U107" s="27"/>
+      <c r="V107" s="32"/>
+    </row>
+    <row r="108" spans="1:22" ht="16.5" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="29"/>
@@ -6324,13 +6652,14 @@
       <c r="N108" s="27"/>
       <c r="O108" s="31"/>
       <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
+      <c r="Q108" s="55"/>
       <c r="R108" s="27"/>
       <c r="S108" s="27"/>
       <c r="T108" s="27"/>
-      <c r="U108" s="32"/>
-    </row>
-    <row r="109" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U108" s="27"/>
+      <c r="V108" s="32"/>
+    </row>
+    <row r="109" spans="1:22" ht="16.5" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="29"/>
@@ -6347,13 +6676,14 @@
       <c r="N109" s="27"/>
       <c r="O109" s="31"/>
       <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
+      <c r="Q109" s="55"/>
       <c r="R109" s="27"/>
       <c r="S109" s="27"/>
       <c r="T109" s="27"/>
-      <c r="U109" s="32"/>
-    </row>
-    <row r="110" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U109" s="27"/>
+      <c r="V109" s="32"/>
+    </row>
+    <row r="110" spans="1:22" ht="16.5" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="29"/>
@@ -6370,13 +6700,14 @@
       <c r="N110" s="27"/>
       <c r="O110" s="31"/>
       <c r="P110" s="27"/>
-      <c r="Q110" s="27"/>
+      <c r="Q110" s="55"/>
       <c r="R110" s="27"/>
       <c r="S110" s="27"/>
       <c r="T110" s="27"/>
-      <c r="U110" s="32"/>
-    </row>
-    <row r="111" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U110" s="27"/>
+      <c r="V110" s="32"/>
+    </row>
+    <row r="111" spans="1:22" ht="16.5" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="29"/>
@@ -6393,13 +6724,14 @@
       <c r="N111" s="27"/>
       <c r="O111" s="31"/>
       <c r="P111" s="27"/>
-      <c r="Q111" s="27"/>
+      <c r="Q111" s="55"/>
       <c r="R111" s="27"/>
       <c r="S111" s="27"/>
       <c r="T111" s="27"/>
-      <c r="U111" s="32"/>
-    </row>
-    <row r="112" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U111" s="27"/>
+      <c r="V111" s="32"/>
+    </row>
+    <row r="112" spans="1:22" ht="16.5" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="29"/>
@@ -6416,13 +6748,14 @@
       <c r="N112" s="27"/>
       <c r="O112" s="31"/>
       <c r="P112" s="27"/>
-      <c r="Q112" s="27"/>
+      <c r="Q112" s="55"/>
       <c r="R112" s="27"/>
       <c r="S112" s="27"/>
       <c r="T112" s="27"/>
-      <c r="U112" s="32"/>
-    </row>
-    <row r="113" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U112" s="27"/>
+      <c r="V112" s="32"/>
+    </row>
+    <row r="113" spans="1:22" ht="16.5" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="29"/>
@@ -6439,13 +6772,14 @@
       <c r="N113" s="27"/>
       <c r="O113" s="31"/>
       <c r="P113" s="27"/>
-      <c r="Q113" s="27"/>
+      <c r="Q113" s="55"/>
       <c r="R113" s="27"/>
       <c r="S113" s="27"/>
       <c r="T113" s="27"/>
-      <c r="U113" s="32"/>
-    </row>
-    <row r="114" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U113" s="27"/>
+      <c r="V113" s="32"/>
+    </row>
+    <row r="114" spans="1:22" ht="16.5" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="29"/>
@@ -6462,13 +6796,14 @@
       <c r="N114" s="27"/>
       <c r="O114" s="31"/>
       <c r="P114" s="27"/>
-      <c r="Q114" s="27"/>
+      <c r="Q114" s="55"/>
       <c r="R114" s="27"/>
       <c r="S114" s="27"/>
       <c r="T114" s="27"/>
-      <c r="U114" s="32"/>
-    </row>
-    <row r="115" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U114" s="27"/>
+      <c r="V114" s="32"/>
+    </row>
+    <row r="115" spans="1:22" ht="16.5" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="29"/>
@@ -6485,13 +6820,14 @@
       <c r="N115" s="27"/>
       <c r="O115" s="31"/>
       <c r="P115" s="27"/>
-      <c r="Q115" s="27"/>
+      <c r="Q115" s="55"/>
       <c r="R115" s="27"/>
       <c r="S115" s="27"/>
       <c r="T115" s="27"/>
-      <c r="U115" s="32"/>
-    </row>
-    <row r="116" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U115" s="27"/>
+      <c r="V115" s="32"/>
+    </row>
+    <row r="116" spans="1:22" ht="16.5" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="29"/>
@@ -6508,13 +6844,14 @@
       <c r="N116" s="27"/>
       <c r="O116" s="31"/>
       <c r="P116" s="27"/>
-      <c r="Q116" s="27"/>
+      <c r="Q116" s="55"/>
       <c r="R116" s="27"/>
       <c r="S116" s="27"/>
       <c r="T116" s="27"/>
-      <c r="U116" s="32"/>
-    </row>
-    <row r="117" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U116" s="27"/>
+      <c r="V116" s="32"/>
+    </row>
+    <row r="117" spans="1:22" ht="16.5" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
       <c r="C117" s="29"/>
@@ -6531,13 +6868,14 @@
       <c r="N117" s="27"/>
       <c r="O117" s="31"/>
       <c r="P117" s="27"/>
-      <c r="Q117" s="27"/>
+      <c r="Q117" s="55"/>
       <c r="R117" s="27"/>
       <c r="S117" s="27"/>
       <c r="T117" s="27"/>
-      <c r="U117" s="32"/>
-    </row>
-    <row r="118" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U117" s="27"/>
+      <c r="V117" s="32"/>
+    </row>
+    <row r="118" spans="1:22" ht="16.5" customHeight="1">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
       <c r="C118" s="29"/>
@@ -6554,13 +6892,14 @@
       <c r="N118" s="27"/>
       <c r="O118" s="31"/>
       <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
+      <c r="Q118" s="55"/>
       <c r="R118" s="27"/>
       <c r="S118" s="27"/>
       <c r="T118" s="27"/>
-      <c r="U118" s="32"/>
-    </row>
-    <row r="119" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U118" s="27"/>
+      <c r="V118" s="32"/>
+    </row>
+    <row r="119" spans="1:22" ht="16.5" customHeight="1">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
       <c r="C119" s="29"/>
@@ -6577,13 +6916,14 @@
       <c r="N119" s="27"/>
       <c r="O119" s="31"/>
       <c r="P119" s="27"/>
-      <c r="Q119" s="27"/>
+      <c r="Q119" s="55"/>
       <c r="R119" s="27"/>
       <c r="S119" s="27"/>
       <c r="T119" s="27"/>
-      <c r="U119" s="32"/>
-    </row>
-    <row r="120" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U119" s="27"/>
+      <c r="V119" s="32"/>
+    </row>
+    <row r="120" spans="1:22" ht="16.5" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
       <c r="C120" s="29"/>
@@ -6600,13 +6940,14 @@
       <c r="N120" s="27"/>
       <c r="O120" s="31"/>
       <c r="P120" s="27"/>
-      <c r="Q120" s="27"/>
+      <c r="Q120" s="55"/>
       <c r="R120" s="27"/>
       <c r="S120" s="27"/>
       <c r="T120" s="27"/>
-      <c r="U120" s="32"/>
-    </row>
-    <row r="121" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U120" s="27"/>
+      <c r="V120" s="32"/>
+    </row>
+    <row r="121" spans="1:22" ht="16.5" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="29"/>
@@ -6623,13 +6964,14 @@
       <c r="N121" s="27"/>
       <c r="O121" s="31"/>
       <c r="P121" s="27"/>
-      <c r="Q121" s="27"/>
+      <c r="Q121" s="55"/>
       <c r="R121" s="27"/>
       <c r="S121" s="27"/>
       <c r="T121" s="27"/>
-      <c r="U121" s="32"/>
-    </row>
-    <row r="122" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U121" s="27"/>
+      <c r="V121" s="32"/>
+    </row>
+    <row r="122" spans="1:22" ht="16.5" customHeight="1">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
       <c r="C122" s="29"/>
@@ -6646,13 +6988,14 @@
       <c r="N122" s="27"/>
       <c r="O122" s="31"/>
       <c r="P122" s="27"/>
-      <c r="Q122" s="27"/>
+      <c r="Q122" s="55"/>
       <c r="R122" s="27"/>
       <c r="S122" s="27"/>
       <c r="T122" s="27"/>
-      <c r="U122" s="32"/>
-    </row>
-    <row r="123" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U122" s="27"/>
+      <c r="V122" s="32"/>
+    </row>
+    <row r="123" spans="1:22" ht="16.5" customHeight="1">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
       <c r="C123" s="29"/>
@@ -6669,13 +7012,14 @@
       <c r="N123" s="27"/>
       <c r="O123" s="31"/>
       <c r="P123" s="27"/>
-      <c r="Q123" s="27"/>
+      <c r="Q123" s="55"/>
       <c r="R123" s="27"/>
       <c r="S123" s="27"/>
       <c r="T123" s="27"/>
-      <c r="U123" s="32"/>
-    </row>
-    <row r="124" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U123" s="27"/>
+      <c r="V123" s="32"/>
+    </row>
+    <row r="124" spans="1:22" ht="16.5" customHeight="1">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
       <c r="C124" s="29"/>
@@ -6692,13 +7036,14 @@
       <c r="N124" s="27"/>
       <c r="O124" s="31"/>
       <c r="P124" s="27"/>
-      <c r="Q124" s="27"/>
+      <c r="Q124" s="55"/>
       <c r="R124" s="27"/>
       <c r="S124" s="27"/>
       <c r="T124" s="27"/>
-      <c r="U124" s="32"/>
-    </row>
-    <row r="125" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U124" s="27"/>
+      <c r="V124" s="32"/>
+    </row>
+    <row r="125" spans="1:22" ht="16.5" customHeight="1">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
       <c r="C125" s="29"/>
@@ -6715,13 +7060,14 @@
       <c r="N125" s="27"/>
       <c r="O125" s="31"/>
       <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
+      <c r="Q125" s="55"/>
       <c r="R125" s="27"/>
       <c r="S125" s="27"/>
       <c r="T125" s="27"/>
-      <c r="U125" s="32"/>
-    </row>
-    <row r="126" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U125" s="27"/>
+      <c r="V125" s="32"/>
+    </row>
+    <row r="126" spans="1:22" ht="16.5" customHeight="1">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
       <c r="C126" s="29"/>
@@ -6738,13 +7084,14 @@
       <c r="N126" s="27"/>
       <c r="O126" s="31"/>
       <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
+      <c r="Q126" s="55"/>
       <c r="R126" s="27"/>
       <c r="S126" s="27"/>
       <c r="T126" s="27"/>
-      <c r="U126" s="32"/>
-    </row>
-    <row r="127" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U126" s="27"/>
+      <c r="V126" s="32"/>
+    </row>
+    <row r="127" spans="1:22" ht="16.5" customHeight="1">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
       <c r="C127" s="29"/>
@@ -6761,13 +7108,14 @@
       <c r="N127" s="27"/>
       <c r="O127" s="31"/>
       <c r="P127" s="27"/>
-      <c r="Q127" s="27"/>
+      <c r="Q127" s="55"/>
       <c r="R127" s="27"/>
       <c r="S127" s="27"/>
       <c r="T127" s="27"/>
-      <c r="U127" s="32"/>
-    </row>
-    <row r="128" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U127" s="27"/>
+      <c r="V127" s="32"/>
+    </row>
+    <row r="128" spans="1:22" ht="16.5" customHeight="1">
       <c r="A128" s="27"/>
       <c r="B128" s="27"/>
       <c r="C128" s="29"/>
@@ -6784,13 +7132,14 @@
       <c r="N128" s="27"/>
       <c r="O128" s="31"/>
       <c r="P128" s="27"/>
-      <c r="Q128" s="27"/>
+      <c r="Q128" s="55"/>
       <c r="R128" s="27"/>
       <c r="S128" s="27"/>
       <c r="T128" s="27"/>
-      <c r="U128" s="32"/>
-    </row>
-    <row r="129" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U128" s="27"/>
+      <c r="V128" s="32"/>
+    </row>
+    <row r="129" spans="1:22" ht="16.5" customHeight="1">
       <c r="A129" s="27"/>
       <c r="B129" s="27"/>
       <c r="C129" s="29"/>
@@ -6807,13 +7156,14 @@
       <c r="N129" s="27"/>
       <c r="O129" s="31"/>
       <c r="P129" s="27"/>
-      <c r="Q129" s="27"/>
+      <c r="Q129" s="55"/>
       <c r="R129" s="27"/>
       <c r="S129" s="27"/>
       <c r="T129" s="27"/>
-      <c r="U129" s="32"/>
-    </row>
-    <row r="130" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U129" s="27"/>
+      <c r="V129" s="32"/>
+    </row>
+    <row r="130" spans="1:22" ht="16.5" customHeight="1">
       <c r="A130" s="27"/>
       <c r="B130" s="27"/>
       <c r="C130" s="29"/>
@@ -6830,13 +7180,14 @@
       <c r="N130" s="27"/>
       <c r="O130" s="31"/>
       <c r="P130" s="27"/>
-      <c r="Q130" s="27"/>
+      <c r="Q130" s="55"/>
       <c r="R130" s="27"/>
       <c r="S130" s="27"/>
       <c r="T130" s="27"/>
-      <c r="U130" s="32"/>
-    </row>
-    <row r="131" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U130" s="27"/>
+      <c r="V130" s="32"/>
+    </row>
+    <row r="131" spans="1:22" ht="16.5" customHeight="1">
       <c r="A131" s="27"/>
       <c r="B131" s="27"/>
       <c r="C131" s="29"/>
@@ -6853,13 +7204,14 @@
       <c r="N131" s="27"/>
       <c r="O131" s="31"/>
       <c r="P131" s="27"/>
-      <c r="Q131" s="27"/>
+      <c r="Q131" s="55"/>
       <c r="R131" s="27"/>
       <c r="S131" s="27"/>
       <c r="T131" s="27"/>
-      <c r="U131" s="32"/>
-    </row>
-    <row r="132" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U131" s="27"/>
+      <c r="V131" s="32"/>
+    </row>
+    <row r="132" spans="1:22" ht="16.5" customHeight="1">
       <c r="A132" s="27"/>
       <c r="B132" s="27"/>
       <c r="C132" s="29"/>
@@ -6876,13 +7228,14 @@
       <c r="N132" s="27"/>
       <c r="O132" s="31"/>
       <c r="P132" s="27"/>
-      <c r="Q132" s="27"/>
+      <c r="Q132" s="55"/>
       <c r="R132" s="27"/>
       <c r="S132" s="27"/>
       <c r="T132" s="27"/>
-      <c r="U132" s="32"/>
-    </row>
-    <row r="133" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U132" s="27"/>
+      <c r="V132" s="32"/>
+    </row>
+    <row r="133" spans="1:22" ht="16.5" customHeight="1">
       <c r="A133" s="27"/>
       <c r="B133" s="27"/>
       <c r="C133" s="29"/>
@@ -6899,13 +7252,14 @@
       <c r="N133" s="27"/>
       <c r="O133" s="31"/>
       <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
+      <c r="Q133" s="55"/>
       <c r="R133" s="27"/>
       <c r="S133" s="27"/>
       <c r="T133" s="27"/>
-      <c r="U133" s="32"/>
-    </row>
-    <row r="134" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U133" s="27"/>
+      <c r="V133" s="32"/>
+    </row>
+    <row r="134" spans="1:22" ht="16.5" customHeight="1">
       <c r="A134" s="27"/>
       <c r="B134" s="27"/>
       <c r="C134" s="29"/>
@@ -6922,13 +7276,14 @@
       <c r="N134" s="27"/>
       <c r="O134" s="31"/>
       <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
+      <c r="Q134" s="55"/>
       <c r="R134" s="27"/>
       <c r="S134" s="27"/>
       <c r="T134" s="27"/>
-      <c r="U134" s="32"/>
-    </row>
-    <row r="135" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U134" s="27"/>
+      <c r="V134" s="32"/>
+    </row>
+    <row r="135" spans="1:22" ht="16.5" customHeight="1">
       <c r="A135" s="27"/>
       <c r="B135" s="27"/>
       <c r="C135" s="29"/>
@@ -6945,13 +7300,14 @@
       <c r="N135" s="27"/>
       <c r="O135" s="31"/>
       <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
+      <c r="Q135" s="55"/>
       <c r="R135" s="27"/>
       <c r="S135" s="27"/>
       <c r="T135" s="27"/>
-      <c r="U135" s="32"/>
-    </row>
-    <row r="136" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U135" s="27"/>
+      <c r="V135" s="32"/>
+    </row>
+    <row r="136" spans="1:22" ht="16.5" customHeight="1">
       <c r="A136" s="27"/>
       <c r="B136" s="27"/>
       <c r="C136" s="29"/>
@@ -6968,13 +7324,14 @@
       <c r="N136" s="27"/>
       <c r="O136" s="31"/>
       <c r="P136" s="27"/>
-      <c r="Q136" s="27"/>
+      <c r="Q136" s="55"/>
       <c r="R136" s="27"/>
       <c r="S136" s="27"/>
       <c r="T136" s="27"/>
-      <c r="U136" s="32"/>
-    </row>
-    <row r="137" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U136" s="27"/>
+      <c r="V136" s="32"/>
+    </row>
+    <row r="137" spans="1:22" ht="16.5" customHeight="1">
       <c r="A137" s="27"/>
       <c r="B137" s="27"/>
       <c r="C137" s="29"/>
@@ -6991,13 +7348,14 @@
       <c r="N137" s="27"/>
       <c r="O137" s="31"/>
       <c r="P137" s="27"/>
-      <c r="Q137" s="27"/>
+      <c r="Q137" s="55"/>
       <c r="R137" s="27"/>
       <c r="S137" s="27"/>
       <c r="T137" s="27"/>
-      <c r="U137" s="32"/>
-    </row>
-    <row r="138" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U137" s="27"/>
+      <c r="V137" s="32"/>
+    </row>
+    <row r="138" spans="1:22" ht="16.5" customHeight="1">
       <c r="A138" s="27"/>
       <c r="B138" s="27"/>
       <c r="C138" s="29"/>
@@ -7014,13 +7372,14 @@
       <c r="N138" s="27"/>
       <c r="O138" s="31"/>
       <c r="P138" s="27"/>
-      <c r="Q138" s="27"/>
+      <c r="Q138" s="55"/>
       <c r="R138" s="27"/>
       <c r="S138" s="27"/>
       <c r="T138" s="27"/>
-      <c r="U138" s="32"/>
-    </row>
-    <row r="139" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U138" s="27"/>
+      <c r="V138" s="32"/>
+    </row>
+    <row r="139" spans="1:22" ht="16.5" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="27"/>
       <c r="C139" s="29"/>
@@ -7037,13 +7396,14 @@
       <c r="N139" s="27"/>
       <c r="O139" s="31"/>
       <c r="P139" s="27"/>
-      <c r="Q139" s="27"/>
+      <c r="Q139" s="55"/>
       <c r="R139" s="27"/>
       <c r="S139" s="27"/>
       <c r="T139" s="27"/>
-      <c r="U139" s="32"/>
-    </row>
-    <row r="140" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U139" s="27"/>
+      <c r="V139" s="32"/>
+    </row>
+    <row r="140" spans="1:22" ht="16.5" customHeight="1">
       <c r="A140" s="27"/>
       <c r="B140" s="27"/>
       <c r="C140" s="29"/>
@@ -7060,13 +7420,14 @@
       <c r="N140" s="27"/>
       <c r="O140" s="31"/>
       <c r="P140" s="27"/>
-      <c r="Q140" s="27"/>
+      <c r="Q140" s="55"/>
       <c r="R140" s="27"/>
       <c r="S140" s="27"/>
       <c r="T140" s="27"/>
-      <c r="U140" s="32"/>
-    </row>
-    <row r="141" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U140" s="27"/>
+      <c r="V140" s="32"/>
+    </row>
+    <row r="141" spans="1:22" ht="16.5" customHeight="1">
       <c r="A141" s="27"/>
       <c r="B141" s="27"/>
       <c r="C141" s="29"/>
@@ -7083,13 +7444,14 @@
       <c r="N141" s="27"/>
       <c r="O141" s="31"/>
       <c r="P141" s="27"/>
-      <c r="Q141" s="27"/>
+      <c r="Q141" s="55"/>
       <c r="R141" s="27"/>
       <c r="S141" s="27"/>
       <c r="T141" s="27"/>
-      <c r="U141" s="32"/>
-    </row>
-    <row r="142" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U141" s="27"/>
+      <c r="V141" s="32"/>
+    </row>
+    <row r="142" spans="1:22" ht="16.5" customHeight="1">
       <c r="A142" s="27"/>
       <c r="B142" s="27"/>
       <c r="C142" s="29"/>
@@ -7106,13 +7468,14 @@
       <c r="N142" s="27"/>
       <c r="O142" s="31"/>
       <c r="P142" s="27"/>
-      <c r="Q142" s="27"/>
+      <c r="Q142" s="55"/>
       <c r="R142" s="27"/>
       <c r="S142" s="27"/>
       <c r="T142" s="27"/>
-      <c r="U142" s="32"/>
-    </row>
-    <row r="143" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U142" s="27"/>
+      <c r="V142" s="32"/>
+    </row>
+    <row r="143" spans="1:22" ht="16.5" customHeight="1">
       <c r="A143" s="27"/>
       <c r="B143" s="27"/>
       <c r="C143" s="29"/>
@@ -7129,13 +7492,14 @@
       <c r="N143" s="27"/>
       <c r="O143" s="31"/>
       <c r="P143" s="27"/>
-      <c r="Q143" s="27"/>
+      <c r="Q143" s="55"/>
       <c r="R143" s="27"/>
       <c r="S143" s="27"/>
       <c r="T143" s="27"/>
-      <c r="U143" s="32"/>
-    </row>
-    <row r="144" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U143" s="27"/>
+      <c r="V143" s="32"/>
+    </row>
+    <row r="144" spans="1:22" ht="16.5" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
       <c r="C144" s="29"/>
@@ -7152,13 +7516,14 @@
       <c r="N144" s="27"/>
       <c r="O144" s="31"/>
       <c r="P144" s="27"/>
-      <c r="Q144" s="27"/>
+      <c r="Q144" s="55"/>
       <c r="R144" s="27"/>
       <c r="S144" s="27"/>
       <c r="T144" s="27"/>
-      <c r="U144" s="32"/>
-    </row>
-    <row r="145" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U144" s="27"/>
+      <c r="V144" s="32"/>
+    </row>
+    <row r="145" spans="1:22" ht="16.5" customHeight="1">
       <c r="A145" s="27"/>
       <c r="B145" s="27"/>
       <c r="C145" s="29"/>
@@ -7175,13 +7540,14 @@
       <c r="N145" s="27"/>
       <c r="O145" s="31"/>
       <c r="P145" s="27"/>
-      <c r="Q145" s="27"/>
+      <c r="Q145" s="55"/>
       <c r="R145" s="27"/>
       <c r="S145" s="27"/>
       <c r="T145" s="27"/>
-      <c r="U145" s="32"/>
-    </row>
-    <row r="146" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U145" s="27"/>
+      <c r="V145" s="32"/>
+    </row>
+    <row r="146" spans="1:22" ht="16.5" customHeight="1">
       <c r="A146" s="27"/>
       <c r="B146" s="27"/>
       <c r="C146" s="29"/>
@@ -7198,13 +7564,14 @@
       <c r="N146" s="27"/>
       <c r="O146" s="31"/>
       <c r="P146" s="27"/>
-      <c r="Q146" s="27"/>
+      <c r="Q146" s="55"/>
       <c r="R146" s="27"/>
       <c r="S146" s="27"/>
       <c r="T146" s="27"/>
-      <c r="U146" s="32"/>
-    </row>
-    <row r="147" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U146" s="27"/>
+      <c r="V146" s="32"/>
+    </row>
+    <row r="147" spans="1:22" ht="16.5" customHeight="1">
       <c r="A147" s="27"/>
       <c r="B147" s="27"/>
       <c r="C147" s="29"/>
@@ -7221,13 +7588,14 @@
       <c r="N147" s="27"/>
       <c r="O147" s="31"/>
       <c r="P147" s="27"/>
-      <c r="Q147" s="27"/>
+      <c r="Q147" s="55"/>
       <c r="R147" s="27"/>
       <c r="S147" s="27"/>
       <c r="T147" s="27"/>
-      <c r="U147" s="32"/>
-    </row>
-    <row r="148" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U147" s="27"/>
+      <c r="V147" s="32"/>
+    </row>
+    <row r="148" spans="1:22" ht="16.5" customHeight="1">
       <c r="A148" s="27"/>
       <c r="B148" s="27"/>
       <c r="C148" s="29"/>
@@ -7244,13 +7612,14 @@
       <c r="N148" s="27"/>
       <c r="O148" s="31"/>
       <c r="P148" s="27"/>
-      <c r="Q148" s="27"/>
+      <c r="Q148" s="55"/>
       <c r="R148" s="27"/>
       <c r="S148" s="27"/>
       <c r="T148" s="27"/>
-      <c r="U148" s="32"/>
-    </row>
-    <row r="149" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U148" s="27"/>
+      <c r="V148" s="32"/>
+    </row>
+    <row r="149" spans="1:22" ht="16.5" customHeight="1">
       <c r="A149" s="27"/>
       <c r="B149" s="27"/>
       <c r="C149" s="29"/>
@@ -7267,13 +7636,14 @@
       <c r="N149" s="27"/>
       <c r="O149" s="31"/>
       <c r="P149" s="27"/>
-      <c r="Q149" s="27"/>
+      <c r="Q149" s="55"/>
       <c r="R149" s="27"/>
       <c r="S149" s="27"/>
       <c r="T149" s="27"/>
-      <c r="U149" s="32"/>
-    </row>
-    <row r="150" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U149" s="27"/>
+      <c r="V149" s="32"/>
+    </row>
+    <row r="150" spans="1:22" ht="16.5" customHeight="1">
       <c r="A150" s="27"/>
       <c r="B150" s="27"/>
       <c r="C150" s="29"/>
@@ -7290,13 +7660,14 @@
       <c r="N150" s="27"/>
       <c r="O150" s="31"/>
       <c r="P150" s="27"/>
-      <c r="Q150" s="27"/>
+      <c r="Q150" s="55"/>
       <c r="R150" s="27"/>
       <c r="S150" s="27"/>
       <c r="T150" s="27"/>
-      <c r="U150" s="32"/>
-    </row>
-    <row r="151" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U150" s="27"/>
+      <c r="V150" s="32"/>
+    </row>
+    <row r="151" spans="1:22" ht="16.5" customHeight="1">
       <c r="A151" s="27"/>
       <c r="B151" s="27"/>
       <c r="C151" s="29"/>
@@ -7313,13 +7684,14 @@
       <c r="N151" s="27"/>
       <c r="O151" s="31"/>
       <c r="P151" s="27"/>
-      <c r="Q151" s="27"/>
+      <c r="Q151" s="55"/>
       <c r="R151" s="27"/>
       <c r="S151" s="27"/>
       <c r="T151" s="27"/>
-      <c r="U151" s="32"/>
-    </row>
-    <row r="152" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U151" s="27"/>
+      <c r="V151" s="32"/>
+    </row>
+    <row r="152" spans="1:22" ht="16.5" customHeight="1">
       <c r="A152" s="27"/>
       <c r="B152" s="27"/>
       <c r="C152" s="29"/>
@@ -7336,13 +7708,14 @@
       <c r="N152" s="27"/>
       <c r="O152" s="31"/>
       <c r="P152" s="27"/>
-      <c r="Q152" s="27"/>
+      <c r="Q152" s="55"/>
       <c r="R152" s="27"/>
       <c r="S152" s="27"/>
       <c r="T152" s="27"/>
-      <c r="U152" s="32"/>
-    </row>
-    <row r="153" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U152" s="27"/>
+      <c r="V152" s="32"/>
+    </row>
+    <row r="153" spans="1:22" ht="16.5" customHeight="1">
       <c r="A153" s="27"/>
       <c r="B153" s="27"/>
       <c r="C153" s="29"/>
@@ -7359,13 +7732,14 @@
       <c r="N153" s="27"/>
       <c r="O153" s="31"/>
       <c r="P153" s="27"/>
-      <c r="Q153" s="27"/>
+      <c r="Q153" s="55"/>
       <c r="R153" s="27"/>
       <c r="S153" s="27"/>
       <c r="T153" s="27"/>
-      <c r="U153" s="32"/>
-    </row>
-    <row r="154" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U153" s="27"/>
+      <c r="V153" s="32"/>
+    </row>
+    <row r="154" spans="1:22" ht="16.5" customHeight="1">
       <c r="A154" s="27"/>
       <c r="B154" s="27"/>
       <c r="C154" s="29"/>
@@ -7382,13 +7756,14 @@
       <c r="N154" s="27"/>
       <c r="O154" s="31"/>
       <c r="P154" s="27"/>
-      <c r="Q154" s="27"/>
+      <c r="Q154" s="55"/>
       <c r="R154" s="27"/>
       <c r="S154" s="27"/>
       <c r="T154" s="27"/>
-      <c r="U154" s="32"/>
-    </row>
-    <row r="155" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U154" s="27"/>
+      <c r="V154" s="32"/>
+    </row>
+    <row r="155" spans="1:22" ht="16.5" customHeight="1">
       <c r="A155" s="27"/>
       <c r="B155" s="27"/>
       <c r="C155" s="29"/>
@@ -7405,13 +7780,14 @@
       <c r="N155" s="27"/>
       <c r="O155" s="31"/>
       <c r="P155" s="27"/>
-      <c r="Q155" s="27"/>
+      <c r="Q155" s="55"/>
       <c r="R155" s="27"/>
       <c r="S155" s="27"/>
       <c r="T155" s="27"/>
-      <c r="U155" s="32"/>
-    </row>
-    <row r="156" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U155" s="27"/>
+      <c r="V155" s="32"/>
+    </row>
+    <row r="156" spans="1:22" ht="16.5" customHeight="1">
       <c r="A156" s="27"/>
       <c r="B156" s="27"/>
       <c r="C156" s="29"/>
@@ -7428,13 +7804,14 @@
       <c r="N156" s="27"/>
       <c r="O156" s="31"/>
       <c r="P156" s="27"/>
-      <c r="Q156" s="27"/>
+      <c r="Q156" s="55"/>
       <c r="R156" s="27"/>
       <c r="S156" s="27"/>
       <c r="T156" s="27"/>
-      <c r="U156" s="32"/>
-    </row>
-    <row r="157" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U156" s="27"/>
+      <c r="V156" s="32"/>
+    </row>
+    <row r="157" spans="1:22" ht="16.5" customHeight="1">
       <c r="A157" s="27"/>
       <c r="B157" s="27"/>
       <c r="C157" s="29"/>
@@ -7451,13 +7828,14 @@
       <c r="N157" s="27"/>
       <c r="O157" s="31"/>
       <c r="P157" s="27"/>
-      <c r="Q157" s="27"/>
+      <c r="Q157" s="55"/>
       <c r="R157" s="27"/>
       <c r="S157" s="27"/>
       <c r="T157" s="27"/>
-      <c r="U157" s="32"/>
-    </row>
-    <row r="158" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U157" s="27"/>
+      <c r="V157" s="32"/>
+    </row>
+    <row r="158" spans="1:22" ht="16.5" customHeight="1">
       <c r="A158" s="27"/>
       <c r="B158" s="27"/>
       <c r="C158" s="29"/>
@@ -7474,13 +7852,14 @@
       <c r="N158" s="27"/>
       <c r="O158" s="31"/>
       <c r="P158" s="27"/>
-      <c r="Q158" s="27"/>
+      <c r="Q158" s="55"/>
       <c r="R158" s="27"/>
       <c r="S158" s="27"/>
       <c r="T158" s="27"/>
-      <c r="U158" s="32"/>
-    </row>
-    <row r="159" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U158" s="27"/>
+      <c r="V158" s="32"/>
+    </row>
+    <row r="159" spans="1:22" ht="16.5" customHeight="1">
       <c r="A159" s="27"/>
       <c r="B159" s="27"/>
       <c r="C159" s="29"/>
@@ -7497,13 +7876,14 @@
       <c r="N159" s="27"/>
       <c r="O159" s="31"/>
       <c r="P159" s="27"/>
-      <c r="Q159" s="27"/>
+      <c r="Q159" s="55"/>
       <c r="R159" s="27"/>
       <c r="S159" s="27"/>
       <c r="T159" s="27"/>
-      <c r="U159" s="32"/>
-    </row>
-    <row r="160" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U159" s="27"/>
+      <c r="V159" s="32"/>
+    </row>
+    <row r="160" spans="1:22" ht="16.5" customHeight="1">
       <c r="A160" s="27"/>
       <c r="B160" s="27"/>
       <c r="C160" s="29"/>
@@ -7520,13 +7900,14 @@
       <c r="N160" s="27"/>
       <c r="O160" s="31"/>
       <c r="P160" s="27"/>
-      <c r="Q160" s="27"/>
+      <c r="Q160" s="55"/>
       <c r="R160" s="27"/>
       <c r="S160" s="27"/>
       <c r="T160" s="27"/>
-      <c r="U160" s="32"/>
-    </row>
-    <row r="161" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U160" s="27"/>
+      <c r="V160" s="32"/>
+    </row>
+    <row r="161" spans="1:22" ht="16.5" customHeight="1">
       <c r="A161" s="27"/>
       <c r="B161" s="27"/>
       <c r="C161" s="29"/>
@@ -7543,13 +7924,14 @@
       <c r="N161" s="27"/>
       <c r="O161" s="31"/>
       <c r="P161" s="27"/>
-      <c r="Q161" s="27"/>
+      <c r="Q161" s="55"/>
       <c r="R161" s="27"/>
       <c r="S161" s="27"/>
       <c r="T161" s="27"/>
-      <c r="U161" s="32"/>
-    </row>
-    <row r="162" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U161" s="27"/>
+      <c r="V161" s="32"/>
+    </row>
+    <row r="162" spans="1:22" ht="16.5" customHeight="1">
       <c r="A162" s="27"/>
       <c r="B162" s="27"/>
       <c r="C162" s="29"/>
@@ -7566,13 +7948,14 @@
       <c r="N162" s="27"/>
       <c r="O162" s="31"/>
       <c r="P162" s="27"/>
-      <c r="Q162" s="27"/>
+      <c r="Q162" s="55"/>
       <c r="R162" s="27"/>
       <c r="S162" s="27"/>
       <c r="T162" s="27"/>
-      <c r="U162" s="32"/>
-    </row>
-    <row r="163" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U162" s="27"/>
+      <c r="V162" s="32"/>
+    </row>
+    <row r="163" spans="1:22" ht="16.5" customHeight="1">
       <c r="A163" s="27"/>
       <c r="B163" s="27"/>
       <c r="C163" s="29"/>
@@ -7589,13 +7972,14 @@
       <c r="N163" s="27"/>
       <c r="O163" s="31"/>
       <c r="P163" s="27"/>
-      <c r="Q163" s="27"/>
+      <c r="Q163" s="55"/>
       <c r="R163" s="27"/>
       <c r="S163" s="27"/>
       <c r="T163" s="27"/>
-      <c r="U163" s="32"/>
-    </row>
-    <row r="164" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U163" s="27"/>
+      <c r="V163" s="32"/>
+    </row>
+    <row r="164" spans="1:22" ht="16.5" customHeight="1">
       <c r="A164" s="27"/>
       <c r="B164" s="27"/>
       <c r="C164" s="29"/>
@@ -7612,13 +7996,14 @@
       <c r="N164" s="27"/>
       <c r="O164" s="31"/>
       <c r="P164" s="27"/>
-      <c r="Q164" s="27"/>
+      <c r="Q164" s="55"/>
       <c r="R164" s="27"/>
       <c r="S164" s="27"/>
       <c r="T164" s="27"/>
-      <c r="U164" s="32"/>
-    </row>
-    <row r="165" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U164" s="27"/>
+      <c r="V164" s="32"/>
+    </row>
+    <row r="165" spans="1:22" ht="16.5" customHeight="1">
       <c r="A165" s="27"/>
       <c r="B165" s="27"/>
       <c r="C165" s="29"/>
@@ -7635,13 +8020,14 @@
       <c r="N165" s="27"/>
       <c r="O165" s="31"/>
       <c r="P165" s="27"/>
-      <c r="Q165" s="27"/>
+      <c r="Q165" s="55"/>
       <c r="R165" s="27"/>
       <c r="S165" s="27"/>
       <c r="T165" s="27"/>
-      <c r="U165" s="32"/>
-    </row>
-    <row r="166" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U165" s="27"/>
+      <c r="V165" s="32"/>
+    </row>
+    <row r="166" spans="1:22" ht="16.5" customHeight="1">
       <c r="A166" s="27"/>
       <c r="B166" s="27"/>
       <c r="C166" s="29"/>
@@ -7658,13 +8044,14 @@
       <c r="N166" s="27"/>
       <c r="O166" s="31"/>
       <c r="P166" s="27"/>
-      <c r="Q166" s="27"/>
+      <c r="Q166" s="55"/>
       <c r="R166" s="27"/>
       <c r="S166" s="27"/>
       <c r="T166" s="27"/>
-      <c r="U166" s="32"/>
-    </row>
-    <row r="167" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U166" s="27"/>
+      <c r="V166" s="32"/>
+    </row>
+    <row r="167" spans="1:22" ht="16.5" customHeight="1">
       <c r="A167" s="27"/>
       <c r="B167" s="27"/>
       <c r="C167" s="29"/>
@@ -7681,13 +8068,14 @@
       <c r="N167" s="27"/>
       <c r="O167" s="31"/>
       <c r="P167" s="27"/>
-      <c r="Q167" s="27"/>
+      <c r="Q167" s="55"/>
       <c r="R167" s="27"/>
       <c r="S167" s="27"/>
       <c r="T167" s="27"/>
-      <c r="U167" s="32"/>
-    </row>
-    <row r="168" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U167" s="27"/>
+      <c r="V167" s="32"/>
+    </row>
+    <row r="168" spans="1:22" ht="16.5" customHeight="1">
       <c r="A168" s="27"/>
       <c r="B168" s="27"/>
       <c r="C168" s="29"/>
@@ -7704,13 +8092,14 @@
       <c r="N168" s="27"/>
       <c r="O168" s="31"/>
       <c r="P168" s="27"/>
-      <c r="Q168" s="27"/>
+      <c r="Q168" s="55"/>
       <c r="R168" s="27"/>
       <c r="S168" s="27"/>
       <c r="T168" s="27"/>
-      <c r="U168" s="32"/>
-    </row>
-    <row r="169" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U168" s="27"/>
+      <c r="V168" s="32"/>
+    </row>
+    <row r="169" spans="1:22" ht="16.5" customHeight="1">
       <c r="A169" s="27"/>
       <c r="B169" s="27"/>
       <c r="C169" s="29"/>
@@ -7727,13 +8116,14 @@
       <c r="N169" s="27"/>
       <c r="O169" s="31"/>
       <c r="P169" s="27"/>
-      <c r="Q169" s="27"/>
+      <c r="Q169" s="55"/>
       <c r="R169" s="27"/>
       <c r="S169" s="27"/>
       <c r="T169" s="27"/>
-      <c r="U169" s="32"/>
-    </row>
-    <row r="170" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U169" s="27"/>
+      <c r="V169" s="32"/>
+    </row>
+    <row r="170" spans="1:22" ht="16.5" customHeight="1">
       <c r="A170" s="27"/>
       <c r="B170" s="27"/>
       <c r="C170" s="29"/>
@@ -7750,13 +8140,14 @@
       <c r="N170" s="27"/>
       <c r="O170" s="31"/>
       <c r="P170" s="27"/>
-      <c r="Q170" s="27"/>
+      <c r="Q170" s="55"/>
       <c r="R170" s="27"/>
       <c r="S170" s="27"/>
       <c r="T170" s="27"/>
-      <c r="U170" s="32"/>
-    </row>
-    <row r="171" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U170" s="27"/>
+      <c r="V170" s="32"/>
+    </row>
+    <row r="171" spans="1:22" ht="16.5" customHeight="1">
       <c r="A171" s="27"/>
       <c r="B171" s="27"/>
       <c r="C171" s="29"/>
@@ -7773,13 +8164,14 @@
       <c r="N171" s="27"/>
       <c r="O171" s="31"/>
       <c r="P171" s="27"/>
-      <c r="Q171" s="27"/>
+      <c r="Q171" s="55"/>
       <c r="R171" s="27"/>
       <c r="S171" s="27"/>
       <c r="T171" s="27"/>
-      <c r="U171" s="32"/>
-    </row>
-    <row r="172" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U171" s="27"/>
+      <c r="V171" s="32"/>
+    </row>
+    <row r="172" spans="1:22" ht="16.5" customHeight="1">
       <c r="A172" s="27"/>
       <c r="B172" s="27"/>
       <c r="C172" s="29"/>
@@ -7796,13 +8188,14 @@
       <c r="N172" s="27"/>
       <c r="O172" s="31"/>
       <c r="P172" s="27"/>
-      <c r="Q172" s="27"/>
+      <c r="Q172" s="55"/>
       <c r="R172" s="27"/>
       <c r="S172" s="27"/>
       <c r="T172" s="27"/>
-      <c r="U172" s="32"/>
-    </row>
-    <row r="173" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U172" s="27"/>
+      <c r="V172" s="32"/>
+    </row>
+    <row r="173" spans="1:22" ht="16.5" customHeight="1">
       <c r="A173" s="27"/>
       <c r="B173" s="27"/>
       <c r="C173" s="29"/>
@@ -7819,13 +8212,14 @@
       <c r="N173" s="27"/>
       <c r="O173" s="31"/>
       <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
+      <c r="Q173" s="55"/>
       <c r="R173" s="27"/>
       <c r="S173" s="27"/>
       <c r="T173" s="27"/>
-      <c r="U173" s="32"/>
-    </row>
-    <row r="174" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U173" s="27"/>
+      <c r="V173" s="32"/>
+    </row>
+    <row r="174" spans="1:22" ht="16.5" customHeight="1">
       <c r="A174" s="27"/>
       <c r="B174" s="27"/>
       <c r="C174" s="29"/>
@@ -7842,13 +8236,14 @@
       <c r="N174" s="27"/>
       <c r="O174" s="31"/>
       <c r="P174" s="27"/>
-      <c r="Q174" s="27"/>
+      <c r="Q174" s="55"/>
       <c r="R174" s="27"/>
       <c r="S174" s="27"/>
       <c r="T174" s="27"/>
-      <c r="U174" s="32"/>
-    </row>
-    <row r="175" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U174" s="27"/>
+      <c r="V174" s="32"/>
+    </row>
+    <row r="175" spans="1:22" ht="16.5" customHeight="1">
       <c r="A175" s="27"/>
       <c r="B175" s="27"/>
       <c r="C175" s="29"/>
@@ -7865,13 +8260,14 @@
       <c r="N175" s="27"/>
       <c r="O175" s="31"/>
       <c r="P175" s="27"/>
-      <c r="Q175" s="27"/>
+      <c r="Q175" s="55"/>
       <c r="R175" s="27"/>
       <c r="S175" s="27"/>
       <c r="T175" s="27"/>
-      <c r="U175" s="32"/>
-    </row>
-    <row r="176" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U175" s="27"/>
+      <c r="V175" s="32"/>
+    </row>
+    <row r="176" spans="1:22" ht="16.5" customHeight="1">
       <c r="A176" s="27"/>
       <c r="B176" s="27"/>
       <c r="C176" s="29"/>
@@ -7888,13 +8284,14 @@
       <c r="N176" s="27"/>
       <c r="O176" s="31"/>
       <c r="P176" s="27"/>
-      <c r="Q176" s="27"/>
+      <c r="Q176" s="55"/>
       <c r="R176" s="27"/>
       <c r="S176" s="27"/>
       <c r="T176" s="27"/>
-      <c r="U176" s="32"/>
-    </row>
-    <row r="177" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U176" s="27"/>
+      <c r="V176" s="32"/>
+    </row>
+    <row r="177" spans="1:22" ht="16.5" customHeight="1">
       <c r="A177" s="27"/>
       <c r="B177" s="27"/>
       <c r="C177" s="29"/>
@@ -7911,13 +8308,14 @@
       <c r="N177" s="27"/>
       <c r="O177" s="31"/>
       <c r="P177" s="27"/>
-      <c r="Q177" s="27"/>
+      <c r="Q177" s="55"/>
       <c r="R177" s="27"/>
       <c r="S177" s="27"/>
       <c r="T177" s="27"/>
-      <c r="U177" s="32"/>
-    </row>
-    <row r="178" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U177" s="27"/>
+      <c r="V177" s="32"/>
+    </row>
+    <row r="178" spans="1:22" ht="16.5" customHeight="1">
       <c r="A178" s="27"/>
       <c r="B178" s="27"/>
       <c r="C178" s="29"/>
@@ -7934,13 +8332,14 @@
       <c r="N178" s="27"/>
       <c r="O178" s="31"/>
       <c r="P178" s="27"/>
-      <c r="Q178" s="27"/>
+      <c r="Q178" s="55"/>
       <c r="R178" s="27"/>
       <c r="S178" s="27"/>
       <c r="T178" s="27"/>
-      <c r="U178" s="32"/>
-    </row>
-    <row r="179" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U178" s="27"/>
+      <c r="V178" s="32"/>
+    </row>
+    <row r="179" spans="1:22" ht="16.5" customHeight="1">
       <c r="A179" s="27"/>
       <c r="B179" s="27"/>
       <c r="C179" s="29"/>
@@ -7957,13 +8356,14 @@
       <c r="N179" s="27"/>
       <c r="O179" s="31"/>
       <c r="P179" s="27"/>
-      <c r="Q179" s="27"/>
+      <c r="Q179" s="55"/>
       <c r="R179" s="27"/>
       <c r="S179" s="27"/>
       <c r="T179" s="27"/>
-      <c r="U179" s="32"/>
-    </row>
-    <row r="180" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U179" s="27"/>
+      <c r="V179" s="32"/>
+    </row>
+    <row r="180" spans="1:22" ht="16.5" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="27"/>
       <c r="C180" s="29"/>
@@ -7980,13 +8380,14 @@
       <c r="N180" s="27"/>
       <c r="O180" s="31"/>
       <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
+      <c r="Q180" s="55"/>
       <c r="R180" s="27"/>
       <c r="S180" s="27"/>
       <c r="T180" s="27"/>
-      <c r="U180" s="32"/>
-    </row>
-    <row r="181" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U180" s="27"/>
+      <c r="V180" s="32"/>
+    </row>
+    <row r="181" spans="1:22" ht="16.5" customHeight="1">
       <c r="A181" s="27"/>
       <c r="B181" s="27"/>
       <c r="C181" s="29"/>
@@ -8003,13 +8404,14 @@
       <c r="N181" s="27"/>
       <c r="O181" s="31"/>
       <c r="P181" s="27"/>
-      <c r="Q181" s="27"/>
+      <c r="Q181" s="55"/>
       <c r="R181" s="27"/>
       <c r="S181" s="27"/>
       <c r="T181" s="27"/>
-      <c r="U181" s="32"/>
-    </row>
-    <row r="182" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U181" s="27"/>
+      <c r="V181" s="32"/>
+    </row>
+    <row r="182" spans="1:22" ht="16.5" customHeight="1">
       <c r="A182" s="27"/>
       <c r="B182" s="27"/>
       <c r="C182" s="29"/>
@@ -8026,13 +8428,14 @@
       <c r="N182" s="27"/>
       <c r="O182" s="31"/>
       <c r="P182" s="27"/>
-      <c r="Q182" s="27"/>
+      <c r="Q182" s="55"/>
       <c r="R182" s="27"/>
       <c r="S182" s="27"/>
       <c r="T182" s="27"/>
-      <c r="U182" s="32"/>
-    </row>
-    <row r="183" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U182" s="27"/>
+      <c r="V182" s="32"/>
+    </row>
+    <row r="183" spans="1:22" ht="16.5" customHeight="1">
       <c r="A183" s="27"/>
       <c r="B183" s="27"/>
       <c r="C183" s="29"/>
@@ -8049,13 +8452,14 @@
       <c r="N183" s="27"/>
       <c r="O183" s="31"/>
       <c r="P183" s="27"/>
-      <c r="Q183" s="27"/>
+      <c r="Q183" s="55"/>
       <c r="R183" s="27"/>
       <c r="S183" s="27"/>
       <c r="T183" s="27"/>
-      <c r="U183" s="32"/>
-    </row>
-    <row r="184" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U183" s="27"/>
+      <c r="V183" s="32"/>
+    </row>
+    <row r="184" spans="1:22" ht="16.5" customHeight="1">
       <c r="A184" s="27"/>
       <c r="B184" s="27"/>
       <c r="C184" s="29"/>
@@ -8072,13 +8476,14 @@
       <c r="N184" s="27"/>
       <c r="O184" s="31"/>
       <c r="P184" s="27"/>
-      <c r="Q184" s="27"/>
+      <c r="Q184" s="55"/>
       <c r="R184" s="27"/>
       <c r="S184" s="27"/>
       <c r="T184" s="27"/>
-      <c r="U184" s="32"/>
-    </row>
-    <row r="185" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U184" s="27"/>
+      <c r="V184" s="32"/>
+    </row>
+    <row r="185" spans="1:22" ht="16.5" customHeight="1">
       <c r="A185" s="27"/>
       <c r="B185" s="27"/>
       <c r="C185" s="29"/>
@@ -8095,13 +8500,14 @@
       <c r="N185" s="27"/>
       <c r="O185" s="31"/>
       <c r="P185" s="27"/>
-      <c r="Q185" s="27"/>
+      <c r="Q185" s="55"/>
       <c r="R185" s="27"/>
       <c r="S185" s="27"/>
       <c r="T185" s="27"/>
-      <c r="U185" s="32"/>
-    </row>
-    <row r="186" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U185" s="27"/>
+      <c r="V185" s="32"/>
+    </row>
+    <row r="186" spans="1:22" ht="16.5" customHeight="1">
       <c r="A186" s="27"/>
       <c r="B186" s="27"/>
       <c r="C186" s="29"/>
@@ -8118,13 +8524,14 @@
       <c r="N186" s="27"/>
       <c r="O186" s="31"/>
       <c r="P186" s="27"/>
-      <c r="Q186" s="27"/>
+      <c r="Q186" s="55"/>
       <c r="R186" s="27"/>
       <c r="S186" s="27"/>
       <c r="T186" s="27"/>
-      <c r="U186" s="32"/>
-    </row>
-    <row r="187" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U186" s="27"/>
+      <c r="V186" s="32"/>
+    </row>
+    <row r="187" spans="1:22" ht="16.5" customHeight="1">
       <c r="A187" s="27"/>
       <c r="B187" s="27"/>
       <c r="C187" s="29"/>
@@ -8141,13 +8548,14 @@
       <c r="N187" s="27"/>
       <c r="O187" s="31"/>
       <c r="P187" s="27"/>
-      <c r="Q187" s="27"/>
+      <c r="Q187" s="55"/>
       <c r="R187" s="27"/>
       <c r="S187" s="27"/>
       <c r="T187" s="27"/>
-      <c r="U187" s="32"/>
-    </row>
-    <row r="188" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U187" s="27"/>
+      <c r="V187" s="32"/>
+    </row>
+    <row r="188" spans="1:22" ht="16.5" customHeight="1">
       <c r="A188" s="27"/>
       <c r="B188" s="27"/>
       <c r="C188" s="29"/>
@@ -8164,13 +8572,14 @@
       <c r="N188" s="27"/>
       <c r="O188" s="31"/>
       <c r="P188" s="27"/>
-      <c r="Q188" s="27"/>
+      <c r="Q188" s="55"/>
       <c r="R188" s="27"/>
       <c r="S188" s="27"/>
       <c r="T188" s="27"/>
-      <c r="U188" s="32"/>
-    </row>
-    <row r="189" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U188" s="27"/>
+      <c r="V188" s="32"/>
+    </row>
+    <row r="189" spans="1:22" ht="16.5" customHeight="1">
       <c r="A189" s="27"/>
       <c r="B189" s="27"/>
       <c r="C189" s="29"/>
@@ -8187,13 +8596,14 @@
       <c r="N189" s="27"/>
       <c r="O189" s="31"/>
       <c r="P189" s="27"/>
-      <c r="Q189" s="27"/>
+      <c r="Q189" s="55"/>
       <c r="R189" s="27"/>
       <c r="S189" s="27"/>
       <c r="T189" s="27"/>
-      <c r="U189" s="32"/>
-    </row>
-    <row r="190" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U189" s="27"/>
+      <c r="V189" s="32"/>
+    </row>
+    <row r="190" spans="1:22" ht="16.5" customHeight="1">
       <c r="A190" s="27"/>
       <c r="B190" s="27"/>
       <c r="C190" s="29"/>
@@ -8210,13 +8620,14 @@
       <c r="N190" s="27"/>
       <c r="O190" s="31"/>
       <c r="P190" s="27"/>
-      <c r="Q190" s="27"/>
+      <c r="Q190" s="55"/>
       <c r="R190" s="27"/>
       <c r="S190" s="27"/>
       <c r="T190" s="27"/>
-      <c r="U190" s="32"/>
-    </row>
-    <row r="191" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U190" s="27"/>
+      <c r="V190" s="32"/>
+    </row>
+    <row r="191" spans="1:22" ht="16.5" customHeight="1">
       <c r="A191" s="27"/>
       <c r="B191" s="27"/>
       <c r="C191" s="29"/>
@@ -8233,13 +8644,14 @@
       <c r="N191" s="27"/>
       <c r="O191" s="31"/>
       <c r="P191" s="27"/>
-      <c r="Q191" s="27"/>
+      <c r="Q191" s="55"/>
       <c r="R191" s="27"/>
       <c r="S191" s="27"/>
       <c r="T191" s="27"/>
-      <c r="U191" s="32"/>
-    </row>
-    <row r="192" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U191" s="27"/>
+      <c r="V191" s="32"/>
+    </row>
+    <row r="192" spans="1:22" ht="16.5" customHeight="1">
       <c r="A192" s="27"/>
       <c r="B192" s="27"/>
       <c r="C192" s="29"/>
@@ -8256,13 +8668,14 @@
       <c r="N192" s="27"/>
       <c r="O192" s="31"/>
       <c r="P192" s="27"/>
-      <c r="Q192" s="27"/>
+      <c r="Q192" s="55"/>
       <c r="R192" s="27"/>
       <c r="S192" s="27"/>
       <c r="T192" s="27"/>
-      <c r="U192" s="32"/>
-    </row>
-    <row r="193" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U192" s="27"/>
+      <c r="V192" s="32"/>
+    </row>
+    <row r="193" spans="1:22" ht="16.5" customHeight="1">
       <c r="A193" s="27"/>
       <c r="B193" s="27"/>
       <c r="C193" s="29"/>
@@ -8279,13 +8692,14 @@
       <c r="N193" s="27"/>
       <c r="O193" s="31"/>
       <c r="P193" s="27"/>
-      <c r="Q193" s="27"/>
+      <c r="Q193" s="55"/>
       <c r="R193" s="27"/>
       <c r="S193" s="27"/>
       <c r="T193" s="27"/>
-      <c r="U193" s="32"/>
-    </row>
-    <row r="194" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U193" s="27"/>
+      <c r="V193" s="32"/>
+    </row>
+    <row r="194" spans="1:22" ht="16.5" customHeight="1">
       <c r="A194" s="27"/>
       <c r="B194" s="27"/>
       <c r="C194" s="29"/>
@@ -8302,13 +8716,14 @@
       <c r="N194" s="27"/>
       <c r="O194" s="31"/>
       <c r="P194" s="27"/>
-      <c r="Q194" s="27"/>
+      <c r="Q194" s="55"/>
       <c r="R194" s="27"/>
       <c r="S194" s="27"/>
       <c r="T194" s="27"/>
-      <c r="U194" s="32"/>
-    </row>
-    <row r="195" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U194" s="27"/>
+      <c r="V194" s="32"/>
+    </row>
+    <row r="195" spans="1:22" ht="16.5" customHeight="1">
       <c r="A195" s="27"/>
       <c r="B195" s="27"/>
       <c r="C195" s="29"/>
@@ -8325,13 +8740,14 @@
       <c r="N195" s="27"/>
       <c r="O195" s="31"/>
       <c r="P195" s="27"/>
-      <c r="Q195" s="27"/>
+      <c r="Q195" s="55"/>
       <c r="R195" s="27"/>
       <c r="S195" s="27"/>
       <c r="T195" s="27"/>
-      <c r="U195" s="32"/>
-    </row>
-    <row r="196" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U195" s="27"/>
+      <c r="V195" s="32"/>
+    </row>
+    <row r="196" spans="1:22" ht="16.5" customHeight="1">
       <c r="A196" s="27"/>
       <c r="B196" s="27"/>
       <c r="C196" s="29"/>
@@ -8348,13 +8764,14 @@
       <c r="N196" s="27"/>
       <c r="O196" s="31"/>
       <c r="P196" s="27"/>
-      <c r="Q196" s="27"/>
+      <c r="Q196" s="55"/>
       <c r="R196" s="27"/>
       <c r="S196" s="27"/>
       <c r="T196" s="27"/>
-      <c r="U196" s="32"/>
-    </row>
-    <row r="197" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U196" s="27"/>
+      <c r="V196" s="32"/>
+    </row>
+    <row r="197" spans="1:22" ht="16.5" customHeight="1">
       <c r="A197" s="27"/>
       <c r="B197" s="27"/>
       <c r="C197" s="29"/>
@@ -8371,13 +8788,14 @@
       <c r="N197" s="27"/>
       <c r="O197" s="31"/>
       <c r="P197" s="27"/>
-      <c r="Q197" s="27"/>
+      <c r="Q197" s="55"/>
       <c r="R197" s="27"/>
       <c r="S197" s="27"/>
       <c r="T197" s="27"/>
-      <c r="U197" s="32"/>
-    </row>
-    <row r="198" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U197" s="27"/>
+      <c r="V197" s="32"/>
+    </row>
+    <row r="198" spans="1:22" ht="16.5" customHeight="1">
       <c r="A198" s="27"/>
       <c r="B198" s="27"/>
       <c r="C198" s="29"/>
@@ -8394,13 +8812,14 @@
       <c r="N198" s="27"/>
       <c r="O198" s="31"/>
       <c r="P198" s="27"/>
-      <c r="Q198" s="27"/>
+      <c r="Q198" s="55"/>
       <c r="R198" s="27"/>
       <c r="S198" s="27"/>
       <c r="T198" s="27"/>
-      <c r="U198" s="32"/>
-    </row>
-    <row r="199" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U198" s="27"/>
+      <c r="V198" s="32"/>
+    </row>
+    <row r="199" spans="1:22" ht="16.5" customHeight="1">
       <c r="A199" s="27"/>
       <c r="B199" s="27"/>
       <c r="C199" s="29"/>
@@ -8417,13 +8836,14 @@
       <c r="N199" s="27"/>
       <c r="O199" s="31"/>
       <c r="P199" s="27"/>
-      <c r="Q199" s="27"/>
+      <c r="Q199" s="55"/>
       <c r="R199" s="27"/>
       <c r="S199" s="27"/>
       <c r="T199" s="27"/>
-      <c r="U199" s="32"/>
-    </row>
-    <row r="200" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U199" s="27"/>
+      <c r="V199" s="32"/>
+    </row>
+    <row r="200" spans="1:22" ht="16.5" customHeight="1">
       <c r="A200" s="27"/>
       <c r="B200" s="27"/>
       <c r="C200" s="29"/>
@@ -8440,20 +8860,21 @@
       <c r="N200" s="27"/>
       <c r="O200" s="31"/>
       <c r="P200" s="27"/>
-      <c r="Q200" s="27"/>
+      <c r="Q200" s="55"/>
       <c r="R200" s="27"/>
       <c r="S200" s="27"/>
       <c r="T200" s="27"/>
-      <c r="U200" s="32"/>
-    </row>
-    <row r="201" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="202" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="203" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="204" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="205" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="206" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="207" spans="1:21" ht="16.5" customHeight="1"/>
-    <row r="208" spans="1:21" ht="16.5" customHeight="1"/>
+      <c r="U200" s="27"/>
+      <c r="V200" s="32"/>
+    </row>
+    <row r="201" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="202" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="203" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="204" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="205" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="206" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="207" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="208" spans="1:22" ht="16.5" customHeight="1"/>
     <row r="209" ht="16.5" customHeight="1"/>
     <row r="210" ht="16.5" customHeight="1"/>
     <row r="211" ht="16.5" customHeight="1"/>
@@ -9232,8 +9653,8 @@
   <mergeCells count="9">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
@@ -9242,6 +9663,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C7EAF-C94E-4ED0-AA89-9CAF6DC881A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7538513-4AC2-441A-A20E-AF12D3FC6976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="825" windowWidth="22440" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10410" yWindow="510" windowWidth="14835" windowHeight="7725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -99,19 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트 완료시 습득하는 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수행 방식에 대하여 달성해야 하는 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상으로 습득하는 재화량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>요구 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료 대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,27 +171,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하위 퀘스트 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트 수행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>퀘스트 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위 퀘스트 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위 퀘스트에 속하는 퀘스트의 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위 퀘스트에 속하는 퀘스트의 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,14 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>단일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,18 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>집안 아들의 방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집안 현관문 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집안 엄마의 방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꿈 속에서 만난 햄스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,16 +440,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이른 아침이지만 미리 할 일을 확인하는 것이 좋겠다.
-캠프장 주거구역의 (주거구역 NPC)에게 가보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마크를 따라 캠프장 주거구역의 (주거구역NPC)에게 이동하여 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주거구역 NPC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -543,12 +482,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>퀘스트 완료시 발생하는 작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취사장에서 빵 얻기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧 조식 시간이 될 것이다. 취사장으로 이동하여 끼니를 해결하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크 리스트 체크(Q_Chapter02_1_2) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역_
+주인공 생성위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집안_아들의 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집안_엄마의 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가지_
+엄마 생성위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가지_
+대피 시작 퀘스트 도착 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역_
+침낭 말리기 퀘스트 도착 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 캠프장 취사구역의 (취사구역NPC)에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역_
+(주거구역NPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이른 아침이지만 미리 할 일을 확인하는 것이 좋겠다.
+캠프장 주거구역의 (주거구역NPC)에게 가보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주거구역NPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(취사구역NPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집안_현관문 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가지_
+마크 끝 목적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역_
+마크 끝 목적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 취사구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급용 빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기술 구역으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배도 채웠고 일할 시간이다. 무기술 구역에 가 잔업을 받자.
+마크를 따라 이동하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취사장에서 빵 얻기(Q_Chapter02_1_3) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 취사구역_
+(취사구역NPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 캠프장 무기술구역의 우식에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 무기술구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_2 퀘스트 활성화
+캠프장 구조(주거,취사,무기술,보급 등) 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Q_Chapter02_1_3 퀘스트 활성화
-캠프장 구조(주거,취사,무기술,보급 등) 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 완료시 발생하는 작용</t>
+취사장 기능 소개
+체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_4 퀘스트 활성화
+무기술구역 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 연마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업대상 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌을 통해 작업대상 무기를 연마하여 우식에게 갖다 주자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 수행 이전 받게 되는 물품 및 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1343,6 +1451,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,8 +1499,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1629,13 +1743,13 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1" thickBot="1">
-      <c r="B2" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="U2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1643,29 +1757,29 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="U3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="59"/>
+      <c r="E4" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -1674,15 +1788,15 @@
         <v>5</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
+      <c r="C6" s="72" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -1695,8 +1809,8 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
+      <c r="C7" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
@@ -1707,60 +1821,60 @@
     </row>
     <row r="8" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>149</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>151</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="26"/>
@@ -1768,9 +1882,9 @@
     </row>
     <row r="14" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="9"/>
@@ -1778,97 +1892,81 @@
     </row>
     <row r="15" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>113</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>18</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>129</v>
-      </c>
+    <row r="20" spans="2:6" ht="27.95" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="21" spans="2:6" ht="27.95" customHeight="1">
+      <c r="B21" s="26"/>
+      <c r="C21" s="10"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="22" spans="2:6" ht="27.95" customHeight="1">
+      <c r="B22" s="26"/>
+      <c r="C22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:6" ht="27.95" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="10"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" ht="27.95" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="10"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
@@ -2944,19 +3042,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="35" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1">
@@ -3660,13 +3758,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V982"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3674,80 +3772,87 @@
     <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="7.625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="12.625" style="1"/>
+    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="60.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="7.625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="22" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="68" t="s">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="23" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:26" s="23" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="69"/>
+        <v>35</v>
+      </c>
+      <c r="E2" s="71"/>
       <c r="F2" s="20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>8</v>
@@ -3756,607 +3861,709 @@
         <v>17</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="O2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="U2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="69"/>
+    </row>
+    <row r="3" spans="1:26" ht="33.75" thickTop="1">
+      <c r="A3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="32"/>
+    </row>
+    <row r="4" spans="1:26" ht="33">
+      <c r="A4" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="32"/>
+    </row>
+    <row r="5" spans="1:26" ht="33">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="32"/>
+    </row>
+    <row r="6" spans="1:26" ht="49.5">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="67"/>
-    </row>
-    <row r="3" spans="1:22" ht="33.75" thickTop="1">
-      <c r="A3" s="27" t="s">
+      <c r="I6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="32"/>
+    </row>
+    <row r="7" spans="1:26" ht="33">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26" ht="49.5">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="H8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="32"/>
+    </row>
+    <row r="9" spans="1:26" ht="49.5">
+      <c r="A9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="33" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="32"/>
-    </row>
-    <row r="4" spans="1:22" ht="33">
-      <c r="A4" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="32"/>
-    </row>
-    <row r="5" spans="1:22" ht="33">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="32"/>
-    </row>
-    <row r="6" spans="1:22" ht="49.5">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="32"/>
-    </row>
-    <row r="7" spans="1:22" ht="33">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" s="32"/>
-    </row>
-    <row r="8" spans="1:22" ht="33">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="32"/>
-    </row>
-    <row r="9" spans="1:22" ht="66">
-      <c r="A9" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="T9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="32"/>
-    </row>
-    <row r="10" spans="1:22" ht="49.5">
+      <c r="U9" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="V9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="32"/>
+    </row>
+    <row r="10" spans="1:26" ht="49.5">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>114</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="27" t="s">
+      <c r="H10" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q10" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V10" s="32"/>
-    </row>
-    <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="W10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="X10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="32"/>
+    </row>
+    <row r="11" spans="1:26" ht="33">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="E11" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="32"/>
-    </row>
-    <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="U11" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="W11" s="27">
+        <v>1</v>
+      </c>
+      <c r="X11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y11" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="32"/>
+    </row>
+    <row r="12" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>148</v>
+      </c>
       <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="31"/>
+      <c r="H12" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="55"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="S12" s="31"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="32"/>
-    </row>
-    <row r="13" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U12" s="56"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="32"/>
+    </row>
+    <row r="13" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
@@ -4365,21 +4572,25 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="31"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="55"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
+      <c r="S13" s="31"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="32"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U13" s="56"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="32"/>
+    </row>
+    <row r="14" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="29"/>
@@ -4389,21 +4600,25 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="31"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="27"/>
-      <c r="Q14" s="55"/>
+      <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="S14" s="31"/>
       <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="32"/>
-    </row>
-    <row r="15" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U14" s="55"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="32"/>
+    </row>
+    <row r="15" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
@@ -4413,21 +4628,25 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="31"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="55"/>
+      <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
+      <c r="S15" s="31"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="32"/>
-    </row>
-    <row r="16" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U15" s="55"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="29"/>
@@ -4437,21 +4656,25 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="31"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="55"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="S16" s="31"/>
       <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="32"/>
-    </row>
-    <row r="17" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U16" s="55"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="29"/>
@@ -4461,21 +4684,25 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="31"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="27"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="55"/>
+      <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="S17" s="31"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="32"/>
-    </row>
-    <row r="18" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U17" s="55"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="32"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="29"/>
@@ -4485,21 +4712,25 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="31"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="55"/>
+      <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
+      <c r="S18" s="31"/>
       <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="32"/>
-    </row>
-    <row r="19" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U18" s="55"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="32"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="29"/>
@@ -4509,21 +4740,25 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="31"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="55"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
+      <c r="S19" s="31"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="32"/>
-    </row>
-    <row r="20" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U19" s="55"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="32"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="29"/>
@@ -4533,21 +4768,25 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="31"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="27"/>
-      <c r="Q20" s="55"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="32"/>
-    </row>
-    <row r="21" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U20" s="55"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="32"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="29"/>
@@ -4557,21 +4796,25 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="31"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="27"/>
-      <c r="Q21" s="55"/>
+      <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
+      <c r="S21" s="31"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="32"/>
-    </row>
-    <row r="22" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U21" s="55"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="32"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="29"/>
@@ -4581,21 +4824,25 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="31"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="55"/>
+      <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="32"/>
-    </row>
-    <row r="23" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U22" s="55"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="32"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="29"/>
@@ -4605,21 +4852,25 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="31"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="55"/>
+      <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
+      <c r="S23" s="31"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="32"/>
-    </row>
-    <row r="24" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U23" s="55"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="32"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="29"/>
@@ -4629,21 +4880,25 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="31"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="27"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="55"/>
+      <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
+      <c r="S24" s="31"/>
       <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="32"/>
-    </row>
-    <row r="25" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U24" s="55"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="32"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
@@ -4653,21 +4908,25 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="31"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="55"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
+      <c r="S25" s="31"/>
       <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="32"/>
-    </row>
-    <row r="26" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U25" s="55"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="32"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="29"/>
@@ -4677,21 +4936,25 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="31"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="27"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="55"/>
+      <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
+      <c r="S26" s="31"/>
       <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="32"/>
-    </row>
-    <row r="27" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U26" s="55"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="32"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="29"/>
@@ -4701,21 +4964,25 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="31"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="55"/>
+      <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
+      <c r="S27" s="31"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="32"/>
-    </row>
-    <row r="28" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U27" s="55"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="32"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="29"/>
@@ -4725,21 +4992,25 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="31"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="27"/>
-      <c r="Q28" s="55"/>
+      <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
+      <c r="S28" s="31"/>
       <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="32"/>
-    </row>
-    <row r="29" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U28" s="55"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="32"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="29"/>
@@ -4749,21 +5020,25 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="31"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="55"/>
+      <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
+      <c r="S29" s="31"/>
       <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="32"/>
-    </row>
-    <row r="30" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U29" s="55"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="32"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
@@ -4773,21 +5048,25 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="31"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="55"/>
+      <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
+      <c r="S30" s="31"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="32"/>
-    </row>
-    <row r="31" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U30" s="55"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="32"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
@@ -4797,21 +5076,25 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="31"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="27"/>
-      <c r="Q31" s="55"/>
+      <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
+      <c r="S31" s="31"/>
       <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="32"/>
-    </row>
-    <row r="32" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="U31" s="55"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="32"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="29"/>
@@ -4821,21 +5104,25 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="31"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="27"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="55"/>
+      <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
+      <c r="S32" s="31"/>
       <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="32"/>
-    </row>
-    <row r="33" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U32" s="55"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="32"/>
+    </row>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="29"/>
@@ -4845,21 +5132,25 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="31"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="27"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="55"/>
+      <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
+      <c r="S33" s="31"/>
       <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="32"/>
-    </row>
-    <row r="34" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U33" s="55"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="32"/>
+    </row>
+    <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="29"/>
@@ -4869,21 +5160,25 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="31"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="27"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="55"/>
+      <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
+      <c r="S34" s="31"/>
       <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="32"/>
-    </row>
-    <row r="35" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U34" s="55"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="32"/>
+    </row>
+    <row r="35" spans="1:26" ht="16.5" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="29"/>
@@ -4893,21 +5188,25 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="31"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="27"/>
-      <c r="Q35" s="55"/>
+      <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
+      <c r="S35" s="31"/>
       <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="32"/>
-    </row>
-    <row r="36" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U35" s="55"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="32"/>
+    </row>
+    <row r="36" spans="1:26" ht="16.5" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="29"/>
@@ -4917,21 +5216,25 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="31"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="27"/>
       <c r="P36" s="27"/>
-      <c r="Q36" s="55"/>
+      <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
+      <c r="S36" s="31"/>
       <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="32"/>
-    </row>
-    <row r="37" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U36" s="55"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="32"/>
+    </row>
+    <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="29"/>
@@ -4941,21 +5244,25 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="31"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="27"/>
       <c r="P37" s="27"/>
-      <c r="Q37" s="55"/>
+      <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
+      <c r="S37" s="31"/>
       <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="32"/>
-    </row>
-    <row r="38" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U37" s="55"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="32"/>
+    </row>
+    <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="29"/>
@@ -4965,21 +5272,25 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="31"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="27"/>
       <c r="P38" s="27"/>
-      <c r="Q38" s="55"/>
+      <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
+      <c r="S38" s="31"/>
       <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="32"/>
-    </row>
-    <row r="39" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U38" s="55"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="32"/>
+    </row>
+    <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="29"/>
@@ -4989,21 +5300,25 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="31"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="27"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="55"/>
+      <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
+      <c r="S39" s="31"/>
       <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="32"/>
-    </row>
-    <row r="40" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U39" s="55"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="32"/>
+    </row>
+    <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="29"/>
@@ -5013,21 +5328,25 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="31"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="27"/>
       <c r="P40" s="27"/>
-      <c r="Q40" s="55"/>
+      <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
+      <c r="S40" s="31"/>
       <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="32"/>
-    </row>
-    <row r="41" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U40" s="55"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="32"/>
+    </row>
+    <row r="41" spans="1:26" ht="16.5" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
@@ -5037,21 +5356,25 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="31"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="27"/>
       <c r="P41" s="27"/>
-      <c r="Q41" s="55"/>
+      <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
+      <c r="S41" s="31"/>
       <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="32"/>
-    </row>
-    <row r="42" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U41" s="55"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="32"/>
+    </row>
+    <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="29"/>
@@ -5061,21 +5384,25 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="31"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="27"/>
       <c r="P42" s="27"/>
-      <c r="Q42" s="55"/>
+      <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
+      <c r="S42" s="31"/>
       <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="32"/>
-    </row>
-    <row r="43" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U42" s="55"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="32"/>
+    </row>
+    <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="29"/>
@@ -5085,21 +5412,25 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="31"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="27"/>
-      <c r="Q43" s="55"/>
+      <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
+      <c r="S43" s="31"/>
       <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="32"/>
-    </row>
-    <row r="44" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U43" s="55"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="32"/>
+    </row>
+    <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="29"/>
@@ -5109,21 +5440,25 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="31"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="27"/>
       <c r="P44" s="27"/>
-      <c r="Q44" s="55"/>
+      <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
+      <c r="S44" s="31"/>
       <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="32"/>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U44" s="55"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="32"/>
+    </row>
+    <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="29"/>
@@ -5133,21 +5468,25 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="31"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="27"/>
       <c r="P45" s="27"/>
-      <c r="Q45" s="55"/>
+      <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
+      <c r="S45" s="31"/>
       <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="32"/>
-    </row>
-    <row r="46" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U45" s="55"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="32"/>
+    </row>
+    <row r="46" spans="1:26" ht="16.5" customHeight="1">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="29"/>
@@ -5157,21 +5496,25 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="31"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="27"/>
       <c r="P46" s="27"/>
-      <c r="Q46" s="55"/>
+      <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
+      <c r="S46" s="31"/>
       <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="32"/>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U46" s="55"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="32"/>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="29"/>
@@ -5181,21 +5524,25 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="31"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="27"/>
       <c r="P47" s="27"/>
-      <c r="Q47" s="55"/>
+      <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
+      <c r="S47" s="31"/>
       <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="32"/>
-    </row>
-    <row r="48" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U47" s="55"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="32"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" customHeight="1">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="29"/>
@@ -5205,21 +5552,25 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="31"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-      <c r="Q48" s="55"/>
+      <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
+      <c r="S48" s="31"/>
       <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="32"/>
-    </row>
-    <row r="49" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U48" s="55"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="32"/>
+    </row>
+    <row r="49" spans="1:26" ht="16.5" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="29"/>
@@ -5229,21 +5580,25 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="31"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-      <c r="Q49" s="55"/>
+      <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
+      <c r="S49" s="31"/>
       <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="32"/>
-    </row>
-    <row r="50" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U49" s="55"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="32"/>
+    </row>
+    <row r="50" spans="1:26" ht="16.5" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="29"/>
@@ -5253,21 +5608,25 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="31"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="27"/>
-      <c r="Q50" s="55"/>
+      <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
+      <c r="S50" s="31"/>
       <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="32"/>
-    </row>
-    <row r="51" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U50" s="55"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="32"/>
+    </row>
+    <row r="51" spans="1:26" ht="16.5" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="29"/>
@@ -5277,21 +5636,25 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="31"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="27"/>
-      <c r="Q51" s="55"/>
+      <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
+      <c r="S51" s="31"/>
       <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="32"/>
-    </row>
-    <row r="52" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U51" s="55"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="32"/>
+    </row>
+    <row r="52" spans="1:26" ht="16.5" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="29"/>
@@ -5301,21 +5664,25 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="27"/>
       <c r="P52" s="27"/>
-      <c r="Q52" s="55"/>
+      <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
+      <c r="S52" s="31"/>
       <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="32"/>
-    </row>
-    <row r="53" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U52" s="55"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="32"/>
+    </row>
+    <row r="53" spans="1:26" ht="16.5" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="29"/>
@@ -5325,21 +5692,25 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="27"/>
       <c r="P53" s="27"/>
-      <c r="Q53" s="55"/>
+      <c r="Q53" s="27"/>
       <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
+      <c r="S53" s="31"/>
       <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="32"/>
-    </row>
-    <row r="54" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U53" s="55"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="32"/>
+    </row>
+    <row r="54" spans="1:26" ht="16.5" customHeight="1">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="29"/>
@@ -5349,21 +5720,25 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="27"/>
       <c r="P54" s="27"/>
-      <c r="Q54" s="55"/>
+      <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
+      <c r="S54" s="31"/>
       <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="32"/>
-    </row>
-    <row r="55" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U54" s="55"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="32"/>
+    </row>
+    <row r="55" spans="1:26" ht="16.5" customHeight="1">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="29"/>
@@ -5373,21 +5748,25 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="27"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="55"/>
+      <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
+      <c r="S55" s="31"/>
       <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="32"/>
-    </row>
-    <row r="56" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U55" s="55"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="32"/>
+    </row>
+    <row r="56" spans="1:26" ht="16.5" customHeight="1">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="29"/>
@@ -5397,21 +5776,25 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="27"/>
       <c r="P56" s="27"/>
-      <c r="Q56" s="55"/>
+      <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
+      <c r="S56" s="31"/>
       <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="32"/>
-    </row>
-    <row r="57" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U56" s="55"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="32"/>
+    </row>
+    <row r="57" spans="1:26" ht="16.5" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="29"/>
@@ -5421,21 +5804,25 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="27"/>
       <c r="P57" s="27"/>
-      <c r="Q57" s="55"/>
+      <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
+      <c r="S57" s="31"/>
       <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="32"/>
-    </row>
-    <row r="58" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U57" s="55"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="32"/>
+    </row>
+    <row r="58" spans="1:26" ht="16.5" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="29"/>
@@ -5445,21 +5832,25 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="27"/>
       <c r="P58" s="27"/>
-      <c r="Q58" s="55"/>
+      <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
+      <c r="S58" s="31"/>
       <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="32"/>
-    </row>
-    <row r="59" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U58" s="55"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="32"/>
+    </row>
+    <row r="59" spans="1:26" ht="16.5" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="29"/>
@@ -5469,21 +5860,25 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="27"/>
       <c r="P59" s="27"/>
-      <c r="Q59" s="55"/>
+      <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
+      <c r="S59" s="31"/>
       <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="32"/>
-    </row>
-    <row r="60" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U59" s="55"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="32"/>
+    </row>
+    <row r="60" spans="1:26" ht="16.5" customHeight="1">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="29"/>
@@ -5493,21 +5888,25 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="27"/>
       <c r="P60" s="27"/>
-      <c r="Q60" s="55"/>
+      <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
+      <c r="S60" s="31"/>
       <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="32"/>
-    </row>
-    <row r="61" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U60" s="55"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="32"/>
+    </row>
+    <row r="61" spans="1:26" ht="16.5" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="29"/>
@@ -5517,21 +5916,25 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="27"/>
       <c r="P61" s="27"/>
-      <c r="Q61" s="55"/>
+      <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
+      <c r="S61" s="31"/>
       <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="32"/>
-    </row>
-    <row r="62" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U61" s="55"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="32"/>
+    </row>
+    <row r="62" spans="1:26" ht="16.5" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="29"/>
@@ -5541,21 +5944,25 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="27"/>
       <c r="P62" s="27"/>
-      <c r="Q62" s="55"/>
+      <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
+      <c r="S62" s="31"/>
       <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="32"/>
-    </row>
-    <row r="63" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U62" s="55"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="32"/>
+    </row>
+    <row r="63" spans="1:26" ht="16.5" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="29"/>
@@ -5565,21 +5972,25 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="27"/>
       <c r="P63" s="27"/>
-      <c r="Q63" s="55"/>
+      <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
+      <c r="S63" s="31"/>
       <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="32"/>
-    </row>
-    <row r="64" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U63" s="55"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="32"/>
+    </row>
+    <row r="64" spans="1:26" ht="16.5" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="29"/>
@@ -5589,21 +6000,25 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="27"/>
       <c r="P64" s="27"/>
-      <c r="Q64" s="55"/>
+      <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
+      <c r="S64" s="31"/>
       <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="32"/>
-    </row>
-    <row r="65" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U64" s="55"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="32"/>
+    </row>
+    <row r="65" spans="1:26" ht="16.5" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="29"/>
@@ -5613,21 +6028,25 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="27"/>
       <c r="P65" s="27"/>
-      <c r="Q65" s="55"/>
+      <c r="Q65" s="27"/>
       <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
+      <c r="S65" s="31"/>
       <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="32"/>
-    </row>
-    <row r="66" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U65" s="55"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="32"/>
+    </row>
+    <row r="66" spans="1:26" ht="16.5" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="29"/>
@@ -5637,21 +6056,25 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="27"/>
       <c r="P66" s="27"/>
-      <c r="Q66" s="55"/>
+      <c r="Q66" s="27"/>
       <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
+      <c r="S66" s="31"/>
       <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="32"/>
-    </row>
-    <row r="67" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U66" s="55"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="32"/>
+    </row>
+    <row r="67" spans="1:26" ht="16.5" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="29"/>
@@ -5661,21 +6084,25 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="27"/>
       <c r="P67" s="27"/>
-      <c r="Q67" s="55"/>
+      <c r="Q67" s="27"/>
       <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
+      <c r="S67" s="31"/>
       <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="32"/>
-    </row>
-    <row r="68" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U67" s="55"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="32"/>
+    </row>
+    <row r="68" spans="1:26" ht="16.5" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="29"/>
@@ -5685,21 +6112,25 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="31"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="27"/>
       <c r="P68" s="27"/>
-      <c r="Q68" s="55"/>
+      <c r="Q68" s="27"/>
       <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
+      <c r="S68" s="31"/>
       <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="32"/>
-    </row>
-    <row r="69" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U68" s="55"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="32"/>
+    </row>
+    <row r="69" spans="1:26" ht="16.5" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="29"/>
@@ -5709,21 +6140,25 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="31"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="27"/>
       <c r="P69" s="27"/>
-      <c r="Q69" s="55"/>
+      <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
+      <c r="S69" s="31"/>
       <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="32"/>
-    </row>
-    <row r="70" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U69" s="55"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="32"/>
+    </row>
+    <row r="70" spans="1:26" ht="16.5" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
       <c r="C70" s="29"/>
@@ -5733,21 +6168,25 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="31"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="27"/>
       <c r="P70" s="27"/>
-      <c r="Q70" s="55"/>
+      <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
+      <c r="S70" s="31"/>
       <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="32"/>
-    </row>
-    <row r="71" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U70" s="55"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="32"/>
+    </row>
+    <row r="71" spans="1:26" ht="16.5" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="29"/>
@@ -5757,21 +6196,25 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="31"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="27"/>
       <c r="P71" s="27"/>
-      <c r="Q71" s="55"/>
+      <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
+      <c r="S71" s="31"/>
       <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="32"/>
-    </row>
-    <row r="72" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U71" s="55"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="32"/>
+    </row>
+    <row r="72" spans="1:26" ht="16.5" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="29"/>
@@ -5781,21 +6224,25 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="31"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="27"/>
       <c r="P72" s="27"/>
-      <c r="Q72" s="55"/>
+      <c r="Q72" s="27"/>
       <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
+      <c r="S72" s="31"/>
       <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="32"/>
-    </row>
-    <row r="73" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U72" s="55"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="32"/>
+    </row>
+    <row r="73" spans="1:26" ht="16.5" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
       <c r="C73" s="29"/>
@@ -5805,21 +6252,25 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="31"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="27"/>
       <c r="P73" s="27"/>
-      <c r="Q73" s="55"/>
+      <c r="Q73" s="27"/>
       <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
+      <c r="S73" s="31"/>
       <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="32"/>
-    </row>
-    <row r="74" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U73" s="55"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="32"/>
+    </row>
+    <row r="74" spans="1:26" ht="16.5" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="29"/>
@@ -5829,21 +6280,25 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="31"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="27"/>
       <c r="P74" s="27"/>
-      <c r="Q74" s="55"/>
+      <c r="Q74" s="27"/>
       <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
+      <c r="S74" s="31"/>
       <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="32"/>
-    </row>
-    <row r="75" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U74" s="55"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="32"/>
+    </row>
+    <row r="75" spans="1:26" ht="16.5" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="29"/>
@@ -5853,21 +6308,25 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="31"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="27"/>
       <c r="P75" s="27"/>
-      <c r="Q75" s="55"/>
+      <c r="Q75" s="27"/>
       <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
+      <c r="S75" s="31"/>
       <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="32"/>
-    </row>
-    <row r="76" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U75" s="55"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="32"/>
+    </row>
+    <row r="76" spans="1:26" ht="16.5" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="29"/>
@@ -5877,21 +6336,25 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="31"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="27"/>
       <c r="P76" s="27"/>
-      <c r="Q76" s="55"/>
+      <c r="Q76" s="27"/>
       <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
+      <c r="S76" s="31"/>
       <c r="T76" s="27"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="32"/>
-    </row>
-    <row r="77" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U76" s="55"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="32"/>
+    </row>
+    <row r="77" spans="1:26" ht="16.5" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="29"/>
@@ -5901,21 +6364,25 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="31"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="27"/>
       <c r="P77" s="27"/>
-      <c r="Q77" s="55"/>
+      <c r="Q77" s="27"/>
       <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
+      <c r="S77" s="31"/>
       <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="32"/>
-    </row>
-    <row r="78" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U77" s="55"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="32"/>
+    </row>
+    <row r="78" spans="1:26" ht="16.5" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="29"/>
@@ -5925,21 +6392,25 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="31"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="27"/>
       <c r="P78" s="27"/>
-      <c r="Q78" s="55"/>
+      <c r="Q78" s="27"/>
       <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
+      <c r="S78" s="31"/>
       <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="32"/>
-    </row>
-    <row r="79" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U78" s="55"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="32"/>
+    </row>
+    <row r="79" spans="1:26" ht="16.5" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="29"/>
@@ -5949,21 +6420,25 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="31"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="27"/>
       <c r="P79" s="27"/>
-      <c r="Q79" s="55"/>
+      <c r="Q79" s="27"/>
       <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
+      <c r="S79" s="31"/>
       <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="32"/>
-    </row>
-    <row r="80" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U79" s="55"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="32"/>
+    </row>
+    <row r="80" spans="1:26" ht="16.5" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="29"/>
@@ -5973,21 +6448,25 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="31"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="27"/>
       <c r="P80" s="27"/>
-      <c r="Q80" s="55"/>
+      <c r="Q80" s="27"/>
       <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
+      <c r="S80" s="31"/>
       <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="32"/>
-    </row>
-    <row r="81" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U80" s="55"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="32"/>
+    </row>
+    <row r="81" spans="1:26" ht="16.5" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="29"/>
@@ -5997,21 +6476,25 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="31"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="27"/>
       <c r="P81" s="27"/>
-      <c r="Q81" s="55"/>
+      <c r="Q81" s="27"/>
       <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
+      <c r="S81" s="31"/>
       <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="32"/>
-    </row>
-    <row r="82" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U81" s="55"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="32"/>
+    </row>
+    <row r="82" spans="1:26" ht="16.5" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="29"/>
@@ -6021,21 +6504,25 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="31"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="27"/>
       <c r="P82" s="27"/>
-      <c r="Q82" s="55"/>
+      <c r="Q82" s="27"/>
       <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
+      <c r="S82" s="31"/>
       <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="32"/>
-    </row>
-    <row r="83" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U82" s="55"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="32"/>
+    </row>
+    <row r="83" spans="1:26" ht="16.5" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="29"/>
@@ -6045,21 +6532,25 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="31"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="27"/>
       <c r="P83" s="27"/>
-      <c r="Q83" s="55"/>
+      <c r="Q83" s="27"/>
       <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
+      <c r="S83" s="31"/>
       <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="32"/>
-    </row>
-    <row r="84" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U83" s="55"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="32"/>
+    </row>
+    <row r="84" spans="1:26" ht="16.5" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="29"/>
@@ -6069,21 +6560,25 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="31"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="27"/>
       <c r="P84" s="27"/>
-      <c r="Q84" s="55"/>
+      <c r="Q84" s="27"/>
       <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
+      <c r="S84" s="31"/>
       <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="32"/>
-    </row>
-    <row r="85" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U84" s="55"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="32"/>
+    </row>
+    <row r="85" spans="1:26" ht="16.5" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="29"/>
@@ -6093,21 +6588,25 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="31"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="27"/>
       <c r="P85" s="27"/>
-      <c r="Q85" s="55"/>
+      <c r="Q85" s="27"/>
       <c r="R85" s="27"/>
-      <c r="S85" s="27"/>
+      <c r="S85" s="31"/>
       <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
-      <c r="V85" s="32"/>
-    </row>
-    <row r="86" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U85" s="55"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="32"/>
+    </row>
+    <row r="86" spans="1:26" ht="16.5" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="29"/>
@@ -6117,21 +6616,25 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="31"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="27"/>
       <c r="P86" s="27"/>
-      <c r="Q86" s="55"/>
+      <c r="Q86" s="27"/>
       <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
+      <c r="S86" s="31"/>
       <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="32"/>
-    </row>
-    <row r="87" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U86" s="55"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="32"/>
+    </row>
+    <row r="87" spans="1:26" ht="16.5" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="29"/>
@@ -6141,21 +6644,25 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="31"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="27"/>
       <c r="P87" s="27"/>
-      <c r="Q87" s="55"/>
+      <c r="Q87" s="27"/>
       <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
+      <c r="S87" s="31"/>
       <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="32"/>
-    </row>
-    <row r="88" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U87" s="55"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="32"/>
+    </row>
+    <row r="88" spans="1:26" ht="16.5" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="29"/>
@@ -6165,21 +6672,25 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="31"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="27"/>
       <c r="P88" s="27"/>
-      <c r="Q88" s="55"/>
+      <c r="Q88" s="27"/>
       <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
+      <c r="S88" s="31"/>
       <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="32"/>
-    </row>
-    <row r="89" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U88" s="55"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="32"/>
+    </row>
+    <row r="89" spans="1:26" ht="16.5" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="29"/>
@@ -6189,21 +6700,25 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="31"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="27"/>
       <c r="P89" s="27"/>
-      <c r="Q89" s="55"/>
+      <c r="Q89" s="27"/>
       <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
+      <c r="S89" s="31"/>
       <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="32"/>
-    </row>
-    <row r="90" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U89" s="55"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="32"/>
+    </row>
+    <row r="90" spans="1:26" ht="16.5" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="29"/>
@@ -6213,21 +6728,25 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="31"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="27"/>
       <c r="P90" s="27"/>
-      <c r="Q90" s="55"/>
+      <c r="Q90" s="27"/>
       <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
+      <c r="S90" s="31"/>
       <c r="T90" s="27"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="32"/>
-    </row>
-    <row r="91" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U90" s="55"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="32"/>
+    </row>
+    <row r="91" spans="1:26" ht="16.5" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="29"/>
@@ -6237,21 +6756,25 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="31"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="27"/>
       <c r="P91" s="27"/>
-      <c r="Q91" s="55"/>
+      <c r="Q91" s="27"/>
       <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
+      <c r="S91" s="31"/>
       <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="32"/>
-    </row>
-    <row r="92" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U91" s="55"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="32"/>
+    </row>
+    <row r="92" spans="1:26" ht="16.5" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="29"/>
@@ -6261,21 +6784,25 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="31"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="27"/>
       <c r="P92" s="27"/>
-      <c r="Q92" s="55"/>
+      <c r="Q92" s="27"/>
       <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
+      <c r="S92" s="31"/>
       <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="32"/>
-    </row>
-    <row r="93" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U92" s="55"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="32"/>
+    </row>
+    <row r="93" spans="1:26" ht="16.5" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="29"/>
@@ -6285,21 +6812,25 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="31"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="27"/>
       <c r="P93" s="27"/>
-      <c r="Q93" s="55"/>
+      <c r="Q93" s="27"/>
       <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
+      <c r="S93" s="31"/>
       <c r="T93" s="27"/>
-      <c r="U93" s="27"/>
-      <c r="V93" s="32"/>
-    </row>
-    <row r="94" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U93" s="55"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="32"/>
+    </row>
+    <row r="94" spans="1:26" ht="16.5" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="29"/>
@@ -6309,21 +6840,25 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="31"/>
+      <c r="J94" s="56"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="27"/>
       <c r="P94" s="27"/>
-      <c r="Q94" s="55"/>
+      <c r="Q94" s="27"/>
       <c r="R94" s="27"/>
-      <c r="S94" s="27"/>
+      <c r="S94" s="31"/>
       <c r="T94" s="27"/>
-      <c r="U94" s="27"/>
-      <c r="V94" s="32"/>
-    </row>
-    <row r="95" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U94" s="55"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="32"/>
+    </row>
+    <row r="95" spans="1:26" ht="16.5" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="29"/>
@@ -6333,21 +6868,25 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="31"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="27"/>
       <c r="P95" s="27"/>
-      <c r="Q95" s="55"/>
+      <c r="Q95" s="27"/>
       <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
+      <c r="S95" s="31"/>
       <c r="T95" s="27"/>
-      <c r="U95" s="27"/>
-      <c r="V95" s="32"/>
-    </row>
-    <row r="96" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U95" s="55"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="32"/>
+    </row>
+    <row r="96" spans="1:26" ht="16.5" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="29"/>
@@ -6357,21 +6896,25 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="31"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="27"/>
       <c r="P96" s="27"/>
-      <c r="Q96" s="55"/>
+      <c r="Q96" s="27"/>
       <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
+      <c r="S96" s="31"/>
       <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="32"/>
-    </row>
-    <row r="97" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U96" s="55"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="32"/>
+    </row>
+    <row r="97" spans="1:26" ht="16.5" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="29"/>
@@ -6381,21 +6924,25 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="31"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="27"/>
       <c r="P97" s="27"/>
-      <c r="Q97" s="55"/>
+      <c r="Q97" s="27"/>
       <c r="R97" s="27"/>
-      <c r="S97" s="27"/>
+      <c r="S97" s="31"/>
       <c r="T97" s="27"/>
-      <c r="U97" s="27"/>
-      <c r="V97" s="32"/>
-    </row>
-    <row r="98" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U97" s="55"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="32"/>
+    </row>
+    <row r="98" spans="1:26" ht="16.5" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="29"/>
@@ -6405,21 +6952,25 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="31"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="27"/>
       <c r="P98" s="27"/>
-      <c r="Q98" s="55"/>
+      <c r="Q98" s="27"/>
       <c r="R98" s="27"/>
-      <c r="S98" s="27"/>
+      <c r="S98" s="31"/>
       <c r="T98" s="27"/>
-      <c r="U98" s="27"/>
-      <c r="V98" s="32"/>
-    </row>
-    <row r="99" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U98" s="55"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="32"/>
+    </row>
+    <row r="99" spans="1:26" ht="16.5" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="29"/>
@@ -6429,45 +6980,91 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="31"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="27"/>
       <c r="P99" s="27"/>
-      <c r="Q99" s="55"/>
+      <c r="Q99" s="27"/>
       <c r="R99" s="27"/>
-      <c r="S99" s="27"/>
+      <c r="S99" s="31"/>
       <c r="T99" s="27"/>
-      <c r="U99" s="27"/>
-      <c r="V99" s="32"/>
-    </row>
-    <row r="100" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U99" s="55"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="32"/>
+    </row>
+    <row r="100" spans="1:26" ht="16.5" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27"/>
-      <c r="T100" s="27"/>
-      <c r="U100" s="27"/>
-      <c r="V100" s="32"/>
-    </row>
-    <row r="101" spans="1:22" ht="16.5" customHeight="1">
+      <c r="C100" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G100" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H100" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I100" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="P100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="R100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="S100" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T100" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="U100" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="V100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="W100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="X100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y100" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z100" s="32"/>
+    </row>
+    <row r="101" spans="1:26" ht="16.5" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="29"/>
@@ -6477,21 +7074,25 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="31"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="27"/>
       <c r="P101" s="27"/>
-      <c r="Q101" s="55"/>
+      <c r="Q101" s="27"/>
       <c r="R101" s="27"/>
-      <c r="S101" s="27"/>
+      <c r="S101" s="31"/>
       <c r="T101" s="27"/>
-      <c r="U101" s="27"/>
-      <c r="V101" s="32"/>
-    </row>
-    <row r="102" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U101" s="55"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="27"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="32"/>
+    </row>
+    <row r="102" spans="1:26" ht="16.5" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="29"/>
@@ -6501,21 +7102,25 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="31"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="56"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="27"/>
       <c r="P102" s="27"/>
-      <c r="Q102" s="55"/>
+      <c r="Q102" s="27"/>
       <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
+      <c r="S102" s="31"/>
       <c r="T102" s="27"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="32"/>
-    </row>
-    <row r="103" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U102" s="55"/>
+      <c r="V102" s="27"/>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="32"/>
+    </row>
+    <row r="103" spans="1:26" ht="16.5" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="29"/>
@@ -6525,21 +7130,25 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="31"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="31"/>
+      <c r="O103" s="27"/>
       <c r="P103" s="27"/>
-      <c r="Q103" s="55"/>
+      <c r="Q103" s="27"/>
       <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
+      <c r="S103" s="31"/>
       <c r="T103" s="27"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="32"/>
-    </row>
-    <row r="104" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U103" s="55"/>
+      <c r="V103" s="27"/>
+      <c r="W103" s="27"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="32"/>
+    </row>
+    <row r="104" spans="1:26" ht="16.5" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="29"/>
@@ -6549,21 +7158,25 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="31"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="31"/>
+      <c r="O104" s="27"/>
       <c r="P104" s="27"/>
-      <c r="Q104" s="55"/>
+      <c r="Q104" s="27"/>
       <c r="R104" s="27"/>
-      <c r="S104" s="27"/>
+      <c r="S104" s="31"/>
       <c r="T104" s="27"/>
-      <c r="U104" s="27"/>
-      <c r="V104" s="32"/>
-    </row>
-    <row r="105" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U104" s="55"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="32"/>
+    </row>
+    <row r="105" spans="1:26" ht="16.5" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="29"/>
@@ -6573,21 +7186,25 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="31"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="31"/>
+      <c r="O105" s="27"/>
       <c r="P105" s="27"/>
-      <c r="Q105" s="55"/>
+      <c r="Q105" s="27"/>
       <c r="R105" s="27"/>
-      <c r="S105" s="27"/>
+      <c r="S105" s="31"/>
       <c r="T105" s="27"/>
-      <c r="U105" s="27"/>
-      <c r="V105" s="32"/>
-    </row>
-    <row r="106" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U105" s="55"/>
+      <c r="V105" s="27"/>
+      <c r="W105" s="27"/>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="32"/>
+    </row>
+    <row r="106" spans="1:26" ht="16.5" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="29"/>
@@ -6597,21 +7214,25 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="31"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="31"/>
+      <c r="O106" s="27"/>
       <c r="P106" s="27"/>
-      <c r="Q106" s="55"/>
+      <c r="Q106" s="27"/>
       <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
+      <c r="S106" s="31"/>
       <c r="T106" s="27"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="32"/>
-    </row>
-    <row r="107" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U106" s="55"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="32"/>
+    </row>
+    <row r="107" spans="1:26" ht="16.5" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="29"/>
@@ -6621,21 +7242,25 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="31"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="27"/>
       <c r="P107" s="27"/>
-      <c r="Q107" s="55"/>
+      <c r="Q107" s="27"/>
       <c r="R107" s="27"/>
-      <c r="S107" s="27"/>
+      <c r="S107" s="31"/>
       <c r="T107" s="27"/>
-      <c r="U107" s="27"/>
-      <c r="V107" s="32"/>
-    </row>
-    <row r="108" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U107" s="55"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="27"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="32"/>
+    </row>
+    <row r="108" spans="1:26" ht="16.5" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="29"/>
@@ -6645,21 +7270,25 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="31"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="31"/>
+      <c r="O108" s="27"/>
       <c r="P108" s="27"/>
-      <c r="Q108" s="55"/>
+      <c r="Q108" s="27"/>
       <c r="R108" s="27"/>
-      <c r="S108" s="27"/>
+      <c r="S108" s="31"/>
       <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="32"/>
-    </row>
-    <row r="109" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U108" s="55"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="32"/>
+    </row>
+    <row r="109" spans="1:26" ht="16.5" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="29"/>
@@ -6669,21 +7298,25 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="31"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="27"/>
       <c r="P109" s="27"/>
-      <c r="Q109" s="55"/>
+      <c r="Q109" s="27"/>
       <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
+      <c r="S109" s="31"/>
       <c r="T109" s="27"/>
-      <c r="U109" s="27"/>
-      <c r="V109" s="32"/>
-    </row>
-    <row r="110" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U109" s="55"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="32"/>
+    </row>
+    <row r="110" spans="1:26" ht="16.5" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="29"/>
@@ -6693,21 +7326,25 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="27"/>
-      <c r="O110" s="31"/>
+      <c r="J110" s="56"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="31"/>
+      <c r="O110" s="27"/>
       <c r="P110" s="27"/>
-      <c r="Q110" s="55"/>
+      <c r="Q110" s="27"/>
       <c r="R110" s="27"/>
-      <c r="S110" s="27"/>
+      <c r="S110" s="31"/>
       <c r="T110" s="27"/>
-      <c r="U110" s="27"/>
-      <c r="V110" s="32"/>
-    </row>
-    <row r="111" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U110" s="55"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="32"/>
+    </row>
+    <row r="111" spans="1:26" ht="16.5" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="29"/>
@@ -6717,21 +7354,25 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="31"/>
+      <c r="J111" s="56"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="31"/>
+      <c r="O111" s="27"/>
       <c r="P111" s="27"/>
-      <c r="Q111" s="55"/>
+      <c r="Q111" s="27"/>
       <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
+      <c r="S111" s="31"/>
       <c r="T111" s="27"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="32"/>
-    </row>
-    <row r="112" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U111" s="55"/>
+      <c r="V111" s="27"/>
+      <c r="W111" s="27"/>
+      <c r="X111" s="27"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="32"/>
+    </row>
+    <row r="112" spans="1:26" ht="16.5" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="29"/>
@@ -6741,21 +7382,25 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="31"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="31"/>
+      <c r="O112" s="27"/>
       <c r="P112" s="27"/>
-      <c r="Q112" s="55"/>
+      <c r="Q112" s="27"/>
       <c r="R112" s="27"/>
-      <c r="S112" s="27"/>
+      <c r="S112" s="31"/>
       <c r="T112" s="27"/>
-      <c r="U112" s="27"/>
-      <c r="V112" s="32"/>
-    </row>
-    <row r="113" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U112" s="55"/>
+      <c r="V112" s="27"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="27"/>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="32"/>
+    </row>
+    <row r="113" spans="1:26" ht="16.5" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="29"/>
@@ -6765,21 +7410,25 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="31"/>
+      <c r="J113" s="56"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="31"/>
+      <c r="O113" s="27"/>
       <c r="P113" s="27"/>
-      <c r="Q113" s="55"/>
+      <c r="Q113" s="27"/>
       <c r="R113" s="27"/>
-      <c r="S113" s="27"/>
+      <c r="S113" s="31"/>
       <c r="T113" s="27"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="32"/>
-    </row>
-    <row r="114" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U113" s="55"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="32"/>
+    </row>
+    <row r="114" spans="1:26" ht="16.5" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="29"/>
@@ -6789,21 +7438,25 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="27"/>
-      <c r="O114" s="31"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="31"/>
+      <c r="O114" s="27"/>
       <c r="P114" s="27"/>
-      <c r="Q114" s="55"/>
+      <c r="Q114" s="27"/>
       <c r="R114" s="27"/>
-      <c r="S114" s="27"/>
+      <c r="S114" s="31"/>
       <c r="T114" s="27"/>
-      <c r="U114" s="27"/>
-      <c r="V114" s="32"/>
-    </row>
-    <row r="115" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U114" s="55"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="32"/>
+    </row>
+    <row r="115" spans="1:26" ht="16.5" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="29"/>
@@ -6813,21 +7466,25 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="27"/>
-      <c r="O115" s="31"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="31"/>
+      <c r="O115" s="27"/>
       <c r="P115" s="27"/>
-      <c r="Q115" s="55"/>
+      <c r="Q115" s="27"/>
       <c r="R115" s="27"/>
-      <c r="S115" s="27"/>
+      <c r="S115" s="31"/>
       <c r="T115" s="27"/>
-      <c r="U115" s="27"/>
-      <c r="V115" s="32"/>
-    </row>
-    <row r="116" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U115" s="55"/>
+      <c r="V115" s="27"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="32"/>
+    </row>
+    <row r="116" spans="1:26" ht="16.5" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="29"/>
@@ -6837,21 +7494,25 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="27"/>
-      <c r="O116" s="31"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="31"/>
+      <c r="O116" s="27"/>
       <c r="P116" s="27"/>
-      <c r="Q116" s="55"/>
+      <c r="Q116" s="27"/>
       <c r="R116" s="27"/>
-      <c r="S116" s="27"/>
+      <c r="S116" s="31"/>
       <c r="T116" s="27"/>
-      <c r="U116" s="27"/>
-      <c r="V116" s="32"/>
-    </row>
-    <row r="117" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U116" s="55"/>
+      <c r="V116" s="27"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="32"/>
+    </row>
+    <row r="117" spans="1:26" ht="16.5" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
       <c r="C117" s="29"/>
@@ -6861,21 +7522,25 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="31"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="31"/>
+      <c r="O117" s="27"/>
       <c r="P117" s="27"/>
-      <c r="Q117" s="55"/>
+      <c r="Q117" s="27"/>
       <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
+      <c r="S117" s="31"/>
       <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="32"/>
-    </row>
-    <row r="118" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U117" s="55"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="32"/>
+    </row>
+    <row r="118" spans="1:26" ht="16.5" customHeight="1">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
       <c r="C118" s="29"/>
@@ -6885,21 +7550,25 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="31"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="31"/>
+      <c r="O118" s="27"/>
       <c r="P118" s="27"/>
-      <c r="Q118" s="55"/>
+      <c r="Q118" s="27"/>
       <c r="R118" s="27"/>
-      <c r="S118" s="27"/>
+      <c r="S118" s="31"/>
       <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="32"/>
-    </row>
-    <row r="119" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U118" s="55"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="32"/>
+    </row>
+    <row r="119" spans="1:26" ht="16.5" customHeight="1">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
       <c r="C119" s="29"/>
@@ -6909,21 +7578,25 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="27"/>
-      <c r="O119" s="31"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="56"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="56"/>
+      <c r="N119" s="31"/>
+      <c r="O119" s="27"/>
       <c r="P119" s="27"/>
-      <c r="Q119" s="55"/>
+      <c r="Q119" s="27"/>
       <c r="R119" s="27"/>
-      <c r="S119" s="27"/>
+      <c r="S119" s="31"/>
       <c r="T119" s="27"/>
-      <c r="U119" s="27"/>
-      <c r="V119" s="32"/>
-    </row>
-    <row r="120" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U119" s="55"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="32"/>
+    </row>
+    <row r="120" spans="1:26" ht="16.5" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
       <c r="C120" s="29"/>
@@ -6933,21 +7606,25 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="27"/>
-      <c r="O120" s="31"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="31"/>
+      <c r="O120" s="27"/>
       <c r="P120" s="27"/>
-      <c r="Q120" s="55"/>
+      <c r="Q120" s="27"/>
       <c r="R120" s="27"/>
-      <c r="S120" s="27"/>
+      <c r="S120" s="31"/>
       <c r="T120" s="27"/>
-      <c r="U120" s="27"/>
-      <c r="V120" s="32"/>
-    </row>
-    <row r="121" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U120" s="55"/>
+      <c r="V120" s="27"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="32"/>
+    </row>
+    <row r="121" spans="1:26" ht="16.5" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="29"/>
@@ -6957,21 +7634,25 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="31"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="31"/>
+      <c r="O121" s="27"/>
       <c r="P121" s="27"/>
-      <c r="Q121" s="55"/>
+      <c r="Q121" s="27"/>
       <c r="R121" s="27"/>
-      <c r="S121" s="27"/>
+      <c r="S121" s="31"/>
       <c r="T121" s="27"/>
-      <c r="U121" s="27"/>
-      <c r="V121" s="32"/>
-    </row>
-    <row r="122" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U121" s="55"/>
+      <c r="V121" s="27"/>
+      <c r="W121" s="27"/>
+      <c r="X121" s="27"/>
+      <c r="Y121" s="27"/>
+      <c r="Z121" s="32"/>
+    </row>
+    <row r="122" spans="1:26" ht="16.5" customHeight="1">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
       <c r="C122" s="29"/>
@@ -6981,21 +7662,25 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="27"/>
-      <c r="O122" s="31"/>
+      <c r="J122" s="56"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="31"/>
+      <c r="O122" s="27"/>
       <c r="P122" s="27"/>
-      <c r="Q122" s="55"/>
+      <c r="Q122" s="27"/>
       <c r="R122" s="27"/>
-      <c r="S122" s="27"/>
+      <c r="S122" s="31"/>
       <c r="T122" s="27"/>
-      <c r="U122" s="27"/>
-      <c r="V122" s="32"/>
-    </row>
-    <row r="123" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U122" s="55"/>
+      <c r="V122" s="27"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="32"/>
+    </row>
+    <row r="123" spans="1:26" ht="16.5" customHeight="1">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
       <c r="C123" s="29"/>
@@ -7005,21 +7690,25 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="27"/>
-      <c r="O123" s="31"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="56"/>
+      <c r="N123" s="31"/>
+      <c r="O123" s="27"/>
       <c r="P123" s="27"/>
-      <c r="Q123" s="55"/>
+      <c r="Q123" s="27"/>
       <c r="R123" s="27"/>
-      <c r="S123" s="27"/>
+      <c r="S123" s="31"/>
       <c r="T123" s="27"/>
-      <c r="U123" s="27"/>
-      <c r="V123" s="32"/>
-    </row>
-    <row r="124" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U123" s="55"/>
+      <c r="V123" s="27"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="32"/>
+    </row>
+    <row r="124" spans="1:26" ht="16.5" customHeight="1">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
       <c r="C124" s="29"/>
@@ -7029,21 +7718,25 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
-      <c r="O124" s="31"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="31"/>
+      <c r="O124" s="27"/>
       <c r="P124" s="27"/>
-      <c r="Q124" s="55"/>
+      <c r="Q124" s="27"/>
       <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
+      <c r="S124" s="31"/>
       <c r="T124" s="27"/>
-      <c r="U124" s="27"/>
-      <c r="V124" s="32"/>
-    </row>
-    <row r="125" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U124" s="55"/>
+      <c r="V124" s="27"/>
+      <c r="W124" s="27"/>
+      <c r="X124" s="27"/>
+      <c r="Y124" s="27"/>
+      <c r="Z124" s="32"/>
+    </row>
+    <row r="125" spans="1:26" ht="16.5" customHeight="1">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
       <c r="C125" s="29"/>
@@ -7053,21 +7746,25 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="31"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
+      <c r="L125" s="56"/>
+      <c r="M125" s="56"/>
+      <c r="N125" s="31"/>
+      <c r="O125" s="27"/>
       <c r="P125" s="27"/>
-      <c r="Q125" s="55"/>
+      <c r="Q125" s="27"/>
       <c r="R125" s="27"/>
-      <c r="S125" s="27"/>
+      <c r="S125" s="31"/>
       <c r="T125" s="27"/>
-      <c r="U125" s="27"/>
-      <c r="V125" s="32"/>
-    </row>
-    <row r="126" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U125" s="55"/>
+      <c r="V125" s="27"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="27"/>
+      <c r="Y125" s="27"/>
+      <c r="Z125" s="32"/>
+    </row>
+    <row r="126" spans="1:26" ht="16.5" customHeight="1">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
       <c r="C126" s="29"/>
@@ -7077,21 +7774,25 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="31"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="31"/>
+      <c r="O126" s="27"/>
       <c r="P126" s="27"/>
-      <c r="Q126" s="55"/>
+      <c r="Q126" s="27"/>
       <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
+      <c r="S126" s="31"/>
       <c r="T126" s="27"/>
-      <c r="U126" s="27"/>
-      <c r="V126" s="32"/>
-    </row>
-    <row r="127" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U126" s="55"/>
+      <c r="V126" s="27"/>
+      <c r="W126" s="27"/>
+      <c r="X126" s="27"/>
+      <c r="Y126" s="27"/>
+      <c r="Z126" s="32"/>
+    </row>
+    <row r="127" spans="1:26" ht="16.5" customHeight="1">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
       <c r="C127" s="29"/>
@@ -7101,21 +7802,25 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="27"/>
-      <c r="O127" s="31"/>
+      <c r="J127" s="56"/>
+      <c r="K127" s="56"/>
+      <c r="L127" s="56"/>
+      <c r="M127" s="56"/>
+      <c r="N127" s="31"/>
+      <c r="O127" s="27"/>
       <c r="P127" s="27"/>
-      <c r="Q127" s="55"/>
+      <c r="Q127" s="27"/>
       <c r="R127" s="27"/>
-      <c r="S127" s="27"/>
+      <c r="S127" s="31"/>
       <c r="T127" s="27"/>
-      <c r="U127" s="27"/>
-      <c r="V127" s="32"/>
-    </row>
-    <row r="128" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U127" s="55"/>
+      <c r="V127" s="27"/>
+      <c r="W127" s="27"/>
+      <c r="X127" s="27"/>
+      <c r="Y127" s="27"/>
+      <c r="Z127" s="32"/>
+    </row>
+    <row r="128" spans="1:26" ht="16.5" customHeight="1">
       <c r="A128" s="27"/>
       <c r="B128" s="27"/>
       <c r="C128" s="29"/>
@@ -7125,21 +7830,25 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="31"/>
+      <c r="J128" s="56"/>
+      <c r="K128" s="56"/>
+      <c r="L128" s="56"/>
+      <c r="M128" s="56"/>
+      <c r="N128" s="31"/>
+      <c r="O128" s="27"/>
       <c r="P128" s="27"/>
-      <c r="Q128" s="55"/>
+      <c r="Q128" s="27"/>
       <c r="R128" s="27"/>
-      <c r="S128" s="27"/>
+      <c r="S128" s="31"/>
       <c r="T128" s="27"/>
-      <c r="U128" s="27"/>
-      <c r="V128" s="32"/>
-    </row>
-    <row r="129" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U128" s="55"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="32"/>
+    </row>
+    <row r="129" spans="1:26" ht="16.5" customHeight="1">
       <c r="A129" s="27"/>
       <c r="B129" s="27"/>
       <c r="C129" s="29"/>
@@ -7149,21 +7858,25 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="31"/>
+      <c r="J129" s="56"/>
+      <c r="K129" s="56"/>
+      <c r="L129" s="56"/>
+      <c r="M129" s="56"/>
+      <c r="N129" s="31"/>
+      <c r="O129" s="27"/>
       <c r="P129" s="27"/>
-      <c r="Q129" s="55"/>
+      <c r="Q129" s="27"/>
       <c r="R129" s="27"/>
-      <c r="S129" s="27"/>
+      <c r="S129" s="31"/>
       <c r="T129" s="27"/>
-      <c r="U129" s="27"/>
-      <c r="V129" s="32"/>
-    </row>
-    <row r="130" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U129" s="55"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="27"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="32"/>
+    </row>
+    <row r="130" spans="1:26" ht="16.5" customHeight="1">
       <c r="A130" s="27"/>
       <c r="B130" s="27"/>
       <c r="C130" s="29"/>
@@ -7173,21 +7886,25 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="31"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="31"/>
+      <c r="J130" s="56"/>
+      <c r="K130" s="56"/>
+      <c r="L130" s="56"/>
+      <c r="M130" s="56"/>
+      <c r="N130" s="31"/>
+      <c r="O130" s="27"/>
       <c r="P130" s="27"/>
-      <c r="Q130" s="55"/>
+      <c r="Q130" s="27"/>
       <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
+      <c r="S130" s="31"/>
       <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="32"/>
-    </row>
-    <row r="131" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U130" s="55"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="32"/>
+    </row>
+    <row r="131" spans="1:26" ht="16.5" customHeight="1">
       <c r="A131" s="27"/>
       <c r="B131" s="27"/>
       <c r="C131" s="29"/>
@@ -7197,21 +7914,25 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="27"/>
-      <c r="O131" s="31"/>
+      <c r="J131" s="56"/>
+      <c r="K131" s="56"/>
+      <c r="L131" s="56"/>
+      <c r="M131" s="56"/>
+      <c r="N131" s="31"/>
+      <c r="O131" s="27"/>
       <c r="P131" s="27"/>
-      <c r="Q131" s="55"/>
+      <c r="Q131" s="27"/>
       <c r="R131" s="27"/>
-      <c r="S131" s="27"/>
+      <c r="S131" s="31"/>
       <c r="T131" s="27"/>
-      <c r="U131" s="27"/>
-      <c r="V131" s="32"/>
-    </row>
-    <row r="132" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U131" s="55"/>
+      <c r="V131" s="27"/>
+      <c r="W131" s="27"/>
+      <c r="X131" s="27"/>
+      <c r="Y131" s="27"/>
+      <c r="Z131" s="32"/>
+    </row>
+    <row r="132" spans="1:26" ht="16.5" customHeight="1">
       <c r="A132" s="27"/>
       <c r="B132" s="27"/>
       <c r="C132" s="29"/>
@@ -7221,21 +7942,25 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="31"/>
+      <c r="J132" s="56"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="56"/>
+      <c r="N132" s="31"/>
+      <c r="O132" s="27"/>
       <c r="P132" s="27"/>
-      <c r="Q132" s="55"/>
+      <c r="Q132" s="27"/>
       <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
+      <c r="S132" s="31"/>
       <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="32"/>
-    </row>
-    <row r="133" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U132" s="55"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="32"/>
+    </row>
+    <row r="133" spans="1:26" ht="16.5" customHeight="1">
       <c r="A133" s="27"/>
       <c r="B133" s="27"/>
       <c r="C133" s="29"/>
@@ -7245,21 +7970,25 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="31"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="31"/>
+      <c r="J133" s="56"/>
+      <c r="K133" s="56"/>
+      <c r="L133" s="56"/>
+      <c r="M133" s="56"/>
+      <c r="N133" s="31"/>
+      <c r="O133" s="27"/>
       <c r="P133" s="27"/>
-      <c r="Q133" s="55"/>
+      <c r="Q133" s="27"/>
       <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
+      <c r="S133" s="31"/>
       <c r="T133" s="27"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="32"/>
-    </row>
-    <row r="134" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U133" s="55"/>
+      <c r="V133" s="27"/>
+      <c r="W133" s="27"/>
+      <c r="X133" s="27"/>
+      <c r="Y133" s="27"/>
+      <c r="Z133" s="32"/>
+    </row>
+    <row r="134" spans="1:26" ht="16.5" customHeight="1">
       <c r="A134" s="27"/>
       <c r="B134" s="27"/>
       <c r="C134" s="29"/>
@@ -7269,21 +7998,25 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="31"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
+      <c r="M134" s="56"/>
+      <c r="N134" s="31"/>
+      <c r="O134" s="27"/>
       <c r="P134" s="27"/>
-      <c r="Q134" s="55"/>
+      <c r="Q134" s="27"/>
       <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
+      <c r="S134" s="31"/>
       <c r="T134" s="27"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="32"/>
-    </row>
-    <row r="135" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U134" s="55"/>
+      <c r="V134" s="27"/>
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="32"/>
+    </row>
+    <row r="135" spans="1:26" ht="16.5" customHeight="1">
       <c r="A135" s="27"/>
       <c r="B135" s="27"/>
       <c r="C135" s="29"/>
@@ -7293,21 +8026,25 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="31"/>
+      <c r="J135" s="56"/>
+      <c r="K135" s="56"/>
+      <c r="L135" s="56"/>
+      <c r="M135" s="56"/>
+      <c r="N135" s="31"/>
+      <c r="O135" s="27"/>
       <c r="P135" s="27"/>
-      <c r="Q135" s="55"/>
+      <c r="Q135" s="27"/>
       <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
+      <c r="S135" s="31"/>
       <c r="T135" s="27"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="32"/>
-    </row>
-    <row r="136" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U135" s="55"/>
+      <c r="V135" s="27"/>
+      <c r="W135" s="27"/>
+      <c r="X135" s="27"/>
+      <c r="Y135" s="27"/>
+      <c r="Z135" s="32"/>
+    </row>
+    <row r="136" spans="1:26" ht="16.5" customHeight="1">
       <c r="A136" s="27"/>
       <c r="B136" s="27"/>
       <c r="C136" s="29"/>
@@ -7317,21 +8054,25 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="27"/>
-      <c r="O136" s="31"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56"/>
+      <c r="L136" s="56"/>
+      <c r="M136" s="56"/>
+      <c r="N136" s="31"/>
+      <c r="O136" s="27"/>
       <c r="P136" s="27"/>
-      <c r="Q136" s="55"/>
+      <c r="Q136" s="27"/>
       <c r="R136" s="27"/>
-      <c r="S136" s="27"/>
+      <c r="S136" s="31"/>
       <c r="T136" s="27"/>
-      <c r="U136" s="27"/>
-      <c r="V136" s="32"/>
-    </row>
-    <row r="137" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U136" s="55"/>
+      <c r="V136" s="27"/>
+      <c r="W136" s="27"/>
+      <c r="X136" s="27"/>
+      <c r="Y136" s="27"/>
+      <c r="Z136" s="32"/>
+    </row>
+    <row r="137" spans="1:26" ht="16.5" customHeight="1">
       <c r="A137" s="27"/>
       <c r="B137" s="27"/>
       <c r="C137" s="29"/>
@@ -7341,21 +8082,25 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="31"/>
+      <c r="J137" s="56"/>
+      <c r="K137" s="56"/>
+      <c r="L137" s="56"/>
+      <c r="M137" s="56"/>
+      <c r="N137" s="31"/>
+      <c r="O137" s="27"/>
       <c r="P137" s="27"/>
-      <c r="Q137" s="55"/>
+      <c r="Q137" s="27"/>
       <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
+      <c r="S137" s="31"/>
       <c r="T137" s="27"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="32"/>
-    </row>
-    <row r="138" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U137" s="55"/>
+      <c r="V137" s="27"/>
+      <c r="W137" s="27"/>
+      <c r="X137" s="27"/>
+      <c r="Y137" s="27"/>
+      <c r="Z137" s="32"/>
+    </row>
+    <row r="138" spans="1:26" ht="16.5" customHeight="1">
       <c r="A138" s="27"/>
       <c r="B138" s="27"/>
       <c r="C138" s="29"/>
@@ -7365,21 +8110,25 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="27"/>
-      <c r="O138" s="31"/>
+      <c r="J138" s="56"/>
+      <c r="K138" s="56"/>
+      <c r="L138" s="56"/>
+      <c r="M138" s="56"/>
+      <c r="N138" s="31"/>
+      <c r="O138" s="27"/>
       <c r="P138" s="27"/>
-      <c r="Q138" s="55"/>
+      <c r="Q138" s="27"/>
       <c r="R138" s="27"/>
-      <c r="S138" s="27"/>
+      <c r="S138" s="31"/>
       <c r="T138" s="27"/>
-      <c r="U138" s="27"/>
-      <c r="V138" s="32"/>
-    </row>
-    <row r="139" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U138" s="55"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="32"/>
+    </row>
+    <row r="139" spans="1:26" ht="16.5" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="27"/>
       <c r="C139" s="29"/>
@@ -7389,21 +8138,25 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="27"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="27"/>
-      <c r="O139" s="31"/>
+      <c r="J139" s="56"/>
+      <c r="K139" s="56"/>
+      <c r="L139" s="56"/>
+      <c r="M139" s="56"/>
+      <c r="N139" s="31"/>
+      <c r="O139" s="27"/>
       <c r="P139" s="27"/>
-      <c r="Q139" s="55"/>
+      <c r="Q139" s="27"/>
       <c r="R139" s="27"/>
-      <c r="S139" s="27"/>
+      <c r="S139" s="31"/>
       <c r="T139" s="27"/>
-      <c r="U139" s="27"/>
-      <c r="V139" s="32"/>
-    </row>
-    <row r="140" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U139" s="55"/>
+      <c r="V139" s="27"/>
+      <c r="W139" s="27"/>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="32"/>
+    </row>
+    <row r="140" spans="1:26" ht="16.5" customHeight="1">
       <c r="A140" s="27"/>
       <c r="B140" s="27"/>
       <c r="C140" s="29"/>
@@ -7413,21 +8166,25 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="31"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="27"/>
-      <c r="O140" s="31"/>
+      <c r="J140" s="56"/>
+      <c r="K140" s="56"/>
+      <c r="L140" s="56"/>
+      <c r="M140" s="56"/>
+      <c r="N140" s="31"/>
+      <c r="O140" s="27"/>
       <c r="P140" s="27"/>
-      <c r="Q140" s="55"/>
+      <c r="Q140" s="27"/>
       <c r="R140" s="27"/>
-      <c r="S140" s="27"/>
+      <c r="S140" s="31"/>
       <c r="T140" s="27"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="32"/>
-    </row>
-    <row r="141" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U140" s="55"/>
+      <c r="V140" s="27"/>
+      <c r="W140" s="27"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="32"/>
+    </row>
+    <row r="141" spans="1:26" ht="16.5" customHeight="1">
       <c r="A141" s="27"/>
       <c r="B141" s="27"/>
       <c r="C141" s="29"/>
@@ -7437,21 +8194,25 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="31"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="31"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="56"/>
+      <c r="L141" s="56"/>
+      <c r="M141" s="56"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="27"/>
       <c r="P141" s="27"/>
-      <c r="Q141" s="55"/>
+      <c r="Q141" s="27"/>
       <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
+      <c r="S141" s="31"/>
       <c r="T141" s="27"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="32"/>
-    </row>
-    <row r="142" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U141" s="55"/>
+      <c r="V141" s="27"/>
+      <c r="W141" s="27"/>
+      <c r="X141" s="27"/>
+      <c r="Y141" s="27"/>
+      <c r="Z141" s="32"/>
+    </row>
+    <row r="142" spans="1:26" ht="16.5" customHeight="1">
       <c r="A142" s="27"/>
       <c r="B142" s="27"/>
       <c r="C142" s="29"/>
@@ -7461,21 +8222,25 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="31"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="27"/>
-      <c r="O142" s="31"/>
+      <c r="J142" s="56"/>
+      <c r="K142" s="56"/>
+      <c r="L142" s="56"/>
+      <c r="M142" s="56"/>
+      <c r="N142" s="31"/>
+      <c r="O142" s="27"/>
       <c r="P142" s="27"/>
-      <c r="Q142" s="55"/>
+      <c r="Q142" s="27"/>
       <c r="R142" s="27"/>
-      <c r="S142" s="27"/>
+      <c r="S142" s="31"/>
       <c r="T142" s="27"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="32"/>
-    </row>
-    <row r="143" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U142" s="55"/>
+      <c r="V142" s="27"/>
+      <c r="W142" s="27"/>
+      <c r="X142" s="27"/>
+      <c r="Y142" s="27"/>
+      <c r="Z142" s="32"/>
+    </row>
+    <row r="143" spans="1:26" ht="16.5" customHeight="1">
       <c r="A143" s="27"/>
       <c r="B143" s="27"/>
       <c r="C143" s="29"/>
@@ -7485,21 +8250,25 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="31"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="27"/>
-      <c r="O143" s="31"/>
+      <c r="J143" s="56"/>
+      <c r="K143" s="56"/>
+      <c r="L143" s="56"/>
+      <c r="M143" s="56"/>
+      <c r="N143" s="31"/>
+      <c r="O143" s="27"/>
       <c r="P143" s="27"/>
-      <c r="Q143" s="55"/>
+      <c r="Q143" s="27"/>
       <c r="R143" s="27"/>
-      <c r="S143" s="27"/>
+      <c r="S143" s="31"/>
       <c r="T143" s="27"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="32"/>
-    </row>
-    <row r="144" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U143" s="55"/>
+      <c r="V143" s="27"/>
+      <c r="W143" s="27"/>
+      <c r="X143" s="27"/>
+      <c r="Y143" s="27"/>
+      <c r="Z143" s="32"/>
+    </row>
+    <row r="144" spans="1:26" ht="16.5" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
       <c r="C144" s="29"/>
@@ -7509,21 +8278,25 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="31"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="27"/>
-      <c r="O144" s="31"/>
+      <c r="J144" s="56"/>
+      <c r="K144" s="56"/>
+      <c r="L144" s="56"/>
+      <c r="M144" s="56"/>
+      <c r="N144" s="31"/>
+      <c r="O144" s="27"/>
       <c r="P144" s="27"/>
-      <c r="Q144" s="55"/>
+      <c r="Q144" s="27"/>
       <c r="R144" s="27"/>
-      <c r="S144" s="27"/>
+      <c r="S144" s="31"/>
       <c r="T144" s="27"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="32"/>
-    </row>
-    <row r="145" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U144" s="55"/>
+      <c r="V144" s="27"/>
+      <c r="W144" s="27"/>
+      <c r="X144" s="27"/>
+      <c r="Y144" s="27"/>
+      <c r="Z144" s="32"/>
+    </row>
+    <row r="145" spans="1:26" ht="16.5" customHeight="1">
       <c r="A145" s="27"/>
       <c r="B145" s="27"/>
       <c r="C145" s="29"/>
@@ -7533,21 +8306,25 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="27"/>
-      <c r="O145" s="31"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="56"/>
+      <c r="L145" s="56"/>
+      <c r="M145" s="56"/>
+      <c r="N145" s="31"/>
+      <c r="O145" s="27"/>
       <c r="P145" s="27"/>
-      <c r="Q145" s="55"/>
+      <c r="Q145" s="27"/>
       <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
+      <c r="S145" s="31"/>
       <c r="T145" s="27"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="32"/>
-    </row>
-    <row r="146" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U145" s="55"/>
+      <c r="V145" s="27"/>
+      <c r="W145" s="27"/>
+      <c r="X145" s="27"/>
+      <c r="Y145" s="27"/>
+      <c r="Z145" s="32"/>
+    </row>
+    <row r="146" spans="1:26" ht="16.5" customHeight="1">
       <c r="A146" s="27"/>
       <c r="B146" s="27"/>
       <c r="C146" s="29"/>
@@ -7557,21 +8334,25 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="27"/>
-      <c r="O146" s="31"/>
+      <c r="J146" s="56"/>
+      <c r="K146" s="56"/>
+      <c r="L146" s="56"/>
+      <c r="M146" s="56"/>
+      <c r="N146" s="31"/>
+      <c r="O146" s="27"/>
       <c r="P146" s="27"/>
-      <c r="Q146" s="55"/>
+      <c r="Q146" s="27"/>
       <c r="R146" s="27"/>
-      <c r="S146" s="27"/>
+      <c r="S146" s="31"/>
       <c r="T146" s="27"/>
-      <c r="U146" s="27"/>
-      <c r="V146" s="32"/>
-    </row>
-    <row r="147" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U146" s="55"/>
+      <c r="V146" s="27"/>
+      <c r="W146" s="27"/>
+      <c r="X146" s="27"/>
+      <c r="Y146" s="27"/>
+      <c r="Z146" s="32"/>
+    </row>
+    <row r="147" spans="1:26" ht="16.5" customHeight="1">
       <c r="A147" s="27"/>
       <c r="B147" s="27"/>
       <c r="C147" s="29"/>
@@ -7581,21 +8362,25 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="31"/>
+      <c r="J147" s="56"/>
+      <c r="K147" s="56"/>
+      <c r="L147" s="56"/>
+      <c r="M147" s="56"/>
+      <c r="N147" s="31"/>
+      <c r="O147" s="27"/>
       <c r="P147" s="27"/>
-      <c r="Q147" s="55"/>
+      <c r="Q147" s="27"/>
       <c r="R147" s="27"/>
-      <c r="S147" s="27"/>
+      <c r="S147" s="31"/>
       <c r="T147" s="27"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="32"/>
-    </row>
-    <row r="148" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U147" s="55"/>
+      <c r="V147" s="27"/>
+      <c r="W147" s="27"/>
+      <c r="X147" s="27"/>
+      <c r="Y147" s="27"/>
+      <c r="Z147" s="32"/>
+    </row>
+    <row r="148" spans="1:26" ht="16.5" customHeight="1">
       <c r="A148" s="27"/>
       <c r="B148" s="27"/>
       <c r="C148" s="29"/>
@@ -7605,21 +8390,25 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="27"/>
-      <c r="M148" s="27"/>
-      <c r="N148" s="27"/>
-      <c r="O148" s="31"/>
+      <c r="J148" s="56"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="31"/>
+      <c r="O148" s="27"/>
       <c r="P148" s="27"/>
-      <c r="Q148" s="55"/>
+      <c r="Q148" s="27"/>
       <c r="R148" s="27"/>
-      <c r="S148" s="27"/>
+      <c r="S148" s="31"/>
       <c r="T148" s="27"/>
-      <c r="U148" s="27"/>
-      <c r="V148" s="32"/>
-    </row>
-    <row r="149" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U148" s="55"/>
+      <c r="V148" s="27"/>
+      <c r="W148" s="27"/>
+      <c r="X148" s="27"/>
+      <c r="Y148" s="27"/>
+      <c r="Z148" s="32"/>
+    </row>
+    <row r="149" spans="1:26" ht="16.5" customHeight="1">
       <c r="A149" s="27"/>
       <c r="B149" s="27"/>
       <c r="C149" s="29"/>
@@ -7629,21 +8418,25 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="27"/>
-      <c r="M149" s="27"/>
-      <c r="N149" s="27"/>
-      <c r="O149" s="31"/>
+      <c r="J149" s="56"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="31"/>
+      <c r="O149" s="27"/>
       <c r="P149" s="27"/>
-      <c r="Q149" s="55"/>
+      <c r="Q149" s="27"/>
       <c r="R149" s="27"/>
-      <c r="S149" s="27"/>
+      <c r="S149" s="31"/>
       <c r="T149" s="27"/>
-      <c r="U149" s="27"/>
-      <c r="V149" s="32"/>
-    </row>
-    <row r="150" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U149" s="55"/>
+      <c r="V149" s="27"/>
+      <c r="W149" s="27"/>
+      <c r="X149" s="27"/>
+      <c r="Y149" s="27"/>
+      <c r="Z149" s="32"/>
+    </row>
+    <row r="150" spans="1:26" ht="16.5" customHeight="1">
       <c r="A150" s="27"/>
       <c r="B150" s="27"/>
       <c r="C150" s="29"/>
@@ -7653,21 +8446,25 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="31"/>
-      <c r="K150" s="27"/>
-      <c r="L150" s="27"/>
-      <c r="M150" s="27"/>
-      <c r="N150" s="27"/>
-      <c r="O150" s="31"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="27"/>
       <c r="P150" s="27"/>
-      <c r="Q150" s="55"/>
+      <c r="Q150" s="27"/>
       <c r="R150" s="27"/>
-      <c r="S150" s="27"/>
+      <c r="S150" s="31"/>
       <c r="T150" s="27"/>
-      <c r="U150" s="27"/>
-      <c r="V150" s="32"/>
-    </row>
-    <row r="151" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U150" s="55"/>
+      <c r="V150" s="27"/>
+      <c r="W150" s="27"/>
+      <c r="X150" s="27"/>
+      <c r="Y150" s="27"/>
+      <c r="Z150" s="32"/>
+    </row>
+    <row r="151" spans="1:26" ht="16.5" customHeight="1">
       <c r="A151" s="27"/>
       <c r="B151" s="27"/>
       <c r="C151" s="29"/>
@@ -7677,21 +8474,25 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="27"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="27"/>
-      <c r="O151" s="31"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="56"/>
+      <c r="N151" s="31"/>
+      <c r="O151" s="27"/>
       <c r="P151" s="27"/>
-      <c r="Q151" s="55"/>
+      <c r="Q151" s="27"/>
       <c r="R151" s="27"/>
-      <c r="S151" s="27"/>
+      <c r="S151" s="31"/>
       <c r="T151" s="27"/>
-      <c r="U151" s="27"/>
-      <c r="V151" s="32"/>
-    </row>
-    <row r="152" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U151" s="55"/>
+      <c r="V151" s="27"/>
+      <c r="W151" s="27"/>
+      <c r="X151" s="27"/>
+      <c r="Y151" s="27"/>
+      <c r="Z151" s="32"/>
+    </row>
+    <row r="152" spans="1:26" ht="16.5" customHeight="1">
       <c r="A152" s="27"/>
       <c r="B152" s="27"/>
       <c r="C152" s="29"/>
@@ -7701,21 +8502,25 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="31"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="27"/>
-      <c r="M152" s="27"/>
-      <c r="N152" s="27"/>
-      <c r="O152" s="31"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="56"/>
+      <c r="N152" s="31"/>
+      <c r="O152" s="27"/>
       <c r="P152" s="27"/>
-      <c r="Q152" s="55"/>
+      <c r="Q152" s="27"/>
       <c r="R152" s="27"/>
-      <c r="S152" s="27"/>
+      <c r="S152" s="31"/>
       <c r="T152" s="27"/>
-      <c r="U152" s="27"/>
-      <c r="V152" s="32"/>
-    </row>
-    <row r="153" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U152" s="55"/>
+      <c r="V152" s="27"/>
+      <c r="W152" s="27"/>
+      <c r="X152" s="27"/>
+      <c r="Y152" s="27"/>
+      <c r="Z152" s="32"/>
+    </row>
+    <row r="153" spans="1:26" ht="16.5" customHeight="1">
       <c r="A153" s="27"/>
       <c r="B153" s="27"/>
       <c r="C153" s="29"/>
@@ -7725,21 +8530,25 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
-      <c r="M153" s="27"/>
-      <c r="N153" s="27"/>
-      <c r="O153" s="31"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="31"/>
+      <c r="O153" s="27"/>
       <c r="P153" s="27"/>
-      <c r="Q153" s="55"/>
+      <c r="Q153" s="27"/>
       <c r="R153" s="27"/>
-      <c r="S153" s="27"/>
+      <c r="S153" s="31"/>
       <c r="T153" s="27"/>
-      <c r="U153" s="27"/>
-      <c r="V153" s="32"/>
-    </row>
-    <row r="154" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U153" s="55"/>
+      <c r="V153" s="27"/>
+      <c r="W153" s="27"/>
+      <c r="X153" s="27"/>
+      <c r="Y153" s="27"/>
+      <c r="Z153" s="32"/>
+    </row>
+    <row r="154" spans="1:26" ht="16.5" customHeight="1">
       <c r="A154" s="27"/>
       <c r="B154" s="27"/>
       <c r="C154" s="29"/>
@@ -7749,21 +8558,25 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="27"/>
-      <c r="M154" s="27"/>
-      <c r="N154" s="27"/>
-      <c r="O154" s="31"/>
+      <c r="J154" s="56"/>
+      <c r="K154" s="56"/>
+      <c r="L154" s="56"/>
+      <c r="M154" s="56"/>
+      <c r="N154" s="31"/>
+      <c r="O154" s="27"/>
       <c r="P154" s="27"/>
-      <c r="Q154" s="55"/>
+      <c r="Q154" s="27"/>
       <c r="R154" s="27"/>
-      <c r="S154" s="27"/>
+      <c r="S154" s="31"/>
       <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="32"/>
-    </row>
-    <row r="155" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U154" s="55"/>
+      <c r="V154" s="27"/>
+      <c r="W154" s="27"/>
+      <c r="X154" s="27"/>
+      <c r="Y154" s="27"/>
+      <c r="Z154" s="32"/>
+    </row>
+    <row r="155" spans="1:26" ht="16.5" customHeight="1">
       <c r="A155" s="27"/>
       <c r="B155" s="27"/>
       <c r="C155" s="29"/>
@@ -7773,21 +8586,25 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="27"/>
-      <c r="M155" s="27"/>
-      <c r="N155" s="27"/>
-      <c r="O155" s="31"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="27"/>
       <c r="P155" s="27"/>
-      <c r="Q155" s="55"/>
+      <c r="Q155" s="27"/>
       <c r="R155" s="27"/>
-      <c r="S155" s="27"/>
+      <c r="S155" s="31"/>
       <c r="T155" s="27"/>
-      <c r="U155" s="27"/>
-      <c r="V155" s="32"/>
-    </row>
-    <row r="156" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U155" s="55"/>
+      <c r="V155" s="27"/>
+      <c r="W155" s="27"/>
+      <c r="X155" s="27"/>
+      <c r="Y155" s="27"/>
+      <c r="Z155" s="32"/>
+    </row>
+    <row r="156" spans="1:26" ht="16.5" customHeight="1">
       <c r="A156" s="27"/>
       <c r="B156" s="27"/>
       <c r="C156" s="29"/>
@@ -7797,21 +8614,25 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="31"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="27"/>
-      <c r="M156" s="27"/>
-      <c r="N156" s="27"/>
-      <c r="O156" s="31"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
+      <c r="M156" s="56"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="27"/>
       <c r="P156" s="27"/>
-      <c r="Q156" s="55"/>
+      <c r="Q156" s="27"/>
       <c r="R156" s="27"/>
-      <c r="S156" s="27"/>
+      <c r="S156" s="31"/>
       <c r="T156" s="27"/>
-      <c r="U156" s="27"/>
-      <c r="V156" s="32"/>
-    </row>
-    <row r="157" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U156" s="55"/>
+      <c r="V156" s="27"/>
+      <c r="W156" s="27"/>
+      <c r="X156" s="27"/>
+      <c r="Y156" s="27"/>
+      <c r="Z156" s="32"/>
+    </row>
+    <row r="157" spans="1:26" ht="16.5" customHeight="1">
       <c r="A157" s="27"/>
       <c r="B157" s="27"/>
       <c r="C157" s="29"/>
@@ -7821,21 +8642,25 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="31"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="27"/>
-      <c r="M157" s="27"/>
-      <c r="N157" s="27"/>
-      <c r="O157" s="31"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="31"/>
+      <c r="O157" s="27"/>
       <c r="P157" s="27"/>
-      <c r="Q157" s="55"/>
+      <c r="Q157" s="27"/>
       <c r="R157" s="27"/>
-      <c r="S157" s="27"/>
+      <c r="S157" s="31"/>
       <c r="T157" s="27"/>
-      <c r="U157" s="27"/>
-      <c r="V157" s="32"/>
-    </row>
-    <row r="158" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U157" s="55"/>
+      <c r="V157" s="27"/>
+      <c r="W157" s="27"/>
+      <c r="X157" s="27"/>
+      <c r="Y157" s="27"/>
+      <c r="Z157" s="32"/>
+    </row>
+    <row r="158" spans="1:26" ht="16.5" customHeight="1">
       <c r="A158" s="27"/>
       <c r="B158" s="27"/>
       <c r="C158" s="29"/>
@@ -7845,21 +8670,25 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="31"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
-      <c r="M158" s="27"/>
-      <c r="N158" s="27"/>
-      <c r="O158" s="31"/>
+      <c r="J158" s="56"/>
+      <c r="K158" s="56"/>
+      <c r="L158" s="56"/>
+      <c r="M158" s="56"/>
+      <c r="N158" s="31"/>
+      <c r="O158" s="27"/>
       <c r="P158" s="27"/>
-      <c r="Q158" s="55"/>
+      <c r="Q158" s="27"/>
       <c r="R158" s="27"/>
-      <c r="S158" s="27"/>
+      <c r="S158" s="31"/>
       <c r="T158" s="27"/>
-      <c r="U158" s="27"/>
-      <c r="V158" s="32"/>
-    </row>
-    <row r="159" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U158" s="55"/>
+      <c r="V158" s="27"/>
+      <c r="W158" s="27"/>
+      <c r="X158" s="27"/>
+      <c r="Y158" s="27"/>
+      <c r="Z158" s="32"/>
+    </row>
+    <row r="159" spans="1:26" ht="16.5" customHeight="1">
       <c r="A159" s="27"/>
       <c r="B159" s="27"/>
       <c r="C159" s="29"/>
@@ -7869,21 +8698,25 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="31"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="31"/>
+      <c r="J159" s="56"/>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56"/>
+      <c r="M159" s="56"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="27"/>
       <c r="P159" s="27"/>
-      <c r="Q159" s="55"/>
+      <c r="Q159" s="27"/>
       <c r="R159" s="27"/>
-      <c r="S159" s="27"/>
+      <c r="S159" s="31"/>
       <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="32"/>
-    </row>
-    <row r="160" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U159" s="55"/>
+      <c r="V159" s="27"/>
+      <c r="W159" s="27"/>
+      <c r="X159" s="27"/>
+      <c r="Y159" s="27"/>
+      <c r="Z159" s="32"/>
+    </row>
+    <row r="160" spans="1:26" ht="16.5" customHeight="1">
       <c r="A160" s="27"/>
       <c r="B160" s="27"/>
       <c r="C160" s="29"/>
@@ -7893,21 +8726,25 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="31"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="31"/>
+      <c r="J160" s="56"/>
+      <c r="K160" s="56"/>
+      <c r="L160" s="56"/>
+      <c r="M160" s="56"/>
+      <c r="N160" s="31"/>
+      <c r="O160" s="27"/>
       <c r="P160" s="27"/>
-      <c r="Q160" s="55"/>
+      <c r="Q160" s="27"/>
       <c r="R160" s="27"/>
-      <c r="S160" s="27"/>
+      <c r="S160" s="31"/>
       <c r="T160" s="27"/>
-      <c r="U160" s="27"/>
-      <c r="V160" s="32"/>
-    </row>
-    <row r="161" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U160" s="55"/>
+      <c r="V160" s="27"/>
+      <c r="W160" s="27"/>
+      <c r="X160" s="27"/>
+      <c r="Y160" s="27"/>
+      <c r="Z160" s="32"/>
+    </row>
+    <row r="161" spans="1:26" ht="16.5" customHeight="1">
       <c r="A161" s="27"/>
       <c r="B161" s="27"/>
       <c r="C161" s="29"/>
@@ -7917,21 +8754,25 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="31"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
-      <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="31"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+      <c r="L161" s="56"/>
+      <c r="M161" s="56"/>
+      <c r="N161" s="31"/>
+      <c r="O161" s="27"/>
       <c r="P161" s="27"/>
-      <c r="Q161" s="55"/>
+      <c r="Q161" s="27"/>
       <c r="R161" s="27"/>
-      <c r="S161" s="27"/>
+      <c r="S161" s="31"/>
       <c r="T161" s="27"/>
-      <c r="U161" s="27"/>
-      <c r="V161" s="32"/>
-    </row>
-    <row r="162" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U161" s="55"/>
+      <c r="V161" s="27"/>
+      <c r="W161" s="27"/>
+      <c r="X161" s="27"/>
+      <c r="Y161" s="27"/>
+      <c r="Z161" s="32"/>
+    </row>
+    <row r="162" spans="1:26" ht="16.5" customHeight="1">
       <c r="A162" s="27"/>
       <c r="B162" s="27"/>
       <c r="C162" s="29"/>
@@ -7941,21 +8782,25 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="31"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="27"/>
-      <c r="M162" s="27"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="31"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="56"/>
+      <c r="L162" s="56"/>
+      <c r="M162" s="56"/>
+      <c r="N162" s="31"/>
+      <c r="O162" s="27"/>
       <c r="P162" s="27"/>
-      <c r="Q162" s="55"/>
+      <c r="Q162" s="27"/>
       <c r="R162" s="27"/>
-      <c r="S162" s="27"/>
+      <c r="S162" s="31"/>
       <c r="T162" s="27"/>
-      <c r="U162" s="27"/>
-      <c r="V162" s="32"/>
-    </row>
-    <row r="163" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U162" s="55"/>
+      <c r="V162" s="27"/>
+      <c r="W162" s="27"/>
+      <c r="X162" s="27"/>
+      <c r="Y162" s="27"/>
+      <c r="Z162" s="32"/>
+    </row>
+    <row r="163" spans="1:26" ht="16.5" customHeight="1">
       <c r="A163" s="27"/>
       <c r="B163" s="27"/>
       <c r="C163" s="29"/>
@@ -7965,21 +8810,25 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="31"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="27"/>
-      <c r="M163" s="27"/>
-      <c r="N163" s="27"/>
-      <c r="O163" s="31"/>
+      <c r="J163" s="56"/>
+      <c r="K163" s="56"/>
+      <c r="L163" s="56"/>
+      <c r="M163" s="56"/>
+      <c r="N163" s="31"/>
+      <c r="O163" s="27"/>
       <c r="P163" s="27"/>
-      <c r="Q163" s="55"/>
+      <c r="Q163" s="27"/>
       <c r="R163" s="27"/>
-      <c r="S163" s="27"/>
+      <c r="S163" s="31"/>
       <c r="T163" s="27"/>
-      <c r="U163" s="27"/>
-      <c r="V163" s="32"/>
-    </row>
-    <row r="164" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U163" s="55"/>
+      <c r="V163" s="27"/>
+      <c r="W163" s="27"/>
+      <c r="X163" s="27"/>
+      <c r="Y163" s="27"/>
+      <c r="Z163" s="32"/>
+    </row>
+    <row r="164" spans="1:26" ht="16.5" customHeight="1">
       <c r="A164" s="27"/>
       <c r="B164" s="27"/>
       <c r="C164" s="29"/>
@@ -7989,21 +8838,25 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="31"/>
-      <c r="K164" s="27"/>
-      <c r="L164" s="27"/>
-      <c r="M164" s="27"/>
-      <c r="N164" s="27"/>
-      <c r="O164" s="31"/>
+      <c r="J164" s="56"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="56"/>
+      <c r="N164" s="31"/>
+      <c r="O164" s="27"/>
       <c r="P164" s="27"/>
-      <c r="Q164" s="55"/>
+      <c r="Q164" s="27"/>
       <c r="R164" s="27"/>
-      <c r="S164" s="27"/>
+      <c r="S164" s="31"/>
       <c r="T164" s="27"/>
-      <c r="U164" s="27"/>
-      <c r="V164" s="32"/>
-    </row>
-    <row r="165" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U164" s="55"/>
+      <c r="V164" s="27"/>
+      <c r="W164" s="27"/>
+      <c r="X164" s="27"/>
+      <c r="Y164" s="27"/>
+      <c r="Z164" s="32"/>
+    </row>
+    <row r="165" spans="1:26" ht="16.5" customHeight="1">
       <c r="A165" s="27"/>
       <c r="B165" s="27"/>
       <c r="C165" s="29"/>
@@ -8013,21 +8866,25 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="31"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="27"/>
-      <c r="M165" s="27"/>
-      <c r="N165" s="27"/>
-      <c r="O165" s="31"/>
+      <c r="J165" s="56"/>
+      <c r="K165" s="56"/>
+      <c r="L165" s="56"/>
+      <c r="M165" s="56"/>
+      <c r="N165" s="31"/>
+      <c r="O165" s="27"/>
       <c r="P165" s="27"/>
-      <c r="Q165" s="55"/>
+      <c r="Q165" s="27"/>
       <c r="R165" s="27"/>
-      <c r="S165" s="27"/>
+      <c r="S165" s="31"/>
       <c r="T165" s="27"/>
-      <c r="U165" s="27"/>
-      <c r="V165" s="32"/>
-    </row>
-    <row r="166" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U165" s="55"/>
+      <c r="V165" s="27"/>
+      <c r="W165" s="27"/>
+      <c r="X165" s="27"/>
+      <c r="Y165" s="27"/>
+      <c r="Z165" s="32"/>
+    </row>
+    <row r="166" spans="1:26" ht="16.5" customHeight="1">
       <c r="A166" s="27"/>
       <c r="B166" s="27"/>
       <c r="C166" s="29"/>
@@ -8037,21 +8894,25 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="31"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="27"/>
-      <c r="M166" s="27"/>
-      <c r="N166" s="27"/>
-      <c r="O166" s="31"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
+      <c r="L166" s="56"/>
+      <c r="M166" s="56"/>
+      <c r="N166" s="31"/>
+      <c r="O166" s="27"/>
       <c r="P166" s="27"/>
-      <c r="Q166" s="55"/>
+      <c r="Q166" s="27"/>
       <c r="R166" s="27"/>
-      <c r="S166" s="27"/>
+      <c r="S166" s="31"/>
       <c r="T166" s="27"/>
-      <c r="U166" s="27"/>
-      <c r="V166" s="32"/>
-    </row>
-    <row r="167" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U166" s="55"/>
+      <c r="V166" s="27"/>
+      <c r="W166" s="27"/>
+      <c r="X166" s="27"/>
+      <c r="Y166" s="27"/>
+      <c r="Z166" s="32"/>
+    </row>
+    <row r="167" spans="1:26" ht="16.5" customHeight="1">
       <c r="A167" s="27"/>
       <c r="B167" s="27"/>
       <c r="C167" s="29"/>
@@ -8061,21 +8922,25 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="31"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="31"/>
+      <c r="J167" s="56"/>
+      <c r="K167" s="56"/>
+      <c r="L167" s="56"/>
+      <c r="M167" s="56"/>
+      <c r="N167" s="31"/>
+      <c r="O167" s="27"/>
       <c r="P167" s="27"/>
-      <c r="Q167" s="55"/>
+      <c r="Q167" s="27"/>
       <c r="R167" s="27"/>
-      <c r="S167" s="27"/>
+      <c r="S167" s="31"/>
       <c r="T167" s="27"/>
-      <c r="U167" s="27"/>
-      <c r="V167" s="32"/>
-    </row>
-    <row r="168" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U167" s="55"/>
+      <c r="V167" s="27"/>
+      <c r="W167" s="27"/>
+      <c r="X167" s="27"/>
+      <c r="Y167" s="27"/>
+      <c r="Z167" s="32"/>
+    </row>
+    <row r="168" spans="1:26" ht="16.5" customHeight="1">
       <c r="A168" s="27"/>
       <c r="B168" s="27"/>
       <c r="C168" s="29"/>
@@ -8085,21 +8950,25 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="27"/>
-      <c r="N168" s="27"/>
-      <c r="O168" s="31"/>
+      <c r="J168" s="56"/>
+      <c r="K168" s="56"/>
+      <c r="L168" s="56"/>
+      <c r="M168" s="56"/>
+      <c r="N168" s="31"/>
+      <c r="O168" s="27"/>
       <c r="P168" s="27"/>
-      <c r="Q168" s="55"/>
+      <c r="Q168" s="27"/>
       <c r="R168" s="27"/>
-      <c r="S168" s="27"/>
+      <c r="S168" s="31"/>
       <c r="T168" s="27"/>
-      <c r="U168" s="27"/>
-      <c r="V168" s="32"/>
-    </row>
-    <row r="169" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U168" s="55"/>
+      <c r="V168" s="27"/>
+      <c r="W168" s="27"/>
+      <c r="X168" s="27"/>
+      <c r="Y168" s="27"/>
+      <c r="Z168" s="32"/>
+    </row>
+    <row r="169" spans="1:26" ht="16.5" customHeight="1">
       <c r="A169" s="27"/>
       <c r="B169" s="27"/>
       <c r="C169" s="29"/>
@@ -8109,21 +8978,25 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="31"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="27"/>
-      <c r="M169" s="27"/>
-      <c r="N169" s="27"/>
-      <c r="O169" s="31"/>
+      <c r="J169" s="56"/>
+      <c r="K169" s="56"/>
+      <c r="L169" s="56"/>
+      <c r="M169" s="56"/>
+      <c r="N169" s="31"/>
+      <c r="O169" s="27"/>
       <c r="P169" s="27"/>
-      <c r="Q169" s="55"/>
+      <c r="Q169" s="27"/>
       <c r="R169" s="27"/>
-      <c r="S169" s="27"/>
+      <c r="S169" s="31"/>
       <c r="T169" s="27"/>
-      <c r="U169" s="27"/>
-      <c r="V169" s="32"/>
-    </row>
-    <row r="170" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U169" s="55"/>
+      <c r="V169" s="27"/>
+      <c r="W169" s="27"/>
+      <c r="X169" s="27"/>
+      <c r="Y169" s="27"/>
+      <c r="Z169" s="32"/>
+    </row>
+    <row r="170" spans="1:26" ht="16.5" customHeight="1">
       <c r="A170" s="27"/>
       <c r="B170" s="27"/>
       <c r="C170" s="29"/>
@@ -8133,21 +9006,25 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="31"/>
-      <c r="K170" s="27"/>
-      <c r="L170" s="27"/>
-      <c r="M170" s="27"/>
-      <c r="N170" s="27"/>
-      <c r="O170" s="31"/>
+      <c r="J170" s="56"/>
+      <c r="K170" s="56"/>
+      <c r="L170" s="56"/>
+      <c r="M170" s="56"/>
+      <c r="N170" s="31"/>
+      <c r="O170" s="27"/>
       <c r="P170" s="27"/>
-      <c r="Q170" s="55"/>
+      <c r="Q170" s="27"/>
       <c r="R170" s="27"/>
-      <c r="S170" s="27"/>
+      <c r="S170" s="31"/>
       <c r="T170" s="27"/>
-      <c r="U170" s="27"/>
-      <c r="V170" s="32"/>
-    </row>
-    <row r="171" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U170" s="55"/>
+      <c r="V170" s="27"/>
+      <c r="W170" s="27"/>
+      <c r="X170" s="27"/>
+      <c r="Y170" s="27"/>
+      <c r="Z170" s="32"/>
+    </row>
+    <row r="171" spans="1:26" ht="16.5" customHeight="1">
       <c r="A171" s="27"/>
       <c r="B171" s="27"/>
       <c r="C171" s="29"/>
@@ -8157,21 +9034,25 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="31"/>
-      <c r="K171" s="27"/>
-      <c r="L171" s="27"/>
-      <c r="M171" s="27"/>
-      <c r="N171" s="27"/>
-      <c r="O171" s="31"/>
+      <c r="J171" s="56"/>
+      <c r="K171" s="56"/>
+      <c r="L171" s="56"/>
+      <c r="M171" s="56"/>
+      <c r="N171" s="31"/>
+      <c r="O171" s="27"/>
       <c r="P171" s="27"/>
-      <c r="Q171" s="55"/>
+      <c r="Q171" s="27"/>
       <c r="R171" s="27"/>
-      <c r="S171" s="27"/>
+      <c r="S171" s="31"/>
       <c r="T171" s="27"/>
-      <c r="U171" s="27"/>
-      <c r="V171" s="32"/>
-    </row>
-    <row r="172" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U171" s="55"/>
+      <c r="V171" s="27"/>
+      <c r="W171" s="27"/>
+      <c r="X171" s="27"/>
+      <c r="Y171" s="27"/>
+      <c r="Z171" s="32"/>
+    </row>
+    <row r="172" spans="1:26" ht="16.5" customHeight="1">
       <c r="A172" s="27"/>
       <c r="B172" s="27"/>
       <c r="C172" s="29"/>
@@ -8181,21 +9062,25 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="31"/>
-      <c r="K172" s="27"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="31"/>
+      <c r="J172" s="56"/>
+      <c r="K172" s="56"/>
+      <c r="L172" s="56"/>
+      <c r="M172" s="56"/>
+      <c r="N172" s="31"/>
+      <c r="O172" s="27"/>
       <c r="P172" s="27"/>
-      <c r="Q172" s="55"/>
+      <c r="Q172" s="27"/>
       <c r="R172" s="27"/>
-      <c r="S172" s="27"/>
+      <c r="S172" s="31"/>
       <c r="T172" s="27"/>
-      <c r="U172" s="27"/>
-      <c r="V172" s="32"/>
-    </row>
-    <row r="173" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U172" s="55"/>
+      <c r="V172" s="27"/>
+      <c r="W172" s="27"/>
+      <c r="X172" s="27"/>
+      <c r="Y172" s="27"/>
+      <c r="Z172" s="32"/>
+    </row>
+    <row r="173" spans="1:26" ht="16.5" customHeight="1">
       <c r="A173" s="27"/>
       <c r="B173" s="27"/>
       <c r="C173" s="29"/>
@@ -8205,21 +9090,25 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="31"/>
+      <c r="J173" s="56"/>
+      <c r="K173" s="56"/>
+      <c r="L173" s="56"/>
+      <c r="M173" s="56"/>
+      <c r="N173" s="31"/>
+      <c r="O173" s="27"/>
       <c r="P173" s="27"/>
-      <c r="Q173" s="55"/>
+      <c r="Q173" s="27"/>
       <c r="R173" s="27"/>
-      <c r="S173" s="27"/>
+      <c r="S173" s="31"/>
       <c r="T173" s="27"/>
-      <c r="U173" s="27"/>
-      <c r="V173" s="32"/>
-    </row>
-    <row r="174" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U173" s="55"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="32"/>
+    </row>
+    <row r="174" spans="1:26" ht="16.5" customHeight="1">
       <c r="A174" s="27"/>
       <c r="B174" s="27"/>
       <c r="C174" s="29"/>
@@ -8229,21 +9118,25 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="31"/>
+      <c r="J174" s="56"/>
+      <c r="K174" s="56"/>
+      <c r="L174" s="56"/>
+      <c r="M174" s="56"/>
+      <c r="N174" s="31"/>
+      <c r="O174" s="27"/>
       <c r="P174" s="27"/>
-      <c r="Q174" s="55"/>
+      <c r="Q174" s="27"/>
       <c r="R174" s="27"/>
-      <c r="S174" s="27"/>
+      <c r="S174" s="31"/>
       <c r="T174" s="27"/>
-      <c r="U174" s="27"/>
-      <c r="V174" s="32"/>
-    </row>
-    <row r="175" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U174" s="55"/>
+      <c r="V174" s="27"/>
+      <c r="W174" s="27"/>
+      <c r="X174" s="27"/>
+      <c r="Y174" s="27"/>
+      <c r="Z174" s="32"/>
+    </row>
+    <row r="175" spans="1:26" ht="16.5" customHeight="1">
       <c r="A175" s="27"/>
       <c r="B175" s="27"/>
       <c r="C175" s="29"/>
@@ -8253,21 +9146,25 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="27"/>
-      <c r="L175" s="27"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-      <c r="O175" s="31"/>
+      <c r="J175" s="56"/>
+      <c r="K175" s="56"/>
+      <c r="L175" s="56"/>
+      <c r="M175" s="56"/>
+      <c r="N175" s="31"/>
+      <c r="O175" s="27"/>
       <c r="P175" s="27"/>
-      <c r="Q175" s="55"/>
+      <c r="Q175" s="27"/>
       <c r="R175" s="27"/>
-      <c r="S175" s="27"/>
+      <c r="S175" s="31"/>
       <c r="T175" s="27"/>
-      <c r="U175" s="27"/>
-      <c r="V175" s="32"/>
-    </row>
-    <row r="176" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U175" s="55"/>
+      <c r="V175" s="27"/>
+      <c r="W175" s="27"/>
+      <c r="X175" s="27"/>
+      <c r="Y175" s="27"/>
+      <c r="Z175" s="32"/>
+    </row>
+    <row r="176" spans="1:26" ht="16.5" customHeight="1">
       <c r="A176" s="27"/>
       <c r="B176" s="27"/>
       <c r="C176" s="29"/>
@@ -8277,21 +9174,25 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="31"/>
+      <c r="J176" s="56"/>
+      <c r="K176" s="56"/>
+      <c r="L176" s="56"/>
+      <c r="M176" s="56"/>
+      <c r="N176" s="31"/>
+      <c r="O176" s="27"/>
       <c r="P176" s="27"/>
-      <c r="Q176" s="55"/>
+      <c r="Q176" s="27"/>
       <c r="R176" s="27"/>
-      <c r="S176" s="27"/>
+      <c r="S176" s="31"/>
       <c r="T176" s="27"/>
-      <c r="U176" s="27"/>
-      <c r="V176" s="32"/>
-    </row>
-    <row r="177" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U176" s="55"/>
+      <c r="V176" s="27"/>
+      <c r="W176" s="27"/>
+      <c r="X176" s="27"/>
+      <c r="Y176" s="27"/>
+      <c r="Z176" s="32"/>
+    </row>
+    <row r="177" spans="1:26" ht="16.5" customHeight="1">
       <c r="A177" s="27"/>
       <c r="B177" s="27"/>
       <c r="C177" s="29"/>
@@ -8301,21 +9202,25 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="31"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="31"/>
+      <c r="J177" s="56"/>
+      <c r="K177" s="56"/>
+      <c r="L177" s="56"/>
+      <c r="M177" s="56"/>
+      <c r="N177" s="31"/>
+      <c r="O177" s="27"/>
       <c r="P177" s="27"/>
-      <c r="Q177" s="55"/>
+      <c r="Q177" s="27"/>
       <c r="R177" s="27"/>
-      <c r="S177" s="27"/>
+      <c r="S177" s="31"/>
       <c r="T177" s="27"/>
-      <c r="U177" s="27"/>
-      <c r="V177" s="32"/>
-    </row>
-    <row r="178" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U177" s="55"/>
+      <c r="V177" s="27"/>
+      <c r="W177" s="27"/>
+      <c r="X177" s="27"/>
+      <c r="Y177" s="27"/>
+      <c r="Z177" s="32"/>
+    </row>
+    <row r="178" spans="1:26" ht="16.5" customHeight="1">
       <c r="A178" s="27"/>
       <c r="B178" s="27"/>
       <c r="C178" s="29"/>
@@ -8325,21 +9230,25 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="31"/>
+      <c r="J178" s="56"/>
+      <c r="K178" s="56"/>
+      <c r="L178" s="56"/>
+      <c r="M178" s="56"/>
+      <c r="N178" s="31"/>
+      <c r="O178" s="27"/>
       <c r="P178" s="27"/>
-      <c r="Q178" s="55"/>
+      <c r="Q178" s="27"/>
       <c r="R178" s="27"/>
-      <c r="S178" s="27"/>
+      <c r="S178" s="31"/>
       <c r="T178" s="27"/>
-      <c r="U178" s="27"/>
-      <c r="V178" s="32"/>
-    </row>
-    <row r="179" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U178" s="55"/>
+      <c r="V178" s="27"/>
+      <c r="W178" s="27"/>
+      <c r="X178" s="27"/>
+      <c r="Y178" s="27"/>
+      <c r="Z178" s="32"/>
+    </row>
+    <row r="179" spans="1:26" ht="16.5" customHeight="1">
       <c r="A179" s="27"/>
       <c r="B179" s="27"/>
       <c r="C179" s="29"/>
@@ -8349,21 +9258,25 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="31"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="31"/>
+      <c r="J179" s="56"/>
+      <c r="K179" s="56"/>
+      <c r="L179" s="56"/>
+      <c r="M179" s="56"/>
+      <c r="N179" s="31"/>
+      <c r="O179" s="27"/>
       <c r="P179" s="27"/>
-      <c r="Q179" s="55"/>
+      <c r="Q179" s="27"/>
       <c r="R179" s="27"/>
-      <c r="S179" s="27"/>
+      <c r="S179" s="31"/>
       <c r="T179" s="27"/>
-      <c r="U179" s="27"/>
-      <c r="V179" s="32"/>
-    </row>
-    <row r="180" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U179" s="55"/>
+      <c r="V179" s="27"/>
+      <c r="W179" s="27"/>
+      <c r="X179" s="27"/>
+      <c r="Y179" s="27"/>
+      <c r="Z179" s="32"/>
+    </row>
+    <row r="180" spans="1:26" ht="16.5" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="27"/>
       <c r="C180" s="29"/>
@@ -8373,21 +9286,25 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="31"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="31"/>
+      <c r="J180" s="56"/>
+      <c r="K180" s="56"/>
+      <c r="L180" s="56"/>
+      <c r="M180" s="56"/>
+      <c r="N180" s="31"/>
+      <c r="O180" s="27"/>
       <c r="P180" s="27"/>
-      <c r="Q180" s="55"/>
+      <c r="Q180" s="27"/>
       <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
+      <c r="S180" s="31"/>
       <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="32"/>
-    </row>
-    <row r="181" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U180" s="55"/>
+      <c r="V180" s="27"/>
+      <c r="W180" s="27"/>
+      <c r="X180" s="27"/>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="32"/>
+    </row>
+    <row r="181" spans="1:26" ht="16.5" customHeight="1">
       <c r="A181" s="27"/>
       <c r="B181" s="27"/>
       <c r="C181" s="29"/>
@@ -8397,21 +9314,25 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="31"/>
+      <c r="J181" s="56"/>
+      <c r="K181" s="56"/>
+      <c r="L181" s="56"/>
+      <c r="M181" s="56"/>
+      <c r="N181" s="31"/>
+      <c r="O181" s="27"/>
       <c r="P181" s="27"/>
-      <c r="Q181" s="55"/>
+      <c r="Q181" s="27"/>
       <c r="R181" s="27"/>
-      <c r="S181" s="27"/>
+      <c r="S181" s="31"/>
       <c r="T181" s="27"/>
-      <c r="U181" s="27"/>
-      <c r="V181" s="32"/>
-    </row>
-    <row r="182" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U181" s="55"/>
+      <c r="V181" s="27"/>
+      <c r="W181" s="27"/>
+      <c r="X181" s="27"/>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="32"/>
+    </row>
+    <row r="182" spans="1:26" ht="16.5" customHeight="1">
       <c r="A182" s="27"/>
       <c r="B182" s="27"/>
       <c r="C182" s="29"/>
@@ -8421,21 +9342,25 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="31"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="31"/>
+      <c r="J182" s="56"/>
+      <c r="K182" s="56"/>
+      <c r="L182" s="56"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="31"/>
+      <c r="O182" s="27"/>
       <c r="P182" s="27"/>
-      <c r="Q182" s="55"/>
+      <c r="Q182" s="27"/>
       <c r="R182" s="27"/>
-      <c r="S182" s="27"/>
+      <c r="S182" s="31"/>
       <c r="T182" s="27"/>
-      <c r="U182" s="27"/>
-      <c r="V182" s="32"/>
-    </row>
-    <row r="183" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U182" s="55"/>
+      <c r="V182" s="27"/>
+      <c r="W182" s="27"/>
+      <c r="X182" s="27"/>
+      <c r="Y182" s="27"/>
+      <c r="Z182" s="32"/>
+    </row>
+    <row r="183" spans="1:26" ht="16.5" customHeight="1">
       <c r="A183" s="27"/>
       <c r="B183" s="27"/>
       <c r="C183" s="29"/>
@@ -8445,21 +9370,25 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="31"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="31"/>
+      <c r="J183" s="56"/>
+      <c r="K183" s="56"/>
+      <c r="L183" s="56"/>
+      <c r="M183" s="56"/>
+      <c r="N183" s="31"/>
+      <c r="O183" s="27"/>
       <c r="P183" s="27"/>
-      <c r="Q183" s="55"/>
+      <c r="Q183" s="27"/>
       <c r="R183" s="27"/>
-      <c r="S183" s="27"/>
+      <c r="S183" s="31"/>
       <c r="T183" s="27"/>
-      <c r="U183" s="27"/>
-      <c r="V183" s="32"/>
-    </row>
-    <row r="184" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U183" s="55"/>
+      <c r="V183" s="27"/>
+      <c r="W183" s="27"/>
+      <c r="X183" s="27"/>
+      <c r="Y183" s="27"/>
+      <c r="Z183" s="32"/>
+    </row>
+    <row r="184" spans="1:26" ht="16.5" customHeight="1">
       <c r="A184" s="27"/>
       <c r="B184" s="27"/>
       <c r="C184" s="29"/>
@@ -8469,21 +9398,25 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="31"/>
-      <c r="K184" s="27"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="27"/>
-      <c r="N184" s="27"/>
-      <c r="O184" s="31"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+      <c r="M184" s="56"/>
+      <c r="N184" s="31"/>
+      <c r="O184" s="27"/>
       <c r="P184" s="27"/>
-      <c r="Q184" s="55"/>
+      <c r="Q184" s="27"/>
       <c r="R184" s="27"/>
-      <c r="S184" s="27"/>
+      <c r="S184" s="31"/>
       <c r="T184" s="27"/>
-      <c r="U184" s="27"/>
-      <c r="V184" s="32"/>
-    </row>
-    <row r="185" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U184" s="55"/>
+      <c r="V184" s="27"/>
+      <c r="W184" s="27"/>
+      <c r="X184" s="27"/>
+      <c r="Y184" s="27"/>
+      <c r="Z184" s="32"/>
+    </row>
+    <row r="185" spans="1:26" ht="16.5" customHeight="1">
       <c r="A185" s="27"/>
       <c r="B185" s="27"/>
       <c r="C185" s="29"/>
@@ -8493,21 +9426,25 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="31"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
-      <c r="N185" s="27"/>
-      <c r="O185" s="31"/>
+      <c r="J185" s="56"/>
+      <c r="K185" s="56"/>
+      <c r="L185" s="56"/>
+      <c r="M185" s="56"/>
+      <c r="N185" s="31"/>
+      <c r="O185" s="27"/>
       <c r="P185" s="27"/>
-      <c r="Q185" s="55"/>
+      <c r="Q185" s="27"/>
       <c r="R185" s="27"/>
-      <c r="S185" s="27"/>
+      <c r="S185" s="31"/>
       <c r="T185" s="27"/>
-      <c r="U185" s="27"/>
-      <c r="V185" s="32"/>
-    </row>
-    <row r="186" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U185" s="55"/>
+      <c r="V185" s="27"/>
+      <c r="W185" s="27"/>
+      <c r="X185" s="27"/>
+      <c r="Y185" s="27"/>
+      <c r="Z185" s="32"/>
+    </row>
+    <row r="186" spans="1:26" ht="16.5" customHeight="1">
       <c r="A186" s="27"/>
       <c r="B186" s="27"/>
       <c r="C186" s="29"/>
@@ -8517,21 +9454,25 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="31"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-      <c r="N186" s="27"/>
-      <c r="O186" s="31"/>
+      <c r="J186" s="56"/>
+      <c r="K186" s="56"/>
+      <c r="L186" s="56"/>
+      <c r="M186" s="56"/>
+      <c r="N186" s="31"/>
+      <c r="O186" s="27"/>
       <c r="P186" s="27"/>
-      <c r="Q186" s="55"/>
+      <c r="Q186" s="27"/>
       <c r="R186" s="27"/>
-      <c r="S186" s="27"/>
+      <c r="S186" s="31"/>
       <c r="T186" s="27"/>
-      <c r="U186" s="27"/>
-      <c r="V186" s="32"/>
-    </row>
-    <row r="187" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U186" s="55"/>
+      <c r="V186" s="27"/>
+      <c r="W186" s="27"/>
+      <c r="X186" s="27"/>
+      <c r="Y186" s="27"/>
+      <c r="Z186" s="32"/>
+    </row>
+    <row r="187" spans="1:26" ht="16.5" customHeight="1">
       <c r="A187" s="27"/>
       <c r="B187" s="27"/>
       <c r="C187" s="29"/>
@@ -8541,21 +9482,25 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="31"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="27"/>
-      <c r="M187" s="27"/>
-      <c r="N187" s="27"/>
-      <c r="O187" s="31"/>
+      <c r="J187" s="56"/>
+      <c r="K187" s="56"/>
+      <c r="L187" s="56"/>
+      <c r="M187" s="56"/>
+      <c r="N187" s="31"/>
+      <c r="O187" s="27"/>
       <c r="P187" s="27"/>
-      <c r="Q187" s="55"/>
+      <c r="Q187" s="27"/>
       <c r="R187" s="27"/>
-      <c r="S187" s="27"/>
+      <c r="S187" s="31"/>
       <c r="T187" s="27"/>
-      <c r="U187" s="27"/>
-      <c r="V187" s="32"/>
-    </row>
-    <row r="188" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U187" s="55"/>
+      <c r="V187" s="27"/>
+      <c r="W187" s="27"/>
+      <c r="X187" s="27"/>
+      <c r="Y187" s="27"/>
+      <c r="Z187" s="32"/>
+    </row>
+    <row r="188" spans="1:26" ht="16.5" customHeight="1">
       <c r="A188" s="27"/>
       <c r="B188" s="27"/>
       <c r="C188" s="29"/>
@@ -8565,21 +9510,25 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="31"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="31"/>
+      <c r="J188" s="56"/>
+      <c r="K188" s="56"/>
+      <c r="L188" s="56"/>
+      <c r="M188" s="56"/>
+      <c r="N188" s="31"/>
+      <c r="O188" s="27"/>
       <c r="P188" s="27"/>
-      <c r="Q188" s="55"/>
+      <c r="Q188" s="27"/>
       <c r="R188" s="27"/>
-      <c r="S188" s="27"/>
+      <c r="S188" s="31"/>
       <c r="T188" s="27"/>
-      <c r="U188" s="27"/>
-      <c r="V188" s="32"/>
-    </row>
-    <row r="189" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U188" s="55"/>
+      <c r="V188" s="27"/>
+      <c r="W188" s="27"/>
+      <c r="X188" s="27"/>
+      <c r="Y188" s="27"/>
+      <c r="Z188" s="32"/>
+    </row>
+    <row r="189" spans="1:26" ht="16.5" customHeight="1">
       <c r="A189" s="27"/>
       <c r="B189" s="27"/>
       <c r="C189" s="29"/>
@@ -8589,21 +9538,25 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="31"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="27"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="27"/>
-      <c r="O189" s="31"/>
+      <c r="J189" s="56"/>
+      <c r="K189" s="56"/>
+      <c r="L189" s="56"/>
+      <c r="M189" s="56"/>
+      <c r="N189" s="31"/>
+      <c r="O189" s="27"/>
       <c r="P189" s="27"/>
-      <c r="Q189" s="55"/>
+      <c r="Q189" s="27"/>
       <c r="R189" s="27"/>
-      <c r="S189" s="27"/>
+      <c r="S189" s="31"/>
       <c r="T189" s="27"/>
-      <c r="U189" s="27"/>
-      <c r="V189" s="32"/>
-    </row>
-    <row r="190" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U189" s="55"/>
+      <c r="V189" s="27"/>
+      <c r="W189" s="27"/>
+      <c r="X189" s="27"/>
+      <c r="Y189" s="27"/>
+      <c r="Z189" s="32"/>
+    </row>
+    <row r="190" spans="1:26" ht="16.5" customHeight="1">
       <c r="A190" s="27"/>
       <c r="B190" s="27"/>
       <c r="C190" s="29"/>
@@ -8613,21 +9566,25 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="31"/>
-      <c r="K190" s="27"/>
-      <c r="L190" s="27"/>
-      <c r="M190" s="27"/>
-      <c r="N190" s="27"/>
-      <c r="O190" s="31"/>
+      <c r="J190" s="56"/>
+      <c r="K190" s="56"/>
+      <c r="L190" s="56"/>
+      <c r="M190" s="56"/>
+      <c r="N190" s="31"/>
+      <c r="O190" s="27"/>
       <c r="P190" s="27"/>
-      <c r="Q190" s="55"/>
+      <c r="Q190" s="27"/>
       <c r="R190" s="27"/>
-      <c r="S190" s="27"/>
+      <c r="S190" s="31"/>
       <c r="T190" s="27"/>
-      <c r="U190" s="27"/>
-      <c r="V190" s="32"/>
-    </row>
-    <row r="191" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U190" s="55"/>
+      <c r="V190" s="27"/>
+      <c r="W190" s="27"/>
+      <c r="X190" s="27"/>
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="32"/>
+    </row>
+    <row r="191" spans="1:26" ht="16.5" customHeight="1">
       <c r="A191" s="27"/>
       <c r="B191" s="27"/>
       <c r="C191" s="29"/>
@@ -8637,21 +9594,25 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="27"/>
-      <c r="L191" s="27"/>
-      <c r="M191" s="27"/>
-      <c r="N191" s="27"/>
-      <c r="O191" s="31"/>
+      <c r="J191" s="56"/>
+      <c r="K191" s="56"/>
+      <c r="L191" s="56"/>
+      <c r="M191" s="56"/>
+      <c r="N191" s="31"/>
+      <c r="O191" s="27"/>
       <c r="P191" s="27"/>
-      <c r="Q191" s="55"/>
+      <c r="Q191" s="27"/>
       <c r="R191" s="27"/>
-      <c r="S191" s="27"/>
+      <c r="S191" s="31"/>
       <c r="T191" s="27"/>
-      <c r="U191" s="27"/>
-      <c r="V191" s="32"/>
-    </row>
-    <row r="192" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U191" s="55"/>
+      <c r="V191" s="27"/>
+      <c r="W191" s="27"/>
+      <c r="X191" s="27"/>
+      <c r="Y191" s="27"/>
+      <c r="Z191" s="32"/>
+    </row>
+    <row r="192" spans="1:26" ht="16.5" customHeight="1">
       <c r="A192" s="27"/>
       <c r="B192" s="27"/>
       <c r="C192" s="29"/>
@@ -8661,21 +9622,25 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="31"/>
-      <c r="K192" s="27"/>
-      <c r="L192" s="27"/>
-      <c r="M192" s="27"/>
-      <c r="N192" s="27"/>
-      <c r="O192" s="31"/>
+      <c r="J192" s="56"/>
+      <c r="K192" s="56"/>
+      <c r="L192" s="56"/>
+      <c r="M192" s="56"/>
+      <c r="N192" s="31"/>
+      <c r="O192" s="27"/>
       <c r="P192" s="27"/>
-      <c r="Q192" s="55"/>
+      <c r="Q192" s="27"/>
       <c r="R192" s="27"/>
-      <c r="S192" s="27"/>
+      <c r="S192" s="31"/>
       <c r="T192" s="27"/>
-      <c r="U192" s="27"/>
-      <c r="V192" s="32"/>
-    </row>
-    <row r="193" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U192" s="55"/>
+      <c r="V192" s="27"/>
+      <c r="W192" s="27"/>
+      <c r="X192" s="27"/>
+      <c r="Y192" s="27"/>
+      <c r="Z192" s="32"/>
+    </row>
+    <row r="193" spans="1:26" ht="16.5" customHeight="1">
       <c r="A193" s="27"/>
       <c r="B193" s="27"/>
       <c r="C193" s="29"/>
@@ -8685,21 +9650,25 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="31"/>
-      <c r="K193" s="27"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="27"/>
-      <c r="O193" s="31"/>
+      <c r="J193" s="56"/>
+      <c r="K193" s="56"/>
+      <c r="L193" s="56"/>
+      <c r="M193" s="56"/>
+      <c r="N193" s="31"/>
+      <c r="O193" s="27"/>
       <c r="P193" s="27"/>
-      <c r="Q193" s="55"/>
+      <c r="Q193" s="27"/>
       <c r="R193" s="27"/>
-      <c r="S193" s="27"/>
+      <c r="S193" s="31"/>
       <c r="T193" s="27"/>
-      <c r="U193" s="27"/>
-      <c r="V193" s="32"/>
-    </row>
-    <row r="194" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U193" s="55"/>
+      <c r="V193" s="27"/>
+      <c r="W193" s="27"/>
+      <c r="X193" s="27"/>
+      <c r="Y193" s="27"/>
+      <c r="Z193" s="32"/>
+    </row>
+    <row r="194" spans="1:26" ht="16.5" customHeight="1">
       <c r="A194" s="27"/>
       <c r="B194" s="27"/>
       <c r="C194" s="29"/>
@@ -8709,21 +9678,25 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="31"/>
-      <c r="K194" s="27"/>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27"/>
-      <c r="O194" s="31"/>
+      <c r="J194" s="56"/>
+      <c r="K194" s="56"/>
+      <c r="L194" s="56"/>
+      <c r="M194" s="56"/>
+      <c r="N194" s="31"/>
+      <c r="O194" s="27"/>
       <c r="P194" s="27"/>
-      <c r="Q194" s="55"/>
+      <c r="Q194" s="27"/>
       <c r="R194" s="27"/>
-      <c r="S194" s="27"/>
+      <c r="S194" s="31"/>
       <c r="T194" s="27"/>
-      <c r="U194" s="27"/>
-      <c r="V194" s="32"/>
-    </row>
-    <row r="195" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U194" s="55"/>
+      <c r="V194" s="27"/>
+      <c r="W194" s="27"/>
+      <c r="X194" s="27"/>
+      <c r="Y194" s="27"/>
+      <c r="Z194" s="32"/>
+    </row>
+    <row r="195" spans="1:26" ht="16.5" customHeight="1">
       <c r="A195" s="27"/>
       <c r="B195" s="27"/>
       <c r="C195" s="29"/>
@@ -8733,21 +9706,25 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="31"/>
-      <c r="K195" s="27"/>
-      <c r="L195" s="27"/>
-      <c r="M195" s="27"/>
-      <c r="N195" s="27"/>
-      <c r="O195" s="31"/>
+      <c r="J195" s="56"/>
+      <c r="K195" s="56"/>
+      <c r="L195" s="56"/>
+      <c r="M195" s="56"/>
+      <c r="N195" s="31"/>
+      <c r="O195" s="27"/>
       <c r="P195" s="27"/>
-      <c r="Q195" s="55"/>
+      <c r="Q195" s="27"/>
       <c r="R195" s="27"/>
-      <c r="S195" s="27"/>
+      <c r="S195" s="31"/>
       <c r="T195" s="27"/>
-      <c r="U195" s="27"/>
-      <c r="V195" s="32"/>
-    </row>
-    <row r="196" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U195" s="55"/>
+      <c r="V195" s="27"/>
+      <c r="W195" s="27"/>
+      <c r="X195" s="27"/>
+      <c r="Y195" s="27"/>
+      <c r="Z195" s="32"/>
+    </row>
+    <row r="196" spans="1:26" ht="16.5" customHeight="1">
       <c r="A196" s="27"/>
       <c r="B196" s="27"/>
       <c r="C196" s="29"/>
@@ -8757,21 +9734,25 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="31"/>
-      <c r="K196" s="27"/>
-      <c r="L196" s="27"/>
-      <c r="M196" s="27"/>
-      <c r="N196" s="27"/>
-      <c r="O196" s="31"/>
+      <c r="J196" s="56"/>
+      <c r="K196" s="56"/>
+      <c r="L196" s="56"/>
+      <c r="M196" s="56"/>
+      <c r="N196" s="31"/>
+      <c r="O196" s="27"/>
       <c r="P196" s="27"/>
-      <c r="Q196" s="55"/>
+      <c r="Q196" s="27"/>
       <c r="R196" s="27"/>
-      <c r="S196" s="27"/>
+      <c r="S196" s="31"/>
       <c r="T196" s="27"/>
-      <c r="U196" s="27"/>
-      <c r="V196" s="32"/>
-    </row>
-    <row r="197" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U196" s="55"/>
+      <c r="V196" s="27"/>
+      <c r="W196" s="27"/>
+      <c r="X196" s="27"/>
+      <c r="Y196" s="27"/>
+      <c r="Z196" s="32"/>
+    </row>
+    <row r="197" spans="1:26" ht="16.5" customHeight="1">
       <c r="A197" s="27"/>
       <c r="B197" s="27"/>
       <c r="C197" s="29"/>
@@ -8781,21 +9762,25 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="27"/>
-      <c r="L197" s="27"/>
-      <c r="M197" s="27"/>
-      <c r="N197" s="27"/>
-      <c r="O197" s="31"/>
+      <c r="J197" s="56"/>
+      <c r="K197" s="56"/>
+      <c r="L197" s="56"/>
+      <c r="M197" s="56"/>
+      <c r="N197" s="31"/>
+      <c r="O197" s="27"/>
       <c r="P197" s="27"/>
-      <c r="Q197" s="55"/>
+      <c r="Q197" s="27"/>
       <c r="R197" s="27"/>
-      <c r="S197" s="27"/>
+      <c r="S197" s="31"/>
       <c r="T197" s="27"/>
-      <c r="U197" s="27"/>
-      <c r="V197" s="32"/>
-    </row>
-    <row r="198" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U197" s="55"/>
+      <c r="V197" s="27"/>
+      <c r="W197" s="27"/>
+      <c r="X197" s="27"/>
+      <c r="Y197" s="27"/>
+      <c r="Z197" s="32"/>
+    </row>
+    <row r="198" spans="1:26" ht="16.5" customHeight="1">
       <c r="A198" s="27"/>
       <c r="B198" s="27"/>
       <c r="C198" s="29"/>
@@ -8805,21 +9790,25 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="31"/>
-      <c r="K198" s="27"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="27"/>
-      <c r="N198" s="27"/>
-      <c r="O198" s="31"/>
+      <c r="J198" s="56"/>
+      <c r="K198" s="56"/>
+      <c r="L198" s="56"/>
+      <c r="M198" s="56"/>
+      <c r="N198" s="31"/>
+      <c r="O198" s="27"/>
       <c r="P198" s="27"/>
-      <c r="Q198" s="55"/>
+      <c r="Q198" s="27"/>
       <c r="R198" s="27"/>
-      <c r="S198" s="27"/>
+      <c r="S198" s="31"/>
       <c r="T198" s="27"/>
-      <c r="U198" s="27"/>
-      <c r="V198" s="32"/>
-    </row>
-    <row r="199" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U198" s="55"/>
+      <c r="V198" s="27"/>
+      <c r="W198" s="27"/>
+      <c r="X198" s="27"/>
+      <c r="Y198" s="27"/>
+      <c r="Z198" s="32"/>
+    </row>
+    <row r="199" spans="1:26" ht="16.5" customHeight="1">
       <c r="A199" s="27"/>
       <c r="B199" s="27"/>
       <c r="C199" s="29"/>
@@ -8829,21 +9818,25 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="31"/>
-      <c r="K199" s="27"/>
-      <c r="L199" s="27"/>
-      <c r="M199" s="27"/>
-      <c r="N199" s="27"/>
-      <c r="O199" s="31"/>
+      <c r="J199" s="56"/>
+      <c r="K199" s="56"/>
+      <c r="L199" s="56"/>
+      <c r="M199" s="56"/>
+      <c r="N199" s="31"/>
+      <c r="O199" s="27"/>
       <c r="P199" s="27"/>
-      <c r="Q199" s="55"/>
+      <c r="Q199" s="27"/>
       <c r="R199" s="27"/>
-      <c r="S199" s="27"/>
+      <c r="S199" s="31"/>
       <c r="T199" s="27"/>
-      <c r="U199" s="27"/>
-      <c r="V199" s="32"/>
-    </row>
-    <row r="200" spans="1:22" ht="16.5" customHeight="1">
+      <c r="U199" s="55"/>
+      <c r="V199" s="27"/>
+      <c r="W199" s="27"/>
+      <c r="X199" s="27"/>
+      <c r="Y199" s="27"/>
+      <c r="Z199" s="32"/>
+    </row>
+    <row r="200" spans="1:26" ht="16.5" customHeight="1">
       <c r="A200" s="27"/>
       <c r="B200" s="27"/>
       <c r="C200" s="29"/>
@@ -8853,28 +9846,32 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="31"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="27"/>
-      <c r="M200" s="27"/>
-      <c r="N200" s="27"/>
-      <c r="O200" s="31"/>
+      <c r="J200" s="56"/>
+      <c r="K200" s="56"/>
+      <c r="L200" s="56"/>
+      <c r="M200" s="56"/>
+      <c r="N200" s="31"/>
+      <c r="O200" s="27"/>
       <c r="P200" s="27"/>
-      <c r="Q200" s="55"/>
+      <c r="Q200" s="27"/>
       <c r="R200" s="27"/>
-      <c r="S200" s="27"/>
+      <c r="S200" s="31"/>
       <c r="T200" s="27"/>
-      <c r="U200" s="27"/>
-      <c r="V200" s="32"/>
-    </row>
-    <row r="201" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="202" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="203" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="204" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="205" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="206" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="207" spans="1:22" ht="16.5" customHeight="1"/>
-    <row r="208" spans="1:22" ht="16.5" customHeight="1"/>
+      <c r="U200" s="55"/>
+      <c r="V200" s="27"/>
+      <c r="W200" s="27"/>
+      <c r="X200" s="27"/>
+      <c r="Y200" s="27"/>
+      <c r="Z200" s="32"/>
+    </row>
+    <row r="201" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="202" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="203" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="204" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="205" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="206" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="207" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="208" spans="1:26" ht="16.5" customHeight="1"/>
     <row r="209" ht="16.5" customHeight="1"/>
     <row r="210" ht="16.5" customHeight="1"/>
     <row r="211" ht="16.5" customHeight="1"/>
@@ -9653,13 +10650,13 @@
   <mergeCells count="9">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="F1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7538513-4AC2-441A-A20E-AF12D3FC6976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7AADB2-1845-47A1-B25D-8C4C53ACA5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="510" windowWidth="14835" windowHeight="7725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
     <sheet name="히스토리" sheetId="3" r:id="rId2"/>
     <sheet name="양식" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataSignature="AMtx7mjQtFRHNBM5OAibAme2NXASsA5IVg=="/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="235">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -352,70 +352,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_Chptor00_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter02_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter02_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옆 방으로 이동(Q_Chapter01_1_1) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈 속에서(Q_Chptor00_1_0) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집 밖으로 탈출(Q_Chapter01_1_2) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화(Q_Chapter01_1_3) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대피 시작(Q_Chapter01_1_4) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>침낭 말리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>침공, 그리고 탈출(Q_Chapter01_1_0) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캠프장 주거구역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,60 +368,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_Chapter02_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>워크 리스트 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>침낭 말리기(Q_Chapter02_1_1) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마크를 따라 캠프장 주거구역의 (주거구역NPC)에게 이동하여 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_Chapter02_1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료 결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_Chapter02_1_0 퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_5 퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_4 퀘스트 활성화
-전화기 기능 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_3 퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_2 퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_0 퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter02_1_2 퀘스트 활성화
-침낭 기능 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트 완료시 발생하는 작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,10 +389,6 @@
   </si>
   <si>
     <t>곧 조식 시간이 될 것이다. 취사장으로 이동하여 끼니를 해결하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크 리스트 체크(Q_Chapter02_1_2) 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,15 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배도 채웠고 일할 시간이다. 무기술 구역에 가 잔업을 받자.
-마크를 따라 이동하라.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취사장에서 빵 얻기(Q_Chapter02_1_3) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캠프장 취사구역_
 (취사구역NPC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,63 +485,523 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캠프장 무기술구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter02_1_2 퀘스트 활성화
-캠프장 구조(주거,취사,무기술,보급 등) 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter02_1_3 퀘스트 활성화
+    <t>사전 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 수행 이전 받게 되는 물품 및 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우식으로부터 노끈을 구해오는 작업을 받았다.
+캠프장 보급구역으로 이동하여 연수에게 가보자.
+마크를 따라 이동하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 보급구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우식에게 노끈 가져다주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 캠프장 보급구역의 연수에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수에게 노끈을 얻었다. 우식에게 가져다주자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 훈련구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 캠프장 훈련구역의 우식에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배도 채웠고 일할 시간이다. 훈련구역에 가 작업을 받자.
+마크를 따라 이동하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땔감 구해오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌터가 필요할 정도로 중요한 일이라지만 그저 땔감을 구해오는 것은 쉬워보인다. 캠프장 밖으로 나가 땔감을 구하러 가자. 마크를 따라 이동하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역_
+희승 아저씨에게 이동 퀘스트 도착 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 캠프장 밖의 땔감이 위치한 지점으로 이동하여 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 밖_
+마크 끝 목적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 시선 돌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chptor00_1_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈 속에서(Q_Chptor00_1_00) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆 방으로 이동(Q_Chapter01_1_01) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 밖으로 탈출(Q_Chapter01_1_02) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화(Q_Chapter01_1_03) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피 시작(Q_Chapter01_1_04) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침공, 그리고 탈출(Q_Chapter01_1_00) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침낭 말리기(Q_Chapter02_1_01) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크 리스트 체크(Q_Chapter02_1_02) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취사장에서 빵 얻기(Q_Chapter02_1_03) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기술 구역으로 이동(Q_Chapter02_1_04) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈 구하기(Q_Chapter02_1_05) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우식에게 노끈 가져다주기(Q_Chapter02_1_06) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승 아저씨에게 이동(Q_Chapter02_1_07) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_09 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_08 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_07 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_06 퀘스트 활성화
+보급구역 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_05 퀘스트 활성화
+훈련구역 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_04 퀘스트 활성화
 취사장 기능 소개
 체력 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_Chapter02_1_4 퀘스트 활성화
-무기술구역 기능 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter02_1_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 연마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업대상 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌을 통해 작업대상 무기를 연마하여 우식에게 갖다 주자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전 수령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 수행 이전 받게 되는 물품 및 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Q_Chapter02_1_03 퀘스트 활성화
+캠프장 구조(주거,취사,훈련,보급 등) 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_02 퀘스트 활성화
+침낭 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_05 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_04 퀘스트 활성화
+전화기 기능 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_03 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_02 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터에 의해 땔감을 가져가기 어렵다.
+몬스터의 시선을 돌릴 만한 것을 찾아 시선을 돌려보자.
+마크를 따라 이동하여 시선을 돌릴만한 물건을 획득한 뒤
+몬스터에게 사용하자. (던지기) 기능을 통해 몬스터에게 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땔감 구해오기(Q_Chapter02_1_08) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 밖_
+땔감 구해오기 퀘스트 도착지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크를 따라 이동하여 돌멩이 획득,
+이후 몬스터에게 접근하여 표시된 구역 이내로 들어간 뒤 몬스터에게 돌멩이 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 밖_
+돌멩이 던진 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_10 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땔감을 챙겨 복귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 자리를 비운 틈을 타 땔감을 획득한 뒤 캠프장으로 복귀하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 시선 돌리기(Q_Chapter02_1_09) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 밖_
+몬스터의 시선 돌리기 퀘스트 도착지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 방면으로 이동하던 중 중간에 이벤트 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 밖_
+주인공 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승은 각오가 확실하다면 자신의 텐트를 방문하라고 한다.
+주거 구역의 희승 텐트로 찾아가자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땔감을 챙겨 복귀(Q_Chapter02_1_10) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역_
+희승 텐트안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승이 주인공에게 엄마의 무기를 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 선택무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter03_1_00 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter01_1_01 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter02_1_01 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter04_1_01 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter03_1_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니의 유품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter04_1_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세계인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter04_1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원을 넘어오는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인근에서 몬스터가 차원을 넘어오는 것이 감시물을 통해 포착되었다.
+소리의 근원지로 이동하여 수색해보자. 마크를 따라 이동하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 달성시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셰르파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(장소)_
+마크 끝 목적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter04_1_02 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter04_1_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승에게 보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯선 형태의 사람은 회복이 필요해보인다.
+캠프로 복귀하여 희승에게 가서 보고하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원을 넘어오는 소리(Q_Chapter04_1_01) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(장소)_
+차원을 넘어오는 소리 퀘스트 도착지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승 텐트 안의 희승에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter04_1_03 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter05_1_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상 감지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter_05_1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승에게 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승에게 가서 대단한 일은 없나 알아보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 주거구역의 희승에게 이동하여 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승이 급한 용무로 찾고 있다. 희승 텐트의 희승을 찾아가보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter05_1_02 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter_05_1_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승의 부름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니의 유품(Q_Chapter03_1_00) 완료
+(몇)레벨 도달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승의 부름(Q_Chapter_05_1_01) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 밖의 몬스터 (몇)마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지의 존재를 향한 여정을 앞두고 갑작스레 몬스터들이 출몰했다.
+몬스터를 (개수)마리 처치한 뒤 희승 텐트로 복귀하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승 텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_Chapter05_1_03 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +1149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1278,11 +1623,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1811,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,7 +1862,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,13 +2106,13 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1" thickBot="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="U2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1757,28 +2120,28 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="U3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1795,7 +2158,7 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="59" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1809,7 +2172,7 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="59" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1823,7 +2186,7 @@
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="9"/>
@@ -1833,7 +2196,7 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9"/>
@@ -1843,7 +2206,7 @@
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="59" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="9"/>
@@ -1853,7 +2216,7 @@
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="59" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="9"/>
@@ -1861,10 +2224,10 @@
     </row>
     <row r="12" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>151</v>
+        <v>112</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
@@ -1873,7 +2236,7 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="9"/>
@@ -1884,7 +2247,7 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="59" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="9"/>
@@ -1894,7 +2257,7 @@
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="59" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="9"/>
@@ -1904,7 +2267,7 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="59" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="9"/>
@@ -1912,10 +2275,10 @@
     </row>
     <row r="17" spans="2:6" ht="27.95" customHeight="1" thickBot="1">
       <c r="B17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>113</v>
+        <v>87</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
@@ -1924,7 +2287,7 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9"/>
@@ -1934,7 +2297,7 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="59" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="9"/>
@@ -3760,97 +4123,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="60.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.875" style="25" bestFit="1" customWidth="1"/>
     <col min="27" max="33" width="7.625" style="1" customWidth="1"/>
     <col min="34" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="22" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="65" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="65" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="68" t="s">
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="23" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
@@ -3864,16 +4229,16 @@
         <v>31</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>10</v>
@@ -3882,13 +4247,13 @@
         <v>27</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>30</v>
@@ -3897,25 +4262,25 @@
         <v>13</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="X2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="69"/>
+        <v>113</v>
+      </c>
+      <c r="Z2" s="72"/>
     </row>
     <row r="3" spans="1:26" ht="33.75" thickTop="1">
       <c r="A3" s="27" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>74</v>
@@ -3941,10 +4306,18 @@
       <c r="I3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="J3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="N3" s="31" t="s">
         <v>47</v>
       </c>
@@ -3967,7 +4340,7 @@
         <v>52</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="V3" s="27" t="s">
         <v>45</v>
@@ -3984,14 +4357,14 @@
       <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" ht="33">
-      <c r="A4" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>50</v>
@@ -4003,18 +4376,26 @@
         <v>51</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="J4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="N4" s="31" t="s">
         <v>54</v>
       </c>
@@ -4034,10 +4415,10 @@
         <v>55</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="U4" s="55" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="V4" s="27" t="s">
         <v>45</v>
@@ -4054,10 +4435,10 @@
       <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" ht="33">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="31" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>58</v>
@@ -4069,26 +4450,34 @@
         <v>59</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
+      <c r="J5" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="N5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>45</v>
+        <v>194</v>
+      </c>
+      <c r="P5" s="27">
+        <v>1</v>
       </c>
       <c r="Q5" s="27" t="s">
         <v>45</v>
@@ -4100,10 +4489,10 @@
         <v>61</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="V5" s="27" t="s">
         <v>45</v>
@@ -4120,10 +4509,10 @@
       <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" ht="49.5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="31" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>65</v>
@@ -4135,18 +4524,26 @@
         <v>66</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="J6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="N6" s="31" t="s">
         <v>63</v>
       </c>
@@ -4169,7 +4566,7 @@
         <v>62</v>
       </c>
       <c r="U6" s="57" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="V6" s="27" t="s">
         <v>45</v>
@@ -4186,10 +4583,10 @@
       <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="33">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="31" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>72</v>
@@ -4201,18 +4598,26 @@
         <v>67</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="J7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="N7" s="31" t="s">
         <v>68</v>
       </c>
@@ -4232,10 +4637,10 @@
         <v>69</v>
       </c>
       <c r="T7" s="57" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="U7" s="55" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>45</v>
@@ -4251,11 +4656,11 @@
       </c>
       <c r="Z7" s="32"/>
     </row>
-    <row r="8" spans="1:26" ht="49.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:26" ht="33">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="31" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>70</v>
@@ -4267,18 +4672,26 @@
         <v>71</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="J8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="N8" s="31" t="s">
         <v>73</v>
       </c>
@@ -4301,7 +4714,7 @@
         <v>62</v>
       </c>
       <c r="U8" s="55" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="V8" s="27" t="s">
         <v>45</v>
@@ -4317,501 +4730,966 @@
       </c>
       <c r="Z8" s="32"/>
     </row>
-    <row r="9" spans="1:26" ht="49.5">
-      <c r="A9" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:26" ht="66">
+      <c r="A9" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="75" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>101</v>
+        <v>139</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
+      <c r="J9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="N9" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="58" t="s">
         <v>45</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="T9" s="57" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="U9" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="V9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="58" t="s">
         <v>45</v>
       </c>
       <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:26" ht="49.5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>114</v>
+        <v>140</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>85</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>116</v>
+      <c r="F10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>157</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="J10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="N10" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="58" t="s">
         <v>45</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="56" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>82</v>
       </c>
       <c r="U10" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="V10" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="W10" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="X10" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="V10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="58" t="s">
         <v>45</v>
       </c>
       <c r="Z10" s="32"/>
     </row>
-    <row r="11" spans="1:26" ht="33">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:26" ht="49.5">
+      <c r="A11" s="67"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>89</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>136</v>
+      <c r="F11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>158</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="J11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="N11" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="58" t="s">
         <v>45</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="T11" s="56" t="s">
-        <v>140</v>
+        <v>101</v>
+      </c>
+      <c r="T11" s="58" t="s">
+        <v>105</v>
       </c>
       <c r="U11" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="V11" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="32"/>
+    </row>
+    <row r="12" spans="1:26" ht="33">
+      <c r="A12" s="67"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="W11" s="27">
-        <v>1</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y11" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="32"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>146</v>
+      <c r="D12" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="56">
+      <c r="F12" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="32"/>
+    </row>
+    <row r="13" spans="1:26" ht="49.5">
+      <c r="A13" s="67"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="V13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="W13" s="58">
         <v>1</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="32"/>
-    </row>
-    <row r="13" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
+      <c r="X13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y13" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="Z13" s="32"/>
     </row>
     <row r="14" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="27">
+        <v>1</v>
+      </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
+      <c r="S14" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z14" s="32"/>
     </row>
-    <row r="15" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
+    <row r="15" spans="1:26" ht="33">
+      <c r="A15" s="67"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z15" s="32"/>
     </row>
-    <row r="16" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
+    <row r="16" spans="1:26" ht="33">
+      <c r="A16" s="67"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
+    <row r="17" spans="1:26" ht="66">
+      <c r="A17" s="67"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="U17" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="V17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y17" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
+    <row r="18" spans="1:26" ht="33">
+      <c r="A18" s="67"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="U18" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="V18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z18" s="32"/>
     </row>
-    <row r="19" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
+    <row r="19" spans="1:26" ht="33">
+      <c r="A19" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="U19" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="W19" s="27">
+        <v>1</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z19" s="32"/>
     </row>
-    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
+    <row r="20" spans="1:26" ht="33">
+      <c r="A20" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="T20" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="U20" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="V20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z20" s="32"/>
     </row>
-    <row r="21" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:26" ht="33">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
+      <c r="C21" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="U21" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1">
@@ -5038,59 +5916,151 @@
       <c r="Y29" s="27"/>
       <c r="Z29" s="32"/>
     </row>
-    <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+    <row r="30" spans="1:26" ht="16.5">
+      <c r="A30" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>223</v>
+      </c>
       <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
+      <c r="H30" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="U30" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="V30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Z30" s="32"/>
     </row>
-    <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:26" ht="33">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
+      <c r="C31" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="U31" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="V31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="Y31" s="27"/>
       <c r="Z31" s="32"/>
     </row>
@@ -7001,67 +7971,29 @@
     <row r="100" spans="1:26" ht="16.5" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
-      <c r="C100" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F100" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G100" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H100" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="I100" s="56" t="s">
-        <v>53</v>
-      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="56"/>
       <c r="J100" s="56"/>
       <c r="K100" s="56"/>
       <c r="L100" s="56"/>
       <c r="M100" s="56"/>
-      <c r="N100" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="O100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="P100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="R100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="S100" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="T100" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="U100" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="V100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="W100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="X100" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y100" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="N100" s="31"/>
+      <c r="O100" s="56"/>
+      <c r="P100" s="56"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="31"/>
+      <c r="T100" s="57"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="56"/>
+      <c r="W100" s="56"/>
+      <c r="X100" s="56"/>
+      <c r="Y100" s="56"/>
       <c r="Z100" s="32"/>
     </row>
     <row r="101" spans="1:26" ht="16.5" customHeight="1">
@@ -10647,7 +11579,9 @@
     <row r="981" ht="16.5" customHeight="1"/>
     <row r="982" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B9:B18"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="S1:Y1"/>

--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag_8\Documents\GitHub\Yaho\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4DACFF-BC30-4185-851C-21CA47D94D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B1345-6EFE-4F1B-A176-D5A42EF08D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="395">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -277,15 +277,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화 받기 작업을 수행하여 전화 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자동 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q_Chapter01_1_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_Chapter02_1_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +547,6 @@
   </si>
   <si>
     <t>옆 방으로 이동(Q_Chapter01_1_01) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집 밖으로 탈출(Q_Chapter01_1_02) 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,11 +615,6 @@
   </si>
   <si>
     <t>Q_Chapter01_1_05 퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_Chapter01_1_04 퀘스트 활성화
-전화기 기능 소개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1237,11 +1216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도심이 괴물들로 무척이나 혼란한 가운데 전화가 울려오고 있다. 전화를 받아
-무슨 일인지 알아보자. (전화 받기)를 통해 전화를 받을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(무기 연마) 기능을 통해 무기 연마 후 우식과 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,6 +1638,54 @@
   </si>
   <si>
     <t>Q_Chapter_05_5_03 퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q00_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 필요 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아들과 대화하였다는 것을 확인하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 다시 인트로를 실행하지 않도록 하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 획득하였다는 것을 확인하고, 이를 이용해 무기 이벤트를 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지에 도착하면 해당 이벤트의 반복을 막기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 변수지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린을 처치한 후 해당 이벤트의 반복을 막기 위해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1837,8 +1859,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2305,6 +2333,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2312,7 +2431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2478,9 +2597,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2497,9 +2613,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,43 +2642,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,16 +2654,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2604,6 +2678,96 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2613,8 +2777,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2859,14 +3041,14 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
       <c r="U2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2874,27 +3056,27 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
       <c r="U3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="74"/>
+      <c r="E4" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="101"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>23</v>
@@ -2902,10 +3084,10 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="95"/>
       <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2920,10 +3102,10 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B7" s="2" t="s">
@@ -2935,10 +3117,10 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="77"/>
+      <c r="G7" s="95"/>
     </row>
     <row r="8" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B8" s="2" t="s">
@@ -2947,12 +3129,12 @@
       <c r="C8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="69"/>
+      <c r="E8" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="67"/>
       <c r="G8" s="50" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -2962,12 +3144,12 @@
       <c r="C9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="70"/>
+      <c r="E9" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="68"/>
       <c r="G9" s="50" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -2977,12 +3159,12 @@
       <c r="C10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="71"/>
+      <c r="E10" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="69"/>
       <c r="G10" s="50" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -2998,10 +3180,10 @@
     </row>
     <row r="12" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>101</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
@@ -3014,9 +3196,9 @@
       <c r="C13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B14" s="2" t="s">
@@ -3025,9 +3207,9 @@
       <c r="C14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B15" s="2" t="s">
@@ -3036,9 +3218,9 @@
       <c r="C15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B16" s="2" t="s">
@@ -3047,20 +3229,20 @@
       <c r="C16" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7" ht="27.95" customHeight="1" thickBot="1">
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
+        <v>83</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="2:7" ht="27.95" customHeight="1" thickBot="1">
       <c r="B18" s="2" t="s">
@@ -4187,19 +4369,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1">
@@ -4903,13 +5085,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB989"/>
+  <dimension ref="A1:AE988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP33" sqref="AP33"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4942,238 +5124,258 @@
     <col min="26" max="26" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="9.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="7.625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="12.625" style="1"/>
+    <col min="29" max="29" width="0.875" style="121" customWidth="1"/>
+    <col min="30" max="30" width="17.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="65" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="7.625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:31" s="17" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="82" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A2" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="62" t="s">
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="102" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE1" s="102" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A2" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="62" t="s">
+      <c r="J2" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="62" t="s">
+      <c r="P2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="62" t="s">
+      <c r="R2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="62" t="s">
+      <c r="U2" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="62" t="s">
+      <c r="W2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="82"/>
-    </row>
-    <row r="3" spans="1:28" ht="33.75" thickTop="1">
-      <c r="A3" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="88" t="s">
+      <c r="Y2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+    </row>
+    <row r="3" spans="1:31" ht="33.75" thickTop="1">
+      <c r="A3" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="53" t="s">
+      <c r="J3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="53" t="s">
+      <c r="O3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="V3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="53"/>
-    </row>
-    <row r="4" spans="1:28" ht="33">
-      <c r="A4" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="U3" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="87" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE3" s="87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="33">
+      <c r="A4" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>52</v>
@@ -5209,10 +5411,10 @@
         <v>54</v>
       </c>
       <c r="T4" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U4" s="53" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V4" s="53" t="s">
         <v>44</v>
@@ -5226,34 +5428,41 @@
       <c r="Y4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="53"/>
-    </row>
-    <row r="5" spans="1:28" ht="33">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="85" t="s">
+      <c r="Z4" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE4" s="84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="33">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>54</v>
@@ -5274,7 +5483,7 @@
         <v>59</v>
       </c>
       <c r="O5" s="53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P5" s="53">
         <v>1</v>
@@ -5289,10 +5498,10 @@
         <v>60</v>
       </c>
       <c r="T5" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="V5" s="53" t="s">
         <v>44</v>
@@ -5306,34 +5515,41 @@
       <c r="Y5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB5" s="53"/>
-    </row>
-    <row r="6" spans="1:28" ht="33">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="88" t="s">
+      <c r="Z5" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE5" s="84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="33">
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" s="53" t="s">
         <v>52</v>
@@ -5351,7 +5567,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O6" s="53" t="s">
         <v>44</v>
@@ -5366,13 +5582,13 @@
         <v>44</v>
       </c>
       <c r="S6" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="54" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="V6" s="53" t="s">
         <v>44</v>
@@ -5386,34 +5602,41 @@
       <c r="Y6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="53"/>
-    </row>
-    <row r="7" spans="1:28" ht="33">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="88" t="s">
+      <c r="Z6" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE6" s="84" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="33">
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>52</v>
@@ -5431,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O7" s="53" t="s">
         <v>44</v>
@@ -5446,13 +5669,13 @@
         <v>44</v>
       </c>
       <c r="S7" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="54" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="T7" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="U7" s="53" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="V7" s="53" t="s">
         <v>44</v>
@@ -5466,34 +5689,45 @@
       <c r="Y7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="53"/>
-    </row>
-    <row r="8" spans="1:28" ht="33">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="88" t="s">
+      <c r="Z7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE7" s="84" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="49.5">
+      <c r="A8" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>52</v>
@@ -5511,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O8" s="53" t="s">
         <v>44</v>
@@ -5526,13 +5760,13 @@
         <v>44</v>
       </c>
       <c r="S8" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="53" t="s">
-        <v>168</v>
+        <v>62</v>
+      </c>
+      <c r="T8" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="54" t="s">
+        <v>144</v>
       </c>
       <c r="V8" s="53" t="s">
         <v>44</v>
@@ -5546,38 +5780,37 @@
       <c r="Y8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="53"/>
-    </row>
-    <row r="9" spans="1:28" ht="49.5">
-      <c r="A9" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="88" t="s">
+      <c r="Z8" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="84"/>
+    </row>
+    <row r="9" spans="1:31" ht="49.5">
+      <c r="A9" s="109"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>52</v>
@@ -5610,13 +5843,13 @@
         <v>44</v>
       </c>
       <c r="S9" s="53" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="T9" s="54" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="U9" s="54" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="V9" s="53" t="s">
         <v>44</v>
@@ -5630,34 +5863,37 @@
       <c r="Y9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="53"/>
-    </row>
-    <row r="10" spans="1:28" ht="49.5">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="88" t="s">
+      <c r="Z9" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="84"/>
+    </row>
+    <row r="10" spans="1:31" ht="49.5">
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>217</v>
+      <c r="F10" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>52</v>
@@ -5675,7 +5911,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="53" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O10" s="53" t="s">
         <v>44</v>
@@ -5690,19 +5926,19 @@
         <v>44</v>
       </c>
       <c r="S10" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" s="54" t="s">
-        <v>237</v>
+        <v>91</v>
+      </c>
+      <c r="T10" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="U10" s="54" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="V10" s="53" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="W10" s="53" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="X10" s="53" t="s">
         <v>44</v>
@@ -5710,52 +5946,47 @@
       <c r="Y10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA10" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB10" s="53"/>
-    </row>
-    <row r="11" spans="1:28" ht="49.5">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="88" t="s">
+      <c r="Z10" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="84"/>
+    </row>
+    <row r="11" spans="1:31" ht="33">
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>86</v>
+      <c r="F11" s="54" t="s">
+        <v>213</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>44</v>
-      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="53" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O11" s="53" t="s">
         <v>44</v>
@@ -5770,19 +6001,19 @@
         <v>44</v>
       </c>
       <c r="S11" s="53" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T11" s="53" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="U11" s="54" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="V11" s="53" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="W11" s="53" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="X11" s="53" t="s">
         <v>44</v>
@@ -5790,262 +6021,282 @@
       <c r="Y11" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA11" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB11" s="53"/>
-    </row>
-    <row r="12" spans="1:28" ht="33">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="57" t="s">
+      <c r="Z11" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="84"/>
+    </row>
+    <row r="12" spans="1:31" ht="49.5">
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="U12" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="V12" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="53">
+        <v>1</v>
+      </c>
+      <c r="X12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="84"/>
+    </row>
+    <row r="13" spans="1:31" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="V13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="84"/>
+    </row>
+    <row r="14" spans="1:31" ht="33">
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="88" t="s">
+      <c r="D14" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="53" t="s">
+      <c r="F14" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="U12" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="V12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA12" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB12" s="53"/>
-    </row>
-    <row r="13" spans="1:28" ht="49.5">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="57" t="s">
+      <c r="J14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="V14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="84"/>
+    </row>
+    <row r="15" spans="1:31" ht="33">
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="88" t="s">
+      <c r="D15" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="T13" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="U13" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="V13" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="W13" s="53">
-        <v>1</v>
-      </c>
-      <c r="X13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA13" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB13" s="53"/>
-    </row>
-    <row r="14" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="T14" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="V14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="X14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA14" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB14" s="53"/>
-    </row>
-    <row r="15" spans="1:28" ht="33">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>188</v>
+      <c r="F15" s="54" t="s">
+        <v>215</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>231</v>
+        <v>137</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>52</v>
@@ -6063,7 +6314,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="53" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="O15" s="53" t="s">
         <v>44</v>
@@ -6078,18 +6329,18 @@
         <v>44</v>
       </c>
       <c r="S15" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T15" s="54" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="U15" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="V15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="59" t="s">
+      <c r="W15" s="58" t="s">
         <v>44</v>
       </c>
       <c r="X15" s="53" t="s">
@@ -6098,34 +6349,37 @@
       <c r="Y15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA15" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB15" s="53"/>
-    </row>
-    <row r="16" spans="1:28" ht="33">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="85" t="s">
+      <c r="Z15" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="84"/>
+    </row>
+    <row r="16" spans="1:31" ht="66">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I16" s="53" t="s">
         <v>52</v>
@@ -6142,8 +6396,8 @@
       <c r="M16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="53" t="s">
-        <v>112</v>
+      <c r="N16" s="54" t="s">
+        <v>150</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>44</v>
@@ -6158,18 +6412,18 @@
         <v>44</v>
       </c>
       <c r="S16" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T16" s="54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U16" s="53" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="V16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W16" s="59" t="s">
+      <c r="W16" s="58" t="s">
         <v>44</v>
       </c>
       <c r="X16" s="53" t="s">
@@ -6178,34 +6432,37 @@
       <c r="Y16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA16" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB16" s="53"/>
-    </row>
-    <row r="17" spans="1:28" ht="66">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="88" t="s">
+      <c r="Z16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="84"/>
+    </row>
+    <row r="17" spans="1:31" ht="33">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="54" t="s">
-        <v>153</v>
+      <c r="F17" s="53" t="s">
+        <v>154</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I17" s="53" t="s">
         <v>52</v>
@@ -6222,8 +6479,8 @@
       <c r="M17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="54" t="s">
-        <v>155</v>
+      <c r="N17" s="53" t="s">
+        <v>156</v>
       </c>
       <c r="O17" s="53" t="s">
         <v>44</v>
@@ -6238,18 +6495,18 @@
         <v>44</v>
       </c>
       <c r="S17" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T17" s="54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U17" s="53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="V17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="59" t="s">
+      <c r="W17" s="58" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="53" t="s">
@@ -6258,202 +6515,211 @@
       <c r="Y17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Z17" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA17" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB17" s="53"/>
-    </row>
-    <row r="18" spans="1:28" ht="33">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="57" t="s">
+      <c r="Z17" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="84"/>
+    </row>
+    <row r="18" spans="1:31" ht="33">
+      <c r="A18" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="H18" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="J18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="V18" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="W18" s="58">
+        <v>1</v>
+      </c>
+      <c r="X18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="84"/>
+    </row>
+    <row r="19" spans="1:31" ht="33">
+      <c r="A19" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" s="53" t="s">
+      <c r="F19" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="O18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="U18" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="V18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z18" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA18" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB18" s="53"/>
-    </row>
-    <row r="19" spans="1:28" ht="33">
-      <c r="A19" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="88" t="s">
+      <c r="J19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="T19" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="V19" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="W19" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="84"/>
+    </row>
+    <row r="20" spans="1:31" ht="33">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="O19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S19" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="U19" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="V19" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="W19" s="59">
-        <v>1</v>
-      </c>
-      <c r="X19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA19" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB19" s="53"/>
-    </row>
-    <row r="20" spans="1:28" ht="33">
-      <c r="A20" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>56</v>
-      </c>
       <c r="F20" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>44</v>
+      <c r="H20" s="54" t="s">
+        <v>177</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>52</v>
@@ -6470,8 +6736,8 @@
       <c r="M20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="53" t="s">
-        <v>66</v>
+      <c r="N20" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="O20" s="53" t="s">
         <v>44</v>
@@ -6486,2243 +6752,2293 @@
         <v>44</v>
       </c>
       <c r="S20" s="53" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="T20" s="54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="U20" s="53" t="s">
         <v>179</v>
       </c>
       <c r="V20" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="W20" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="84"/>
+    </row>
+    <row r="21" spans="1:31" ht="49.5">
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="U21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="W21" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="84"/>
+    </row>
+    <row r="22" spans="1:31" ht="49.5">
+      <c r="A22" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="T22" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="U22" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="V22" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="W22" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+    </row>
+    <row r="23" spans="1:31" ht="49.5">
+      <c r="A23" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="60">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T23" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U23" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V23" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W23" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y23" s="60">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="83"/>
+    </row>
+    <row r="24" spans="1:31" ht="33">
+      <c r="A24" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="O24" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="P24" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U24" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="V24" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W24" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="83"/>
+    </row>
+    <row r="25" spans="1:31" ht="33">
+      <c r="A25" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U25" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="83"/>
+    </row>
+    <row r="26" spans="1:31" ht="33">
+      <c r="A26" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="O26" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="P26" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="U26" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="V26" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W26" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X26" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y26" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="83"/>
+    </row>
+    <row r="27" spans="1:31" ht="33">
+      <c r="A27" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="W20" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="X20" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y20" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z20" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA20" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB20" s="53"/>
-    </row>
-    <row r="21" spans="1:28" ht="33">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="57" t="s">
+      <c r="O27" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="P27" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T27" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U27" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="V27" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W27" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X27" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y27" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="83"/>
+    </row>
+    <row r="28" spans="1:31" ht="49.5">
+      <c r="A28" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T28" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U28" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="V28" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W28" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="83"/>
+    </row>
+    <row r="29" spans="1:31" ht="33">
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="O29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="U29" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="V29" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W29" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="83"/>
+    </row>
+    <row r="30" spans="1:31" ht="33">
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="O30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="U30" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="V30" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="83"/>
+    </row>
+    <row r="31" spans="1:31" ht="49.5">
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="O31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T31" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U31" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V31" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W31" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X31" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y31" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z31" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA31" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="83"/>
+    </row>
+    <row r="32" spans="1:31" ht="33">
+      <c r="A32" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="O32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="T32" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="U32" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="V32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="W32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="X32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE32" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="49.5" customHeight="1">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="P33" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="T33" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="U33" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="V33" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="W33" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X33" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE33" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="33">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="O34" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="76">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V34" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="W34" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X34" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y34" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE34" s="85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="33">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O35" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="P35" s="76">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="W35" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X35" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y35" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA35" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB35" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC35" s="118"/>
+      <c r="AD35" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE35" s="85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="33">
+      <c r="A36" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="88" t="s">
+      <c r="B36" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" s="53" t="s">
+      <c r="F36" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="H36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="T21" s="54" t="s">
+      <c r="J36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="U21" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="V21" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="W21" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="X21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA21" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB21" s="53"/>
-    </row>
-    <row r="22" spans="1:28" ht="49.5">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="88" t="s">
+      <c r="O36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="T36" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="U36" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="V36" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="W36" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="118"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="84"/>
+    </row>
+    <row r="37" spans="1:31" ht="33">
+      <c r="A37" s="110"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="P22" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="T22" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="U22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="V22" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="W22" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="X22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z22" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA22" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB22" s="53"/>
-    </row>
-    <row r="23" spans="1:28" ht="49.5">
-      <c r="A23" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="89" t="s">
+      <c r="F37" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="P37" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="T37" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="U37" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="V37" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="W37" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="118"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="84"/>
+    </row>
+    <row r="38" spans="1:31" ht="33">
+      <c r="A38" s="110"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="59" t="s">
+      <c r="F38" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="O23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="T23" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="U23" s="60" t="s">
+      <c r="J38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="P38" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="V38" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="W38" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="118"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="84"/>
+    </row>
+    <row r="39" spans="1:31" ht="33">
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="V23" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="W23" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="X23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB23" s="59"/>
-    </row>
-    <row r="24" spans="1:28" ht="49.5">
-      <c r="A24" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="K24" s="61">
-        <v>1</v>
-      </c>
-      <c r="L24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="O24" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="P24" s="61">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="T24" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="U24" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="V24" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W24" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X24" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y24" s="61">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="61"/>
-    </row>
-    <row r="25" spans="1:28" ht="33">
-      <c r="A25" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="T25" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="U25" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="V25" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W25" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X25" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y25" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB25" s="61"/>
-    </row>
-    <row r="26" spans="1:28" ht="33">
-      <c r="A26" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="O26" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="P26" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="T26" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="U26" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="V26" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W26" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X26" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y26" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB26" s="61"/>
-    </row>
-    <row r="27" spans="1:28" ht="33">
-      <c r="A27" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="64" t="s">
-        <v>365</v>
-      </c>
-      <c r="O27" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="P27" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q27" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="T27" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="U27" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="V27" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W27" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X27" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y27" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z27" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA27" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="61"/>
-    </row>
-    <row r="28" spans="1:28" ht="33">
-      <c r="A28" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="P28" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S28" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="T28" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="U28" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="V28" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W28" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X28" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y28" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA28" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB28" s="61"/>
-    </row>
-    <row r="29" spans="1:28" ht="49.5">
-      <c r="A29" s="97" t="s">
-        <v>350</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>308</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>370</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="T29" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="U29" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="V29" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W29" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB29" s="61"/>
-    </row>
-    <row r="30" spans="1:28" ht="33">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="D30" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="O30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="U30" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="V30" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W30" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB30" s="61"/>
-    </row>
-    <row r="31" spans="1:28" ht="33">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="100" t="s">
-        <v>314</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="H31" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="I31" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="O31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="T31" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="U31" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="V31" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W31" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB31" s="61"/>
-    </row>
-    <row r="32" spans="1:28" ht="49.5">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>316</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="O32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="T32" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="U32" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="V32" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W32" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X32" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y32" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z32" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA32" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB32" s="61"/>
-    </row>
-    <row r="33" spans="1:28" ht="33">
-      <c r="A33" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="G33" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="O33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="R33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="T33" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="U33" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="V33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="W33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="X33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB33" s="91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="J34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="O34" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="P34" s="91">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="T34" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="U34" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="V34" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="W34" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="X34" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y34" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA34" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB34" s="91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="33">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="D35" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="O35" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="P35" s="91">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="T35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="U35" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="V35" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="W35" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="X35" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y35" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA35" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB35" s="91" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="33">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="G36" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="H36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="O36" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="P36" s="91">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="T36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="V36" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="W36" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="X36" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y36" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB36" s="91" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="33">
-      <c r="A37" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="O37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="P37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="T37" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="U37" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="V37" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="W37" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="X37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA37" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB37" s="57"/>
-    </row>
-    <row r="38" spans="1:28" ht="33">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="I38" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="O38" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="P38" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="T38" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="U38" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="V38" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="W38" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="X38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB38" s="57"/>
-    </row>
-    <row r="39" spans="1:28" ht="33">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="55" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="G39" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="P39" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="V39" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="W39" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="118"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="84"/>
+    </row>
+    <row r="40" spans="1:31" ht="33">
+      <c r="A40" s="110"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="H39" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="57" t="s">
+      <c r="D40" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="57" t="s">
+      <c r="J40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="O40" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="P40" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="V40" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="W40" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="118"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="84"/>
+    </row>
+    <row r="41" spans="1:31" ht="33">
+      <c r="A41" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="O39" s="57" t="s">
+      <c r="C41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="O41" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="P41" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S41" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T41" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U41" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V41" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W41" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X41" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y41" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB41" s="81"/>
+      <c r="AC41" s="118"/>
+      <c r="AD41" s="81"/>
+      <c r="AE41" s="83"/>
+    </row>
+    <row r="42" spans="1:31" ht="33">
+      <c r="A42" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="P39" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="T39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="54" t="s">
+      <c r="C42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="V39" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="W39" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="X39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB39" s="57"/>
-    </row>
-    <row r="40" spans="1:28" ht="33">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" s="56" t="s">
+      <c r="H42" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="P42" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T42" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U42" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V42" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W42" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X42" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y42" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="118"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="83"/>
+    </row>
+    <row r="43" spans="1:31" ht="33">
+      <c r="A43" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="P43" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T43" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U43" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V43" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W43" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X43" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y43" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB43" s="81"/>
+      <c r="AC43" s="118"/>
+      <c r="AD43" s="81"/>
+      <c r="AE43" s="83"/>
+    </row>
+    <row r="44" spans="1:31" ht="49.5">
+      <c r="A44" s="108" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="57" t="s">
+      <c r="F44" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="O44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S44" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T44" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U44" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="V44" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W44" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="118"/>
+      <c r="AD44" s="81"/>
+      <c r="AE44" s="83"/>
+    </row>
+    <row r="45" spans="1:31" ht="33">
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="U45" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="V45" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W45" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="118"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="83"/>
+    </row>
+    <row r="46" spans="1:31" ht="33">
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="I46" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="O40" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="P40" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="R40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="T40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="V40" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="W40" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="X40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB40" s="57"/>
-    </row>
-    <row r="41" spans="1:28" ht="33">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="95" t="s">
-        <v>272</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="O41" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="P41" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="T41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="U41" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="V41" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="W41" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="X41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB41" s="57"/>
-    </row>
-    <row r="42" spans="1:28" ht="33">
-      <c r="A42" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="I42" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="J42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="O42" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="P42" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="T42" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="U42" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="V42" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W42" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X42" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y42" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB42" s="61"/>
-    </row>
-    <row r="43" spans="1:28" ht="33">
-      <c r="A43" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="G43" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="J43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="O43" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="P43" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S43" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="T43" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="U43" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="V43" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W43" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X43" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y43" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB43" s="61"/>
-    </row>
-    <row r="44" spans="1:28" ht="33">
-      <c r="A44" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="J44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="O44" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="P44" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S44" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="T44" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="U44" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="V44" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W44" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X44" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y44" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB44" s="61"/>
-    </row>
-    <row r="45" spans="1:28" ht="49.5">
-      <c r="A45" s="96" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>369</v>
-      </c>
-      <c r="D45" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="J45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S45" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="T45" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="U45" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="V45" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W45" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB45" s="61"/>
-    </row>
-    <row r="46" spans="1:28" ht="33">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="D46" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="I46" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="J46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="61" t="s">
+      <c r="J46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="O46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="T46" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="U46" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="V46" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W46" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB46" s="61"/>
-    </row>
-    <row r="47" spans="1:28" ht="33">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" s="100" t="s">
-        <v>383</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="H47" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="O47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S47" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="T47" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="U47" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="V47" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="W47" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="X47" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y47" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA47" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB47" s="61"/>
-    </row>
-    <row r="48" spans="1:28" ht="16.5" customHeight="1">
+      <c r="O46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T46" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U46" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V46" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="W46" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X46" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y46" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="118"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="83"/>
+    </row>
+    <row r="47" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="120"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+    </row>
+    <row r="48" spans="1:31" ht="16.5" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -8751,8 +9067,11 @@
       <c r="Z48" s="51"/>
       <c r="AA48" s="51"/>
       <c r="AB48" s="25"/>
-    </row>
-    <row r="49" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC48" s="120"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+    </row>
+    <row r="49" spans="1:31" ht="16.5" customHeight="1">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -8781,8 +9100,11 @@
       <c r="Z49" s="51"/>
       <c r="AA49" s="51"/>
       <c r="AB49" s="25"/>
-    </row>
-    <row r="50" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+    </row>
+    <row r="50" spans="1:31" ht="16.5" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -8811,8 +9133,11 @@
       <c r="Z50" s="51"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="25"/>
-    </row>
-    <row r="51" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC50" s="120"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+    </row>
+    <row r="51" spans="1:31" ht="16.5" customHeight="1">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -8841,8 +9166,11 @@
       <c r="Z51" s="51"/>
       <c r="AA51" s="51"/>
       <c r="AB51" s="25"/>
-    </row>
-    <row r="52" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC51" s="120"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+    </row>
+    <row r="52" spans="1:31" ht="16.5" customHeight="1">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -8871,8 +9199,11 @@
       <c r="Z52" s="51"/>
       <c r="AA52" s="51"/>
       <c r="AB52" s="25"/>
-    </row>
-    <row r="53" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+    </row>
+    <row r="53" spans="1:31" ht="16.5" customHeight="1">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -8901,8 +9232,11 @@
       <c r="Z53" s="51"/>
       <c r="AA53" s="51"/>
       <c r="AB53" s="25"/>
-    </row>
-    <row r="54" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC53" s="120"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+    </row>
+    <row r="54" spans="1:31" ht="16.5" customHeight="1">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -8931,8 +9265,11 @@
       <c r="Z54" s="51"/>
       <c r="AA54" s="51"/>
       <c r="AB54" s="25"/>
-    </row>
-    <row r="55" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC54" s="120"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+    </row>
+    <row r="55" spans="1:31" ht="16.5" customHeight="1">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -8961,8 +9298,11 @@
       <c r="Z55" s="51"/>
       <c r="AA55" s="51"/>
       <c r="AB55" s="25"/>
-    </row>
-    <row r="56" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+    </row>
+    <row r="56" spans="1:31" ht="16.5" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -8991,8 +9331,11 @@
       <c r="Z56" s="51"/>
       <c r="AA56" s="51"/>
       <c r="AB56" s="25"/>
-    </row>
-    <row r="57" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC56" s="120"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+    </row>
+    <row r="57" spans="1:31" ht="16.5" customHeight="1">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -9021,8 +9364,11 @@
       <c r="Z57" s="51"/>
       <c r="AA57" s="51"/>
       <c r="AB57" s="25"/>
-    </row>
-    <row r="58" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC57" s="120"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+    </row>
+    <row r="58" spans="1:31" ht="16.5" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -9051,8 +9397,11 @@
       <c r="Z58" s="51"/>
       <c r="AA58" s="51"/>
       <c r="AB58" s="25"/>
-    </row>
-    <row r="59" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC58" s="120"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+    </row>
+    <row r="59" spans="1:31" ht="16.5" customHeight="1">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -9081,8 +9430,11 @@
       <c r="Z59" s="51"/>
       <c r="AA59" s="51"/>
       <c r="AB59" s="25"/>
-    </row>
-    <row r="60" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC59" s="120"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+    </row>
+    <row r="60" spans="1:31" ht="16.5" customHeight="1">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -9111,8 +9463,11 @@
       <c r="Z60" s="51"/>
       <c r="AA60" s="51"/>
       <c r="AB60" s="25"/>
-    </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC60" s="120"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+    </row>
+    <row r="61" spans="1:31" ht="16.5" customHeight="1">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -9141,8 +9496,11 @@
       <c r="Z61" s="51"/>
       <c r="AA61" s="51"/>
       <c r="AB61" s="25"/>
-    </row>
-    <row r="62" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC61" s="120"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+    </row>
+    <row r="62" spans="1:31" ht="16.5" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9171,8 +9529,11 @@
       <c r="Z62" s="51"/>
       <c r="AA62" s="51"/>
       <c r="AB62" s="25"/>
-    </row>
-    <row r="63" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+    </row>
+    <row r="63" spans="1:31" ht="16.5" customHeight="1">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -9201,8 +9562,11 @@
       <c r="Z63" s="51"/>
       <c r="AA63" s="51"/>
       <c r="AB63" s="25"/>
-    </row>
-    <row r="64" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC63" s="120"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+    </row>
+    <row r="64" spans="1:31" ht="16.5" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -9231,8 +9595,11 @@
       <c r="Z64" s="51"/>
       <c r="AA64" s="51"/>
       <c r="AB64" s="25"/>
-    </row>
-    <row r="65" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC64" s="120"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+    </row>
+    <row r="65" spans="1:31" ht="16.5" customHeight="1">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -9261,8 +9628,11 @@
       <c r="Z65" s="51"/>
       <c r="AA65" s="51"/>
       <c r="AB65" s="25"/>
-    </row>
-    <row r="66" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC65" s="120"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+    </row>
+    <row r="66" spans="1:31" ht="16.5" customHeight="1">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -9291,8 +9661,11 @@
       <c r="Z66" s="51"/>
       <c r="AA66" s="51"/>
       <c r="AB66" s="25"/>
-    </row>
-    <row r="67" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC66" s="120"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+    </row>
+    <row r="67" spans="1:31" ht="16.5" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -9321,8 +9694,11 @@
       <c r="Z67" s="51"/>
       <c r="AA67" s="51"/>
       <c r="AB67" s="25"/>
-    </row>
-    <row r="68" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC67" s="120"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+    </row>
+    <row r="68" spans="1:31" ht="16.5" customHeight="1">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -9351,8 +9727,11 @@
       <c r="Z68" s="51"/>
       <c r="AA68" s="51"/>
       <c r="AB68" s="25"/>
-    </row>
-    <row r="69" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC68" s="120"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+    </row>
+    <row r="69" spans="1:31" ht="16.5" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -9381,8 +9760,11 @@
       <c r="Z69" s="51"/>
       <c r="AA69" s="51"/>
       <c r="AB69" s="25"/>
-    </row>
-    <row r="70" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC69" s="120"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+    </row>
+    <row r="70" spans="1:31" ht="16.5" customHeight="1">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -9411,8 +9793,11 @@
       <c r="Z70" s="51"/>
       <c r="AA70" s="51"/>
       <c r="AB70" s="25"/>
-    </row>
-    <row r="71" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC70" s="120"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+    </row>
+    <row r="71" spans="1:31" ht="16.5" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -9441,8 +9826,11 @@
       <c r="Z71" s="51"/>
       <c r="AA71" s="51"/>
       <c r="AB71" s="25"/>
-    </row>
-    <row r="72" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC71" s="120"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+    </row>
+    <row r="72" spans="1:31" ht="16.5" customHeight="1">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -9471,8 +9859,11 @@
       <c r="Z72" s="51"/>
       <c r="AA72" s="51"/>
       <c r="AB72" s="25"/>
-    </row>
-    <row r="73" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC72" s="120"/>
+      <c r="AD72" s="25"/>
+      <c r="AE72" s="25"/>
+    </row>
+    <row r="73" spans="1:31" ht="16.5" customHeight="1">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -9501,8 +9892,11 @@
       <c r="Z73" s="51"/>
       <c r="AA73" s="51"/>
       <c r="AB73" s="25"/>
-    </row>
-    <row r="74" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC73" s="120"/>
+      <c r="AD73" s="25"/>
+      <c r="AE73" s="25"/>
+    </row>
+    <row r="74" spans="1:31" ht="16.5" customHeight="1">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -9531,8 +9925,11 @@
       <c r="Z74" s="51"/>
       <c r="AA74" s="51"/>
       <c r="AB74" s="25"/>
-    </row>
-    <row r="75" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC74" s="120"/>
+      <c r="AD74" s="25"/>
+      <c r="AE74" s="25"/>
+    </row>
+    <row r="75" spans="1:31" ht="16.5" customHeight="1">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -9561,8 +9958,11 @@
       <c r="Z75" s="51"/>
       <c r="AA75" s="51"/>
       <c r="AB75" s="25"/>
-    </row>
-    <row r="76" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC75" s="120"/>
+      <c r="AD75" s="25"/>
+      <c r="AE75" s="25"/>
+    </row>
+    <row r="76" spans="1:31" ht="16.5" customHeight="1">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -9591,8 +9991,11 @@
       <c r="Z76" s="51"/>
       <c r="AA76" s="51"/>
       <c r="AB76" s="25"/>
-    </row>
-    <row r="77" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC76" s="120"/>
+      <c r="AD76" s="25"/>
+      <c r="AE76" s="25"/>
+    </row>
+    <row r="77" spans="1:31" ht="16.5" customHeight="1">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -9621,8 +10024,11 @@
       <c r="Z77" s="51"/>
       <c r="AA77" s="51"/>
       <c r="AB77" s="25"/>
-    </row>
-    <row r="78" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC77" s="120"/>
+      <c r="AD77" s="25"/>
+      <c r="AE77" s="25"/>
+    </row>
+    <row r="78" spans="1:31" ht="16.5" customHeight="1">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -9651,8 +10057,11 @@
       <c r="Z78" s="51"/>
       <c r="AA78" s="51"/>
       <c r="AB78" s="25"/>
-    </row>
-    <row r="79" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC78" s="120"/>
+      <c r="AD78" s="25"/>
+      <c r="AE78" s="25"/>
+    </row>
+    <row r="79" spans="1:31" ht="16.5" customHeight="1">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -9681,8 +10090,11 @@
       <c r="Z79" s="51"/>
       <c r="AA79" s="51"/>
       <c r="AB79" s="25"/>
-    </row>
-    <row r="80" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC79" s="120"/>
+      <c r="AD79" s="25"/>
+      <c r="AE79" s="25"/>
+    </row>
+    <row r="80" spans="1:31" ht="16.5" customHeight="1">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -9711,8 +10123,11 @@
       <c r="Z80" s="51"/>
       <c r="AA80" s="51"/>
       <c r="AB80" s="25"/>
-    </row>
-    <row r="81" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC80" s="120"/>
+      <c r="AD80" s="25"/>
+      <c r="AE80" s="25"/>
+    </row>
+    <row r="81" spans="1:31" ht="16.5" customHeight="1">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -9741,8 +10156,11 @@
       <c r="Z81" s="51"/>
       <c r="AA81" s="51"/>
       <c r="AB81" s="25"/>
-    </row>
-    <row r="82" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC81" s="120"/>
+      <c r="AD81" s="25"/>
+      <c r="AE81" s="25"/>
+    </row>
+    <row r="82" spans="1:31" ht="16.5" customHeight="1">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -9771,8 +10189,11 @@
       <c r="Z82" s="51"/>
       <c r="AA82" s="51"/>
       <c r="AB82" s="25"/>
-    </row>
-    <row r="83" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC82" s="120"/>
+      <c r="AD82" s="25"/>
+      <c r="AE82" s="25"/>
+    </row>
+    <row r="83" spans="1:31" ht="16.5" customHeight="1">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -9801,8 +10222,11 @@
       <c r="Z83" s="51"/>
       <c r="AA83" s="51"/>
       <c r="AB83" s="25"/>
-    </row>
-    <row r="84" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC83" s="120"/>
+      <c r="AD83" s="25"/>
+      <c r="AE83" s="25"/>
+    </row>
+    <row r="84" spans="1:31" ht="16.5" customHeight="1">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -9831,8 +10255,11 @@
       <c r="Z84" s="51"/>
       <c r="AA84" s="51"/>
       <c r="AB84" s="25"/>
-    </row>
-    <row r="85" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC84" s="120"/>
+      <c r="AD84" s="25"/>
+      <c r="AE84" s="25"/>
+    </row>
+    <row r="85" spans="1:31" ht="16.5" customHeight="1">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -9861,8 +10288,11 @@
       <c r="Z85" s="51"/>
       <c r="AA85" s="51"/>
       <c r="AB85" s="25"/>
-    </row>
-    <row r="86" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC85" s="120"/>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="25"/>
+    </row>
+    <row r="86" spans="1:31" ht="16.5" customHeight="1">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -9891,8 +10321,11 @@
       <c r="Z86" s="51"/>
       <c r="AA86" s="51"/>
       <c r="AB86" s="25"/>
-    </row>
-    <row r="87" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC86" s="120"/>
+      <c r="AD86" s="25"/>
+      <c r="AE86" s="25"/>
+    </row>
+    <row r="87" spans="1:31" ht="16.5" customHeight="1">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -9921,8 +10354,11 @@
       <c r="Z87" s="51"/>
       <c r="AA87" s="51"/>
       <c r="AB87" s="25"/>
-    </row>
-    <row r="88" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC87" s="120"/>
+      <c r="AD87" s="25"/>
+      <c r="AE87" s="25"/>
+    </row>
+    <row r="88" spans="1:31" ht="16.5" customHeight="1">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -9951,8 +10387,11 @@
       <c r="Z88" s="51"/>
       <c r="AA88" s="51"/>
       <c r="AB88" s="25"/>
-    </row>
-    <row r="89" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC88" s="120"/>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="25"/>
+    </row>
+    <row r="89" spans="1:31" ht="16.5" customHeight="1">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -9981,8 +10420,11 @@
       <c r="Z89" s="51"/>
       <c r="AA89" s="51"/>
       <c r="AB89" s="25"/>
-    </row>
-    <row r="90" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC89" s="120"/>
+      <c r="AD89" s="25"/>
+      <c r="AE89" s="25"/>
+    </row>
+    <row r="90" spans="1:31" ht="16.5" customHeight="1">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -10011,8 +10453,11 @@
       <c r="Z90" s="51"/>
       <c r="AA90" s="51"/>
       <c r="AB90" s="25"/>
-    </row>
-    <row r="91" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC90" s="120"/>
+      <c r="AD90" s="25"/>
+      <c r="AE90" s="25"/>
+    </row>
+    <row r="91" spans="1:31" ht="16.5" customHeight="1">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -10041,8 +10486,11 @@
       <c r="Z91" s="51"/>
       <c r="AA91" s="51"/>
       <c r="AB91" s="25"/>
-    </row>
-    <row r="92" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC91" s="120"/>
+      <c r="AD91" s="25"/>
+      <c r="AE91" s="25"/>
+    </row>
+    <row r="92" spans="1:31" ht="16.5" customHeight="1">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -10071,8 +10519,11 @@
       <c r="Z92" s="51"/>
       <c r="AA92" s="51"/>
       <c r="AB92" s="25"/>
-    </row>
-    <row r="93" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC92" s="120"/>
+      <c r="AD92" s="25"/>
+      <c r="AE92" s="25"/>
+    </row>
+    <row r="93" spans="1:31" ht="16.5" customHeight="1">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -10101,8 +10552,11 @@
       <c r="Z93" s="51"/>
       <c r="AA93" s="51"/>
       <c r="AB93" s="25"/>
-    </row>
-    <row r="94" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC93" s="120"/>
+      <c r="AD93" s="25"/>
+      <c r="AE93" s="25"/>
+    </row>
+    <row r="94" spans="1:31" ht="16.5" customHeight="1">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -10131,8 +10585,11 @@
       <c r="Z94" s="51"/>
       <c r="AA94" s="51"/>
       <c r="AB94" s="25"/>
-    </row>
-    <row r="95" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC94" s="120"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+    </row>
+    <row r="95" spans="1:31" ht="16.5" customHeight="1">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -10161,8 +10618,11 @@
       <c r="Z95" s="51"/>
       <c r="AA95" s="51"/>
       <c r="AB95" s="25"/>
-    </row>
-    <row r="96" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC95" s="120"/>
+      <c r="AD95" s="25"/>
+      <c r="AE95" s="25"/>
+    </row>
+    <row r="96" spans="1:31" ht="16.5" customHeight="1">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -10191,8 +10651,11 @@
       <c r="Z96" s="51"/>
       <c r="AA96" s="51"/>
       <c r="AB96" s="25"/>
-    </row>
-    <row r="97" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC96" s="120"/>
+      <c r="AD96" s="25"/>
+      <c r="AE96" s="25"/>
+    </row>
+    <row r="97" spans="1:31" ht="16.5" customHeight="1">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -10221,8 +10684,11 @@
       <c r="Z97" s="51"/>
       <c r="AA97" s="51"/>
       <c r="AB97" s="25"/>
-    </row>
-    <row r="98" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC97" s="120"/>
+      <c r="AD97" s="25"/>
+      <c r="AE97" s="25"/>
+    </row>
+    <row r="98" spans="1:31" ht="16.5" customHeight="1">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -10251,8 +10717,11 @@
       <c r="Z98" s="51"/>
       <c r="AA98" s="51"/>
       <c r="AB98" s="25"/>
-    </row>
-    <row r="99" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC98" s="120"/>
+      <c r="AD98" s="25"/>
+      <c r="AE98" s="25"/>
+    </row>
+    <row r="99" spans="1:31" ht="16.5" customHeight="1">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -10281,8 +10750,11 @@
       <c r="Z99" s="51"/>
       <c r="AA99" s="51"/>
       <c r="AB99" s="25"/>
-    </row>
-    <row r="100" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC99" s="120"/>
+      <c r="AD99" s="25"/>
+      <c r="AE99" s="25"/>
+    </row>
+    <row r="100" spans="1:31" ht="16.5" customHeight="1">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -10311,8 +10783,11 @@
       <c r="Z100" s="51"/>
       <c r="AA100" s="51"/>
       <c r="AB100" s="25"/>
-    </row>
-    <row r="101" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC100" s="120"/>
+      <c r="AD100" s="25"/>
+      <c r="AE100" s="25"/>
+    </row>
+    <row r="101" spans="1:31" ht="16.5" customHeight="1">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -10341,8 +10816,11 @@
       <c r="Z101" s="51"/>
       <c r="AA101" s="51"/>
       <c r="AB101" s="25"/>
-    </row>
-    <row r="102" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC101" s="120"/>
+      <c r="AD101" s="25"/>
+      <c r="AE101" s="25"/>
+    </row>
+    <row r="102" spans="1:31" ht="16.5" customHeight="1">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -10371,8 +10849,11 @@
       <c r="Z102" s="51"/>
       <c r="AA102" s="51"/>
       <c r="AB102" s="25"/>
-    </row>
-    <row r="103" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC102" s="120"/>
+      <c r="AD102" s="25"/>
+      <c r="AE102" s="25"/>
+    </row>
+    <row r="103" spans="1:31" ht="16.5" customHeight="1">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -10401,8 +10882,11 @@
       <c r="Z103" s="51"/>
       <c r="AA103" s="51"/>
       <c r="AB103" s="25"/>
-    </row>
-    <row r="104" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC103" s="120"/>
+      <c r="AD103" s="25"/>
+      <c r="AE103" s="25"/>
+    </row>
+    <row r="104" spans="1:31" ht="16.5" customHeight="1">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -10431,8 +10915,11 @@
       <c r="Z104" s="51"/>
       <c r="AA104" s="51"/>
       <c r="AB104" s="25"/>
-    </row>
-    <row r="105" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC104" s="120"/>
+      <c r="AD104" s="25"/>
+      <c r="AE104" s="25"/>
+    </row>
+    <row r="105" spans="1:31" ht="16.5" customHeight="1">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -10461,68 +10948,77 @@
       <c r="Z105" s="51"/>
       <c r="AA105" s="51"/>
       <c r="AB105" s="25"/>
-    </row>
-    <row r="106" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC105" s="120"/>
+      <c r="AD105" s="25"/>
+      <c r="AE105" s="25"/>
+    </row>
+    <row r="106" spans="1:31" ht="16.5" customHeight="1">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="21"/>
+      <c r="D106" s="48"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="48"/>
       <c r="J106" s="48"/>
       <c r="K106" s="48"/>
       <c r="L106" s="48"/>
       <c r="M106" s="48"/>
       <c r="N106" s="24"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
+      <c r="O106" s="48"/>
+      <c r="P106" s="48"/>
+      <c r="Q106" s="48"/>
+      <c r="R106" s="48"/>
       <c r="S106" s="24"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="47"/>
-      <c r="V106" s="21"/>
-      <c r="W106" s="21"/>
-      <c r="X106" s="21"/>
-      <c r="Y106" s="21"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
+      <c r="V106" s="48"/>
+      <c r="W106" s="48"/>
+      <c r="X106" s="48"/>
+      <c r="Y106" s="48"/>
       <c r="Z106" s="51"/>
       <c r="AA106" s="51"/>
       <c r="AB106" s="25"/>
-    </row>
-    <row r="107" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC106" s="120"/>
+      <c r="AD106" s="25"/>
+      <c r="AE106" s="25"/>
+    </row>
+    <row r="107" spans="1:31" ht="16.5" customHeight="1">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
-      <c r="D107" s="48"/>
+      <c r="D107" s="21"/>
       <c r="E107" s="23"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="48"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
       <c r="J107" s="48"/>
       <c r="K107" s="48"/>
       <c r="L107" s="48"/>
       <c r="M107" s="48"/>
       <c r="N107" s="24"/>
-      <c r="O107" s="48"/>
-      <c r="P107" s="48"/>
-      <c r="Q107" s="48"/>
-      <c r="R107" s="48"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
       <c r="S107" s="24"/>
-      <c r="T107" s="49"/>
-      <c r="U107" s="49"/>
-      <c r="V107" s="48"/>
-      <c r="W107" s="48"/>
-      <c r="X107" s="48"/>
-      <c r="Y107" s="48"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="47"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="21"/>
       <c r="Z107" s="51"/>
       <c r="AA107" s="51"/>
       <c r="AB107" s="25"/>
-    </row>
-    <row r="108" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC107" s="120"/>
+      <c r="AD107" s="25"/>
+      <c r="AE107" s="25"/>
+    </row>
+    <row r="108" spans="1:31" ht="16.5" customHeight="1">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -10551,8 +11047,11 @@
       <c r="Z108" s="51"/>
       <c r="AA108" s="51"/>
       <c r="AB108" s="25"/>
-    </row>
-    <row r="109" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC108" s="120"/>
+      <c r="AD108" s="25"/>
+      <c r="AE108" s="25"/>
+    </row>
+    <row r="109" spans="1:31" ht="16.5" customHeight="1">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -10581,8 +11080,11 @@
       <c r="Z109" s="51"/>
       <c r="AA109" s="51"/>
       <c r="AB109" s="25"/>
-    </row>
-    <row r="110" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC109" s="120"/>
+      <c r="AD109" s="25"/>
+      <c r="AE109" s="25"/>
+    </row>
+    <row r="110" spans="1:31" ht="16.5" customHeight="1">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -10611,8 +11113,11 @@
       <c r="Z110" s="51"/>
       <c r="AA110" s="51"/>
       <c r="AB110" s="25"/>
-    </row>
-    <row r="111" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC110" s="120"/>
+      <c r="AD110" s="25"/>
+      <c r="AE110" s="25"/>
+    </row>
+    <row r="111" spans="1:31" ht="16.5" customHeight="1">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -10641,8 +11146,11 @@
       <c r="Z111" s="51"/>
       <c r="AA111" s="51"/>
       <c r="AB111" s="25"/>
-    </row>
-    <row r="112" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC111" s="120"/>
+      <c r="AD111" s="25"/>
+      <c r="AE111" s="25"/>
+    </row>
+    <row r="112" spans="1:31" ht="16.5" customHeight="1">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -10671,8 +11179,11 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="51"/>
       <c r="AB112" s="25"/>
-    </row>
-    <row r="113" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC112" s="120"/>
+      <c r="AD112" s="25"/>
+      <c r="AE112" s="25"/>
+    </row>
+    <row r="113" spans="1:31" ht="16.5" customHeight="1">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -10701,8 +11212,11 @@
       <c r="Z113" s="51"/>
       <c r="AA113" s="51"/>
       <c r="AB113" s="25"/>
-    </row>
-    <row r="114" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC113" s="120"/>
+      <c r="AD113" s="25"/>
+      <c r="AE113" s="25"/>
+    </row>
+    <row r="114" spans="1:31" ht="16.5" customHeight="1">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -10731,8 +11245,11 @@
       <c r="Z114" s="51"/>
       <c r="AA114" s="51"/>
       <c r="AB114" s="25"/>
-    </row>
-    <row r="115" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC114" s="120"/>
+      <c r="AD114" s="25"/>
+      <c r="AE114" s="25"/>
+    </row>
+    <row r="115" spans="1:31" ht="16.5" customHeight="1">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -10761,8 +11278,11 @@
       <c r="Z115" s="51"/>
       <c r="AA115" s="51"/>
       <c r="AB115" s="25"/>
-    </row>
-    <row r="116" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC115" s="120"/>
+      <c r="AD115" s="25"/>
+      <c r="AE115" s="25"/>
+    </row>
+    <row r="116" spans="1:31" ht="16.5" customHeight="1">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -10791,8 +11311,11 @@
       <c r="Z116" s="51"/>
       <c r="AA116" s="51"/>
       <c r="AB116" s="25"/>
-    </row>
-    <row r="117" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC116" s="120"/>
+      <c r="AD116" s="25"/>
+      <c r="AE116" s="25"/>
+    </row>
+    <row r="117" spans="1:31" ht="16.5" customHeight="1">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -10821,8 +11344,11 @@
       <c r="Z117" s="51"/>
       <c r="AA117" s="51"/>
       <c r="AB117" s="25"/>
-    </row>
-    <row r="118" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC117" s="120"/>
+      <c r="AD117" s="25"/>
+      <c r="AE117" s="25"/>
+    </row>
+    <row r="118" spans="1:31" ht="16.5" customHeight="1">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -10851,8 +11377,11 @@
       <c r="Z118" s="51"/>
       <c r="AA118" s="51"/>
       <c r="AB118" s="25"/>
-    </row>
-    <row r="119" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC118" s="120"/>
+      <c r="AD118" s="25"/>
+      <c r="AE118" s="25"/>
+    </row>
+    <row r="119" spans="1:31" ht="16.5" customHeight="1">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22"/>
@@ -10881,8 +11410,11 @@
       <c r="Z119" s="51"/>
       <c r="AA119" s="51"/>
       <c r="AB119" s="25"/>
-    </row>
-    <row r="120" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC119" s="120"/>
+      <c r="AD119" s="25"/>
+      <c r="AE119" s="25"/>
+    </row>
+    <row r="120" spans="1:31" ht="16.5" customHeight="1">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22"/>
@@ -10911,8 +11443,11 @@
       <c r="Z120" s="51"/>
       <c r="AA120" s="51"/>
       <c r="AB120" s="25"/>
-    </row>
-    <row r="121" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC120" s="120"/>
+      <c r="AD120" s="25"/>
+      <c r="AE120" s="25"/>
+    </row>
+    <row r="121" spans="1:31" ht="16.5" customHeight="1">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -10941,8 +11476,11 @@
       <c r="Z121" s="51"/>
       <c r="AA121" s="51"/>
       <c r="AB121" s="25"/>
-    </row>
-    <row r="122" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC121" s="120"/>
+      <c r="AD121" s="25"/>
+      <c r="AE121" s="25"/>
+    </row>
+    <row r="122" spans="1:31" ht="16.5" customHeight="1">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -10971,8 +11509,11 @@
       <c r="Z122" s="51"/>
       <c r="AA122" s="51"/>
       <c r="AB122" s="25"/>
-    </row>
-    <row r="123" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC122" s="120"/>
+      <c r="AD122" s="25"/>
+      <c r="AE122" s="25"/>
+    </row>
+    <row r="123" spans="1:31" ht="16.5" customHeight="1">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -11001,8 +11542,11 @@
       <c r="Z123" s="51"/>
       <c r="AA123" s="51"/>
       <c r="AB123" s="25"/>
-    </row>
-    <row r="124" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC123" s="120"/>
+      <c r="AD123" s="25"/>
+      <c r="AE123" s="25"/>
+    </row>
+    <row r="124" spans="1:31" ht="16.5" customHeight="1">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -11031,8 +11575,11 @@
       <c r="Z124" s="51"/>
       <c r="AA124" s="51"/>
       <c r="AB124" s="25"/>
-    </row>
-    <row r="125" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC124" s="120"/>
+      <c r="AD124" s="25"/>
+      <c r="AE124" s="25"/>
+    </row>
+    <row r="125" spans="1:31" ht="16.5" customHeight="1">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22"/>
@@ -11061,8 +11608,11 @@
       <c r="Z125" s="51"/>
       <c r="AA125" s="51"/>
       <c r="AB125" s="25"/>
-    </row>
-    <row r="126" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC125" s="120"/>
+      <c r="AD125" s="25"/>
+      <c r="AE125" s="25"/>
+    </row>
+    <row r="126" spans="1:31" ht="16.5" customHeight="1">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22"/>
@@ -11091,8 +11641,11 @@
       <c r="Z126" s="51"/>
       <c r="AA126" s="51"/>
       <c r="AB126" s="25"/>
-    </row>
-    <row r="127" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC126" s="120"/>
+      <c r="AD126" s="25"/>
+      <c r="AE126" s="25"/>
+    </row>
+    <row r="127" spans="1:31" ht="16.5" customHeight="1">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -11121,8 +11674,11 @@
       <c r="Z127" s="51"/>
       <c r="AA127" s="51"/>
       <c r="AB127" s="25"/>
-    </row>
-    <row r="128" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC127" s="120"/>
+      <c r="AD127" s="25"/>
+      <c r="AE127" s="25"/>
+    </row>
+    <row r="128" spans="1:31" ht="16.5" customHeight="1">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22"/>
@@ -11151,8 +11707,11 @@
       <c r="Z128" s="51"/>
       <c r="AA128" s="51"/>
       <c r="AB128" s="25"/>
-    </row>
-    <row r="129" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC128" s="120"/>
+      <c r="AD128" s="25"/>
+      <c r="AE128" s="25"/>
+    </row>
+    <row r="129" spans="1:31" ht="16.5" customHeight="1">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -11181,8 +11740,11 @@
       <c r="Z129" s="51"/>
       <c r="AA129" s="51"/>
       <c r="AB129" s="25"/>
-    </row>
-    <row r="130" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC129" s="120"/>
+      <c r="AD129" s="25"/>
+      <c r="AE129" s="25"/>
+    </row>
+    <row r="130" spans="1:31" ht="16.5" customHeight="1">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22"/>
@@ -11211,8 +11773,11 @@
       <c r="Z130" s="51"/>
       <c r="AA130" s="51"/>
       <c r="AB130" s="25"/>
-    </row>
-    <row r="131" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC130" s="120"/>
+      <c r="AD130" s="25"/>
+      <c r="AE130" s="25"/>
+    </row>
+    <row r="131" spans="1:31" ht="16.5" customHeight="1">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22"/>
@@ -11241,8 +11806,11 @@
       <c r="Z131" s="51"/>
       <c r="AA131" s="51"/>
       <c r="AB131" s="25"/>
-    </row>
-    <row r="132" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC131" s="120"/>
+      <c r="AD131" s="25"/>
+      <c r="AE131" s="25"/>
+    </row>
+    <row r="132" spans="1:31" ht="16.5" customHeight="1">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22"/>
@@ -11271,8 +11839,11 @@
       <c r="Z132" s="51"/>
       <c r="AA132" s="51"/>
       <c r="AB132" s="25"/>
-    </row>
-    <row r="133" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC132" s="120"/>
+      <c r="AD132" s="25"/>
+      <c r="AE132" s="25"/>
+    </row>
+    <row r="133" spans="1:31" ht="16.5" customHeight="1">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22"/>
@@ -11301,8 +11872,11 @@
       <c r="Z133" s="51"/>
       <c r="AA133" s="51"/>
       <c r="AB133" s="25"/>
-    </row>
-    <row r="134" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC133" s="120"/>
+      <c r="AD133" s="25"/>
+      <c r="AE133" s="25"/>
+    </row>
+    <row r="134" spans="1:31" ht="16.5" customHeight="1">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
@@ -11331,8 +11905,11 @@
       <c r="Z134" s="51"/>
       <c r="AA134" s="51"/>
       <c r="AB134" s="25"/>
-    </row>
-    <row r="135" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC134" s="120"/>
+      <c r="AD134" s="25"/>
+      <c r="AE134" s="25"/>
+    </row>
+    <row r="135" spans="1:31" ht="16.5" customHeight="1">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22"/>
@@ -11361,8 +11938,11 @@
       <c r="Z135" s="51"/>
       <c r="AA135" s="51"/>
       <c r="AB135" s="25"/>
-    </row>
-    <row r="136" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC135" s="120"/>
+      <c r="AD135" s="25"/>
+      <c r="AE135" s="25"/>
+    </row>
+    <row r="136" spans="1:31" ht="16.5" customHeight="1">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22"/>
@@ -11391,8 +11971,11 @@
       <c r="Z136" s="51"/>
       <c r="AA136" s="51"/>
       <c r="AB136" s="25"/>
-    </row>
-    <row r="137" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC136" s="120"/>
+      <c r="AD136" s="25"/>
+      <c r="AE136" s="25"/>
+    </row>
+    <row r="137" spans="1:31" ht="16.5" customHeight="1">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22"/>
@@ -11421,8 +12004,11 @@
       <c r="Z137" s="51"/>
       <c r="AA137" s="51"/>
       <c r="AB137" s="25"/>
-    </row>
-    <row r="138" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC137" s="120"/>
+      <c r="AD137" s="25"/>
+      <c r="AE137" s="25"/>
+    </row>
+    <row r="138" spans="1:31" ht="16.5" customHeight="1">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22"/>
@@ -11451,8 +12037,11 @@
       <c r="Z138" s="51"/>
       <c r="AA138" s="51"/>
       <c r="AB138" s="25"/>
-    </row>
-    <row r="139" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC138" s="120"/>
+      <c r="AD138" s="25"/>
+      <c r="AE138" s="25"/>
+    </row>
+    <row r="139" spans="1:31" ht="16.5" customHeight="1">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="22"/>
@@ -11481,8 +12070,11 @@
       <c r="Z139" s="51"/>
       <c r="AA139" s="51"/>
       <c r="AB139" s="25"/>
-    </row>
-    <row r="140" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC139" s="120"/>
+      <c r="AD139" s="25"/>
+      <c r="AE139" s="25"/>
+    </row>
+    <row r="140" spans="1:31" ht="16.5" customHeight="1">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
@@ -11511,8 +12103,11 @@
       <c r="Z140" s="51"/>
       <c r="AA140" s="51"/>
       <c r="AB140" s="25"/>
-    </row>
-    <row r="141" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC140" s="120"/>
+      <c r="AD140" s="25"/>
+      <c r="AE140" s="25"/>
+    </row>
+    <row r="141" spans="1:31" ht="16.5" customHeight="1">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="22"/>
@@ -11541,8 +12136,11 @@
       <c r="Z141" s="51"/>
       <c r="AA141" s="51"/>
       <c r="AB141" s="25"/>
-    </row>
-    <row r="142" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC141" s="120"/>
+      <c r="AD141" s="25"/>
+      <c r="AE141" s="25"/>
+    </row>
+    <row r="142" spans="1:31" ht="16.5" customHeight="1">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
@@ -11571,8 +12169,11 @@
       <c r="Z142" s="51"/>
       <c r="AA142" s="51"/>
       <c r="AB142" s="25"/>
-    </row>
-    <row r="143" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC142" s="120"/>
+      <c r="AD142" s="25"/>
+      <c r="AE142" s="25"/>
+    </row>
+    <row r="143" spans="1:31" ht="16.5" customHeight="1">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22"/>
@@ -11601,8 +12202,11 @@
       <c r="Z143" s="51"/>
       <c r="AA143" s="51"/>
       <c r="AB143" s="25"/>
-    </row>
-    <row r="144" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC143" s="120"/>
+      <c r="AD143" s="25"/>
+      <c r="AE143" s="25"/>
+    </row>
+    <row r="144" spans="1:31" ht="16.5" customHeight="1">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
@@ -11631,8 +12235,11 @@
       <c r="Z144" s="51"/>
       <c r="AA144" s="51"/>
       <c r="AB144" s="25"/>
-    </row>
-    <row r="145" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC144" s="120"/>
+      <c r="AD144" s="25"/>
+      <c r="AE144" s="25"/>
+    </row>
+    <row r="145" spans="1:31" ht="16.5" customHeight="1">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="22"/>
@@ -11661,8 +12268,11 @@
       <c r="Z145" s="51"/>
       <c r="AA145" s="51"/>
       <c r="AB145" s="25"/>
-    </row>
-    <row r="146" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC145" s="120"/>
+      <c r="AD145" s="25"/>
+      <c r="AE145" s="25"/>
+    </row>
+    <row r="146" spans="1:31" ht="16.5" customHeight="1">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="22"/>
@@ -11691,8 +12301,11 @@
       <c r="Z146" s="51"/>
       <c r="AA146" s="51"/>
       <c r="AB146" s="25"/>
-    </row>
-    <row r="147" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC146" s="120"/>
+      <c r="AD146" s="25"/>
+      <c r="AE146" s="25"/>
+    </row>
+    <row r="147" spans="1:31" ht="16.5" customHeight="1">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="22"/>
@@ -11721,8 +12334,11 @@
       <c r="Z147" s="51"/>
       <c r="AA147" s="51"/>
       <c r="AB147" s="25"/>
-    </row>
-    <row r="148" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC147" s="120"/>
+      <c r="AD147" s="25"/>
+      <c r="AE147" s="25"/>
+    </row>
+    <row r="148" spans="1:31" ht="16.5" customHeight="1">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="22"/>
@@ -11751,8 +12367,11 @@
       <c r="Z148" s="51"/>
       <c r="AA148" s="51"/>
       <c r="AB148" s="25"/>
-    </row>
-    <row r="149" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC148" s="120"/>
+      <c r="AD148" s="25"/>
+      <c r="AE148" s="25"/>
+    </row>
+    <row r="149" spans="1:31" ht="16.5" customHeight="1">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="22"/>
@@ -11781,8 +12400,11 @@
       <c r="Z149" s="51"/>
       <c r="AA149" s="51"/>
       <c r="AB149" s="25"/>
-    </row>
-    <row r="150" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC149" s="120"/>
+      <c r="AD149" s="25"/>
+      <c r="AE149" s="25"/>
+    </row>
+    <row r="150" spans="1:31" ht="16.5" customHeight="1">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -11811,8 +12433,11 @@
       <c r="Z150" s="51"/>
       <c r="AA150" s="51"/>
       <c r="AB150" s="25"/>
-    </row>
-    <row r="151" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC150" s="120"/>
+      <c r="AD150" s="25"/>
+      <c r="AE150" s="25"/>
+    </row>
+    <row r="151" spans="1:31" ht="16.5" customHeight="1">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -11841,8 +12466,11 @@
       <c r="Z151" s="51"/>
       <c r="AA151" s="51"/>
       <c r="AB151" s="25"/>
-    </row>
-    <row r="152" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC151" s="120"/>
+      <c r="AD151" s="25"/>
+      <c r="AE151" s="25"/>
+    </row>
+    <row r="152" spans="1:31" ht="16.5" customHeight="1">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="22"/>
@@ -11871,8 +12499,11 @@
       <c r="Z152" s="51"/>
       <c r="AA152" s="51"/>
       <c r="AB152" s="25"/>
-    </row>
-    <row r="153" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC152" s="120"/>
+      <c r="AD152" s="25"/>
+      <c r="AE152" s="25"/>
+    </row>
+    <row r="153" spans="1:31" ht="16.5" customHeight="1">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22"/>
@@ -11901,8 +12532,11 @@
       <c r="Z153" s="51"/>
       <c r="AA153" s="51"/>
       <c r="AB153" s="25"/>
-    </row>
-    <row r="154" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC153" s="120"/>
+      <c r="AD153" s="25"/>
+      <c r="AE153" s="25"/>
+    </row>
+    <row r="154" spans="1:31" ht="16.5" customHeight="1">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
@@ -11931,8 +12565,11 @@
       <c r="Z154" s="51"/>
       <c r="AA154" s="51"/>
       <c r="AB154" s="25"/>
-    </row>
-    <row r="155" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC154" s="120"/>
+      <c r="AD154" s="25"/>
+      <c r="AE154" s="25"/>
+    </row>
+    <row r="155" spans="1:31" ht="16.5" customHeight="1">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22"/>
@@ -11961,8 +12598,11 @@
       <c r="Z155" s="51"/>
       <c r="AA155" s="51"/>
       <c r="AB155" s="25"/>
-    </row>
-    <row r="156" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC155" s="120"/>
+      <c r="AD155" s="25"/>
+      <c r="AE155" s="25"/>
+    </row>
+    <row r="156" spans="1:31" ht="16.5" customHeight="1">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -11991,8 +12631,11 @@
       <c r="Z156" s="51"/>
       <c r="AA156" s="51"/>
       <c r="AB156" s="25"/>
-    </row>
-    <row r="157" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC156" s="120"/>
+      <c r="AD156" s="25"/>
+      <c r="AE156" s="25"/>
+    </row>
+    <row r="157" spans="1:31" ht="16.5" customHeight="1">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -12021,8 +12664,11 @@
       <c r="Z157" s="51"/>
       <c r="AA157" s="51"/>
       <c r="AB157" s="25"/>
-    </row>
-    <row r="158" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC157" s="120"/>
+      <c r="AD157" s="25"/>
+      <c r="AE157" s="25"/>
+    </row>
+    <row r="158" spans="1:31" ht="16.5" customHeight="1">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -12051,8 +12697,11 @@
       <c r="Z158" s="51"/>
       <c r="AA158" s="51"/>
       <c r="AB158" s="25"/>
-    </row>
-    <row r="159" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC158" s="120"/>
+      <c r="AD158" s="25"/>
+      <c r="AE158" s="25"/>
+    </row>
+    <row r="159" spans="1:31" ht="16.5" customHeight="1">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -12081,8 +12730,11 @@
       <c r="Z159" s="51"/>
       <c r="AA159" s="51"/>
       <c r="AB159" s="25"/>
-    </row>
-    <row r="160" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC159" s="120"/>
+      <c r="AD159" s="25"/>
+      <c r="AE159" s="25"/>
+    </row>
+    <row r="160" spans="1:31" ht="16.5" customHeight="1">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -12111,8 +12763,11 @@
       <c r="Z160" s="51"/>
       <c r="AA160" s="51"/>
       <c r="AB160" s="25"/>
-    </row>
-    <row r="161" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC160" s="120"/>
+      <c r="AD160" s="25"/>
+      <c r="AE160" s="25"/>
+    </row>
+    <row r="161" spans="1:31" ht="16.5" customHeight="1">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -12141,8 +12796,11 @@
       <c r="Z161" s="51"/>
       <c r="AA161" s="51"/>
       <c r="AB161" s="25"/>
-    </row>
-    <row r="162" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC161" s="120"/>
+      <c r="AD161" s="25"/>
+      <c r="AE161" s="25"/>
+    </row>
+    <row r="162" spans="1:31" ht="16.5" customHeight="1">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -12171,8 +12829,11 @@
       <c r="Z162" s="51"/>
       <c r="AA162" s="51"/>
       <c r="AB162" s="25"/>
-    </row>
-    <row r="163" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC162" s="120"/>
+      <c r="AD162" s="25"/>
+      <c r="AE162" s="25"/>
+    </row>
+    <row r="163" spans="1:31" ht="16.5" customHeight="1">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -12201,8 +12862,11 @@
       <c r="Z163" s="51"/>
       <c r="AA163" s="51"/>
       <c r="AB163" s="25"/>
-    </row>
-    <row r="164" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC163" s="120"/>
+      <c r="AD163" s="25"/>
+      <c r="AE163" s="25"/>
+    </row>
+    <row r="164" spans="1:31" ht="16.5" customHeight="1">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -12231,8 +12895,11 @@
       <c r="Z164" s="51"/>
       <c r="AA164" s="51"/>
       <c r="AB164" s="25"/>
-    </row>
-    <row r="165" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC164" s="120"/>
+      <c r="AD164" s="25"/>
+      <c r="AE164" s="25"/>
+    </row>
+    <row r="165" spans="1:31" ht="16.5" customHeight="1">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -12261,8 +12928,11 @@
       <c r="Z165" s="51"/>
       <c r="AA165" s="51"/>
       <c r="AB165" s="25"/>
-    </row>
-    <row r="166" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC165" s="120"/>
+      <c r="AD165" s="25"/>
+      <c r="AE165" s="25"/>
+    </row>
+    <row r="166" spans="1:31" ht="16.5" customHeight="1">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -12291,8 +12961,11 @@
       <c r="Z166" s="51"/>
       <c r="AA166" s="51"/>
       <c r="AB166" s="25"/>
-    </row>
-    <row r="167" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC166" s="120"/>
+      <c r="AD166" s="25"/>
+      <c r="AE166" s="25"/>
+    </row>
+    <row r="167" spans="1:31" ht="16.5" customHeight="1">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -12321,8 +12994,11 @@
       <c r="Z167" s="51"/>
       <c r="AA167" s="51"/>
       <c r="AB167" s="25"/>
-    </row>
-    <row r="168" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC167" s="120"/>
+      <c r="AD167" s="25"/>
+      <c r="AE167" s="25"/>
+    </row>
+    <row r="168" spans="1:31" ht="16.5" customHeight="1">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -12351,8 +13027,11 @@
       <c r="Z168" s="51"/>
       <c r="AA168" s="51"/>
       <c r="AB168" s="25"/>
-    </row>
-    <row r="169" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC168" s="120"/>
+      <c r="AD168" s="25"/>
+      <c r="AE168" s="25"/>
+    </row>
+    <row r="169" spans="1:31" ht="16.5" customHeight="1">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -12381,8 +13060,11 @@
       <c r="Z169" s="51"/>
       <c r="AA169" s="51"/>
       <c r="AB169" s="25"/>
-    </row>
-    <row r="170" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC169" s="120"/>
+      <c r="AD169" s="25"/>
+      <c r="AE169" s="25"/>
+    </row>
+    <row r="170" spans="1:31" ht="16.5" customHeight="1">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -12411,8 +13093,11 @@
       <c r="Z170" s="51"/>
       <c r="AA170" s="51"/>
       <c r="AB170" s="25"/>
-    </row>
-    <row r="171" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC170" s="120"/>
+      <c r="AD170" s="25"/>
+      <c r="AE170" s="25"/>
+    </row>
+    <row r="171" spans="1:31" ht="16.5" customHeight="1">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -12441,8 +13126,11 @@
       <c r="Z171" s="51"/>
       <c r="AA171" s="51"/>
       <c r="AB171" s="25"/>
-    </row>
-    <row r="172" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC171" s="120"/>
+      <c r="AD171" s="25"/>
+      <c r="AE171" s="25"/>
+    </row>
+    <row r="172" spans="1:31" ht="16.5" customHeight="1">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -12471,8 +13159,11 @@
       <c r="Z172" s="51"/>
       <c r="AA172" s="51"/>
       <c r="AB172" s="25"/>
-    </row>
-    <row r="173" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC172" s="120"/>
+      <c r="AD172" s="25"/>
+      <c r="AE172" s="25"/>
+    </row>
+    <row r="173" spans="1:31" ht="16.5" customHeight="1">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -12501,8 +13192,11 @@
       <c r="Z173" s="51"/>
       <c r="AA173" s="51"/>
       <c r="AB173" s="25"/>
-    </row>
-    <row r="174" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC173" s="120"/>
+      <c r="AD173" s="25"/>
+      <c r="AE173" s="25"/>
+    </row>
+    <row r="174" spans="1:31" ht="16.5" customHeight="1">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -12531,8 +13225,11 @@
       <c r="Z174" s="51"/>
       <c r="AA174" s="51"/>
       <c r="AB174" s="25"/>
-    </row>
-    <row r="175" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC174" s="120"/>
+      <c r="AD174" s="25"/>
+      <c r="AE174" s="25"/>
+    </row>
+    <row r="175" spans="1:31" ht="16.5" customHeight="1">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -12561,8 +13258,11 @@
       <c r="Z175" s="51"/>
       <c r="AA175" s="51"/>
       <c r="AB175" s="25"/>
-    </row>
-    <row r="176" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC175" s="120"/>
+      <c r="AD175" s="25"/>
+      <c r="AE175" s="25"/>
+    </row>
+    <row r="176" spans="1:31" ht="16.5" customHeight="1">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -12591,8 +13291,11 @@
       <c r="Z176" s="51"/>
       <c r="AA176" s="51"/>
       <c r="AB176" s="25"/>
-    </row>
-    <row r="177" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC176" s="120"/>
+      <c r="AD176" s="25"/>
+      <c r="AE176" s="25"/>
+    </row>
+    <row r="177" spans="1:31" ht="16.5" customHeight="1">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -12621,8 +13324,11 @@
       <c r="Z177" s="51"/>
       <c r="AA177" s="51"/>
       <c r="AB177" s="25"/>
-    </row>
-    <row r="178" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC177" s="120"/>
+      <c r="AD177" s="25"/>
+      <c r="AE177" s="25"/>
+    </row>
+    <row r="178" spans="1:31" ht="16.5" customHeight="1">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -12651,8 +13357,11 @@
       <c r="Z178" s="51"/>
       <c r="AA178" s="51"/>
       <c r="AB178" s="25"/>
-    </row>
-    <row r="179" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC178" s="120"/>
+      <c r="AD178" s="25"/>
+      <c r="AE178" s="25"/>
+    </row>
+    <row r="179" spans="1:31" ht="16.5" customHeight="1">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -12681,8 +13390,11 @@
       <c r="Z179" s="51"/>
       <c r="AA179" s="51"/>
       <c r="AB179" s="25"/>
-    </row>
-    <row r="180" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC179" s="120"/>
+      <c r="AD179" s="25"/>
+      <c r="AE179" s="25"/>
+    </row>
+    <row r="180" spans="1:31" ht="16.5" customHeight="1">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="22"/>
@@ -12711,8 +13423,11 @@
       <c r="Z180" s="51"/>
       <c r="AA180" s="51"/>
       <c r="AB180" s="25"/>
-    </row>
-    <row r="181" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC180" s="120"/>
+      <c r="AD180" s="25"/>
+      <c r="AE180" s="25"/>
+    </row>
+    <row r="181" spans="1:31" ht="16.5" customHeight="1">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="22"/>
@@ -12741,8 +13456,11 @@
       <c r="Z181" s="51"/>
       <c r="AA181" s="51"/>
       <c r="AB181" s="25"/>
-    </row>
-    <row r="182" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC181" s="120"/>
+      <c r="AD181" s="25"/>
+      <c r="AE181" s="25"/>
+    </row>
+    <row r="182" spans="1:31" ht="16.5" customHeight="1">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="22"/>
@@ -12771,8 +13489,11 @@
       <c r="Z182" s="51"/>
       <c r="AA182" s="51"/>
       <c r="AB182" s="25"/>
-    </row>
-    <row r="183" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC182" s="120"/>
+      <c r="AD182" s="25"/>
+      <c r="AE182" s="25"/>
+    </row>
+    <row r="183" spans="1:31" ht="16.5" customHeight="1">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="22"/>
@@ -12801,8 +13522,11 @@
       <c r="Z183" s="51"/>
       <c r="AA183" s="51"/>
       <c r="AB183" s="25"/>
-    </row>
-    <row r="184" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC183" s="120"/>
+      <c r="AD183" s="25"/>
+      <c r="AE183" s="25"/>
+    </row>
+    <row r="184" spans="1:31" ht="16.5" customHeight="1">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="22"/>
@@ -12831,8 +13555,11 @@
       <c r="Z184" s="51"/>
       <c r="AA184" s="51"/>
       <c r="AB184" s="25"/>
-    </row>
-    <row r="185" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC184" s="120"/>
+      <c r="AD184" s="25"/>
+      <c r="AE184" s="25"/>
+    </row>
+    <row r="185" spans="1:31" ht="16.5" customHeight="1">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="22"/>
@@ -12861,8 +13588,11 @@
       <c r="Z185" s="51"/>
       <c r="AA185" s="51"/>
       <c r="AB185" s="25"/>
-    </row>
-    <row r="186" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC185" s="120"/>
+      <c r="AD185" s="25"/>
+      <c r="AE185" s="25"/>
+    </row>
+    <row r="186" spans="1:31" ht="16.5" customHeight="1">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="22"/>
@@ -12891,8 +13621,11 @@
       <c r="Z186" s="51"/>
       <c r="AA186" s="51"/>
       <c r="AB186" s="25"/>
-    </row>
-    <row r="187" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC186" s="120"/>
+      <c r="AD186" s="25"/>
+      <c r="AE186" s="25"/>
+    </row>
+    <row r="187" spans="1:31" ht="16.5" customHeight="1">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="22"/>
@@ -12921,8 +13654,11 @@
       <c r="Z187" s="51"/>
       <c r="AA187" s="51"/>
       <c r="AB187" s="25"/>
-    </row>
-    <row r="188" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC187" s="120"/>
+      <c r="AD187" s="25"/>
+      <c r="AE187" s="25"/>
+    </row>
+    <row r="188" spans="1:31" ht="16.5" customHeight="1">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="22"/>
@@ -12951,8 +13687,11 @@
       <c r="Z188" s="51"/>
       <c r="AA188" s="51"/>
       <c r="AB188" s="25"/>
-    </row>
-    <row r="189" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC188" s="120"/>
+      <c r="AD188" s="25"/>
+      <c r="AE188" s="25"/>
+    </row>
+    <row r="189" spans="1:31" ht="16.5" customHeight="1">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="22"/>
@@ -12981,8 +13720,11 @@
       <c r="Z189" s="51"/>
       <c r="AA189" s="51"/>
       <c r="AB189" s="25"/>
-    </row>
-    <row r="190" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC189" s="120"/>
+      <c r="AD189" s="25"/>
+      <c r="AE189" s="25"/>
+    </row>
+    <row r="190" spans="1:31" ht="16.5" customHeight="1">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="22"/>
@@ -13011,8 +13753,11 @@
       <c r="Z190" s="51"/>
       <c r="AA190" s="51"/>
       <c r="AB190" s="25"/>
-    </row>
-    <row r="191" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC190" s="120"/>
+      <c r="AD190" s="25"/>
+      <c r="AE190" s="25"/>
+    </row>
+    <row r="191" spans="1:31" ht="16.5" customHeight="1">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="22"/>
@@ -13041,8 +13786,11 @@
       <c r="Z191" s="51"/>
       <c r="AA191" s="51"/>
       <c r="AB191" s="25"/>
-    </row>
-    <row r="192" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC191" s="120"/>
+      <c r="AD191" s="25"/>
+      <c r="AE191" s="25"/>
+    </row>
+    <row r="192" spans="1:31" ht="16.5" customHeight="1">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="22"/>
@@ -13071,8 +13819,11 @@
       <c r="Z192" s="51"/>
       <c r="AA192" s="51"/>
       <c r="AB192" s="25"/>
-    </row>
-    <row r="193" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC192" s="120"/>
+      <c r="AD192" s="25"/>
+      <c r="AE192" s="25"/>
+    </row>
+    <row r="193" spans="1:31" ht="16.5" customHeight="1">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="22"/>
@@ -13101,8 +13852,11 @@
       <c r="Z193" s="51"/>
       <c r="AA193" s="51"/>
       <c r="AB193" s="25"/>
-    </row>
-    <row r="194" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC193" s="120"/>
+      <c r="AD193" s="25"/>
+      <c r="AE193" s="25"/>
+    </row>
+    <row r="194" spans="1:31" ht="16.5" customHeight="1">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="22"/>
@@ -13131,8 +13885,11 @@
       <c r="Z194" s="51"/>
       <c r="AA194" s="51"/>
       <c r="AB194" s="25"/>
-    </row>
-    <row r="195" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC194" s="120"/>
+      <c r="AD194" s="25"/>
+      <c r="AE194" s="25"/>
+    </row>
+    <row r="195" spans="1:31" ht="16.5" customHeight="1">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="22"/>
@@ -13161,8 +13918,11 @@
       <c r="Z195" s="51"/>
       <c r="AA195" s="51"/>
       <c r="AB195" s="25"/>
-    </row>
-    <row r="196" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC195" s="120"/>
+      <c r="AD195" s="25"/>
+      <c r="AE195" s="25"/>
+    </row>
+    <row r="196" spans="1:31" ht="16.5" customHeight="1">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="22"/>
@@ -13191,8 +13951,11 @@
       <c r="Z196" s="51"/>
       <c r="AA196" s="51"/>
       <c r="AB196" s="25"/>
-    </row>
-    <row r="197" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC196" s="120"/>
+      <c r="AD196" s="25"/>
+      <c r="AE196" s="25"/>
+    </row>
+    <row r="197" spans="1:31" ht="16.5" customHeight="1">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="22"/>
@@ -13221,8 +13984,11 @@
       <c r="Z197" s="51"/>
       <c r="AA197" s="51"/>
       <c r="AB197" s="25"/>
-    </row>
-    <row r="198" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC197" s="120"/>
+      <c r="AD197" s="25"/>
+      <c r="AE197" s="25"/>
+    </row>
+    <row r="198" spans="1:31" ht="16.5" customHeight="1">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="22"/>
@@ -13251,8 +14017,11 @@
       <c r="Z198" s="51"/>
       <c r="AA198" s="51"/>
       <c r="AB198" s="25"/>
-    </row>
-    <row r="199" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC198" s="120"/>
+      <c r="AD198" s="25"/>
+      <c r="AE198" s="25"/>
+    </row>
+    <row r="199" spans="1:31" ht="16.5" customHeight="1">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="22"/>
@@ -13281,8 +14050,11 @@
       <c r="Z199" s="51"/>
       <c r="AA199" s="51"/>
       <c r="AB199" s="25"/>
-    </row>
-    <row r="200" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC199" s="120"/>
+      <c r="AD199" s="25"/>
+      <c r="AE199" s="25"/>
+    </row>
+    <row r="200" spans="1:31" ht="16.5" customHeight="1">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="22"/>
@@ -13311,8 +14083,11 @@
       <c r="Z200" s="51"/>
       <c r="AA200" s="51"/>
       <c r="AB200" s="25"/>
-    </row>
-    <row r="201" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC200" s="120"/>
+      <c r="AD200" s="25"/>
+      <c r="AE200" s="25"/>
+    </row>
+    <row r="201" spans="1:31" ht="16.5" customHeight="1">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="22"/>
@@ -13341,8 +14116,11 @@
       <c r="Z201" s="51"/>
       <c r="AA201" s="51"/>
       <c r="AB201" s="25"/>
-    </row>
-    <row r="202" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC201" s="120"/>
+      <c r="AD201" s="25"/>
+      <c r="AE201" s="25"/>
+    </row>
+    <row r="202" spans="1:31" ht="16.5" customHeight="1">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="22"/>
@@ -13371,8 +14149,11 @@
       <c r="Z202" s="51"/>
       <c r="AA202" s="51"/>
       <c r="AB202" s="25"/>
-    </row>
-    <row r="203" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC202" s="120"/>
+      <c r="AD202" s="25"/>
+      <c r="AE202" s="25"/>
+    </row>
+    <row r="203" spans="1:31" ht="16.5" customHeight="1">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="22"/>
@@ -13401,8 +14182,11 @@
       <c r="Z203" s="51"/>
       <c r="AA203" s="51"/>
       <c r="AB203" s="25"/>
-    </row>
-    <row r="204" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC203" s="120"/>
+      <c r="AD203" s="25"/>
+      <c r="AE203" s="25"/>
+    </row>
+    <row r="204" spans="1:31" ht="16.5" customHeight="1">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="22"/>
@@ -13431,8 +14215,11 @@
       <c r="Z204" s="51"/>
       <c r="AA204" s="51"/>
       <c r="AB204" s="25"/>
-    </row>
-    <row r="205" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC204" s="120"/>
+      <c r="AD204" s="25"/>
+      <c r="AE204" s="25"/>
+    </row>
+    <row r="205" spans="1:31" ht="16.5" customHeight="1">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="22"/>
@@ -13461,8 +14248,11 @@
       <c r="Z205" s="51"/>
       <c r="AA205" s="51"/>
       <c r="AB205" s="25"/>
-    </row>
-    <row r="206" spans="1:28" ht="16.5" customHeight="1">
+      <c r="AC205" s="120"/>
+      <c r="AD205" s="25"/>
+      <c r="AE205" s="25"/>
+    </row>
+    <row r="206" spans="1:31" ht="16.5" customHeight="1">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="22"/>
@@ -13491,38 +14281,12 @@
       <c r="Z206" s="51"/>
       <c r="AA206" s="51"/>
       <c r="AB206" s="25"/>
-    </row>
-    <row r="207" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="23"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="48"/>
-      <c r="L207" s="48"/>
-      <c r="M207" s="48"/>
-      <c r="N207" s="24"/>
-      <c r="O207" s="21"/>
-      <c r="P207" s="21"/>
-      <c r="Q207" s="21"/>
-      <c r="R207" s="21"/>
-      <c r="S207" s="24"/>
-      <c r="T207" s="21"/>
-      <c r="U207" s="47"/>
-      <c r="V207" s="21"/>
-      <c r="W207" s="21"/>
-      <c r="X207" s="21"/>
-      <c r="Y207" s="21"/>
-      <c r="Z207" s="51"/>
-      <c r="AA207" s="51"/>
-      <c r="AB207" s="25"/>
-    </row>
-    <row r="208" spans="1:28" ht="16.5" customHeight="1"/>
+      <c r="AC206" s="120"/>
+      <c r="AD206" s="25"/>
+      <c r="AE206" s="25"/>
+    </row>
+    <row r="207" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="208" spans="1:31" ht="16.5" customHeight="1"/>
     <row r="209" ht="16.5" customHeight="1"/>
     <row r="210" ht="16.5" customHeight="1"/>
     <row r="211" ht="16.5" customHeight="1"/>
@@ -14303,15 +15067,24 @@
     <row r="986" ht="16.5" customHeight="1"/>
     <row r="987" ht="16.5" customHeight="1"/>
     <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
+  <mergeCells count="23">
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="A1:B1"/>
@@ -14319,14 +15092,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag_8\Documents\GitHub\Yaho\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B1345-6EFE-4F1B-A176-D5A42EF08D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104B1FD-47B9-4922-A410-F2DEAE5FE9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="434">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -1285,11 +1285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(몇)레벨 도달
-매일 04:00 초기화되며 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재앙의 전말(Q_Chapter04_2_00) 완료
 (몇)레벨 도달</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1641,18 +1636,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q00_M01_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변수 필요 이유</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q01_M01_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아들과 대화하였다는 것을 확인하기 위해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1661,18 +1648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q01_M02_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q01_M03_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q01_M04_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무기를 획득하였다는 것을 확인하고, 이를 이용해 무기 이벤트를 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1686,6 +1661,186 @@
   </si>
   <si>
     <t>고블린을 처치한 후 해당 이벤트의 반복을 막기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ00_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M05_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M06_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M07_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M08_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M09_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M10_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ03_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M01_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M01_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M01_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M05_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M06_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M07_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S04_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S02_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S02_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몇)레벨 도달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S04_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S05_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M05_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M05_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M05_S03_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,7 +2021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2424,6 +2579,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2431,7 +2601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2714,6 +2884,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2744,18 +2944,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2777,26 +2965,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3041,14 +3223,14 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="U2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3056,23 +3238,23 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="U3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="2" t="s">
@@ -3084,10 +3266,10 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="105"/>
       <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3102,10 +3284,10 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B7" s="2" t="s">
@@ -3117,10 +3299,10 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="105"/>
     </row>
     <row r="8" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B8" s="2" t="s">
@@ -5085,13 +5267,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE988"/>
+  <dimension ref="A1:AF988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="AE50" sqref="AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5100,7 +5282,7 @@
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="16" customWidth="1"/>
     <col min="7" max="7" width="50.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.75" style="1" customWidth="1"/>
@@ -5124,65 +5306,67 @@
     <col min="26" max="26" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="9.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="0.875" style="121" customWidth="1"/>
-    <col min="30" max="30" width="17.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="0.875" style="103" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="19" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="65" style="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="7.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="28.875" style="19" customWidth="1"/>
+    <col min="33" max="36" width="7.625" style="1" customWidth="1"/>
     <col min="37" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:32" s="17" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
       <c r="Z1" s="71"/>
       <c r="AA1" s="71"/>
-      <c r="AB1" s="102" t="s">
+      <c r="AB1" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="102" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE1" s="102" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="112" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE1" s="112" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF1" s="112"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="92" t="s">
         <v>100</v>
       </c>
@@ -5195,7 +5379,7 @@
       <c r="D2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="124"/>
       <c r="F2" s="92" t="s">
         <v>42</v>
       </c>
@@ -5258,12 +5442,13 @@
       </c>
       <c r="Z2" s="92"/>
       <c r="AA2" s="92"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-    </row>
-    <row r="3" spans="1:31" ht="33.75" thickTop="1">
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+    </row>
+    <row r="3" spans="1:32" ht="33.75" thickTop="1">
       <c r="A3" s="86" t="s">
         <v>118</v>
       </c>
@@ -5344,19 +5529,20 @@
         <v>44</v>
       </c>
       <c r="AB3" s="87"/>
-      <c r="AC3" s="117"/>
+      <c r="AC3" s="99"/>
       <c r="AD3" s="87" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="87" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="33">
-      <c r="A4" s="109" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF3" s="87"/>
+    </row>
+    <row r="4" spans="1:32" ht="33">
+      <c r="A4" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -5435,17 +5621,18 @@
         <v>44</v>
       </c>
       <c r="AB4" s="70"/>
-      <c r="AC4" s="118"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="87" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AE4" s="84" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="33">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
+        <v>383</v>
+      </c>
+      <c r="AF4" s="95"/>
+    </row>
+    <row r="5" spans="1:32" ht="33">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="56" t="s">
         <v>113</v>
       </c>
@@ -5522,17 +5709,18 @@
         <v>44</v>
       </c>
       <c r="AB5" s="70"/>
-      <c r="AC5" s="118"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="87" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AE5" s="84" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="33">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
+        <v>385</v>
+      </c>
+      <c r="AF5" s="95"/>
+    </row>
+    <row r="6" spans="1:32" ht="33">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="56" t="s">
         <v>114</v>
       </c>
@@ -5609,17 +5797,18 @@
         <v>44</v>
       </c>
       <c r="AB6" s="70"/>
-      <c r="AC6" s="118"/>
+      <c r="AC6" s="100"/>
       <c r="AD6" s="87" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AE6" s="84" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="33">
-      <c r="A7" s="109"/>
-      <c r="B7" s="110"/>
+        <v>386</v>
+      </c>
+      <c r="AF6" s="95"/>
+    </row>
+    <row r="7" spans="1:32" ht="33">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="56" t="s">
         <v>115</v>
       </c>
@@ -5696,19 +5885,20 @@
         <v>44</v>
       </c>
       <c r="AB7" s="70"/>
-      <c r="AC7" s="118"/>
+      <c r="AC7" s="100"/>
       <c r="AD7" s="87" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AE7" s="84" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="49.5">
-      <c r="A8" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF7" s="95"/>
+    </row>
+    <row r="8" spans="1:32" ht="49.5">
+      <c r="A8" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="116" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -5787,13 +5977,16 @@
         <v>44</v>
       </c>
       <c r="AB8" s="70"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="70"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="87" t="s">
+        <v>394</v>
+      </c>
       <c r="AE8" s="84"/>
-    </row>
-    <row r="9" spans="1:31" ht="49.5">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
+      <c r="AF8" s="95"/>
+    </row>
+    <row r="9" spans="1:32" ht="49.5">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="56" t="s">
         <v>117</v>
       </c>
@@ -5870,13 +6063,16 @@
         <v>44</v>
       </c>
       <c r="AB9" s="70"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="70"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="87" t="s">
+        <v>395</v>
+      </c>
       <c r="AE9" s="84"/>
-    </row>
-    <row r="10" spans="1:31" ht="49.5">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
+      <c r="AF9" s="95"/>
+    </row>
+    <row r="10" spans="1:32" ht="49.5">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="56" t="s">
         <v>121</v>
       </c>
@@ -5953,13 +6149,16 @@
         <v>44</v>
       </c>
       <c r="AB10" s="70"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="70"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="87" t="s">
+        <v>396</v>
+      </c>
       <c r="AE10" s="84"/>
-    </row>
-    <row r="11" spans="1:31" ht="33">
-      <c r="A11" s="109"/>
-      <c r="B11" s="110"/>
+      <c r="AF10" s="95"/>
+    </row>
+    <row r="11" spans="1:32" ht="33">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="56" t="s">
         <v>122</v>
       </c>
@@ -6028,13 +6227,16 @@
         <v>44</v>
       </c>
       <c r="AB11" s="70"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="70"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="87" t="s">
+        <v>397</v>
+      </c>
       <c r="AE11" s="84"/>
-    </row>
-    <row r="12" spans="1:31" ht="49.5">
-      <c r="A12" s="109"/>
-      <c r="B12" s="110"/>
+      <c r="AF11" s="95"/>
+    </row>
+    <row r="12" spans="1:32" ht="49.5">
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="56" t="s">
         <v>123</v>
       </c>
@@ -6111,13 +6313,16 @@
         <v>44</v>
       </c>
       <c r="AB12" s="70"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="70"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="87" t="s">
+        <v>398</v>
+      </c>
       <c r="AE12" s="84"/>
-    </row>
-    <row r="13" spans="1:31" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
+      <c r="AF12" s="95"/>
+    </row>
+    <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="56" t="s">
         <v>124</v>
       </c>
@@ -6190,13 +6395,16 @@
         <v>44</v>
       </c>
       <c r="AB13" s="70"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="70"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="87" t="s">
+        <v>399</v>
+      </c>
       <c r="AE13" s="84"/>
-    </row>
-    <row r="14" spans="1:31" ht="33">
-      <c r="A14" s="109"/>
-      <c r="B14" s="110"/>
+      <c r="AF13" s="95"/>
+    </row>
+    <row r="14" spans="1:32" ht="33">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="56" t="s">
         <v>125</v>
       </c>
@@ -6273,13 +6481,16 @@
         <v>44</v>
       </c>
       <c r="AB14" s="70"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="70"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="87" t="s">
+        <v>400</v>
+      </c>
       <c r="AE14" s="84"/>
-    </row>
-    <row r="15" spans="1:31" ht="33">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
+      <c r="AF14" s="95"/>
+    </row>
+    <row r="15" spans="1:32" ht="33">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="56" t="s">
         <v>126</v>
       </c>
@@ -6356,13 +6567,16 @@
         <v>44</v>
       </c>
       <c r="AB15" s="70"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="70"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="87" t="s">
+        <v>401</v>
+      </c>
       <c r="AE15" s="84"/>
-    </row>
-    <row r="16" spans="1:31" ht="66">
-      <c r="A16" s="109"/>
-      <c r="B16" s="110"/>
+      <c r="AF15" s="95"/>
+    </row>
+    <row r="16" spans="1:32" ht="66">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="56" t="s">
         <v>127</v>
       </c>
@@ -6439,13 +6653,16 @@
         <v>44</v>
       </c>
       <c r="AB16" s="70"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="70"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="87" t="s">
+        <v>402</v>
+      </c>
       <c r="AE16" s="84"/>
-    </row>
-    <row r="17" spans="1:31" ht="33">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
+      <c r="AF16" s="95"/>
+    </row>
+    <row r="17" spans="1:32" ht="33">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="56" t="s">
         <v>152</v>
       </c>
@@ -6522,11 +6739,14 @@
         <v>44</v>
       </c>
       <c r="AB17" s="70"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="70"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="87" t="s">
+        <v>403</v>
+      </c>
       <c r="AE17" s="84"/>
-    </row>
-    <row r="18" spans="1:31" ht="33">
+      <c r="AF17" s="95"/>
+    </row>
+    <row r="18" spans="1:32" ht="33">
       <c r="A18" s="52" t="s">
         <v>165</v>
       </c>
@@ -6609,15 +6829,18 @@
         <v>44</v>
       </c>
       <c r="AB18" s="70"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="70"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="87" t="s">
+        <v>404</v>
+      </c>
       <c r="AE18" s="84"/>
-    </row>
-    <row r="19" spans="1:31" ht="33">
-      <c r="A19" s="109" t="s">
+      <c r="AF18" s="95"/>
+    </row>
+    <row r="19" spans="1:32" ht="33">
+      <c r="A19" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="116" t="s">
         <v>168</v>
       </c>
       <c r="C19" s="56" t="s">
@@ -6678,7 +6901,7 @@
         <v>174</v>
       </c>
       <c r="V19" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W19" s="58" t="s">
         <v>202</v>
@@ -6696,13 +6919,16 @@
         <v>44</v>
       </c>
       <c r="AB19" s="70"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="70"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="87" t="s">
+        <v>406</v>
+      </c>
       <c r="AE19" s="84"/>
-    </row>
-    <row r="20" spans="1:31" ht="33">
-      <c r="A20" s="109"/>
-      <c r="B20" s="110"/>
+      <c r="AF19" s="95"/>
+    </row>
+    <row r="20" spans="1:32" ht="33">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="56" t="s">
         <v>175</v>
       </c>
@@ -6761,7 +6987,7 @@
         <v>179</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W20" s="58" t="s">
         <v>202</v>
@@ -6779,13 +7005,16 @@
         <v>44</v>
       </c>
       <c r="AB20" s="70"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="70"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="87" t="s">
+        <v>407</v>
+      </c>
       <c r="AE20" s="84"/>
-    </row>
-    <row r="21" spans="1:31" ht="49.5">
-      <c r="A21" s="109"/>
-      <c r="B21" s="110"/>
+      <c r="AF20" s="95"/>
+    </row>
+    <row r="21" spans="1:32" ht="49.5">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="56" t="s">
         <v>207</v>
       </c>
@@ -6844,7 +7073,7 @@
         <v>44</v>
       </c>
       <c r="V21" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W21" s="58" t="s">
         <v>202</v>
@@ -6862,11 +7091,14 @@
         <v>44</v>
       </c>
       <c r="AB21" s="70"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="70"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="87" t="s">
+        <v>408</v>
+      </c>
       <c r="AE21" s="84"/>
-    </row>
-    <row r="22" spans="1:31" ht="49.5">
+      <c r="AF21" s="95"/>
+    </row>
+    <row r="22" spans="1:32" ht="49.5">
       <c r="A22" s="57" t="s">
         <v>192</v>
       </c>
@@ -6931,7 +7163,7 @@
         <v>261</v>
       </c>
       <c r="V22" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W22" s="58" t="s">
         <v>202</v>
@@ -6949,11 +7181,14 @@
         <v>44</v>
       </c>
       <c r="AB22" s="58"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="58"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="87" t="s">
+        <v>405</v>
+      </c>
       <c r="AE22" s="58"/>
-    </row>
-    <row r="23" spans="1:31" ht="49.5">
+      <c r="AF22" s="58"/>
+    </row>
+    <row r="23" spans="1:32" ht="49.5">
       <c r="A23" s="60" t="s">
         <v>242</v>
       </c>
@@ -6970,7 +7205,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G23" s="62" t="s">
         <v>187</v>
@@ -6982,7 +7217,7 @@
         <v>96</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K23" s="60">
         <v>1</v>
@@ -7018,13 +7253,13 @@
         <v>204</v>
       </c>
       <c r="V23" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W23" s="60" t="s">
         <v>202</v>
       </c>
       <c r="X23" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y23" s="60">
         <v>1</v>
@@ -7036,398 +7271,417 @@
         <v>44</v>
       </c>
       <c r="AB23" s="81"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="81"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="81" t="s">
+        <v>409</v>
+      </c>
       <c r="AE23" s="83"/>
-    </row>
-    <row r="24" spans="1:31" ht="33">
-      <c r="A24" s="60" t="s">
+      <c r="AF23" s="94"/>
+    </row>
+    <row r="24" spans="1:32" ht="33">
+      <c r="A24" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="O24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="U24" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="V24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="76" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE24" s="85"/>
+      <c r="AF24" s="96"/>
+    </row>
+    <row r="25" spans="1:32" ht="49.5" customHeight="1">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="P25" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="U25" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="V25" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="W25" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y25" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="96"/>
+    </row>
+    <row r="26" spans="1:32" ht="33">
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="76">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V26" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="W26" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X26" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB26" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="96"/>
+    </row>
+    <row r="27" spans="1:32" ht="33">
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" s="76">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U27" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V27" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="W27" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X27" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y27" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB27" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="96"/>
+    </row>
+    <row r="28" spans="1:32" ht="33">
+      <c r="A28" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B28" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="61" t="s">
+      <c r="C28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F28" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G28" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H28" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I28" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="62" t="s">
-        <v>321</v>
-      </c>
-      <c r="O24" s="60" t="s">
+      <c r="J28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="O28" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P28" s="60" t="s">
         <v>94</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="U24" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="V24" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="W24" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X24" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y24" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="83"/>
-    </row>
-    <row r="25" spans="1:31" ht="33">
-      <c r="A25" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="P25" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T25" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U25" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="V25" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="W25" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X25" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y25" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="83"/>
-    </row>
-    <row r="26" spans="1:31" ht="33">
-      <c r="A26" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="O26" s="60" t="s">
-        <v>360</v>
-      </c>
-      <c r="P26" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="T26" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="U26" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="V26" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="W26" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X26" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y26" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z26" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA26" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="83"/>
-    </row>
-    <row r="27" spans="1:31" ht="33">
-      <c r="A27" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="O27" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="P27" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T27" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U27" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="V27" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="W27" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X27" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y27" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="83"/>
-    </row>
-    <row r="28" spans="1:31" ht="49.5">
-      <c r="A28" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>302</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>364</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="O28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="60" t="s">
-        <v>44</v>
       </c>
       <c r="Q28" s="60" t="s">
         <v>44</v>
@@ -7441,20 +7695,20 @@
       <c r="T28" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="U28" s="60" t="s">
-        <v>354</v>
+      <c r="U28" s="62" t="s">
+        <v>341</v>
       </c>
       <c r="V28" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W28" s="60" t="s">
         <v>202</v>
       </c>
       <c r="X28" s="60" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="Y28" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z28" s="60" t="s">
         <v>44</v>
@@ -7463,33 +7717,40 @@
         <v>44</v>
       </c>
       <c r="AB28" s="81"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="81"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="94" t="s">
+        <v>410</v>
+      </c>
       <c r="AE28" s="83"/>
-    </row>
-    <row r="29" spans="1:31" ht="33">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
+      <c r="AF28" s="94"/>
+    </row>
+    <row r="29" spans="1:32" ht="33">
+      <c r="A29" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>297</v>
+      </c>
       <c r="C29" s="60" t="s">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>226</v>
+        <v>356</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>227</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J29" s="60" t="s">
         <v>44</v>
@@ -7504,13 +7765,13 @@
         <v>44</v>
       </c>
       <c r="N29" s="62" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="O29" s="60" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="P29" s="60" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q29" s="60" t="s">
         <v>44</v>
@@ -7519,25 +7780,25 @@
         <v>44</v>
       </c>
       <c r="S29" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="U29" s="60" t="s">
-        <v>353</v>
+        <v>103</v>
+      </c>
+      <c r="T29" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U29" s="62" t="s">
+        <v>342</v>
       </c>
       <c r="V29" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W29" s="60" t="s">
         <v>202</v>
       </c>
       <c r="X29" s="60" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="Y29" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z29" s="60" t="s">
         <v>44</v>
@@ -7546,54 +7807,53 @@
         <v>44</v>
       </c>
       <c r="AB29" s="81"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="81"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="94" t="s">
+        <v>411</v>
+      </c>
       <c r="AE29" s="83"/>
-    </row>
-    <row r="30" spans="1:31" ht="33">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
+      <c r="AF29" s="94"/>
+    </row>
+    <row r="30" spans="1:32" ht="33">
+      <c r="A30" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>354</v>
+      </c>
       <c r="C30" s="60" t="s">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>309</v>
+        <v>355</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>235</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="60" t="s">
-        <v>44</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="62" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="O30" s="60" t="s">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="P30" s="60" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="60" t="s">
         <v>44</v>
@@ -7602,25 +7862,25 @@
         <v>44</v>
       </c>
       <c r="S30" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T30" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="U30" s="60" t="s">
-        <v>352</v>
+        <v>91</v>
+      </c>
+      <c r="T30" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="U30" s="62" t="s">
+        <v>204</v>
       </c>
       <c r="V30" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W30" s="60" t="s">
         <v>202</v>
       </c>
       <c r="X30" s="60" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="Y30" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z30" s="60" t="s">
         <v>44</v>
@@ -7629,33 +7889,40 @@
         <v>44</v>
       </c>
       <c r="AB30" s="81"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="81"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="94" t="s">
+        <v>412</v>
+      </c>
       <c r="AE30" s="83"/>
-    </row>
-    <row r="31" spans="1:31" ht="49.5">
-      <c r="A31" s="114"/>
-      <c r="B31" s="114"/>
+      <c r="AF30" s="94"/>
+    </row>
+    <row r="31" spans="1:32" ht="33">
+      <c r="A31" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>315</v>
+      </c>
       <c r="C31" s="60" t="s">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H31" s="60" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="I31" s="60" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="J31" s="60" t="s">
         <v>44</v>
@@ -7669,418 +7936,409 @@
       <c r="M31" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="60" t="s">
+      <c r="N31" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="O31" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U31" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="V31" s="60" t="s">
         <v>313</v>
-      </c>
-      <c r="O31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T31" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U31" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V31" s="60" t="s">
-        <v>314</v>
       </c>
       <c r="W31" s="60" t="s">
         <v>202</v>
       </c>
       <c r="X31" s="60" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="Y31" s="60" t="s">
         <v>202</v>
       </c>
       <c r="Z31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE31" s="83"/>
+      <c r="AF31" s="94"/>
+    </row>
+    <row r="32" spans="1:32" ht="49.5">
+      <c r="A32" s="118" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T32" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U32" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="V32" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W32" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="94" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="94"/>
+    </row>
+    <row r="33" spans="1:32" ht="33">
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T33" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="U33" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="V33" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W33" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="94" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="94"/>
+    </row>
+    <row r="34" spans="1:32" ht="33">
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I34" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="O34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="U34" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="V34" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W34" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="94"/>
+    </row>
+    <row r="35" spans="1:32" ht="49.5">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T35" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U35" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W35" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X35" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z35" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="AA31" s="60" t="s">
+      <c r="AA35" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="83"/>
-    </row>
-    <row r="32" spans="1:31" ht="33">
-      <c r="A32" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="G32" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="H32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="O32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T32" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="U32" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="V32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="W32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="X32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA32" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB32" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE32" s="85" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="49.5" customHeight="1">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="I33" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="O33" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="P33" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T33" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="U33" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="V33" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="W33" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X33" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y33" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA33" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB33" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE33" s="85" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" ht="33">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="H34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="O34" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="P34" s="76">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="T34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="V34" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="W34" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X34" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y34" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB34" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE34" s="85" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" ht="33">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="O35" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="P35" s="76">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="T35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U35" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="V35" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="W35" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X35" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y35" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA35" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB35" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC35" s="118"/>
-      <c r="AD35" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE35" s="85" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" ht="33">
-      <c r="A36" s="110" t="s">
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="94"/>
+    </row>
+    <row r="36" spans="1:32" ht="33">
+      <c r="A36" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="116" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -8096,7 +8354,7 @@
         <v>185</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H36" s="56" t="s">
         <v>44</v>
@@ -8141,7 +8399,7 @@
         <v>203</v>
       </c>
       <c r="V36" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W36" s="56" t="s">
         <v>202</v>
@@ -8159,13 +8417,16 @@
         <v>44</v>
       </c>
       <c r="AB36" s="70"/>
-      <c r="AC36" s="118"/>
-      <c r="AD36" s="70"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="70" t="s">
+        <v>426</v>
+      </c>
       <c r="AE36" s="84"/>
-    </row>
-    <row r="37" spans="1:31" ht="33">
-      <c r="A37" s="110"/>
-      <c r="B37" s="110"/>
+      <c r="AF36" s="95"/>
+    </row>
+    <row r="37" spans="1:32" ht="33">
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="56" t="s">
         <v>273</v>
       </c>
@@ -8200,10 +8461,10 @@
         <v>44</v>
       </c>
       <c r="N37" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O37" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P37" s="56" t="s">
         <v>94</v>
@@ -8224,7 +8485,7 @@
         <v>264</v>
       </c>
       <c r="V37" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W37" s="56" t="s">
         <v>202</v>
@@ -8242,13 +8503,16 @@
         <v>44</v>
       </c>
       <c r="AB37" s="70"/>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="70"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="70" t="s">
+        <v>427</v>
+      </c>
       <c r="AE37" s="84"/>
-    </row>
-    <row r="38" spans="1:31" ht="33">
-      <c r="A38" s="110"/>
-      <c r="B38" s="110"/>
+      <c r="AF37" s="95"/>
+    </row>
+    <row r="38" spans="1:32" ht="33">
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="56" t="s">
         <v>274</v>
       </c>
@@ -8283,10 +8547,10 @@
         <v>44</v>
       </c>
       <c r="N38" s="56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O38" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P38" s="56" t="s">
         <v>94</v>
@@ -8307,7 +8571,7 @@
         <v>265</v>
       </c>
       <c r="V38" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W38" s="56" t="s">
         <v>202</v>
@@ -8325,13 +8589,16 @@
         <v>44</v>
       </c>
       <c r="AB38" s="70"/>
-      <c r="AC38" s="118"/>
-      <c r="AD38" s="70"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="70" t="s">
+        <v>428</v>
+      </c>
       <c r="AE38" s="84"/>
-    </row>
-    <row r="39" spans="1:31" ht="33">
-      <c r="A39" s="110"/>
-      <c r="B39" s="110"/>
+      <c r="AF38" s="95"/>
+    </row>
+    <row r="39" spans="1:32" ht="33">
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="56" t="s">
         <v>275</v>
       </c>
@@ -8366,10 +8633,10 @@
         <v>44</v>
       </c>
       <c r="N39" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O39" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P39" s="56" t="s">
         <v>94</v>
@@ -8390,7 +8657,7 @@
         <v>278</v>
       </c>
       <c r="V39" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W39" s="56" t="s">
         <v>202</v>
@@ -8408,13 +8675,16 @@
         <v>44</v>
       </c>
       <c r="AB39" s="70"/>
-      <c r="AC39" s="118"/>
-      <c r="AD39" s="70"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="70" t="s">
+        <v>429</v>
+      </c>
       <c r="AE39" s="84"/>
-    </row>
-    <row r="40" spans="1:31" ht="33">
-      <c r="A40" s="110"/>
-      <c r="B40" s="110"/>
+      <c r="AF39" s="95"/>
+    </row>
+    <row r="40" spans="1:32" ht="33">
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="56" t="s">
         <v>276</v>
       </c>
@@ -8449,10 +8719,10 @@
         <v>44</v>
       </c>
       <c r="N40" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" s="56" t="s">
         <v>325</v>
-      </c>
-      <c r="O40" s="56" t="s">
-        <v>326</v>
       </c>
       <c r="P40" s="56" t="s">
         <v>94</v>
@@ -8473,7 +8743,7 @@
         <v>280</v>
       </c>
       <c r="V40" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W40" s="56" t="s">
         <v>202</v>
@@ -8491,28 +8761,31 @@
         <v>44</v>
       </c>
       <c r="AB40" s="70"/>
-      <c r="AC40" s="118"/>
-      <c r="AD40" s="70"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="70" t="s">
+        <v>430</v>
+      </c>
       <c r="AE40" s="84"/>
-    </row>
-    <row r="41" spans="1:31" ht="33">
+      <c r="AF40" s="95"/>
+    </row>
+    <row r="41" spans="1:32" ht="33">
       <c r="A41" s="60" t="s">
         <v>292</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="61" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G41" s="60" t="s">
         <v>271</v>
@@ -8536,10 +8809,10 @@
         <v>44</v>
       </c>
       <c r="N41" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O41" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P41" s="60" t="s">
         <v>94</v>
@@ -8560,7 +8833,7 @@
         <v>204</v>
       </c>
       <c r="V41" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W41" s="60" t="s">
         <v>202</v>
@@ -8578,28 +8851,31 @@
         <v>44</v>
       </c>
       <c r="AB41" s="81"/>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="81"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="81" t="s">
+        <v>423</v>
+      </c>
       <c r="AE41" s="83"/>
-    </row>
-    <row r="42" spans="1:31" ht="33">
+      <c r="AF41" s="94"/>
+    </row>
+    <row r="42" spans="1:32" ht="33">
       <c r="A42" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="60" t="s">
+      <c r="D42" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="61" t="s">
         <v>55</v>
       </c>
       <c r="F42" s="62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G42" s="60" t="s">
         <v>270</v>
@@ -8623,10 +8899,10 @@
         <v>44</v>
       </c>
       <c r="N42" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O42" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P42" s="60" t="s">
         <v>94</v>
@@ -8647,7 +8923,7 @@
         <v>204</v>
       </c>
       <c r="V42" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W42" s="60" t="s">
         <v>202</v>
@@ -8665,28 +8941,31 @@
         <v>44</v>
       </c>
       <c r="AB42" s="81"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="81"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="81" t="s">
+        <v>424</v>
+      </c>
       <c r="AE42" s="83"/>
-    </row>
-    <row r="43" spans="1:31" ht="33">
+      <c r="AF42" s="94"/>
+    </row>
+    <row r="43" spans="1:32" ht="33">
       <c r="A43" s="60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="60" t="s">
+      <c r="D43" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="61" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G43" s="60" t="s">
         <v>269</v>
@@ -8710,10 +8989,10 @@
         <v>44</v>
       </c>
       <c r="N43" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="O43" s="60" t="s">
         <v>339</v>
-      </c>
-      <c r="O43" s="60" t="s">
-        <v>340</v>
       </c>
       <c r="P43" s="60" t="s">
         <v>94</v>
@@ -8734,7 +9013,7 @@
         <v>204</v>
       </c>
       <c r="V43" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W43" s="60" t="s">
         <v>202</v>
@@ -8752,31 +9031,34 @@
         <v>44</v>
       </c>
       <c r="AB43" s="81"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="81"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="81" t="s">
+        <v>425</v>
+      </c>
       <c r="AE43" s="83"/>
-    </row>
-    <row r="44" spans="1:31" ht="49.5">
-      <c r="A44" s="108" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44" s="108" t="s">
-        <v>368</v>
+      <c r="AF43" s="94"/>
+    </row>
+    <row r="44" spans="1:32" ht="49.5">
+      <c r="A44" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="114" t="s">
+        <v>367</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E44" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F44" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" s="60" t="s">
         <v>365</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>366</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>190</v>
@@ -8797,7 +9079,7 @@
         <v>44</v>
       </c>
       <c r="N44" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O44" s="60" t="s">
         <v>44</v>
@@ -8818,10 +9100,10 @@
         <v>227</v>
       </c>
       <c r="U44" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V44" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W44" s="60" t="s">
         <v>202</v>
@@ -8839,27 +9121,30 @@
         <v>44</v>
       </c>
       <c r="AB44" s="81"/>
-      <c r="AC44" s="118"/>
-      <c r="AD44" s="81"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="81" t="s">
+        <v>431</v>
+      </c>
       <c r="AE44" s="83"/>
-    </row>
-    <row r="45" spans="1:31" ht="33">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
+      <c r="AF44" s="94"/>
+    </row>
+    <row r="45" spans="1:32" ht="33">
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
       <c r="C45" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" s="60" t="s">
         <v>370</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>371</v>
       </c>
       <c r="H45" s="60" t="s">
         <v>227</v>
@@ -8880,7 +9165,7 @@
         <v>44</v>
       </c>
       <c r="N45" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O45" s="60" t="s">
         <v>44</v>
@@ -8894,13 +9179,13 @@
         <v>62</v>
       </c>
       <c r="T45" s="62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U45" s="60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V45" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W45" s="60" t="s">
         <v>202</v>
@@ -8918,30 +9203,33 @@
         <v>44</v>
       </c>
       <c r="AB45" s="81"/>
-      <c r="AC45" s="118"/>
-      <c r="AD45" s="81"/>
+      <c r="AC45" s="100"/>
+      <c r="AD45" s="81" t="s">
+        <v>432</v>
+      </c>
       <c r="AE45" s="83"/>
-    </row>
-    <row r="46" spans="1:31" ht="33">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
+      <c r="AF45" s="94"/>
+    </row>
+    <row r="46" spans="1:32" ht="33">
+      <c r="A46" s="114"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="82" t="s">
         <v>376</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>377</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F46" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="G46" s="60" t="s">
-        <v>379</v>
-      </c>
       <c r="H46" s="62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I46" s="60" t="s">
         <v>52</v>
@@ -8959,7 +9247,7 @@
         <v>44</v>
       </c>
       <c r="N46" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O46" s="60" t="s">
         <v>44</v>
@@ -8983,7 +9271,7 @@
         <v>204</v>
       </c>
       <c r="V46" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W46" s="60" t="s">
         <v>202</v>
@@ -9001,11 +9289,14 @@
         <v>44</v>
       </c>
       <c r="AB46" s="81"/>
-      <c r="AC46" s="118"/>
-      <c r="AD46" s="81"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="81" t="s">
+        <v>433</v>
+      </c>
       <c r="AE46" s="83"/>
-    </row>
-    <row r="47" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF46" s="94"/>
+    </row>
+    <row r="47" spans="1:32" ht="16.5" customHeight="1">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -9034,11 +9325,12 @@
       <c r="Z47" s="51"/>
       <c r="AA47" s="51"/>
       <c r="AB47" s="25"/>
-      <c r="AC47" s="120"/>
+      <c r="AC47" s="102"/>
       <c r="AD47" s="25"/>
       <c r="AE47" s="25"/>
-    </row>
-    <row r="48" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF47" s="25"/>
+    </row>
+    <row r="48" spans="1:32" ht="16.5" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -9067,11 +9359,12 @@
       <c r="Z48" s="51"/>
       <c r="AA48" s="51"/>
       <c r="AB48" s="25"/>
-      <c r="AC48" s="120"/>
+      <c r="AC48" s="102"/>
       <c r="AD48" s="25"/>
       <c r="AE48" s="25"/>
-    </row>
-    <row r="49" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF48" s="25"/>
+    </row>
+    <row r="49" spans="1:32" ht="16.5" customHeight="1">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -9100,11 +9393,12 @@
       <c r="Z49" s="51"/>
       <c r="AA49" s="51"/>
       <c r="AB49" s="25"/>
-      <c r="AC49" s="120"/>
+      <c r="AC49" s="102"/>
       <c r="AD49" s="25"/>
       <c r="AE49" s="25"/>
-    </row>
-    <row r="50" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF49" s="25"/>
+    </row>
+    <row r="50" spans="1:32" ht="16.5" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -9133,11 +9427,12 @@
       <c r="Z50" s="51"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="25"/>
-      <c r="AC50" s="120"/>
+      <c r="AC50" s="102"/>
       <c r="AD50" s="25"/>
       <c r="AE50" s="25"/>
-    </row>
-    <row r="51" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF50" s="25"/>
+    </row>
+    <row r="51" spans="1:32" ht="16.5" customHeight="1">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -9166,11 +9461,12 @@
       <c r="Z51" s="51"/>
       <c r="AA51" s="51"/>
       <c r="AB51" s="25"/>
-      <c r="AC51" s="120"/>
+      <c r="AC51" s="102"/>
       <c r="AD51" s="25"/>
       <c r="AE51" s="25"/>
-    </row>
-    <row r="52" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF51" s="25"/>
+    </row>
+    <row r="52" spans="1:32" ht="16.5" customHeight="1">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -9199,11 +9495,12 @@
       <c r="Z52" s="51"/>
       <c r="AA52" s="51"/>
       <c r="AB52" s="25"/>
-      <c r="AC52" s="120"/>
+      <c r="AC52" s="102"/>
       <c r="AD52" s="25"/>
       <c r="AE52" s="25"/>
-    </row>
-    <row r="53" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF52" s="25"/>
+    </row>
+    <row r="53" spans="1:32" ht="16.5" customHeight="1">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -9232,11 +9529,12 @@
       <c r="Z53" s="51"/>
       <c r="AA53" s="51"/>
       <c r="AB53" s="25"/>
-      <c r="AC53" s="120"/>
+      <c r="AC53" s="102"/>
       <c r="AD53" s="25"/>
       <c r="AE53" s="25"/>
-    </row>
-    <row r="54" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF53" s="25"/>
+    </row>
+    <row r="54" spans="1:32" ht="16.5" customHeight="1">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -9265,11 +9563,12 @@
       <c r="Z54" s="51"/>
       <c r="AA54" s="51"/>
       <c r="AB54" s="25"/>
-      <c r="AC54" s="120"/>
+      <c r="AC54" s="102"/>
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
-    </row>
-    <row r="55" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF54" s="25"/>
+    </row>
+    <row r="55" spans="1:32" ht="16.5" customHeight="1">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -9298,11 +9597,12 @@
       <c r="Z55" s="51"/>
       <c r="AA55" s="51"/>
       <c r="AB55" s="25"/>
-      <c r="AC55" s="120"/>
+      <c r="AC55" s="102"/>
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
-    </row>
-    <row r="56" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF55" s="25"/>
+    </row>
+    <row r="56" spans="1:32" ht="16.5" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -9331,11 +9631,12 @@
       <c r="Z56" s="51"/>
       <c r="AA56" s="51"/>
       <c r="AB56" s="25"/>
-      <c r="AC56" s="120"/>
+      <c r="AC56" s="102"/>
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
-    </row>
-    <row r="57" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF56" s="25"/>
+    </row>
+    <row r="57" spans="1:32" ht="16.5" customHeight="1">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -9364,11 +9665,12 @@
       <c r="Z57" s="51"/>
       <c r="AA57" s="51"/>
       <c r="AB57" s="25"/>
-      <c r="AC57" s="120"/>
+      <c r="AC57" s="102"/>
       <c r="AD57" s="25"/>
       <c r="AE57" s="25"/>
-    </row>
-    <row r="58" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF57" s="25"/>
+    </row>
+    <row r="58" spans="1:32" ht="16.5" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -9397,11 +9699,12 @@
       <c r="Z58" s="51"/>
       <c r="AA58" s="51"/>
       <c r="AB58" s="25"/>
-      <c r="AC58" s="120"/>
+      <c r="AC58" s="102"/>
       <c r="AD58" s="25"/>
       <c r="AE58" s="25"/>
-    </row>
-    <row r="59" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF58" s="25"/>
+    </row>
+    <row r="59" spans="1:32" ht="16.5" customHeight="1">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -9430,11 +9733,12 @@
       <c r="Z59" s="51"/>
       <c r="AA59" s="51"/>
       <c r="AB59" s="25"/>
-      <c r="AC59" s="120"/>
+      <c r="AC59" s="102"/>
       <c r="AD59" s="25"/>
       <c r="AE59" s="25"/>
-    </row>
-    <row r="60" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF59" s="25"/>
+    </row>
+    <row r="60" spans="1:32" ht="16.5" customHeight="1">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -9463,11 +9767,12 @@
       <c r="Z60" s="51"/>
       <c r="AA60" s="51"/>
       <c r="AB60" s="25"/>
-      <c r="AC60" s="120"/>
+      <c r="AC60" s="102"/>
       <c r="AD60" s="25"/>
       <c r="AE60" s="25"/>
-    </row>
-    <row r="61" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF60" s="25"/>
+    </row>
+    <row r="61" spans="1:32" ht="16.5" customHeight="1">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -9496,11 +9801,12 @@
       <c r="Z61" s="51"/>
       <c r="AA61" s="51"/>
       <c r="AB61" s="25"/>
-      <c r="AC61" s="120"/>
+      <c r="AC61" s="102"/>
       <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
-    </row>
-    <row r="62" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF61" s="25"/>
+    </row>
+    <row r="62" spans="1:32" ht="16.5" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9529,11 +9835,12 @@
       <c r="Z62" s="51"/>
       <c r="AA62" s="51"/>
       <c r="AB62" s="25"/>
-      <c r="AC62" s="120"/>
+      <c r="AC62" s="102"/>
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
-    </row>
-    <row r="63" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF62" s="25"/>
+    </row>
+    <row r="63" spans="1:32" ht="16.5" customHeight="1">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -9562,11 +9869,12 @@
       <c r="Z63" s="51"/>
       <c r="AA63" s="51"/>
       <c r="AB63" s="25"/>
-      <c r="AC63" s="120"/>
+      <c r="AC63" s="102"/>
       <c r="AD63" s="25"/>
       <c r="AE63" s="25"/>
-    </row>
-    <row r="64" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF63" s="25"/>
+    </row>
+    <row r="64" spans="1:32" ht="16.5" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -9595,11 +9903,12 @@
       <c r="Z64" s="51"/>
       <c r="AA64" s="51"/>
       <c r="AB64" s="25"/>
-      <c r="AC64" s="120"/>
+      <c r="AC64" s="102"/>
       <c r="AD64" s="25"/>
       <c r="AE64" s="25"/>
-    </row>
-    <row r="65" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF64" s="25"/>
+    </row>
+    <row r="65" spans="1:32" ht="16.5" customHeight="1">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -9628,11 +9937,12 @@
       <c r="Z65" s="51"/>
       <c r="AA65" s="51"/>
       <c r="AB65" s="25"/>
-      <c r="AC65" s="120"/>
+      <c r="AC65" s="102"/>
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
-    </row>
-    <row r="66" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF65" s="25"/>
+    </row>
+    <row r="66" spans="1:32" ht="16.5" customHeight="1">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -9661,11 +9971,12 @@
       <c r="Z66" s="51"/>
       <c r="AA66" s="51"/>
       <c r="AB66" s="25"/>
-      <c r="AC66" s="120"/>
+      <c r="AC66" s="102"/>
       <c r="AD66" s="25"/>
       <c r="AE66" s="25"/>
-    </row>
-    <row r="67" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF66" s="25"/>
+    </row>
+    <row r="67" spans="1:32" ht="16.5" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -9694,11 +10005,12 @@
       <c r="Z67" s="51"/>
       <c r="AA67" s="51"/>
       <c r="AB67" s="25"/>
-      <c r="AC67" s="120"/>
+      <c r="AC67" s="102"/>
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
-    </row>
-    <row r="68" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF67" s="25"/>
+    </row>
+    <row r="68" spans="1:32" ht="16.5" customHeight="1">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -9727,11 +10039,12 @@
       <c r="Z68" s="51"/>
       <c r="AA68" s="51"/>
       <c r="AB68" s="25"/>
-      <c r="AC68" s="120"/>
+      <c r="AC68" s="102"/>
       <c r="AD68" s="25"/>
       <c r="AE68" s="25"/>
-    </row>
-    <row r="69" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF68" s="25"/>
+    </row>
+    <row r="69" spans="1:32" ht="16.5" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -9760,11 +10073,12 @@
       <c r="Z69" s="51"/>
       <c r="AA69" s="51"/>
       <c r="AB69" s="25"/>
-      <c r="AC69" s="120"/>
+      <c r="AC69" s="102"/>
       <c r="AD69" s="25"/>
       <c r="AE69" s="25"/>
-    </row>
-    <row r="70" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF69" s="25"/>
+    </row>
+    <row r="70" spans="1:32" ht="16.5" customHeight="1">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -9793,11 +10107,12 @@
       <c r="Z70" s="51"/>
       <c r="AA70" s="51"/>
       <c r="AB70" s="25"/>
-      <c r="AC70" s="120"/>
+      <c r="AC70" s="102"/>
       <c r="AD70" s="25"/>
       <c r="AE70" s="25"/>
-    </row>
-    <row r="71" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF70" s="25"/>
+    </row>
+    <row r="71" spans="1:32" ht="16.5" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -9826,11 +10141,12 @@
       <c r="Z71" s="51"/>
       <c r="AA71" s="51"/>
       <c r="AB71" s="25"/>
-      <c r="AC71" s="120"/>
+      <c r="AC71" s="102"/>
       <c r="AD71" s="25"/>
       <c r="AE71" s="25"/>
-    </row>
-    <row r="72" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF71" s="25"/>
+    </row>
+    <row r="72" spans="1:32" ht="16.5" customHeight="1">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -9859,11 +10175,12 @@
       <c r="Z72" s="51"/>
       <c r="AA72" s="51"/>
       <c r="AB72" s="25"/>
-      <c r="AC72" s="120"/>
+      <c r="AC72" s="102"/>
       <c r="AD72" s="25"/>
       <c r="AE72" s="25"/>
-    </row>
-    <row r="73" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF72" s="25"/>
+    </row>
+    <row r="73" spans="1:32" ht="16.5" customHeight="1">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -9892,11 +10209,12 @@
       <c r="Z73" s="51"/>
       <c r="AA73" s="51"/>
       <c r="AB73" s="25"/>
-      <c r="AC73" s="120"/>
+      <c r="AC73" s="102"/>
       <c r="AD73" s="25"/>
       <c r="AE73" s="25"/>
-    </row>
-    <row r="74" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF73" s="25"/>
+    </row>
+    <row r="74" spans="1:32" ht="16.5" customHeight="1">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -9925,11 +10243,12 @@
       <c r="Z74" s="51"/>
       <c r="AA74" s="51"/>
       <c r="AB74" s="25"/>
-      <c r="AC74" s="120"/>
+      <c r="AC74" s="102"/>
       <c r="AD74" s="25"/>
       <c r="AE74" s="25"/>
-    </row>
-    <row r="75" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF74" s="25"/>
+    </row>
+    <row r="75" spans="1:32" ht="16.5" customHeight="1">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -9958,11 +10277,12 @@
       <c r="Z75" s="51"/>
       <c r="AA75" s="51"/>
       <c r="AB75" s="25"/>
-      <c r="AC75" s="120"/>
+      <c r="AC75" s="102"/>
       <c r="AD75" s="25"/>
       <c r="AE75" s="25"/>
-    </row>
-    <row r="76" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF75" s="25"/>
+    </row>
+    <row r="76" spans="1:32" ht="16.5" customHeight="1">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -9991,11 +10311,12 @@
       <c r="Z76" s="51"/>
       <c r="AA76" s="51"/>
       <c r="AB76" s="25"/>
-      <c r="AC76" s="120"/>
+      <c r="AC76" s="102"/>
       <c r="AD76" s="25"/>
       <c r="AE76" s="25"/>
-    </row>
-    <row r="77" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF76" s="25"/>
+    </row>
+    <row r="77" spans="1:32" ht="16.5" customHeight="1">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -10024,11 +10345,12 @@
       <c r="Z77" s="51"/>
       <c r="AA77" s="51"/>
       <c r="AB77" s="25"/>
-      <c r="AC77" s="120"/>
+      <c r="AC77" s="102"/>
       <c r="AD77" s="25"/>
       <c r="AE77" s="25"/>
-    </row>
-    <row r="78" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF77" s="25"/>
+    </row>
+    <row r="78" spans="1:32" ht="16.5" customHeight="1">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -10057,11 +10379,12 @@
       <c r="Z78" s="51"/>
       <c r="AA78" s="51"/>
       <c r="AB78" s="25"/>
-      <c r="AC78" s="120"/>
+      <c r="AC78" s="102"/>
       <c r="AD78" s="25"/>
       <c r="AE78" s="25"/>
-    </row>
-    <row r="79" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF78" s="25"/>
+    </row>
+    <row r="79" spans="1:32" ht="16.5" customHeight="1">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -10090,11 +10413,12 @@
       <c r="Z79" s="51"/>
       <c r="AA79" s="51"/>
       <c r="AB79" s="25"/>
-      <c r="AC79" s="120"/>
+      <c r="AC79" s="102"/>
       <c r="AD79" s="25"/>
       <c r="AE79" s="25"/>
-    </row>
-    <row r="80" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF79" s="25"/>
+    </row>
+    <row r="80" spans="1:32" ht="16.5" customHeight="1">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -10123,11 +10447,12 @@
       <c r="Z80" s="51"/>
       <c r="AA80" s="51"/>
       <c r="AB80" s="25"/>
-      <c r="AC80" s="120"/>
+      <c r="AC80" s="102"/>
       <c r="AD80" s="25"/>
       <c r="AE80" s="25"/>
-    </row>
-    <row r="81" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF80" s="25"/>
+    </row>
+    <row r="81" spans="1:32" ht="16.5" customHeight="1">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -10156,11 +10481,12 @@
       <c r="Z81" s="51"/>
       <c r="AA81" s="51"/>
       <c r="AB81" s="25"/>
-      <c r="AC81" s="120"/>
+      <c r="AC81" s="102"/>
       <c r="AD81" s="25"/>
       <c r="AE81" s="25"/>
-    </row>
-    <row r="82" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF81" s="25"/>
+    </row>
+    <row r="82" spans="1:32" ht="16.5" customHeight="1">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -10189,11 +10515,12 @@
       <c r="Z82" s="51"/>
       <c r="AA82" s="51"/>
       <c r="AB82" s="25"/>
-      <c r="AC82" s="120"/>
+      <c r="AC82" s="102"/>
       <c r="AD82" s="25"/>
       <c r="AE82" s="25"/>
-    </row>
-    <row r="83" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF82" s="25"/>
+    </row>
+    <row r="83" spans="1:32" ht="16.5" customHeight="1">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -10222,11 +10549,12 @@
       <c r="Z83" s="51"/>
       <c r="AA83" s="51"/>
       <c r="AB83" s="25"/>
-      <c r="AC83" s="120"/>
+      <c r="AC83" s="102"/>
       <c r="AD83" s="25"/>
       <c r="AE83" s="25"/>
-    </row>
-    <row r="84" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF83" s="25"/>
+    </row>
+    <row r="84" spans="1:32" ht="16.5" customHeight="1">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -10255,11 +10583,12 @@
       <c r="Z84" s="51"/>
       <c r="AA84" s="51"/>
       <c r="AB84" s="25"/>
-      <c r="AC84" s="120"/>
+      <c r="AC84" s="102"/>
       <c r="AD84" s="25"/>
       <c r="AE84" s="25"/>
-    </row>
-    <row r="85" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF84" s="25"/>
+    </row>
+    <row r="85" spans="1:32" ht="16.5" customHeight="1">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -10288,11 +10617,12 @@
       <c r="Z85" s="51"/>
       <c r="AA85" s="51"/>
       <c r="AB85" s="25"/>
-      <c r="AC85" s="120"/>
+      <c r="AC85" s="102"/>
       <c r="AD85" s="25"/>
       <c r="AE85" s="25"/>
-    </row>
-    <row r="86" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF85" s="25"/>
+    </row>
+    <row r="86" spans="1:32" ht="16.5" customHeight="1">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -10321,11 +10651,12 @@
       <c r="Z86" s="51"/>
       <c r="AA86" s="51"/>
       <c r="AB86" s="25"/>
-      <c r="AC86" s="120"/>
+      <c r="AC86" s="102"/>
       <c r="AD86" s="25"/>
       <c r="AE86" s="25"/>
-    </row>
-    <row r="87" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF86" s="25"/>
+    </row>
+    <row r="87" spans="1:32" ht="16.5" customHeight="1">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -10354,11 +10685,12 @@
       <c r="Z87" s="51"/>
       <c r="AA87" s="51"/>
       <c r="AB87" s="25"/>
-      <c r="AC87" s="120"/>
+      <c r="AC87" s="102"/>
       <c r="AD87" s="25"/>
       <c r="AE87" s="25"/>
-    </row>
-    <row r="88" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF87" s="25"/>
+    </row>
+    <row r="88" spans="1:32" ht="16.5" customHeight="1">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -10387,11 +10719,12 @@
       <c r="Z88" s="51"/>
       <c r="AA88" s="51"/>
       <c r="AB88" s="25"/>
-      <c r="AC88" s="120"/>
+      <c r="AC88" s="102"/>
       <c r="AD88" s="25"/>
       <c r="AE88" s="25"/>
-    </row>
-    <row r="89" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF88" s="25"/>
+    </row>
+    <row r="89" spans="1:32" ht="16.5" customHeight="1">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -10420,11 +10753,12 @@
       <c r="Z89" s="51"/>
       <c r="AA89" s="51"/>
       <c r="AB89" s="25"/>
-      <c r="AC89" s="120"/>
+      <c r="AC89" s="102"/>
       <c r="AD89" s="25"/>
       <c r="AE89" s="25"/>
-    </row>
-    <row r="90" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF89" s="25"/>
+    </row>
+    <row r="90" spans="1:32" ht="16.5" customHeight="1">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -10453,11 +10787,12 @@
       <c r="Z90" s="51"/>
       <c r="AA90" s="51"/>
       <c r="AB90" s="25"/>
-      <c r="AC90" s="120"/>
+      <c r="AC90" s="102"/>
       <c r="AD90" s="25"/>
       <c r="AE90" s="25"/>
-    </row>
-    <row r="91" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF90" s="25"/>
+    </row>
+    <row r="91" spans="1:32" ht="16.5" customHeight="1">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -10486,11 +10821,12 @@
       <c r="Z91" s="51"/>
       <c r="AA91" s="51"/>
       <c r="AB91" s="25"/>
-      <c r="AC91" s="120"/>
+      <c r="AC91" s="102"/>
       <c r="AD91" s="25"/>
       <c r="AE91" s="25"/>
-    </row>
-    <row r="92" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF91" s="25"/>
+    </row>
+    <row r="92" spans="1:32" ht="16.5" customHeight="1">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -10519,11 +10855,12 @@
       <c r="Z92" s="51"/>
       <c r="AA92" s="51"/>
       <c r="AB92" s="25"/>
-      <c r="AC92" s="120"/>
+      <c r="AC92" s="102"/>
       <c r="AD92" s="25"/>
       <c r="AE92" s="25"/>
-    </row>
-    <row r="93" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF92" s="25"/>
+    </row>
+    <row r="93" spans="1:32" ht="16.5" customHeight="1">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -10552,11 +10889,12 @@
       <c r="Z93" s="51"/>
       <c r="AA93" s="51"/>
       <c r="AB93" s="25"/>
-      <c r="AC93" s="120"/>
+      <c r="AC93" s="102"/>
       <c r="AD93" s="25"/>
       <c r="AE93" s="25"/>
-    </row>
-    <row r="94" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF93" s="25"/>
+    </row>
+    <row r="94" spans="1:32" ht="16.5" customHeight="1">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -10585,11 +10923,12 @@
       <c r="Z94" s="51"/>
       <c r="AA94" s="51"/>
       <c r="AB94" s="25"/>
-      <c r="AC94" s="120"/>
+      <c r="AC94" s="102"/>
       <c r="AD94" s="25"/>
       <c r="AE94" s="25"/>
-    </row>
-    <row r="95" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF94" s="25"/>
+    </row>
+    <row r="95" spans="1:32" ht="16.5" customHeight="1">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -10618,11 +10957,12 @@
       <c r="Z95" s="51"/>
       <c r="AA95" s="51"/>
       <c r="AB95" s="25"/>
-      <c r="AC95" s="120"/>
+      <c r="AC95" s="102"/>
       <c r="AD95" s="25"/>
       <c r="AE95" s="25"/>
-    </row>
-    <row r="96" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF95" s="25"/>
+    </row>
+    <row r="96" spans="1:32" ht="16.5" customHeight="1">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -10651,11 +10991,12 @@
       <c r="Z96" s="51"/>
       <c r="AA96" s="51"/>
       <c r="AB96" s="25"/>
-      <c r="AC96" s="120"/>
+      <c r="AC96" s="102"/>
       <c r="AD96" s="25"/>
       <c r="AE96" s="25"/>
-    </row>
-    <row r="97" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF96" s="25"/>
+    </row>
+    <row r="97" spans="1:32" ht="16.5" customHeight="1">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -10684,11 +11025,12 @@
       <c r="Z97" s="51"/>
       <c r="AA97" s="51"/>
       <c r="AB97" s="25"/>
-      <c r="AC97" s="120"/>
+      <c r="AC97" s="102"/>
       <c r="AD97" s="25"/>
       <c r="AE97" s="25"/>
-    </row>
-    <row r="98" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF97" s="25"/>
+    </row>
+    <row r="98" spans="1:32" ht="16.5" customHeight="1">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -10717,11 +11059,12 @@
       <c r="Z98" s="51"/>
       <c r="AA98" s="51"/>
       <c r="AB98" s="25"/>
-      <c r="AC98" s="120"/>
+      <c r="AC98" s="102"/>
       <c r="AD98" s="25"/>
       <c r="AE98" s="25"/>
-    </row>
-    <row r="99" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF98" s="25"/>
+    </row>
+    <row r="99" spans="1:32" ht="16.5" customHeight="1">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -10750,11 +11093,12 @@
       <c r="Z99" s="51"/>
       <c r="AA99" s="51"/>
       <c r="AB99" s="25"/>
-      <c r="AC99" s="120"/>
+      <c r="AC99" s="102"/>
       <c r="AD99" s="25"/>
       <c r="AE99" s="25"/>
-    </row>
-    <row r="100" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF99" s="25"/>
+    </row>
+    <row r="100" spans="1:32" ht="16.5" customHeight="1">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -10783,11 +11127,12 @@
       <c r="Z100" s="51"/>
       <c r="AA100" s="51"/>
       <c r="AB100" s="25"/>
-      <c r="AC100" s="120"/>
+      <c r="AC100" s="102"/>
       <c r="AD100" s="25"/>
       <c r="AE100" s="25"/>
-    </row>
-    <row r="101" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF100" s="25"/>
+    </row>
+    <row r="101" spans="1:32" ht="16.5" customHeight="1">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -10816,11 +11161,12 @@
       <c r="Z101" s="51"/>
       <c r="AA101" s="51"/>
       <c r="AB101" s="25"/>
-      <c r="AC101" s="120"/>
+      <c r="AC101" s="102"/>
       <c r="AD101" s="25"/>
       <c r="AE101" s="25"/>
-    </row>
-    <row r="102" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF101" s="25"/>
+    </row>
+    <row r="102" spans="1:32" ht="16.5" customHeight="1">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -10849,11 +11195,12 @@
       <c r="Z102" s="51"/>
       <c r="AA102" s="51"/>
       <c r="AB102" s="25"/>
-      <c r="AC102" s="120"/>
+      <c r="AC102" s="102"/>
       <c r="AD102" s="25"/>
       <c r="AE102" s="25"/>
-    </row>
-    <row r="103" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF102" s="25"/>
+    </row>
+    <row r="103" spans="1:32" ht="16.5" customHeight="1">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -10882,11 +11229,12 @@
       <c r="Z103" s="51"/>
       <c r="AA103" s="51"/>
       <c r="AB103" s="25"/>
-      <c r="AC103" s="120"/>
+      <c r="AC103" s="102"/>
       <c r="AD103" s="25"/>
       <c r="AE103" s="25"/>
-    </row>
-    <row r="104" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF103" s="25"/>
+    </row>
+    <row r="104" spans="1:32" ht="16.5" customHeight="1">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -10915,11 +11263,12 @@
       <c r="Z104" s="51"/>
       <c r="AA104" s="51"/>
       <c r="AB104" s="25"/>
-      <c r="AC104" s="120"/>
+      <c r="AC104" s="102"/>
       <c r="AD104" s="25"/>
       <c r="AE104" s="25"/>
-    </row>
-    <row r="105" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF104" s="25"/>
+    </row>
+    <row r="105" spans="1:32" ht="16.5" customHeight="1">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -10948,11 +11297,12 @@
       <c r="Z105" s="51"/>
       <c r="AA105" s="51"/>
       <c r="AB105" s="25"/>
-      <c r="AC105" s="120"/>
+      <c r="AC105" s="102"/>
       <c r="AD105" s="25"/>
       <c r="AE105" s="25"/>
-    </row>
-    <row r="106" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF105" s="25"/>
+    </row>
+    <row r="106" spans="1:32" ht="16.5" customHeight="1">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -10981,11 +11331,12 @@
       <c r="Z106" s="51"/>
       <c r="AA106" s="51"/>
       <c r="AB106" s="25"/>
-      <c r="AC106" s="120"/>
+      <c r="AC106" s="102"/>
       <c r="AD106" s="25"/>
       <c r="AE106" s="25"/>
-    </row>
-    <row r="107" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF106" s="25"/>
+    </row>
+    <row r="107" spans="1:32" ht="16.5" customHeight="1">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -11014,11 +11365,12 @@
       <c r="Z107" s="51"/>
       <c r="AA107" s="51"/>
       <c r="AB107" s="25"/>
-      <c r="AC107" s="120"/>
+      <c r="AC107" s="102"/>
       <c r="AD107" s="25"/>
       <c r="AE107" s="25"/>
-    </row>
-    <row r="108" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF107" s="25"/>
+    </row>
+    <row r="108" spans="1:32" ht="16.5" customHeight="1">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -11047,11 +11399,12 @@
       <c r="Z108" s="51"/>
       <c r="AA108" s="51"/>
       <c r="AB108" s="25"/>
-      <c r="AC108" s="120"/>
+      <c r="AC108" s="102"/>
       <c r="AD108" s="25"/>
       <c r="AE108" s="25"/>
-    </row>
-    <row r="109" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF108" s="25"/>
+    </row>
+    <row r="109" spans="1:32" ht="16.5" customHeight="1">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -11080,11 +11433,12 @@
       <c r="Z109" s="51"/>
       <c r="AA109" s="51"/>
       <c r="AB109" s="25"/>
-      <c r="AC109" s="120"/>
+      <c r="AC109" s="102"/>
       <c r="AD109" s="25"/>
       <c r="AE109" s="25"/>
-    </row>
-    <row r="110" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF109" s="25"/>
+    </row>
+    <row r="110" spans="1:32" ht="16.5" customHeight="1">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -11113,11 +11467,12 @@
       <c r="Z110" s="51"/>
       <c r="AA110" s="51"/>
       <c r="AB110" s="25"/>
-      <c r="AC110" s="120"/>
+      <c r="AC110" s="102"/>
       <c r="AD110" s="25"/>
       <c r="AE110" s="25"/>
-    </row>
-    <row r="111" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF110" s="25"/>
+    </row>
+    <row r="111" spans="1:32" ht="16.5" customHeight="1">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -11146,11 +11501,12 @@
       <c r="Z111" s="51"/>
       <c r="AA111" s="51"/>
       <c r="AB111" s="25"/>
-      <c r="AC111" s="120"/>
+      <c r="AC111" s="102"/>
       <c r="AD111" s="25"/>
       <c r="AE111" s="25"/>
-    </row>
-    <row r="112" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF111" s="25"/>
+    </row>
+    <row r="112" spans="1:32" ht="16.5" customHeight="1">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -11179,11 +11535,12 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="51"/>
       <c r="AB112" s="25"/>
-      <c r="AC112" s="120"/>
+      <c r="AC112" s="102"/>
       <c r="AD112" s="25"/>
       <c r="AE112" s="25"/>
-    </row>
-    <row r="113" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF112" s="25"/>
+    </row>
+    <row r="113" spans="1:32" ht="16.5" customHeight="1">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -11212,11 +11569,12 @@
       <c r="Z113" s="51"/>
       <c r="AA113" s="51"/>
       <c r="AB113" s="25"/>
-      <c r="AC113" s="120"/>
+      <c r="AC113" s="102"/>
       <c r="AD113" s="25"/>
       <c r="AE113" s="25"/>
-    </row>
-    <row r="114" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF113" s="25"/>
+    </row>
+    <row r="114" spans="1:32" ht="16.5" customHeight="1">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -11245,11 +11603,12 @@
       <c r="Z114" s="51"/>
       <c r="AA114" s="51"/>
       <c r="AB114" s="25"/>
-      <c r="AC114" s="120"/>
+      <c r="AC114" s="102"/>
       <c r="AD114" s="25"/>
       <c r="AE114" s="25"/>
-    </row>
-    <row r="115" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF114" s="25"/>
+    </row>
+    <row r="115" spans="1:32" ht="16.5" customHeight="1">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -11278,11 +11637,12 @@
       <c r="Z115" s="51"/>
       <c r="AA115" s="51"/>
       <c r="AB115" s="25"/>
-      <c r="AC115" s="120"/>
+      <c r="AC115" s="102"/>
       <c r="AD115" s="25"/>
       <c r="AE115" s="25"/>
-    </row>
-    <row r="116" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF115" s="25"/>
+    </row>
+    <row r="116" spans="1:32" ht="16.5" customHeight="1">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -11311,11 +11671,12 @@
       <c r="Z116" s="51"/>
       <c r="AA116" s="51"/>
       <c r="AB116" s="25"/>
-      <c r="AC116" s="120"/>
+      <c r="AC116" s="102"/>
       <c r="AD116" s="25"/>
       <c r="AE116" s="25"/>
-    </row>
-    <row r="117" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF116" s="25"/>
+    </row>
+    <row r="117" spans="1:32" ht="16.5" customHeight="1">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -11344,11 +11705,12 @@
       <c r="Z117" s="51"/>
       <c r="AA117" s="51"/>
       <c r="AB117" s="25"/>
-      <c r="AC117" s="120"/>
+      <c r="AC117" s="102"/>
       <c r="AD117" s="25"/>
       <c r="AE117" s="25"/>
-    </row>
-    <row r="118" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF117" s="25"/>
+    </row>
+    <row r="118" spans="1:32" ht="16.5" customHeight="1">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -11377,11 +11739,12 @@
       <c r="Z118" s="51"/>
       <c r="AA118" s="51"/>
       <c r="AB118" s="25"/>
-      <c r="AC118" s="120"/>
+      <c r="AC118" s="102"/>
       <c r="AD118" s="25"/>
       <c r="AE118" s="25"/>
-    </row>
-    <row r="119" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF118" s="25"/>
+    </row>
+    <row r="119" spans="1:32" ht="16.5" customHeight="1">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22"/>
@@ -11410,11 +11773,12 @@
       <c r="Z119" s="51"/>
       <c r="AA119" s="51"/>
       <c r="AB119" s="25"/>
-      <c r="AC119" s="120"/>
+      <c r="AC119" s="102"/>
       <c r="AD119" s="25"/>
       <c r="AE119" s="25"/>
-    </row>
-    <row r="120" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF119" s="25"/>
+    </row>
+    <row r="120" spans="1:32" ht="16.5" customHeight="1">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22"/>
@@ -11443,11 +11807,12 @@
       <c r="Z120" s="51"/>
       <c r="AA120" s="51"/>
       <c r="AB120" s="25"/>
-      <c r="AC120" s="120"/>
+      <c r="AC120" s="102"/>
       <c r="AD120" s="25"/>
       <c r="AE120" s="25"/>
-    </row>
-    <row r="121" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF120" s="25"/>
+    </row>
+    <row r="121" spans="1:32" ht="16.5" customHeight="1">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -11476,11 +11841,12 @@
       <c r="Z121" s="51"/>
       <c r="AA121" s="51"/>
       <c r="AB121" s="25"/>
-      <c r="AC121" s="120"/>
+      <c r="AC121" s="102"/>
       <c r="AD121" s="25"/>
       <c r="AE121" s="25"/>
-    </row>
-    <row r="122" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF121" s="25"/>
+    </row>
+    <row r="122" spans="1:32" ht="16.5" customHeight="1">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -11509,11 +11875,12 @@
       <c r="Z122" s="51"/>
       <c r="AA122" s="51"/>
       <c r="AB122" s="25"/>
-      <c r="AC122" s="120"/>
+      <c r="AC122" s="102"/>
       <c r="AD122" s="25"/>
       <c r="AE122" s="25"/>
-    </row>
-    <row r="123" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF122" s="25"/>
+    </row>
+    <row r="123" spans="1:32" ht="16.5" customHeight="1">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -11542,11 +11909,12 @@
       <c r="Z123" s="51"/>
       <c r="AA123" s="51"/>
       <c r="AB123" s="25"/>
-      <c r="AC123" s="120"/>
+      <c r="AC123" s="102"/>
       <c r="AD123" s="25"/>
       <c r="AE123" s="25"/>
-    </row>
-    <row r="124" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF123" s="25"/>
+    </row>
+    <row r="124" spans="1:32" ht="16.5" customHeight="1">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -11575,11 +11943,12 @@
       <c r="Z124" s="51"/>
       <c r="AA124" s="51"/>
       <c r="AB124" s="25"/>
-      <c r="AC124" s="120"/>
+      <c r="AC124" s="102"/>
       <c r="AD124" s="25"/>
       <c r="AE124" s="25"/>
-    </row>
-    <row r="125" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF124" s="25"/>
+    </row>
+    <row r="125" spans="1:32" ht="16.5" customHeight="1">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22"/>
@@ -11608,11 +11977,12 @@
       <c r="Z125" s="51"/>
       <c r="AA125" s="51"/>
       <c r="AB125" s="25"/>
-      <c r="AC125" s="120"/>
+      <c r="AC125" s="102"/>
       <c r="AD125" s="25"/>
       <c r="AE125" s="25"/>
-    </row>
-    <row r="126" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF125" s="25"/>
+    </row>
+    <row r="126" spans="1:32" ht="16.5" customHeight="1">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22"/>
@@ -11641,11 +12011,12 @@
       <c r="Z126" s="51"/>
       <c r="AA126" s="51"/>
       <c r="AB126" s="25"/>
-      <c r="AC126" s="120"/>
+      <c r="AC126" s="102"/>
       <c r="AD126" s="25"/>
       <c r="AE126" s="25"/>
-    </row>
-    <row r="127" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF126" s="25"/>
+    </row>
+    <row r="127" spans="1:32" ht="16.5" customHeight="1">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -11674,11 +12045,12 @@
       <c r="Z127" s="51"/>
       <c r="AA127" s="51"/>
       <c r="AB127" s="25"/>
-      <c r="AC127" s="120"/>
+      <c r="AC127" s="102"/>
       <c r="AD127" s="25"/>
       <c r="AE127" s="25"/>
-    </row>
-    <row r="128" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF127" s="25"/>
+    </row>
+    <row r="128" spans="1:32" ht="16.5" customHeight="1">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22"/>
@@ -11707,11 +12079,12 @@
       <c r="Z128" s="51"/>
       <c r="AA128" s="51"/>
       <c r="AB128" s="25"/>
-      <c r="AC128" s="120"/>
+      <c r="AC128" s="102"/>
       <c r="AD128" s="25"/>
       <c r="AE128" s="25"/>
-    </row>
-    <row r="129" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF128" s="25"/>
+    </row>
+    <row r="129" spans="1:32" ht="16.5" customHeight="1">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -11740,11 +12113,12 @@
       <c r="Z129" s="51"/>
       <c r="AA129" s="51"/>
       <c r="AB129" s="25"/>
-      <c r="AC129" s="120"/>
+      <c r="AC129" s="102"/>
       <c r="AD129" s="25"/>
       <c r="AE129" s="25"/>
-    </row>
-    <row r="130" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF129" s="25"/>
+    </row>
+    <row r="130" spans="1:32" ht="16.5" customHeight="1">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22"/>
@@ -11773,11 +12147,12 @@
       <c r="Z130" s="51"/>
       <c r="AA130" s="51"/>
       <c r="AB130" s="25"/>
-      <c r="AC130" s="120"/>
+      <c r="AC130" s="102"/>
       <c r="AD130" s="25"/>
       <c r="AE130" s="25"/>
-    </row>
-    <row r="131" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF130" s="25"/>
+    </row>
+    <row r="131" spans="1:32" ht="16.5" customHeight="1">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22"/>
@@ -11806,11 +12181,12 @@
       <c r="Z131" s="51"/>
       <c r="AA131" s="51"/>
       <c r="AB131" s="25"/>
-      <c r="AC131" s="120"/>
+      <c r="AC131" s="102"/>
       <c r="AD131" s="25"/>
       <c r="AE131" s="25"/>
-    </row>
-    <row r="132" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF131" s="25"/>
+    </row>
+    <row r="132" spans="1:32" ht="16.5" customHeight="1">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22"/>
@@ -11839,11 +12215,12 @@
       <c r="Z132" s="51"/>
       <c r="AA132" s="51"/>
       <c r="AB132" s="25"/>
-      <c r="AC132" s="120"/>
+      <c r="AC132" s="102"/>
       <c r="AD132" s="25"/>
       <c r="AE132" s="25"/>
-    </row>
-    <row r="133" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF132" s="25"/>
+    </row>
+    <row r="133" spans="1:32" ht="16.5" customHeight="1">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22"/>
@@ -11872,11 +12249,12 @@
       <c r="Z133" s="51"/>
       <c r="AA133" s="51"/>
       <c r="AB133" s="25"/>
-      <c r="AC133" s="120"/>
+      <c r="AC133" s="102"/>
       <c r="AD133" s="25"/>
       <c r="AE133" s="25"/>
-    </row>
-    <row r="134" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF133" s="25"/>
+    </row>
+    <row r="134" spans="1:32" ht="16.5" customHeight="1">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
@@ -11905,11 +12283,12 @@
       <c r="Z134" s="51"/>
       <c r="AA134" s="51"/>
       <c r="AB134" s="25"/>
-      <c r="AC134" s="120"/>
+      <c r="AC134" s="102"/>
       <c r="AD134" s="25"/>
       <c r="AE134" s="25"/>
-    </row>
-    <row r="135" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF134" s="25"/>
+    </row>
+    <row r="135" spans="1:32" ht="16.5" customHeight="1">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22"/>
@@ -11938,11 +12317,12 @@
       <c r="Z135" s="51"/>
       <c r="AA135" s="51"/>
       <c r="AB135" s="25"/>
-      <c r="AC135" s="120"/>
+      <c r="AC135" s="102"/>
       <c r="AD135" s="25"/>
       <c r="AE135" s="25"/>
-    </row>
-    <row r="136" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF135" s="25"/>
+    </row>
+    <row r="136" spans="1:32" ht="16.5" customHeight="1">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22"/>
@@ -11971,11 +12351,12 @@
       <c r="Z136" s="51"/>
       <c r="AA136" s="51"/>
       <c r="AB136" s="25"/>
-      <c r="AC136" s="120"/>
+      <c r="AC136" s="102"/>
       <c r="AD136" s="25"/>
       <c r="AE136" s="25"/>
-    </row>
-    <row r="137" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF136" s="25"/>
+    </row>
+    <row r="137" spans="1:32" ht="16.5" customHeight="1">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22"/>
@@ -12004,11 +12385,12 @@
       <c r="Z137" s="51"/>
       <c r="AA137" s="51"/>
       <c r="AB137" s="25"/>
-      <c r="AC137" s="120"/>
+      <c r="AC137" s="102"/>
       <c r="AD137" s="25"/>
       <c r="AE137" s="25"/>
-    </row>
-    <row r="138" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF137" s="25"/>
+    </row>
+    <row r="138" spans="1:32" ht="16.5" customHeight="1">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22"/>
@@ -12037,11 +12419,12 @@
       <c r="Z138" s="51"/>
       <c r="AA138" s="51"/>
       <c r="AB138" s="25"/>
-      <c r="AC138" s="120"/>
+      <c r="AC138" s="102"/>
       <c r="AD138" s="25"/>
       <c r="AE138" s="25"/>
-    </row>
-    <row r="139" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF138" s="25"/>
+    </row>
+    <row r="139" spans="1:32" ht="16.5" customHeight="1">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="22"/>
@@ -12070,11 +12453,12 @@
       <c r="Z139" s="51"/>
       <c r="AA139" s="51"/>
       <c r="AB139" s="25"/>
-      <c r="AC139" s="120"/>
+      <c r="AC139" s="102"/>
       <c r="AD139" s="25"/>
       <c r="AE139" s="25"/>
-    </row>
-    <row r="140" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF139" s="25"/>
+    </row>
+    <row r="140" spans="1:32" ht="16.5" customHeight="1">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
@@ -12103,11 +12487,12 @@
       <c r="Z140" s="51"/>
       <c r="AA140" s="51"/>
       <c r="AB140" s="25"/>
-      <c r="AC140" s="120"/>
+      <c r="AC140" s="102"/>
       <c r="AD140" s="25"/>
       <c r="AE140" s="25"/>
-    </row>
-    <row r="141" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF140" s="25"/>
+    </row>
+    <row r="141" spans="1:32" ht="16.5" customHeight="1">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="22"/>
@@ -12136,11 +12521,12 @@
       <c r="Z141" s="51"/>
       <c r="AA141" s="51"/>
       <c r="AB141" s="25"/>
-      <c r="AC141" s="120"/>
+      <c r="AC141" s="102"/>
       <c r="AD141" s="25"/>
       <c r="AE141" s="25"/>
-    </row>
-    <row r="142" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF141" s="25"/>
+    </row>
+    <row r="142" spans="1:32" ht="16.5" customHeight="1">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
@@ -12169,11 +12555,12 @@
       <c r="Z142" s="51"/>
       <c r="AA142" s="51"/>
       <c r="AB142" s="25"/>
-      <c r="AC142" s="120"/>
+      <c r="AC142" s="102"/>
       <c r="AD142" s="25"/>
       <c r="AE142" s="25"/>
-    </row>
-    <row r="143" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF142" s="25"/>
+    </row>
+    <row r="143" spans="1:32" ht="16.5" customHeight="1">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22"/>
@@ -12202,11 +12589,12 @@
       <c r="Z143" s="51"/>
       <c r="AA143" s="51"/>
       <c r="AB143" s="25"/>
-      <c r="AC143" s="120"/>
+      <c r="AC143" s="102"/>
       <c r="AD143" s="25"/>
       <c r="AE143" s="25"/>
-    </row>
-    <row r="144" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF143" s="25"/>
+    </row>
+    <row r="144" spans="1:32" ht="16.5" customHeight="1">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
@@ -12235,11 +12623,12 @@
       <c r="Z144" s="51"/>
       <c r="AA144" s="51"/>
       <c r="AB144" s="25"/>
-      <c r="AC144" s="120"/>
+      <c r="AC144" s="102"/>
       <c r="AD144" s="25"/>
       <c r="AE144" s="25"/>
-    </row>
-    <row r="145" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF144" s="25"/>
+    </row>
+    <row r="145" spans="1:32" ht="16.5" customHeight="1">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="22"/>
@@ -12268,11 +12657,12 @@
       <c r="Z145" s="51"/>
       <c r="AA145" s="51"/>
       <c r="AB145" s="25"/>
-      <c r="AC145" s="120"/>
+      <c r="AC145" s="102"/>
       <c r="AD145" s="25"/>
       <c r="AE145" s="25"/>
-    </row>
-    <row r="146" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF145" s="25"/>
+    </row>
+    <row r="146" spans="1:32" ht="16.5" customHeight="1">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="22"/>
@@ -12301,11 +12691,12 @@
       <c r="Z146" s="51"/>
       <c r="AA146" s="51"/>
       <c r="AB146" s="25"/>
-      <c r="AC146" s="120"/>
+      <c r="AC146" s="102"/>
       <c r="AD146" s="25"/>
       <c r="AE146" s="25"/>
-    </row>
-    <row r="147" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF146" s="25"/>
+    </row>
+    <row r="147" spans="1:32" ht="16.5" customHeight="1">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="22"/>
@@ -12334,11 +12725,12 @@
       <c r="Z147" s="51"/>
       <c r="AA147" s="51"/>
       <c r="AB147" s="25"/>
-      <c r="AC147" s="120"/>
+      <c r="AC147" s="102"/>
       <c r="AD147" s="25"/>
       <c r="AE147" s="25"/>
-    </row>
-    <row r="148" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF147" s="25"/>
+    </row>
+    <row r="148" spans="1:32" ht="16.5" customHeight="1">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="22"/>
@@ -12367,11 +12759,12 @@
       <c r="Z148" s="51"/>
       <c r="AA148" s="51"/>
       <c r="AB148" s="25"/>
-      <c r="AC148" s="120"/>
+      <c r="AC148" s="102"/>
       <c r="AD148" s="25"/>
       <c r="AE148" s="25"/>
-    </row>
-    <row r="149" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF148" s="25"/>
+    </row>
+    <row r="149" spans="1:32" ht="16.5" customHeight="1">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="22"/>
@@ -12400,11 +12793,12 @@
       <c r="Z149" s="51"/>
       <c r="AA149" s="51"/>
       <c r="AB149" s="25"/>
-      <c r="AC149" s="120"/>
+      <c r="AC149" s="102"/>
       <c r="AD149" s="25"/>
       <c r="AE149" s="25"/>
-    </row>
-    <row r="150" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF149" s="25"/>
+    </row>
+    <row r="150" spans="1:32" ht="16.5" customHeight="1">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -12433,11 +12827,12 @@
       <c r="Z150" s="51"/>
       <c r="AA150" s="51"/>
       <c r="AB150" s="25"/>
-      <c r="AC150" s="120"/>
+      <c r="AC150" s="102"/>
       <c r="AD150" s="25"/>
       <c r="AE150" s="25"/>
-    </row>
-    <row r="151" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF150" s="25"/>
+    </row>
+    <row r="151" spans="1:32" ht="16.5" customHeight="1">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -12466,11 +12861,12 @@
       <c r="Z151" s="51"/>
       <c r="AA151" s="51"/>
       <c r="AB151" s="25"/>
-      <c r="AC151" s="120"/>
+      <c r="AC151" s="102"/>
       <c r="AD151" s="25"/>
       <c r="AE151" s="25"/>
-    </row>
-    <row r="152" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF151" s="25"/>
+    </row>
+    <row r="152" spans="1:32" ht="16.5" customHeight="1">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="22"/>
@@ -12499,11 +12895,12 @@
       <c r="Z152" s="51"/>
       <c r="AA152" s="51"/>
       <c r="AB152" s="25"/>
-      <c r="AC152" s="120"/>
+      <c r="AC152" s="102"/>
       <c r="AD152" s="25"/>
       <c r="AE152" s="25"/>
-    </row>
-    <row r="153" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF152" s="25"/>
+    </row>
+    <row r="153" spans="1:32" ht="16.5" customHeight="1">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22"/>
@@ -12532,11 +12929,12 @@
       <c r="Z153" s="51"/>
       <c r="AA153" s="51"/>
       <c r="AB153" s="25"/>
-      <c r="AC153" s="120"/>
+      <c r="AC153" s="102"/>
       <c r="AD153" s="25"/>
       <c r="AE153" s="25"/>
-    </row>
-    <row r="154" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF153" s="25"/>
+    </row>
+    <row r="154" spans="1:32" ht="16.5" customHeight="1">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
@@ -12565,11 +12963,12 @@
       <c r="Z154" s="51"/>
       <c r="AA154" s="51"/>
       <c r="AB154" s="25"/>
-      <c r="AC154" s="120"/>
+      <c r="AC154" s="102"/>
       <c r="AD154" s="25"/>
       <c r="AE154" s="25"/>
-    </row>
-    <row r="155" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF154" s="25"/>
+    </row>
+    <row r="155" spans="1:32" ht="16.5" customHeight="1">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22"/>
@@ -12598,11 +12997,12 @@
       <c r="Z155" s="51"/>
       <c r="AA155" s="51"/>
       <c r="AB155" s="25"/>
-      <c r="AC155" s="120"/>
+      <c r="AC155" s="102"/>
       <c r="AD155" s="25"/>
       <c r="AE155" s="25"/>
-    </row>
-    <row r="156" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF155" s="25"/>
+    </row>
+    <row r="156" spans="1:32" ht="16.5" customHeight="1">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -12631,11 +13031,12 @@
       <c r="Z156" s="51"/>
       <c r="AA156" s="51"/>
       <c r="AB156" s="25"/>
-      <c r="AC156" s="120"/>
+      <c r="AC156" s="102"/>
       <c r="AD156" s="25"/>
       <c r="AE156" s="25"/>
-    </row>
-    <row r="157" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF156" s="25"/>
+    </row>
+    <row r="157" spans="1:32" ht="16.5" customHeight="1">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -12664,11 +13065,12 @@
       <c r="Z157" s="51"/>
       <c r="AA157" s="51"/>
       <c r="AB157" s="25"/>
-      <c r="AC157" s="120"/>
+      <c r="AC157" s="102"/>
       <c r="AD157" s="25"/>
       <c r="AE157" s="25"/>
-    </row>
-    <row r="158" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF157" s="25"/>
+    </row>
+    <row r="158" spans="1:32" ht="16.5" customHeight="1">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -12697,11 +13099,12 @@
       <c r="Z158" s="51"/>
       <c r="AA158" s="51"/>
       <c r="AB158" s="25"/>
-      <c r="AC158" s="120"/>
+      <c r="AC158" s="102"/>
       <c r="AD158" s="25"/>
       <c r="AE158" s="25"/>
-    </row>
-    <row r="159" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF158" s="25"/>
+    </row>
+    <row r="159" spans="1:32" ht="16.5" customHeight="1">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -12730,11 +13133,12 @@
       <c r="Z159" s="51"/>
       <c r="AA159" s="51"/>
       <c r="AB159" s="25"/>
-      <c r="AC159" s="120"/>
+      <c r="AC159" s="102"/>
       <c r="AD159" s="25"/>
       <c r="AE159" s="25"/>
-    </row>
-    <row r="160" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF159" s="25"/>
+    </row>
+    <row r="160" spans="1:32" ht="16.5" customHeight="1">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -12763,11 +13167,12 @@
       <c r="Z160" s="51"/>
       <c r="AA160" s="51"/>
       <c r="AB160" s="25"/>
-      <c r="AC160" s="120"/>
+      <c r="AC160" s="102"/>
       <c r="AD160" s="25"/>
       <c r="AE160" s="25"/>
-    </row>
-    <row r="161" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF160" s="25"/>
+    </row>
+    <row r="161" spans="1:32" ht="16.5" customHeight="1">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -12796,11 +13201,12 @@
       <c r="Z161" s="51"/>
       <c r="AA161" s="51"/>
       <c r="AB161" s="25"/>
-      <c r="AC161" s="120"/>
+      <c r="AC161" s="102"/>
       <c r="AD161" s="25"/>
       <c r="AE161" s="25"/>
-    </row>
-    <row r="162" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF161" s="25"/>
+    </row>
+    <row r="162" spans="1:32" ht="16.5" customHeight="1">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -12829,11 +13235,12 @@
       <c r="Z162" s="51"/>
       <c r="AA162" s="51"/>
       <c r="AB162" s="25"/>
-      <c r="AC162" s="120"/>
+      <c r="AC162" s="102"/>
       <c r="AD162" s="25"/>
       <c r="AE162" s="25"/>
-    </row>
-    <row r="163" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF162" s="25"/>
+    </row>
+    <row r="163" spans="1:32" ht="16.5" customHeight="1">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -12862,11 +13269,12 @@
       <c r="Z163" s="51"/>
       <c r="AA163" s="51"/>
       <c r="AB163" s="25"/>
-      <c r="AC163" s="120"/>
+      <c r="AC163" s="102"/>
       <c r="AD163" s="25"/>
       <c r="AE163" s="25"/>
-    </row>
-    <row r="164" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF163" s="25"/>
+    </row>
+    <row r="164" spans="1:32" ht="16.5" customHeight="1">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -12895,11 +13303,12 @@
       <c r="Z164" s="51"/>
       <c r="AA164" s="51"/>
       <c r="AB164" s="25"/>
-      <c r="AC164" s="120"/>
+      <c r="AC164" s="102"/>
       <c r="AD164" s="25"/>
       <c r="AE164" s="25"/>
-    </row>
-    <row r="165" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF164" s="25"/>
+    </row>
+    <row r="165" spans="1:32" ht="16.5" customHeight="1">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -12928,11 +13337,12 @@
       <c r="Z165" s="51"/>
       <c r="AA165" s="51"/>
       <c r="AB165" s="25"/>
-      <c r="AC165" s="120"/>
+      <c r="AC165" s="102"/>
       <c r="AD165" s="25"/>
       <c r="AE165" s="25"/>
-    </row>
-    <row r="166" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF165" s="25"/>
+    </row>
+    <row r="166" spans="1:32" ht="16.5" customHeight="1">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -12961,11 +13371,12 @@
       <c r="Z166" s="51"/>
       <c r="AA166" s="51"/>
       <c r="AB166" s="25"/>
-      <c r="AC166" s="120"/>
+      <c r="AC166" s="102"/>
       <c r="AD166" s="25"/>
       <c r="AE166" s="25"/>
-    </row>
-    <row r="167" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF166" s="25"/>
+    </row>
+    <row r="167" spans="1:32" ht="16.5" customHeight="1">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -12994,11 +13405,12 @@
       <c r="Z167" s="51"/>
       <c r="AA167" s="51"/>
       <c r="AB167" s="25"/>
-      <c r="AC167" s="120"/>
+      <c r="AC167" s="102"/>
       <c r="AD167" s="25"/>
       <c r="AE167" s="25"/>
-    </row>
-    <row r="168" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF167" s="25"/>
+    </row>
+    <row r="168" spans="1:32" ht="16.5" customHeight="1">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -13027,11 +13439,12 @@
       <c r="Z168" s="51"/>
       <c r="AA168" s="51"/>
       <c r="AB168" s="25"/>
-      <c r="AC168" s="120"/>
+      <c r="AC168" s="102"/>
       <c r="AD168" s="25"/>
       <c r="AE168" s="25"/>
-    </row>
-    <row r="169" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF168" s="25"/>
+    </row>
+    <row r="169" spans="1:32" ht="16.5" customHeight="1">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -13060,11 +13473,12 @@
       <c r="Z169" s="51"/>
       <c r="AA169" s="51"/>
       <c r="AB169" s="25"/>
-      <c r="AC169" s="120"/>
+      <c r="AC169" s="102"/>
       <c r="AD169" s="25"/>
       <c r="AE169" s="25"/>
-    </row>
-    <row r="170" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF169" s="25"/>
+    </row>
+    <row r="170" spans="1:32" ht="16.5" customHeight="1">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -13093,11 +13507,12 @@
       <c r="Z170" s="51"/>
       <c r="AA170" s="51"/>
       <c r="AB170" s="25"/>
-      <c r="AC170" s="120"/>
+      <c r="AC170" s="102"/>
       <c r="AD170" s="25"/>
       <c r="AE170" s="25"/>
-    </row>
-    <row r="171" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF170" s="25"/>
+    </row>
+    <row r="171" spans="1:32" ht="16.5" customHeight="1">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -13126,11 +13541,12 @@
       <c r="Z171" s="51"/>
       <c r="AA171" s="51"/>
       <c r="AB171" s="25"/>
-      <c r="AC171" s="120"/>
+      <c r="AC171" s="102"/>
       <c r="AD171" s="25"/>
       <c r="AE171" s="25"/>
-    </row>
-    <row r="172" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF171" s="25"/>
+    </row>
+    <row r="172" spans="1:32" ht="16.5" customHeight="1">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -13159,11 +13575,12 @@
       <c r="Z172" s="51"/>
       <c r="AA172" s="51"/>
       <c r="AB172" s="25"/>
-      <c r="AC172" s="120"/>
+      <c r="AC172" s="102"/>
       <c r="AD172" s="25"/>
       <c r="AE172" s="25"/>
-    </row>
-    <row r="173" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF172" s="25"/>
+    </row>
+    <row r="173" spans="1:32" ht="16.5" customHeight="1">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -13192,11 +13609,12 @@
       <c r="Z173" s="51"/>
       <c r="AA173" s="51"/>
       <c r="AB173" s="25"/>
-      <c r="AC173" s="120"/>
+      <c r="AC173" s="102"/>
       <c r="AD173" s="25"/>
       <c r="AE173" s="25"/>
-    </row>
-    <row r="174" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF173" s="25"/>
+    </row>
+    <row r="174" spans="1:32" ht="16.5" customHeight="1">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -13225,11 +13643,12 @@
       <c r="Z174" s="51"/>
       <c r="AA174" s="51"/>
       <c r="AB174" s="25"/>
-      <c r="AC174" s="120"/>
+      <c r="AC174" s="102"/>
       <c r="AD174" s="25"/>
       <c r="AE174" s="25"/>
-    </row>
-    <row r="175" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF174" s="25"/>
+    </row>
+    <row r="175" spans="1:32" ht="16.5" customHeight="1">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -13258,11 +13677,12 @@
       <c r="Z175" s="51"/>
       <c r="AA175" s="51"/>
       <c r="AB175" s="25"/>
-      <c r="AC175" s="120"/>
+      <c r="AC175" s="102"/>
       <c r="AD175" s="25"/>
       <c r="AE175" s="25"/>
-    </row>
-    <row r="176" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF175" s="25"/>
+    </row>
+    <row r="176" spans="1:32" ht="16.5" customHeight="1">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -13291,11 +13711,12 @@
       <c r="Z176" s="51"/>
       <c r="AA176" s="51"/>
       <c r="AB176" s="25"/>
-      <c r="AC176" s="120"/>
+      <c r="AC176" s="102"/>
       <c r="AD176" s="25"/>
       <c r="AE176" s="25"/>
-    </row>
-    <row r="177" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF176" s="25"/>
+    </row>
+    <row r="177" spans="1:32" ht="16.5" customHeight="1">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -13324,11 +13745,12 @@
       <c r="Z177" s="51"/>
       <c r="AA177" s="51"/>
       <c r="AB177" s="25"/>
-      <c r="AC177" s="120"/>
+      <c r="AC177" s="102"/>
       <c r="AD177" s="25"/>
       <c r="AE177" s="25"/>
-    </row>
-    <row r="178" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF177" s="25"/>
+    </row>
+    <row r="178" spans="1:32" ht="16.5" customHeight="1">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -13357,11 +13779,12 @@
       <c r="Z178" s="51"/>
       <c r="AA178" s="51"/>
       <c r="AB178" s="25"/>
-      <c r="AC178" s="120"/>
+      <c r="AC178" s="102"/>
       <c r="AD178" s="25"/>
       <c r="AE178" s="25"/>
-    </row>
-    <row r="179" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF178" s="25"/>
+    </row>
+    <row r="179" spans="1:32" ht="16.5" customHeight="1">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -13390,11 +13813,12 @@
       <c r="Z179" s="51"/>
       <c r="AA179" s="51"/>
       <c r="AB179" s="25"/>
-      <c r="AC179" s="120"/>
+      <c r="AC179" s="102"/>
       <c r="AD179" s="25"/>
       <c r="AE179" s="25"/>
-    </row>
-    <row r="180" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF179" s="25"/>
+    </row>
+    <row r="180" spans="1:32" ht="16.5" customHeight="1">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="22"/>
@@ -13423,11 +13847,12 @@
       <c r="Z180" s="51"/>
       <c r="AA180" s="51"/>
       <c r="AB180" s="25"/>
-      <c r="AC180" s="120"/>
+      <c r="AC180" s="102"/>
       <c r="AD180" s="25"/>
       <c r="AE180" s="25"/>
-    </row>
-    <row r="181" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF180" s="25"/>
+    </row>
+    <row r="181" spans="1:32" ht="16.5" customHeight="1">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="22"/>
@@ -13456,11 +13881,12 @@
       <c r="Z181" s="51"/>
       <c r="AA181" s="51"/>
       <c r="AB181" s="25"/>
-      <c r="AC181" s="120"/>
+      <c r="AC181" s="102"/>
       <c r="AD181" s="25"/>
       <c r="AE181" s="25"/>
-    </row>
-    <row r="182" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF181" s="25"/>
+    </row>
+    <row r="182" spans="1:32" ht="16.5" customHeight="1">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="22"/>
@@ -13489,11 +13915,12 @@
       <c r="Z182" s="51"/>
       <c r="AA182" s="51"/>
       <c r="AB182" s="25"/>
-      <c r="AC182" s="120"/>
+      <c r="AC182" s="102"/>
       <c r="AD182" s="25"/>
       <c r="AE182" s="25"/>
-    </row>
-    <row r="183" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF182" s="25"/>
+    </row>
+    <row r="183" spans="1:32" ht="16.5" customHeight="1">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="22"/>
@@ -13522,11 +13949,12 @@
       <c r="Z183" s="51"/>
       <c r="AA183" s="51"/>
       <c r="AB183" s="25"/>
-      <c r="AC183" s="120"/>
+      <c r="AC183" s="102"/>
       <c r="AD183" s="25"/>
       <c r="AE183" s="25"/>
-    </row>
-    <row r="184" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF183" s="25"/>
+    </row>
+    <row r="184" spans="1:32" ht="16.5" customHeight="1">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="22"/>
@@ -13555,11 +13983,12 @@
       <c r="Z184" s="51"/>
       <c r="AA184" s="51"/>
       <c r="AB184" s="25"/>
-      <c r="AC184" s="120"/>
+      <c r="AC184" s="102"/>
       <c r="AD184" s="25"/>
       <c r="AE184" s="25"/>
-    </row>
-    <row r="185" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF184" s="25"/>
+    </row>
+    <row r="185" spans="1:32" ht="16.5" customHeight="1">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="22"/>
@@ -13588,11 +14017,12 @@
       <c r="Z185" s="51"/>
       <c r="AA185" s="51"/>
       <c r="AB185" s="25"/>
-      <c r="AC185" s="120"/>
+      <c r="AC185" s="102"/>
       <c r="AD185" s="25"/>
       <c r="AE185" s="25"/>
-    </row>
-    <row r="186" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF185" s="25"/>
+    </row>
+    <row r="186" spans="1:32" ht="16.5" customHeight="1">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="22"/>
@@ -13621,11 +14051,12 @@
       <c r="Z186" s="51"/>
       <c r="AA186" s="51"/>
       <c r="AB186" s="25"/>
-      <c r="AC186" s="120"/>
+      <c r="AC186" s="102"/>
       <c r="AD186" s="25"/>
       <c r="AE186" s="25"/>
-    </row>
-    <row r="187" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF186" s="25"/>
+    </row>
+    <row r="187" spans="1:32" ht="16.5" customHeight="1">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="22"/>
@@ -13654,11 +14085,12 @@
       <c r="Z187" s="51"/>
       <c r="AA187" s="51"/>
       <c r="AB187" s="25"/>
-      <c r="AC187" s="120"/>
+      <c r="AC187" s="102"/>
       <c r="AD187" s="25"/>
       <c r="AE187" s="25"/>
-    </row>
-    <row r="188" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF187" s="25"/>
+    </row>
+    <row r="188" spans="1:32" ht="16.5" customHeight="1">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="22"/>
@@ -13687,11 +14119,12 @@
       <c r="Z188" s="51"/>
       <c r="AA188" s="51"/>
       <c r="AB188" s="25"/>
-      <c r="AC188" s="120"/>
+      <c r="AC188" s="102"/>
       <c r="AD188" s="25"/>
       <c r="AE188" s="25"/>
-    </row>
-    <row r="189" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF188" s="25"/>
+    </row>
+    <row r="189" spans="1:32" ht="16.5" customHeight="1">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="22"/>
@@ -13720,11 +14153,12 @@
       <c r="Z189" s="51"/>
       <c r="AA189" s="51"/>
       <c r="AB189" s="25"/>
-      <c r="AC189" s="120"/>
+      <c r="AC189" s="102"/>
       <c r="AD189" s="25"/>
       <c r="AE189" s="25"/>
-    </row>
-    <row r="190" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF189" s="25"/>
+    </row>
+    <row r="190" spans="1:32" ht="16.5" customHeight="1">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="22"/>
@@ -13753,11 +14187,12 @@
       <c r="Z190" s="51"/>
       <c r="AA190" s="51"/>
       <c r="AB190" s="25"/>
-      <c r="AC190" s="120"/>
+      <c r="AC190" s="102"/>
       <c r="AD190" s="25"/>
       <c r="AE190" s="25"/>
-    </row>
-    <row r="191" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF190" s="25"/>
+    </row>
+    <row r="191" spans="1:32" ht="16.5" customHeight="1">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="22"/>
@@ -13786,11 +14221,12 @@
       <c r="Z191" s="51"/>
       <c r="AA191" s="51"/>
       <c r="AB191" s="25"/>
-      <c r="AC191" s="120"/>
+      <c r="AC191" s="102"/>
       <c r="AD191" s="25"/>
       <c r="AE191" s="25"/>
-    </row>
-    <row r="192" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF191" s="25"/>
+    </row>
+    <row r="192" spans="1:32" ht="16.5" customHeight="1">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="22"/>
@@ -13819,11 +14255,12 @@
       <c r="Z192" s="51"/>
       <c r="AA192" s="51"/>
       <c r="AB192" s="25"/>
-      <c r="AC192" s="120"/>
+      <c r="AC192" s="102"/>
       <c r="AD192" s="25"/>
       <c r="AE192" s="25"/>
-    </row>
-    <row r="193" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF192" s="25"/>
+    </row>
+    <row r="193" spans="1:32" ht="16.5" customHeight="1">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="22"/>
@@ -13852,11 +14289,12 @@
       <c r="Z193" s="51"/>
       <c r="AA193" s="51"/>
       <c r="AB193" s="25"/>
-      <c r="AC193" s="120"/>
+      <c r="AC193" s="102"/>
       <c r="AD193" s="25"/>
       <c r="AE193" s="25"/>
-    </row>
-    <row r="194" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF193" s="25"/>
+    </row>
+    <row r="194" spans="1:32" ht="16.5" customHeight="1">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="22"/>
@@ -13885,11 +14323,12 @@
       <c r="Z194" s="51"/>
       <c r="AA194" s="51"/>
       <c r="AB194" s="25"/>
-      <c r="AC194" s="120"/>
+      <c r="AC194" s="102"/>
       <c r="AD194" s="25"/>
       <c r="AE194" s="25"/>
-    </row>
-    <row r="195" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF194" s="25"/>
+    </row>
+    <row r="195" spans="1:32" ht="16.5" customHeight="1">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="22"/>
@@ -13918,11 +14357,12 @@
       <c r="Z195" s="51"/>
       <c r="AA195" s="51"/>
       <c r="AB195" s="25"/>
-      <c r="AC195" s="120"/>
+      <c r="AC195" s="102"/>
       <c r="AD195" s="25"/>
       <c r="AE195" s="25"/>
-    </row>
-    <row r="196" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF195" s="25"/>
+    </row>
+    <row r="196" spans="1:32" ht="16.5" customHeight="1">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="22"/>
@@ -13951,11 +14391,12 @@
       <c r="Z196" s="51"/>
       <c r="AA196" s="51"/>
       <c r="AB196" s="25"/>
-      <c r="AC196" s="120"/>
+      <c r="AC196" s="102"/>
       <c r="AD196" s="25"/>
       <c r="AE196" s="25"/>
-    </row>
-    <row r="197" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF196" s="25"/>
+    </row>
+    <row r="197" spans="1:32" ht="16.5" customHeight="1">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="22"/>
@@ -13984,11 +14425,12 @@
       <c r="Z197" s="51"/>
       <c r="AA197" s="51"/>
       <c r="AB197" s="25"/>
-      <c r="AC197" s="120"/>
+      <c r="AC197" s="102"/>
       <c r="AD197" s="25"/>
       <c r="AE197" s="25"/>
-    </row>
-    <row r="198" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF197" s="25"/>
+    </row>
+    <row r="198" spans="1:32" ht="16.5" customHeight="1">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="22"/>
@@ -14017,11 +14459,12 @@
       <c r="Z198" s="51"/>
       <c r="AA198" s="51"/>
       <c r="AB198" s="25"/>
-      <c r="AC198" s="120"/>
+      <c r="AC198" s="102"/>
       <c r="AD198" s="25"/>
       <c r="AE198" s="25"/>
-    </row>
-    <row r="199" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF198" s="25"/>
+    </row>
+    <row r="199" spans="1:32" ht="16.5" customHeight="1">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="22"/>
@@ -14050,11 +14493,12 @@
       <c r="Z199" s="51"/>
       <c r="AA199" s="51"/>
       <c r="AB199" s="25"/>
-      <c r="AC199" s="120"/>
+      <c r="AC199" s="102"/>
       <c r="AD199" s="25"/>
       <c r="AE199" s="25"/>
-    </row>
-    <row r="200" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF199" s="25"/>
+    </row>
+    <row r="200" spans="1:32" ht="16.5" customHeight="1">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="22"/>
@@ -14083,11 +14527,12 @@
       <c r="Z200" s="51"/>
       <c r="AA200" s="51"/>
       <c r="AB200" s="25"/>
-      <c r="AC200" s="120"/>
+      <c r="AC200" s="102"/>
       <c r="AD200" s="25"/>
       <c r="AE200" s="25"/>
-    </row>
-    <row r="201" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF200" s="25"/>
+    </row>
+    <row r="201" spans="1:32" ht="16.5" customHeight="1">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="22"/>
@@ -14116,11 +14561,12 @@
       <c r="Z201" s="51"/>
       <c r="AA201" s="51"/>
       <c r="AB201" s="25"/>
-      <c r="AC201" s="120"/>
+      <c r="AC201" s="102"/>
       <c r="AD201" s="25"/>
       <c r="AE201" s="25"/>
-    </row>
-    <row r="202" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF201" s="25"/>
+    </row>
+    <row r="202" spans="1:32" ht="16.5" customHeight="1">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="22"/>
@@ -14149,11 +14595,12 @@
       <c r="Z202" s="51"/>
       <c r="AA202" s="51"/>
       <c r="AB202" s="25"/>
-      <c r="AC202" s="120"/>
+      <c r="AC202" s="102"/>
       <c r="AD202" s="25"/>
       <c r="AE202" s="25"/>
-    </row>
-    <row r="203" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF202" s="25"/>
+    </row>
+    <row r="203" spans="1:32" ht="16.5" customHeight="1">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="22"/>
@@ -14182,11 +14629,12 @@
       <c r="Z203" s="51"/>
       <c r="AA203" s="51"/>
       <c r="AB203" s="25"/>
-      <c r="AC203" s="120"/>
+      <c r="AC203" s="102"/>
       <c r="AD203" s="25"/>
       <c r="AE203" s="25"/>
-    </row>
-    <row r="204" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF203" s="25"/>
+    </row>
+    <row r="204" spans="1:32" ht="16.5" customHeight="1">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="22"/>
@@ -14215,11 +14663,12 @@
       <c r="Z204" s="51"/>
       <c r="AA204" s="51"/>
       <c r="AB204" s="25"/>
-      <c r="AC204" s="120"/>
+      <c r="AC204" s="102"/>
       <c r="AD204" s="25"/>
       <c r="AE204" s="25"/>
-    </row>
-    <row r="205" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF204" s="25"/>
+    </row>
+    <row r="205" spans="1:32" ht="16.5" customHeight="1">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="22"/>
@@ -14248,11 +14697,12 @@
       <c r="Z205" s="51"/>
       <c r="AA205" s="51"/>
       <c r="AB205" s="25"/>
-      <c r="AC205" s="120"/>
+      <c r="AC205" s="102"/>
       <c r="AD205" s="25"/>
       <c r="AE205" s="25"/>
-    </row>
-    <row r="206" spans="1:31" ht="16.5" customHeight="1">
+      <c r="AF205" s="25"/>
+    </row>
+    <row r="206" spans="1:32" ht="16.5" customHeight="1">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="22"/>
@@ -14281,12 +14731,13 @@
       <c r="Z206" s="51"/>
       <c r="AA206" s="51"/>
       <c r="AB206" s="25"/>
-      <c r="AC206" s="120"/>
+      <c r="AC206" s="102"/>
       <c r="AD206" s="25"/>
       <c r="AE206" s="25"/>
-    </row>
-    <row r="207" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="208" spans="1:31" ht="16.5" customHeight="1"/>
+      <c r="AF206" s="25"/>
+    </row>
+    <row r="207" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="208" spans="1:32" ht="16.5" customHeight="1"/>
     <row r="209" ht="16.5" customHeight="1"/>
     <row r="210" ht="16.5" customHeight="1"/>
     <row r="211" ht="16.5" customHeight="1"/>
@@ -15068,7 +15519,15 @@
     <row r="987" ht="16.5" customHeight="1"/>
     <row r="988" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="F1:M1"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
@@ -15078,20 +15537,13 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
     <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="F1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag_8\Documents\GitHub\Yaho\개인 작업 폴더\조승희\퀘스트 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104B1FD-47B9-4922-A410-F2DEAE5FE9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED37DD8-33D1-42F9-AD29-B9ABD53B6B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2745" windowWidth="25725" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="398">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -380,11 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시가지_
-대피 시작 퀘스트 도착 지점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마크를 따라 캠프장 취사구역의 (취사구역NPC)에게 이동하여 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,14 +542,6 @@
   </si>
   <si>
     <t>옆 방으로 이동(Q_Chapter01_1_01) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화(Q_Chapter01_1_03) 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대피 시작(Q_Chapter01_1_04) 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1640,207 +1627,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아들과 대화하였다는 것을 확인하기 위해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 다시 인트로를 실행하지 않도록 하기 위해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기를 획득하였다는 것을 확인하고, 이를 이용해 무기 이벤트를 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목적지에 도착하면 해당 이벤트의 반복을 막기 위해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 변수지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고블린을 처치한 후 해당 이벤트의 반복을 막기 위해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ00_M01_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ01_M01_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ01_M02_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ01_M03_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ01_M04_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M01_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M02_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M03_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M04_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M05_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M06_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M07_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M08_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M09_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ02_M10_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ03_M01_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M02_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M01_S01_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M01_S02_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M01_S03_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M03_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M04_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M05_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M06_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M07_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M08_S01_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M08_S04_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M08_S02_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M08_S03_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M03_S01_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M03_S02_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M03_S02_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ04_M03_S02_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(몇)레벨 도달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vQ05_M02_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M03_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M04_S00_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M01_S01_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M01_S02_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M01_S03_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M01_S04_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M01_S05_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M05_S01_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M05_S02_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vQ05_M05_S03_00</t>
+    <t>변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 진행에 필요한 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 사용 용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란한 도심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물들이 도처에 나타나고 있다. 도심을 가로질러 오른쪽으로 이동하여 목표 지점에 도착하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피시작() 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파트 복도_
+엄마 생성위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 밖으로 탈출() 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란한 도심() 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가지_
+혼란한 도심 퀘스트 도착 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_V001_검선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_V003_창선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_V002_망치선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_V004_선택미룸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2021,7 +1878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2500,17 +2357,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -2594,6 +2440,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2601,7 +2541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2860,28 +2800,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2896,7 +2821,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2913,6 +2838,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2938,12 +2872,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2965,6 +2893,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2974,11 +2908,62 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3198,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3223,14 +3208,14 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
       <c r="U2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3238,27 +3223,27 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
       <c r="U3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="110"/>
+      <c r="E4" s="107" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="109"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>23</v>
@@ -3266,10 +3251,10 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="105"/>
+      <c r="G5" s="103"/>
       <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3284,10 +3269,10 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="105"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B7" s="2" t="s">
@@ -3299,10 +3284,10 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B8" s="2" t="s">
@@ -3312,11 +3297,11 @@
         <v>34</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="50" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -3327,11 +3312,11 @@
         <v>9</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="50" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -3342,11 +3327,11 @@
         <v>20</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="50" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -3362,12 +3347,12 @@
     </row>
     <row r="12" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
@@ -3446,15 +3431,23 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:7" ht="27.95" customHeight="1">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+    <row r="20" spans="2:7" ht="27.95" customHeight="1" thickBot="1">
+      <c r="B20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>384</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:7" ht="27.95" customHeight="1">
-      <c r="B21" s="20"/>
-      <c r="C21" s="9"/>
+    <row r="21" spans="2:7" ht="27.95" customHeight="1" thickBot="1">
+      <c r="B21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>385</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
@@ -4528,7 +4521,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5267,13 +5260,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF988"/>
+  <dimension ref="A1:AF992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE50" sqref="AE50"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5306,7 +5299,7 @@
     <col min="26" max="26" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="9.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="0.875" style="103" customWidth="1"/>
+    <col min="29" max="29" width="0.875" style="98" customWidth="1"/>
     <col min="30" max="30" width="18.5" style="19" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="65" style="19" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.875" style="19" customWidth="1"/>
@@ -5315,517 +5308,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123" t="s">
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121" t="s">
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121" t="s">
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
       <c r="Z1" s="71"/>
       <c r="AA1" s="71"/>
-      <c r="AB1" s="112" t="s">
+      <c r="AB1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="112" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE1" s="112" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF1" s="112"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE1" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF1" s="117"/>
     </row>
     <row r="2" spans="1:32" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="92" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="92" t="s">
+      <c r="N2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="92" t="s">
+      <c r="O2" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="92" t="s">
+      <c r="P2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="92" t="s">
+      <c r="R2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="92" t="s">
+      <c r="T2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="92" t="s">
+      <c r="U2" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="92" t="s">
+      <c r="V2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="92" t="s">
+      <c r="W2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-    </row>
-    <row r="3" spans="1:32" ht="33.75" thickTop="1">
-      <c r="A3" s="86" t="s">
+      <c r="Y2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+    </row>
+    <row r="3" spans="1:32" ht="17.25" thickTop="1">
+      <c r="A3" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="139" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+    </row>
+    <row r="4" spans="1:32" ht="16.5">
+      <c r="A4" s="125"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+    </row>
+    <row r="5" spans="1:32" ht="16.5">
+      <c r="A5" s="125"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+    </row>
+    <row r="6" spans="1:32" ht="16.5">
+      <c r="A6" s="123"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+    </row>
+    <row r="7" spans="1:32" ht="33">
+      <c r="A7" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="V3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="87" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE3" s="87" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF3" s="87"/>
-    </row>
-    <row r="4" spans="1:32" ht="33">
-      <c r="A4" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="116" t="s">
+      <c r="B7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="72" t="s">
+      <c r="C7" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="V4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE4" s="84" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF4" s="95"/>
-    </row>
-    <row r="5" spans="1:32" ht="33">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="V5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="87" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE5" s="84" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF5" s="95"/>
-    </row>
-    <row r="6" spans="1:32" ht="33">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="V6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="87" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE6" s="84" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF6" s="95"/>
-    </row>
-    <row r="7" spans="1:32" ht="33">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>88</v>
+        <v>127</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>52</v>
@@ -5843,7 +5680,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O7" s="53" t="s">
         <v>44</v>
@@ -5858,13 +5695,13 @@
         <v>44</v>
       </c>
       <c r="S7" s="53" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T7" s="53" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="U7" s="53" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="V7" s="53" t="s">
         <v>44</v>
@@ -5885,42 +5722,34 @@
         <v>44</v>
       </c>
       <c r="AB7" s="70"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE7" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF7" s="95"/>
-    </row>
-    <row r="8" spans="1:32" ht="49.5">
-      <c r="A8" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="90"/>
+    </row>
+    <row r="8" spans="1:32" ht="33">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="56" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>222</v>
+        <v>128</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>44</v>
@@ -5935,13 +5764,13 @@
         <v>44</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>44</v>
+        <v>157</v>
+      </c>
+      <c r="P8" s="53">
+        <v>1</v>
       </c>
       <c r="Q8" s="53" t="s">
         <v>44</v>
@@ -5950,13 +5779,13 @@
         <v>44</v>
       </c>
       <c r="S8" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="U8" s="54" t="s">
-        <v>144</v>
+        <v>60</v>
+      </c>
+      <c r="T8" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="53" t="s">
+        <v>143</v>
       </c>
       <c r="V8" s="53" t="s">
         <v>44</v>
@@ -5977,33 +5806,31 @@
         <v>44</v>
       </c>
       <c r="AB8" s="70"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="87" t="s">
-        <v>394</v>
-      </c>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="86"/>
       <c r="AE8" s="84"/>
-      <c r="AF8" s="95"/>
-    </row>
-    <row r="9" spans="1:32" ht="49.5">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
+      <c r="AF8" s="90"/>
+    </row>
+    <row r="9" spans="1:32" ht="33">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>52</v>
@@ -6021,7 +5848,7 @@
         <v>44</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O9" s="53" t="s">
         <v>44</v>
@@ -6036,13 +5863,13 @@
         <v>44</v>
       </c>
       <c r="S9" s="53" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="T9" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="U9" s="54" t="s">
-        <v>143</v>
+        <v>92</v>
+      </c>
+      <c r="U9" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="V9" s="53" t="s">
         <v>44</v>
@@ -6063,129 +5890,131 @@
         <v>44</v>
       </c>
       <c r="AB9" s="70"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="87" t="s">
-        <v>395</v>
-      </c>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="86"/>
       <c r="AE9" s="84"/>
-      <c r="AF9" s="95"/>
-    </row>
-    <row r="10" spans="1:32" ht="49.5">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="56" t="s">
-        <v>121</v>
-      </c>
+      <c r="AF9" s="90"/>
+    </row>
+    <row r="10" spans="1:32" ht="33">
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="72" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>134</v>
+      <c r="F10" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>388</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="I10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="T10" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="U10" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="V10" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="X10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" s="53" t="s">
+      <c r="J10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="101" t="s">
+        <v>391</v>
+      </c>
+      <c r="V10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="101" t="s">
         <v>44</v>
       </c>
       <c r="Z10" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="87" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="95"/>
+      <c r="AA10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
     </row>
     <row r="11" spans="1:32" ht="33">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="56" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="E11" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>220</v>
+        <v>392</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="J11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="N11" s="53" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="O11" s="53" t="s">
         <v>44</v>
@@ -6200,13 +6029,13 @@
         <v>44</v>
       </c>
       <c r="S11" s="53" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="T11" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="U11" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="V11" s="53" t="s">
         <v>44</v>
@@ -6227,36 +6056,38 @@
         <v>44</v>
       </c>
       <c r="AB11" s="70"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="87" t="s">
-        <v>397</v>
-      </c>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="86"/>
       <c r="AE11" s="84"/>
-      <c r="AF11" s="95"/>
+      <c r="AF11" s="90"/>
     </row>
     <row r="12" spans="1:32" ht="49.5">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>76</v>
+      </c>
       <c r="C12" s="56" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>226</v>
+        <v>129</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>219</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>44</v>
@@ -6270,8 +6101,8 @@
       <c r="M12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="54" t="s">
-        <v>106</v>
+      <c r="N12" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="O12" s="53" t="s">
         <v>44</v>
@@ -6286,19 +6117,19 @@
         <v>44</v>
       </c>
       <c r="S12" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>227</v>
+        <v>62</v>
+      </c>
+      <c r="T12" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="U12" s="54" t="s">
         <v>141</v>
       </c>
       <c r="V12" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="W12" s="53">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="X12" s="53" t="s">
         <v>44</v>
@@ -6313,36 +6144,34 @@
         <v>44</v>
       </c>
       <c r="AB12" s="70"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="87" t="s">
-        <v>398</v>
-      </c>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="86"/>
       <c r="AE12" s="84"/>
-      <c r="AF12" s="95"/>
-    </row>
-    <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
+      <c r="AF12" s="90"/>
+    </row>
+    <row r="13" spans="1:32" ht="49.5">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="56" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="53" t="s">
-        <v>107</v>
+      <c r="F13" s="54" t="s">
+        <v>209</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>227</v>
+        <v>130</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>220</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>44</v>
@@ -6357,29 +6186,33 @@
         <v>44</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="O13" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
+        <v>44</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="S13" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="U13" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="U13" s="54" t="s">
         <v>140</v>
       </c>
       <c r="V13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="58" t="s">
+      <c r="W13" s="53" t="s">
         <v>44</v>
       </c>
       <c r="X13" s="53" t="s">
@@ -6395,33 +6228,31 @@
         <v>44</v>
       </c>
       <c r="AB13" s="70"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="87" t="s">
-        <v>399</v>
-      </c>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="86"/>
       <c r="AE13" s="84"/>
-      <c r="AF13" s="95"/>
-    </row>
-    <row r="14" spans="1:32" ht="33">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
+      <c r="AF13" s="90"/>
+    </row>
+    <row r="14" spans="1:32" ht="49.5">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="56" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E14" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>226</v>
+        <v>131</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>221</v>
       </c>
       <c r="I14" s="53" t="s">
         <v>52</v>
@@ -6439,7 +6270,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="53" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="O14" s="53" t="s">
         <v>44</v>
@@ -6454,19 +6285,19 @@
         <v>44</v>
       </c>
       <c r="S14" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>139</v>
+        <v>90</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="U14" s="54" t="s">
+        <v>236</v>
       </c>
       <c r="V14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="58" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="W14" s="53" t="s">
+        <v>199</v>
       </c>
       <c r="X14" s="53" t="s">
         <v>44</v>
@@ -6481,51 +6312,41 @@
         <v>44</v>
       </c>
       <c r="AB14" s="70"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="87" t="s">
-        <v>400</v>
-      </c>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="86"/>
       <c r="AE14" s="84"/>
-      <c r="AF14" s="95"/>
+      <c r="AF14" s="90"/>
     </row>
     <row r="15" spans="1:32" ht="33">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="56" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>44</v>
-      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
       <c r="N15" s="53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O15" s="53" t="s">
         <v>44</v>
@@ -6540,18 +6361,18 @@
         <v>44</v>
       </c>
       <c r="S15" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="U15" s="53" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="T15" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" s="54" t="s">
+        <v>139</v>
       </c>
       <c r="V15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="58" t="s">
+      <c r="W15" s="53" t="s">
         <v>44</v>
       </c>
       <c r="X15" s="53" t="s">
@@ -6567,36 +6388,34 @@
         <v>44</v>
       </c>
       <c r="AB15" s="70"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="87" t="s">
-        <v>401</v>
-      </c>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="86"/>
       <c r="AE15" s="84"/>
-      <c r="AF15" s="95"/>
-    </row>
-    <row r="16" spans="1:32" ht="66">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
+      <c r="AF15" s="90"/>
+    </row>
+    <row r="16" spans="1:32" ht="49.5">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="56" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>223</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>44</v>
@@ -6611,7 +6430,7 @@
         <v>44</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>44</v>
@@ -6626,19 +6445,19 @@
         <v>44</v>
       </c>
       <c r="S16" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="U16" s="53" t="s">
-        <v>151</v>
+        <v>102</v>
+      </c>
+      <c r="T16" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="U16" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="V16" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W16" s="58" t="s">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="W16" s="53">
+        <v>1</v>
       </c>
       <c r="X16" s="53" t="s">
         <v>44</v>
@@ -6653,36 +6472,34 @@
         <v>44</v>
       </c>
       <c r="AB16" s="70"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="87" t="s">
-        <v>402</v>
-      </c>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="86"/>
       <c r="AE16" s="84"/>
-      <c r="AF16" s="95"/>
-    </row>
-    <row r="17" spans="1:32" ht="33">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
+      <c r="AF16" s="90"/>
+    </row>
+    <row r="17" spans="1:32" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="56" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>230</v>
+        <v>132</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>224</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>44</v>
@@ -6697,28 +6514,24 @@
         <v>44</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="O17" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>44</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P17" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
       <c r="S17" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" s="54" t="s">
-        <v>238</v>
+        <v>95</v>
+      </c>
+      <c r="T17" s="53" t="s">
+        <v>223</v>
       </c>
       <c r="U17" s="53" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="V17" s="53" t="s">
         <v>44</v>
@@ -6739,40 +6552,34 @@
         <v>44</v>
       </c>
       <c r="AB17" s="70"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="87" t="s">
-        <v>403</v>
-      </c>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="86"/>
       <c r="AE17" s="84"/>
-      <c r="AF17" s="95"/>
+      <c r="AF17" s="90"/>
     </row>
     <row r="18" spans="1:32" ht="33">
-      <c r="A18" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>166</v>
-      </c>
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="56" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="E18" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="54" t="s">
-        <v>219</v>
+      <c r="F18" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>231</v>
+        <v>133</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>223</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>44</v>
@@ -6787,7 +6594,7 @@
         <v>44</v>
       </c>
       <c r="N18" s="53" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="O18" s="53" t="s">
         <v>44</v>
@@ -6808,13 +6615,13 @@
         <v>231</v>
       </c>
       <c r="U18" s="53" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="V18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="W18" s="58">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="W18" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="X18" s="53" t="s">
         <v>44</v>
@@ -6829,37 +6636,31 @@
         <v>44</v>
       </c>
       <c r="AB18" s="70"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="87" t="s">
-        <v>404</v>
-      </c>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="86"/>
       <c r="AE18" s="84"/>
-      <c r="AF18" s="95"/>
+      <c r="AF18" s="90"/>
     </row>
     <row r="19" spans="1:32" ht="33">
-      <c r="A19" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>168</v>
-      </c>
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="56" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>44</v>
+        <v>212</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>225</v>
       </c>
       <c r="I19" s="53" t="s">
         <v>52</v>
@@ -6877,7 +6678,7 @@
         <v>44</v>
       </c>
       <c r="N19" s="53" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="O19" s="53" t="s">
         <v>44</v>
@@ -6892,19 +6693,19 @@
         <v>44</v>
       </c>
       <c r="S19" s="53" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="V19" s="53" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="W19" s="58" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X19" s="53" t="s">
         <v>44</v>
@@ -6919,33 +6720,31 @@
         <v>44</v>
       </c>
       <c r="AB19" s="70"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="87" t="s">
-        <v>406</v>
-      </c>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="86"/>
       <c r="AE19" s="84"/>
-      <c r="AF19" s="95"/>
-    </row>
-    <row r="20" spans="1:32" ht="33">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
+      <c r="AF19" s="90"/>
+    </row>
+    <row r="20" spans="1:32" ht="66">
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="56" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="E20" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>52</v>
@@ -6963,7 +6762,7 @@
         <v>44</v>
       </c>
       <c r="N20" s="54" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="O20" s="53" t="s">
         <v>44</v>
@@ -6978,19 +6777,19 @@
         <v>44</v>
       </c>
       <c r="S20" s="53" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="T20" s="54" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="W20" s="58" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X20" s="53" t="s">
         <v>44</v>
@@ -7005,1700 +6804,1668 @@
         <v>44</v>
       </c>
       <c r="AB20" s="70"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="87" t="s">
-        <v>407</v>
-      </c>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="86"/>
       <c r="AE20" s="84"/>
-      <c r="AF20" s="95"/>
-    </row>
-    <row r="21" spans="1:32" ht="49.5">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
+      <c r="AF20" s="90"/>
+    </row>
+    <row r="21" spans="1:32" ht="33">
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="56" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="E21" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="U21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="V21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="90"/>
+    </row>
+    <row r="22" spans="1:32" ht="33">
+      <c r="A22" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" s="53" t="s">
+      <c r="G22" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="U22" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="W22" s="58">
+        <v>1</v>
+      </c>
+      <c r="X22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="90"/>
+    </row>
+    <row r="23" spans="1:32" ht="33">
+      <c r="A23" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="T23" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="U23" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="V23" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="W23" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="90"/>
+    </row>
+    <row r="24" spans="1:32" ht="33">
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="T24" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="U24" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V24" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="W24" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="90"/>
+    </row>
+    <row r="25" spans="1:32" ht="49.5">
+      <c r="A25" s="111"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="T25" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="U25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="W25" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="X25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="90"/>
+    </row>
+    <row r="26" spans="1:32" ht="49.5">
+      <c r="A26" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="T26" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="U26" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="V26" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="W26" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="X26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+    </row>
+    <row r="27" spans="1:32" ht="49.5">
+      <c r="A27" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="K27" s="60">
+        <v>1</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="O27" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="P27" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="U27" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="V27" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W27" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X27" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y27" s="60">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="89"/>
+    </row>
+    <row r="28" spans="1:32" ht="33">
+      <c r="A28" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="O28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="T28" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="V28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="X28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="91"/>
+    </row>
+    <row r="29" spans="1:32" ht="49.5" customHeight="1">
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="T29" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="U29" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="V29" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="W29" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="X29" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y29" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="91"/>
+    </row>
+    <row r="30" spans="1:32" ht="33">
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="P30" s="76">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="V30" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="W30" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="X30" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y30" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="91"/>
+    </row>
+    <row r="31" spans="1:32" ht="33">
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="P31" s="76">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="V31" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="W31" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="X31" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y31" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB31" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="85"/>
+      <c r="AF31" s="91"/>
+    </row>
+    <row r="32" spans="1:32" ht="33">
+      <c r="A32" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="P32" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="T32" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="U32" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="V32" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W32" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X32" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y32" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="89"/>
+    </row>
+    <row r="33" spans="1:32" ht="33">
+      <c r="A33" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="O33" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="U33" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="V33" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W33" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y33" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="89"/>
+    </row>
+    <row r="34" spans="1:32" ht="33">
+      <c r="A34" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="I21" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="P21" s="53" t="s">
+      <c r="I34" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="O34" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="P34" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="T34" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="U34" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="V34" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W34" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X34" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="U21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="W21" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="X21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA21" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="87" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="95"/>
-    </row>
-    <row r="22" spans="1:32" ht="49.5">
-      <c r="A22" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="75" t="s">
+      <c r="Y34" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="89"/>
+    </row>
+    <row r="35" spans="1:32" ht="33">
+      <c r="A35" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="P35" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="T35" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="U35" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="V35" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W35" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X35" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="89"/>
+    </row>
+    <row r="36" spans="1:32" ht="49.5">
+      <c r="A36" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" s="114" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="58" t="s">
+      <c r="F36" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="T36" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="U36" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="V36" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W36" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="89"/>
+    </row>
+    <row r="37" spans="1:32" ht="33">
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T37" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="U37" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="V37" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W37" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="100"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="89"/>
+    </row>
+    <row r="38" spans="1:32" ht="33">
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="I38" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="U22" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="V22" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="W22" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="X22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA22" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="87" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-    </row>
-    <row r="23" spans="1:32" ht="49.5">
-      <c r="A23" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="K23" s="60">
-        <v>1</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="O23" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="P23" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="T23" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="U23" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V23" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W23" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X23" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y23" s="60">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="81" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="94"/>
-    </row>
-    <row r="24" spans="1:32" ht="33">
-      <c r="A24" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="117" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>422</v>
-      </c>
-      <c r="H24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="O24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T24" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="U24" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="V24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="X24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="76" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="96"/>
-    </row>
-    <row r="25" spans="1:32" ht="49.5" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="P25" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="U25" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X25" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y25" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB25" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="76" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="96"/>
-    </row>
-    <row r="26" spans="1:32" ht="33">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="76" t="s">
+      <c r="J38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="O38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T38" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="U38" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="V38" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W38" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="O26" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" s="76">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="T26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U26" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="V26" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="W26" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X26" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y26" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB26" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="96"/>
-    </row>
-    <row r="27" spans="1:32" ht="33">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="O27" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="P27" s="76">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="T27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U27" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="V27" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="W27" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X27" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y27" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="96"/>
-    </row>
-    <row r="28" spans="1:32" ht="33">
-      <c r="A28" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="O28" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="P28" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S28" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="T28" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="U28" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="V28" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W28" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X28" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y28" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="94"/>
-    </row>
-    <row r="29" spans="1:32" ht="33">
-      <c r="A29" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="O29" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="P29" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T29" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U29" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="V29" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W29" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X29" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y29" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="100"/>
-      <c r="AD29" s="94" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="94"/>
-    </row>
-    <row r="30" spans="1:32" ht="33">
-      <c r="A30" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="O30" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="P30" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="T30" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="U30" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="V30" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W30" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X30" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y30" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="94"/>
-    </row>
-    <row r="31" spans="1:32" ht="33">
-      <c r="A31" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="O31" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="P31" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T31" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U31" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="V31" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W31" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X31" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y31" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="94" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE31" s="83"/>
-      <c r="AF31" s="94"/>
-    </row>
-    <row r="32" spans="1:32" ht="49.5">
-      <c r="A32" s="118" t="s">
-        <v>343</v>
-      </c>
-      <c r="B32" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="O32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="T32" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="U32" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="V32" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W32" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="94"/>
-    </row>
-    <row r="33" spans="1:32" ht="33">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="O33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T33" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="U33" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="V33" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W33" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="94" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="94"/>
-    </row>
-    <row r="34" spans="1:32" ht="33">
-      <c r="A34" s="119"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="O34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T34" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="U34" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="V34" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W34" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="94" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="94"/>
-    </row>
-    <row r="35" spans="1:32" ht="49.5">
-      <c r="A35" s="120"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="I35" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="O35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T35" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U35" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V35" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W35" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X35" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y35" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z35" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA35" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="94" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="94"/>
-    </row>
-    <row r="36" spans="1:32" ht="33">
-      <c r="A36" s="116" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="O36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="T36" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="U36" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="V36" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W36" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="100"/>
-      <c r="AD36" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="95"/>
-    </row>
-    <row r="37" spans="1:32" ht="33">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="O37" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="P37" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="T37" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="U37" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="V37" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W37" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="95"/>
-    </row>
-    <row r="38" spans="1:32" ht="33">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="O38" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="P38" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="T38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="V38" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W38" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB38" s="70"/>
-      <c r="AC38" s="100"/>
-      <c r="AD38" s="70" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE38" s="84"/>
-      <c r="AF38" s="95"/>
-    </row>
-    <row r="39" spans="1:32" ht="33">
+      <c r="X38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="100"/>
+      <c r="AE38" s="83"/>
+      <c r="AF38" s="89"/>
+    </row>
+    <row r="39" spans="1:32" ht="49.5">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
-      <c r="C39" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="55" t="s">
+      <c r="C39" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="56" t="s">
+      <c r="F39" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="O39" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="P39" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="T39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="V39" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W39" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA39" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="100"/>
-      <c r="AD39" s="70" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="95"/>
+      <c r="J39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="T39" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="U39" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="V39" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W39" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X39" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y39" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z39" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA39" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="89"/>
     </row>
     <row r="40" spans="1:32" ht="33">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
+      <c r="A40" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="112" t="s">
+        <v>178</v>
+      </c>
       <c r="C40" s="56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="E40" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>269</v>
+      <c r="F40" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>297</v>
       </c>
       <c r="H40" s="56" t="s">
         <v>44</v>
@@ -8719,718 +8486,904 @@
         <v>44</v>
       </c>
       <c r="N40" s="56" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="O40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="T40" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="U40" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="V40" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="W40" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="X40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="95"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="84"/>
+      <c r="AF40" s="90"/>
+    </row>
+    <row r="41" spans="1:32" ht="33">
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="O41" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P41" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S41" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="T41" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="U41" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="V41" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="W41" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="X41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="101"/>
+      <c r="AE41" s="84"/>
+      <c r="AF41" s="90"/>
+    </row>
+    <row r="42" spans="1:32" ht="33">
+      <c r="A42" s="112"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P42" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="V42" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="W42" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="X42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="84"/>
+      <c r="AF42" s="90"/>
+    </row>
+    <row r="43" spans="1:32" ht="33">
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="O43" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P43" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="V43" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="W43" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="X43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="101"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="90"/>
+    </row>
+    <row r="44" spans="1:32" ht="33">
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P44" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S44" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U44" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="V44" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="W44" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="X44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="101"/>
+      <c r="AE44" s="84"/>
+      <c r="AF44" s="90"/>
+    </row>
+    <row r="45" spans="1:32" ht="33">
+      <c r="A45" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="P40" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="56" t="s">
+      <c r="C45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="O45" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="P45" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S45" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="T45" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="U45" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="V45" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W45" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X45" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y45" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="89"/>
+    </row>
+    <row r="46" spans="1:32" ht="33">
+      <c r="A46" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="O46" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="P46" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="T46" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="U46" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="V46" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W46" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X46" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y46" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="83"/>
+      <c r="AF46" s="89"/>
+    </row>
+    <row r="47" spans="1:32" ht="33">
+      <c r="A47" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="P47" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S47" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="T47" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="U47" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="V47" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W47" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X47" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y47" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="100"/>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="89"/>
+    </row>
+    <row r="48" spans="1:32" ht="49.5">
+      <c r="A48" s="110" t="s">
+        <v>357</v>
+      </c>
+      <c r="B48" s="110" t="s">
+        <v>364</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="O48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S48" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="T48" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="U48" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="V48" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W48" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="100"/>
+      <c r="AE48" s="83"/>
+      <c r="AF48" s="89"/>
+    </row>
+    <row r="49" spans="1:32" ht="33">
+      <c r="A49" s="110"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="O49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="T40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="V40" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W40" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA40" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="70" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE40" s="84"/>
-      <c r="AF40" s="95"/>
-    </row>
-    <row r="41" spans="1:32" ht="33">
-      <c r="A41" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="H41" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="O41" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="P41" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T41" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U41" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V41" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W41" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X41" s="60" t="s">
+      <c r="T49" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="U49" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="V49" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W49" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB49" s="81"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="100"/>
+      <c r="AE49" s="83"/>
+      <c r="AF49" s="89"/>
+    </row>
+    <row r="50" spans="1:32" ht="33">
+      <c r="A50" s="110"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S50" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="T50" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="U50" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="Y41" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="100"/>
-      <c r="AD41" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="94"/>
-    </row>
-    <row r="42" spans="1:32" ht="33">
-      <c r="A42" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I42" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="O42" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="P42" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T42" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U42" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V42" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W42" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X42" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y42" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB42" s="81"/>
-      <c r="AC42" s="100"/>
-      <c r="AD42" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE42" s="83"/>
-      <c r="AF42" s="94"/>
-    </row>
-    <row r="43" spans="1:32" ht="33">
-      <c r="A43" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="O43" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="P43" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S43" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T43" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U43" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V43" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W43" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X43" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y43" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="100"/>
-      <c r="AD43" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE43" s="83"/>
-      <c r="AF43" s="94"/>
-    </row>
-    <row r="44" spans="1:32" ht="49.5">
-      <c r="A44" s="114" t="s">
-        <v>360</v>
-      </c>
-      <c r="B44" s="114" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>364</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="O44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S44" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T44" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U44" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="V44" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W44" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="100"/>
-      <c r="AD44" s="81" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE44" s="83"/>
-      <c r="AF44" s="94"/>
-    </row>
-    <row r="45" spans="1:32" ht="33">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="O45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="U45" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="V45" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W45" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="100"/>
-      <c r="AD45" s="81" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE45" s="83"/>
-      <c r="AF45" s="94"/>
-    </row>
-    <row r="46" spans="1:32" ht="33">
-      <c r="A46" s="114"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="I46" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="O46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S46" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T46" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U46" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V46" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W46" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X46" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y46" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="81" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE46" s="83"/>
-      <c r="AF46" s="94"/>
-    </row>
-    <row r="47" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="102"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-    </row>
-    <row r="48" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="102"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-    </row>
-    <row r="49" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="102"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-    </row>
-    <row r="50" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="51"/>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="102"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="25"/>
+      <c r="V50" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="W50" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="X50" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y50" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB50" s="81"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="83"/>
+      <c r="AF50" s="89"/>
     </row>
     <row r="51" spans="1:32" ht="16.5" customHeight="1">
       <c r="A51" s="21"/>
@@ -9461,7 +9414,7 @@
       <c r="Z51" s="51"/>
       <c r="AA51" s="51"/>
       <c r="AB51" s="25"/>
-      <c r="AC51" s="102"/>
+      <c r="AC51" s="97"/>
       <c r="AD51" s="25"/>
       <c r="AE51" s="25"/>
       <c r="AF51" s="25"/>
@@ -9495,7 +9448,7 @@
       <c r="Z52" s="51"/>
       <c r="AA52" s="51"/>
       <c r="AB52" s="25"/>
-      <c r="AC52" s="102"/>
+      <c r="AC52" s="97"/>
       <c r="AD52" s="25"/>
       <c r="AE52" s="25"/>
       <c r="AF52" s="25"/>
@@ -9529,7 +9482,7 @@
       <c r="Z53" s="51"/>
       <c r="AA53" s="51"/>
       <c r="AB53" s="25"/>
-      <c r="AC53" s="102"/>
+      <c r="AC53" s="97"/>
       <c r="AD53" s="25"/>
       <c r="AE53" s="25"/>
       <c r="AF53" s="25"/>
@@ -9563,7 +9516,7 @@
       <c r="Z54" s="51"/>
       <c r="AA54" s="51"/>
       <c r="AB54" s="25"/>
-      <c r="AC54" s="102"/>
+      <c r="AC54" s="97"/>
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
       <c r="AF54" s="25"/>
@@ -9597,7 +9550,7 @@
       <c r="Z55" s="51"/>
       <c r="AA55" s="51"/>
       <c r="AB55" s="25"/>
-      <c r="AC55" s="102"/>
+      <c r="AC55" s="97"/>
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
       <c r="AF55" s="25"/>
@@ -9631,7 +9584,7 @@
       <c r="Z56" s="51"/>
       <c r="AA56" s="51"/>
       <c r="AB56" s="25"/>
-      <c r="AC56" s="102"/>
+      <c r="AC56" s="97"/>
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
       <c r="AF56" s="25"/>
@@ -9665,7 +9618,7 @@
       <c r="Z57" s="51"/>
       <c r="AA57" s="51"/>
       <c r="AB57" s="25"/>
-      <c r="AC57" s="102"/>
+      <c r="AC57" s="97"/>
       <c r="AD57" s="25"/>
       <c r="AE57" s="25"/>
       <c r="AF57" s="25"/>
@@ -9699,7 +9652,7 @@
       <c r="Z58" s="51"/>
       <c r="AA58" s="51"/>
       <c r="AB58" s="25"/>
-      <c r="AC58" s="102"/>
+      <c r="AC58" s="97"/>
       <c r="AD58" s="25"/>
       <c r="AE58" s="25"/>
       <c r="AF58" s="25"/>
@@ -9733,7 +9686,7 @@
       <c r="Z59" s="51"/>
       <c r="AA59" s="51"/>
       <c r="AB59" s="25"/>
-      <c r="AC59" s="102"/>
+      <c r="AC59" s="97"/>
       <c r="AD59" s="25"/>
       <c r="AE59" s="25"/>
       <c r="AF59" s="25"/>
@@ -9767,7 +9720,7 @@
       <c r="Z60" s="51"/>
       <c r="AA60" s="51"/>
       <c r="AB60" s="25"/>
-      <c r="AC60" s="102"/>
+      <c r="AC60" s="97"/>
       <c r="AD60" s="25"/>
       <c r="AE60" s="25"/>
       <c r="AF60" s="25"/>
@@ -9801,7 +9754,7 @@
       <c r="Z61" s="51"/>
       <c r="AA61" s="51"/>
       <c r="AB61" s="25"/>
-      <c r="AC61" s="102"/>
+      <c r="AC61" s="97"/>
       <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
       <c r="AF61" s="25"/>
@@ -9835,7 +9788,7 @@
       <c r="Z62" s="51"/>
       <c r="AA62" s="51"/>
       <c r="AB62" s="25"/>
-      <c r="AC62" s="102"/>
+      <c r="AC62" s="97"/>
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
       <c r="AF62" s="25"/>
@@ -9869,7 +9822,7 @@
       <c r="Z63" s="51"/>
       <c r="AA63" s="51"/>
       <c r="AB63" s="25"/>
-      <c r="AC63" s="102"/>
+      <c r="AC63" s="97"/>
       <c r="AD63" s="25"/>
       <c r="AE63" s="25"/>
       <c r="AF63" s="25"/>
@@ -9903,7 +9856,7 @@
       <c r="Z64" s="51"/>
       <c r="AA64" s="51"/>
       <c r="AB64" s="25"/>
-      <c r="AC64" s="102"/>
+      <c r="AC64" s="97"/>
       <c r="AD64" s="25"/>
       <c r="AE64" s="25"/>
       <c r="AF64" s="25"/>
@@ -9937,7 +9890,7 @@
       <c r="Z65" s="51"/>
       <c r="AA65" s="51"/>
       <c r="AB65" s="25"/>
-      <c r="AC65" s="102"/>
+      <c r="AC65" s="97"/>
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
       <c r="AF65" s="25"/>
@@ -9971,7 +9924,7 @@
       <c r="Z66" s="51"/>
       <c r="AA66" s="51"/>
       <c r="AB66" s="25"/>
-      <c r="AC66" s="102"/>
+      <c r="AC66" s="97"/>
       <c r="AD66" s="25"/>
       <c r="AE66" s="25"/>
       <c r="AF66" s="25"/>
@@ -10005,7 +9958,7 @@
       <c r="Z67" s="51"/>
       <c r="AA67" s="51"/>
       <c r="AB67" s="25"/>
-      <c r="AC67" s="102"/>
+      <c r="AC67" s="97"/>
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
       <c r="AF67" s="25"/>
@@ -10039,7 +9992,7 @@
       <c r="Z68" s="51"/>
       <c r="AA68" s="51"/>
       <c r="AB68" s="25"/>
-      <c r="AC68" s="102"/>
+      <c r="AC68" s="97"/>
       <c r="AD68" s="25"/>
       <c r="AE68" s="25"/>
       <c r="AF68" s="25"/>
@@ -10073,7 +10026,7 @@
       <c r="Z69" s="51"/>
       <c r="AA69" s="51"/>
       <c r="AB69" s="25"/>
-      <c r="AC69" s="102"/>
+      <c r="AC69" s="97"/>
       <c r="AD69" s="25"/>
       <c r="AE69" s="25"/>
       <c r="AF69" s="25"/>
@@ -10107,7 +10060,7 @@
       <c r="Z70" s="51"/>
       <c r="AA70" s="51"/>
       <c r="AB70" s="25"/>
-      <c r="AC70" s="102"/>
+      <c r="AC70" s="97"/>
       <c r="AD70" s="25"/>
       <c r="AE70" s="25"/>
       <c r="AF70" s="25"/>
@@ -10141,7 +10094,7 @@
       <c r="Z71" s="51"/>
       <c r="AA71" s="51"/>
       <c r="AB71" s="25"/>
-      <c r="AC71" s="102"/>
+      <c r="AC71" s="97"/>
       <c r="AD71" s="25"/>
       <c r="AE71" s="25"/>
       <c r="AF71" s="25"/>
@@ -10175,7 +10128,7 @@
       <c r="Z72" s="51"/>
       <c r="AA72" s="51"/>
       <c r="AB72" s="25"/>
-      <c r="AC72" s="102"/>
+      <c r="AC72" s="97"/>
       <c r="AD72" s="25"/>
       <c r="AE72" s="25"/>
       <c r="AF72" s="25"/>
@@ -10209,7 +10162,7 @@
       <c r="Z73" s="51"/>
       <c r="AA73" s="51"/>
       <c r="AB73" s="25"/>
-      <c r="AC73" s="102"/>
+      <c r="AC73" s="97"/>
       <c r="AD73" s="25"/>
       <c r="AE73" s="25"/>
       <c r="AF73" s="25"/>
@@ -10243,7 +10196,7 @@
       <c r="Z74" s="51"/>
       <c r="AA74" s="51"/>
       <c r="AB74" s="25"/>
-      <c r="AC74" s="102"/>
+      <c r="AC74" s="97"/>
       <c r="AD74" s="25"/>
       <c r="AE74" s="25"/>
       <c r="AF74" s="25"/>
@@ -10277,7 +10230,7 @@
       <c r="Z75" s="51"/>
       <c r="AA75" s="51"/>
       <c r="AB75" s="25"/>
-      <c r="AC75" s="102"/>
+      <c r="AC75" s="97"/>
       <c r="AD75" s="25"/>
       <c r="AE75" s="25"/>
       <c r="AF75" s="25"/>
@@ -10311,7 +10264,7 @@
       <c r="Z76" s="51"/>
       <c r="AA76" s="51"/>
       <c r="AB76" s="25"/>
-      <c r="AC76" s="102"/>
+      <c r="AC76" s="97"/>
       <c r="AD76" s="25"/>
       <c r="AE76" s="25"/>
       <c r="AF76" s="25"/>
@@ -10345,7 +10298,7 @@
       <c r="Z77" s="51"/>
       <c r="AA77" s="51"/>
       <c r="AB77" s="25"/>
-      <c r="AC77" s="102"/>
+      <c r="AC77" s="97"/>
       <c r="AD77" s="25"/>
       <c r="AE77" s="25"/>
       <c r="AF77" s="25"/>
@@ -10379,7 +10332,7 @@
       <c r="Z78" s="51"/>
       <c r="AA78" s="51"/>
       <c r="AB78" s="25"/>
-      <c r="AC78" s="102"/>
+      <c r="AC78" s="97"/>
       <c r="AD78" s="25"/>
       <c r="AE78" s="25"/>
       <c r="AF78" s="25"/>
@@ -10413,7 +10366,7 @@
       <c r="Z79" s="51"/>
       <c r="AA79" s="51"/>
       <c r="AB79" s="25"/>
-      <c r="AC79" s="102"/>
+      <c r="AC79" s="97"/>
       <c r="AD79" s="25"/>
       <c r="AE79" s="25"/>
       <c r="AF79" s="25"/>
@@ -10447,7 +10400,7 @@
       <c r="Z80" s="51"/>
       <c r="AA80" s="51"/>
       <c r="AB80" s="25"/>
-      <c r="AC80" s="102"/>
+      <c r="AC80" s="97"/>
       <c r="AD80" s="25"/>
       <c r="AE80" s="25"/>
       <c r="AF80" s="25"/>
@@ -10481,7 +10434,7 @@
       <c r="Z81" s="51"/>
       <c r="AA81" s="51"/>
       <c r="AB81" s="25"/>
-      <c r="AC81" s="102"/>
+      <c r="AC81" s="97"/>
       <c r="AD81" s="25"/>
       <c r="AE81" s="25"/>
       <c r="AF81" s="25"/>
@@ -10515,7 +10468,7 @@
       <c r="Z82" s="51"/>
       <c r="AA82" s="51"/>
       <c r="AB82" s="25"/>
-      <c r="AC82" s="102"/>
+      <c r="AC82" s="97"/>
       <c r="AD82" s="25"/>
       <c r="AE82" s="25"/>
       <c r="AF82" s="25"/>
@@ -10549,7 +10502,7 @@
       <c r="Z83" s="51"/>
       <c r="AA83" s="51"/>
       <c r="AB83" s="25"/>
-      <c r="AC83" s="102"/>
+      <c r="AC83" s="97"/>
       <c r="AD83" s="25"/>
       <c r="AE83" s="25"/>
       <c r="AF83" s="25"/>
@@ -10583,7 +10536,7 @@
       <c r="Z84" s="51"/>
       <c r="AA84" s="51"/>
       <c r="AB84" s="25"/>
-      <c r="AC84" s="102"/>
+      <c r="AC84" s="97"/>
       <c r="AD84" s="25"/>
       <c r="AE84" s="25"/>
       <c r="AF84" s="25"/>
@@ -10617,7 +10570,7 @@
       <c r="Z85" s="51"/>
       <c r="AA85" s="51"/>
       <c r="AB85" s="25"/>
-      <c r="AC85" s="102"/>
+      <c r="AC85" s="97"/>
       <c r="AD85" s="25"/>
       <c r="AE85" s="25"/>
       <c r="AF85" s="25"/>
@@ -10651,7 +10604,7 @@
       <c r="Z86" s="51"/>
       <c r="AA86" s="51"/>
       <c r="AB86" s="25"/>
-      <c r="AC86" s="102"/>
+      <c r="AC86" s="97"/>
       <c r="AD86" s="25"/>
       <c r="AE86" s="25"/>
       <c r="AF86" s="25"/>
@@ -10685,7 +10638,7 @@
       <c r="Z87" s="51"/>
       <c r="AA87" s="51"/>
       <c r="AB87" s="25"/>
-      <c r="AC87" s="102"/>
+      <c r="AC87" s="97"/>
       <c r="AD87" s="25"/>
       <c r="AE87" s="25"/>
       <c r="AF87" s="25"/>
@@ -10719,7 +10672,7 @@
       <c r="Z88" s="51"/>
       <c r="AA88" s="51"/>
       <c r="AB88" s="25"/>
-      <c r="AC88" s="102"/>
+      <c r="AC88" s="97"/>
       <c r="AD88" s="25"/>
       <c r="AE88" s="25"/>
       <c r="AF88" s="25"/>
@@ -10753,7 +10706,7 @@
       <c r="Z89" s="51"/>
       <c r="AA89" s="51"/>
       <c r="AB89" s="25"/>
-      <c r="AC89" s="102"/>
+      <c r="AC89" s="97"/>
       <c r="AD89" s="25"/>
       <c r="AE89" s="25"/>
       <c r="AF89" s="25"/>
@@ -10787,7 +10740,7 @@
       <c r="Z90" s="51"/>
       <c r="AA90" s="51"/>
       <c r="AB90" s="25"/>
-      <c r="AC90" s="102"/>
+      <c r="AC90" s="97"/>
       <c r="AD90" s="25"/>
       <c r="AE90" s="25"/>
       <c r="AF90" s="25"/>
@@ -10821,7 +10774,7 @@
       <c r="Z91" s="51"/>
       <c r="AA91" s="51"/>
       <c r="AB91" s="25"/>
-      <c r="AC91" s="102"/>
+      <c r="AC91" s="97"/>
       <c r="AD91" s="25"/>
       <c r="AE91" s="25"/>
       <c r="AF91" s="25"/>
@@ -10855,7 +10808,7 @@
       <c r="Z92" s="51"/>
       <c r="AA92" s="51"/>
       <c r="AB92" s="25"/>
-      <c r="AC92" s="102"/>
+      <c r="AC92" s="97"/>
       <c r="AD92" s="25"/>
       <c r="AE92" s="25"/>
       <c r="AF92" s="25"/>
@@ -10889,7 +10842,7 @@
       <c r="Z93" s="51"/>
       <c r="AA93" s="51"/>
       <c r="AB93" s="25"/>
-      <c r="AC93" s="102"/>
+      <c r="AC93" s="97"/>
       <c r="AD93" s="25"/>
       <c r="AE93" s="25"/>
       <c r="AF93" s="25"/>
@@ -10923,7 +10876,7 @@
       <c r="Z94" s="51"/>
       <c r="AA94" s="51"/>
       <c r="AB94" s="25"/>
-      <c r="AC94" s="102"/>
+      <c r="AC94" s="97"/>
       <c r="AD94" s="25"/>
       <c r="AE94" s="25"/>
       <c r="AF94" s="25"/>
@@ -10957,7 +10910,7 @@
       <c r="Z95" s="51"/>
       <c r="AA95" s="51"/>
       <c r="AB95" s="25"/>
-      <c r="AC95" s="102"/>
+      <c r="AC95" s="97"/>
       <c r="AD95" s="25"/>
       <c r="AE95" s="25"/>
       <c r="AF95" s="25"/>
@@ -10991,7 +10944,7 @@
       <c r="Z96" s="51"/>
       <c r="AA96" s="51"/>
       <c r="AB96" s="25"/>
-      <c r="AC96" s="102"/>
+      <c r="AC96" s="97"/>
       <c r="AD96" s="25"/>
       <c r="AE96" s="25"/>
       <c r="AF96" s="25"/>
@@ -11025,7 +10978,7 @@
       <c r="Z97" s="51"/>
       <c r="AA97" s="51"/>
       <c r="AB97" s="25"/>
-      <c r="AC97" s="102"/>
+      <c r="AC97" s="97"/>
       <c r="AD97" s="25"/>
       <c r="AE97" s="25"/>
       <c r="AF97" s="25"/>
@@ -11059,7 +11012,7 @@
       <c r="Z98" s="51"/>
       <c r="AA98" s="51"/>
       <c r="AB98" s="25"/>
-      <c r="AC98" s="102"/>
+      <c r="AC98" s="97"/>
       <c r="AD98" s="25"/>
       <c r="AE98" s="25"/>
       <c r="AF98" s="25"/>
@@ -11093,7 +11046,7 @@
       <c r="Z99" s="51"/>
       <c r="AA99" s="51"/>
       <c r="AB99" s="25"/>
-      <c r="AC99" s="102"/>
+      <c r="AC99" s="97"/>
       <c r="AD99" s="25"/>
       <c r="AE99" s="25"/>
       <c r="AF99" s="25"/>
@@ -11127,7 +11080,7 @@
       <c r="Z100" s="51"/>
       <c r="AA100" s="51"/>
       <c r="AB100" s="25"/>
-      <c r="AC100" s="102"/>
+      <c r="AC100" s="97"/>
       <c r="AD100" s="25"/>
       <c r="AE100" s="25"/>
       <c r="AF100" s="25"/>
@@ -11161,7 +11114,7 @@
       <c r="Z101" s="51"/>
       <c r="AA101" s="51"/>
       <c r="AB101" s="25"/>
-      <c r="AC101" s="102"/>
+      <c r="AC101" s="97"/>
       <c r="AD101" s="25"/>
       <c r="AE101" s="25"/>
       <c r="AF101" s="25"/>
@@ -11195,7 +11148,7 @@
       <c r="Z102" s="51"/>
       <c r="AA102" s="51"/>
       <c r="AB102" s="25"/>
-      <c r="AC102" s="102"/>
+      <c r="AC102" s="97"/>
       <c r="AD102" s="25"/>
       <c r="AE102" s="25"/>
       <c r="AF102" s="25"/>
@@ -11229,7 +11182,7 @@
       <c r="Z103" s="51"/>
       <c r="AA103" s="51"/>
       <c r="AB103" s="25"/>
-      <c r="AC103" s="102"/>
+      <c r="AC103" s="97"/>
       <c r="AD103" s="25"/>
       <c r="AE103" s="25"/>
       <c r="AF103" s="25"/>
@@ -11263,7 +11216,7 @@
       <c r="Z104" s="51"/>
       <c r="AA104" s="51"/>
       <c r="AB104" s="25"/>
-      <c r="AC104" s="102"/>
+      <c r="AC104" s="97"/>
       <c r="AD104" s="25"/>
       <c r="AE104" s="25"/>
       <c r="AF104" s="25"/>
@@ -11297,7 +11250,7 @@
       <c r="Z105" s="51"/>
       <c r="AA105" s="51"/>
       <c r="AB105" s="25"/>
-      <c r="AC105" s="102"/>
+      <c r="AC105" s="97"/>
       <c r="AD105" s="25"/>
       <c r="AE105" s="25"/>
       <c r="AF105" s="25"/>
@@ -11306,32 +11259,32 @@
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="48"/>
+      <c r="D106" s="21"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="48"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="48"/>
       <c r="K106" s="48"/>
       <c r="L106" s="48"/>
       <c r="M106" s="48"/>
       <c r="N106" s="24"/>
-      <c r="O106" s="48"/>
-      <c r="P106" s="48"/>
-      <c r="Q106" s="48"/>
-      <c r="R106" s="48"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
       <c r="S106" s="24"/>
-      <c r="T106" s="49"/>
-      <c r="U106" s="49"/>
-      <c r="V106" s="48"/>
-      <c r="W106" s="48"/>
-      <c r="X106" s="48"/>
-      <c r="Y106" s="48"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="47"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
       <c r="Z106" s="51"/>
       <c r="AA106" s="51"/>
       <c r="AB106" s="25"/>
-      <c r="AC106" s="102"/>
+      <c r="AC106" s="97"/>
       <c r="AD106" s="25"/>
       <c r="AE106" s="25"/>
       <c r="AF106" s="25"/>
@@ -11365,7 +11318,7 @@
       <c r="Z107" s="51"/>
       <c r="AA107" s="51"/>
       <c r="AB107" s="25"/>
-      <c r="AC107" s="102"/>
+      <c r="AC107" s="97"/>
       <c r="AD107" s="25"/>
       <c r="AE107" s="25"/>
       <c r="AF107" s="25"/>
@@ -11399,7 +11352,7 @@
       <c r="Z108" s="51"/>
       <c r="AA108" s="51"/>
       <c r="AB108" s="25"/>
-      <c r="AC108" s="102"/>
+      <c r="AC108" s="97"/>
       <c r="AD108" s="25"/>
       <c r="AE108" s="25"/>
       <c r="AF108" s="25"/>
@@ -11433,7 +11386,7 @@
       <c r="Z109" s="51"/>
       <c r="AA109" s="51"/>
       <c r="AB109" s="25"/>
-      <c r="AC109" s="102"/>
+      <c r="AC109" s="97"/>
       <c r="AD109" s="25"/>
       <c r="AE109" s="25"/>
       <c r="AF109" s="25"/>
@@ -11442,32 +11395,32 @@
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
-      <c r="D110" s="21"/>
+      <c r="D110" s="48"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="48"/>
       <c r="J110" s="48"/>
       <c r="K110" s="48"/>
       <c r="L110" s="48"/>
       <c r="M110" s="48"/>
       <c r="N110" s="24"/>
-      <c r="O110" s="21"/>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="21"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
       <c r="S110" s="24"/>
-      <c r="T110" s="21"/>
-      <c r="U110" s="47"/>
-      <c r="V110" s="21"/>
-      <c r="W110" s="21"/>
-      <c r="X110" s="21"/>
-      <c r="Y110" s="21"/>
+      <c r="T110" s="49"/>
+      <c r="U110" s="49"/>
+      <c r="V110" s="48"/>
+      <c r="W110" s="48"/>
+      <c r="X110" s="48"/>
+      <c r="Y110" s="48"/>
       <c r="Z110" s="51"/>
       <c r="AA110" s="51"/>
       <c r="AB110" s="25"/>
-      <c r="AC110" s="102"/>
+      <c r="AC110" s="97"/>
       <c r="AD110" s="25"/>
       <c r="AE110" s="25"/>
       <c r="AF110" s="25"/>
@@ -11501,7 +11454,7 @@
       <c r="Z111" s="51"/>
       <c r="AA111" s="51"/>
       <c r="AB111" s="25"/>
-      <c r="AC111" s="102"/>
+      <c r="AC111" s="97"/>
       <c r="AD111" s="25"/>
       <c r="AE111" s="25"/>
       <c r="AF111" s="25"/>
@@ -11535,7 +11488,7 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="51"/>
       <c r="AB112" s="25"/>
-      <c r="AC112" s="102"/>
+      <c r="AC112" s="97"/>
       <c r="AD112" s="25"/>
       <c r="AE112" s="25"/>
       <c r="AF112" s="25"/>
@@ -11569,7 +11522,7 @@
       <c r="Z113" s="51"/>
       <c r="AA113" s="51"/>
       <c r="AB113" s="25"/>
-      <c r="AC113" s="102"/>
+      <c r="AC113" s="97"/>
       <c r="AD113" s="25"/>
       <c r="AE113" s="25"/>
       <c r="AF113" s="25"/>
@@ -11603,7 +11556,7 @@
       <c r="Z114" s="51"/>
       <c r="AA114" s="51"/>
       <c r="AB114" s="25"/>
-      <c r="AC114" s="102"/>
+      <c r="AC114" s="97"/>
       <c r="AD114" s="25"/>
       <c r="AE114" s="25"/>
       <c r="AF114" s="25"/>
@@ -11637,7 +11590,7 @@
       <c r="Z115" s="51"/>
       <c r="AA115" s="51"/>
       <c r="AB115" s="25"/>
-      <c r="AC115" s="102"/>
+      <c r="AC115" s="97"/>
       <c r="AD115" s="25"/>
       <c r="AE115" s="25"/>
       <c r="AF115" s="25"/>
@@ -11671,7 +11624,7 @@
       <c r="Z116" s="51"/>
       <c r="AA116" s="51"/>
       <c r="AB116" s="25"/>
-      <c r="AC116" s="102"/>
+      <c r="AC116" s="97"/>
       <c r="AD116" s="25"/>
       <c r="AE116" s="25"/>
       <c r="AF116" s="25"/>
@@ -11705,7 +11658,7 @@
       <c r="Z117" s="51"/>
       <c r="AA117" s="51"/>
       <c r="AB117" s="25"/>
-      <c r="AC117" s="102"/>
+      <c r="AC117" s="97"/>
       <c r="AD117" s="25"/>
       <c r="AE117" s="25"/>
       <c r="AF117" s="25"/>
@@ -11739,7 +11692,7 @@
       <c r="Z118" s="51"/>
       <c r="AA118" s="51"/>
       <c r="AB118" s="25"/>
-      <c r="AC118" s="102"/>
+      <c r="AC118" s="97"/>
       <c r="AD118" s="25"/>
       <c r="AE118" s="25"/>
       <c r="AF118" s="25"/>
@@ -11773,7 +11726,7 @@
       <c r="Z119" s="51"/>
       <c r="AA119" s="51"/>
       <c r="AB119" s="25"/>
-      <c r="AC119" s="102"/>
+      <c r="AC119" s="97"/>
       <c r="AD119" s="25"/>
       <c r="AE119" s="25"/>
       <c r="AF119" s="25"/>
@@ -11807,7 +11760,7 @@
       <c r="Z120" s="51"/>
       <c r="AA120" s="51"/>
       <c r="AB120" s="25"/>
-      <c r="AC120" s="102"/>
+      <c r="AC120" s="97"/>
       <c r="AD120" s="25"/>
       <c r="AE120" s="25"/>
       <c r="AF120" s="25"/>
@@ -11841,7 +11794,7 @@
       <c r="Z121" s="51"/>
       <c r="AA121" s="51"/>
       <c r="AB121" s="25"/>
-      <c r="AC121" s="102"/>
+      <c r="AC121" s="97"/>
       <c r="AD121" s="25"/>
       <c r="AE121" s="25"/>
       <c r="AF121" s="25"/>
@@ -11875,7 +11828,7 @@
       <c r="Z122" s="51"/>
       <c r="AA122" s="51"/>
       <c r="AB122" s="25"/>
-      <c r="AC122" s="102"/>
+      <c r="AC122" s="97"/>
       <c r="AD122" s="25"/>
       <c r="AE122" s="25"/>
       <c r="AF122" s="25"/>
@@ -11909,7 +11862,7 @@
       <c r="Z123" s="51"/>
       <c r="AA123" s="51"/>
       <c r="AB123" s="25"/>
-      <c r="AC123" s="102"/>
+      <c r="AC123" s="97"/>
       <c r="AD123" s="25"/>
       <c r="AE123" s="25"/>
       <c r="AF123" s="25"/>
@@ -11943,7 +11896,7 @@
       <c r="Z124" s="51"/>
       <c r="AA124" s="51"/>
       <c r="AB124" s="25"/>
-      <c r="AC124" s="102"/>
+      <c r="AC124" s="97"/>
       <c r="AD124" s="25"/>
       <c r="AE124" s="25"/>
       <c r="AF124" s="25"/>
@@ -11977,7 +11930,7 @@
       <c r="Z125" s="51"/>
       <c r="AA125" s="51"/>
       <c r="AB125" s="25"/>
-      <c r="AC125" s="102"/>
+      <c r="AC125" s="97"/>
       <c r="AD125" s="25"/>
       <c r="AE125" s="25"/>
       <c r="AF125" s="25"/>
@@ -12011,7 +11964,7 @@
       <c r="Z126" s="51"/>
       <c r="AA126" s="51"/>
       <c r="AB126" s="25"/>
-      <c r="AC126" s="102"/>
+      <c r="AC126" s="97"/>
       <c r="AD126" s="25"/>
       <c r="AE126" s="25"/>
       <c r="AF126" s="25"/>
@@ -12045,7 +11998,7 @@
       <c r="Z127" s="51"/>
       <c r="AA127" s="51"/>
       <c r="AB127" s="25"/>
-      <c r="AC127" s="102"/>
+      <c r="AC127" s="97"/>
       <c r="AD127" s="25"/>
       <c r="AE127" s="25"/>
       <c r="AF127" s="25"/>
@@ -12079,7 +12032,7 @@
       <c r="Z128" s="51"/>
       <c r="AA128" s="51"/>
       <c r="AB128" s="25"/>
-      <c r="AC128" s="102"/>
+      <c r="AC128" s="97"/>
       <c r="AD128" s="25"/>
       <c r="AE128" s="25"/>
       <c r="AF128" s="25"/>
@@ -12113,7 +12066,7 @@
       <c r="Z129" s="51"/>
       <c r="AA129" s="51"/>
       <c r="AB129" s="25"/>
-      <c r="AC129" s="102"/>
+      <c r="AC129" s="97"/>
       <c r="AD129" s="25"/>
       <c r="AE129" s="25"/>
       <c r="AF129" s="25"/>
@@ -12147,7 +12100,7 @@
       <c r="Z130" s="51"/>
       <c r="AA130" s="51"/>
       <c r="AB130" s="25"/>
-      <c r="AC130" s="102"/>
+      <c r="AC130" s="97"/>
       <c r="AD130" s="25"/>
       <c r="AE130" s="25"/>
       <c r="AF130" s="25"/>
@@ -12181,7 +12134,7 @@
       <c r="Z131" s="51"/>
       <c r="AA131" s="51"/>
       <c r="AB131" s="25"/>
-      <c r="AC131" s="102"/>
+      <c r="AC131" s="97"/>
       <c r="AD131" s="25"/>
       <c r="AE131" s="25"/>
       <c r="AF131" s="25"/>
@@ -12215,7 +12168,7 @@
       <c r="Z132" s="51"/>
       <c r="AA132" s="51"/>
       <c r="AB132" s="25"/>
-      <c r="AC132" s="102"/>
+      <c r="AC132" s="97"/>
       <c r="AD132" s="25"/>
       <c r="AE132" s="25"/>
       <c r="AF132" s="25"/>
@@ -12249,7 +12202,7 @@
       <c r="Z133" s="51"/>
       <c r="AA133" s="51"/>
       <c r="AB133" s="25"/>
-      <c r="AC133" s="102"/>
+      <c r="AC133" s="97"/>
       <c r="AD133" s="25"/>
       <c r="AE133" s="25"/>
       <c r="AF133" s="25"/>
@@ -12283,7 +12236,7 @@
       <c r="Z134" s="51"/>
       <c r="AA134" s="51"/>
       <c r="AB134" s="25"/>
-      <c r="AC134" s="102"/>
+      <c r="AC134" s="97"/>
       <c r="AD134" s="25"/>
       <c r="AE134" s="25"/>
       <c r="AF134" s="25"/>
@@ -12317,7 +12270,7 @@
       <c r="Z135" s="51"/>
       <c r="AA135" s="51"/>
       <c r="AB135" s="25"/>
-      <c r="AC135" s="102"/>
+      <c r="AC135" s="97"/>
       <c r="AD135" s="25"/>
       <c r="AE135" s="25"/>
       <c r="AF135" s="25"/>
@@ -12351,7 +12304,7 @@
       <c r="Z136" s="51"/>
       <c r="AA136" s="51"/>
       <c r="AB136" s="25"/>
-      <c r="AC136" s="102"/>
+      <c r="AC136" s="97"/>
       <c r="AD136" s="25"/>
       <c r="AE136" s="25"/>
       <c r="AF136" s="25"/>
@@ -12385,7 +12338,7 @@
       <c r="Z137" s="51"/>
       <c r="AA137" s="51"/>
       <c r="AB137" s="25"/>
-      <c r="AC137" s="102"/>
+      <c r="AC137" s="97"/>
       <c r="AD137" s="25"/>
       <c r="AE137" s="25"/>
       <c r="AF137" s="25"/>
@@ -12419,7 +12372,7 @@
       <c r="Z138" s="51"/>
       <c r="AA138" s="51"/>
       <c r="AB138" s="25"/>
-      <c r="AC138" s="102"/>
+      <c r="AC138" s="97"/>
       <c r="AD138" s="25"/>
       <c r="AE138" s="25"/>
       <c r="AF138" s="25"/>
@@ -12453,7 +12406,7 @@
       <c r="Z139" s="51"/>
       <c r="AA139" s="51"/>
       <c r="AB139" s="25"/>
-      <c r="AC139" s="102"/>
+      <c r="AC139" s="97"/>
       <c r="AD139" s="25"/>
       <c r="AE139" s="25"/>
       <c r="AF139" s="25"/>
@@ -12487,7 +12440,7 @@
       <c r="Z140" s="51"/>
       <c r="AA140" s="51"/>
       <c r="AB140" s="25"/>
-      <c r="AC140" s="102"/>
+      <c r="AC140" s="97"/>
       <c r="AD140" s="25"/>
       <c r="AE140" s="25"/>
       <c r="AF140" s="25"/>
@@ -12521,7 +12474,7 @@
       <c r="Z141" s="51"/>
       <c r="AA141" s="51"/>
       <c r="AB141" s="25"/>
-      <c r="AC141" s="102"/>
+      <c r="AC141" s="97"/>
       <c r="AD141" s="25"/>
       <c r="AE141" s="25"/>
       <c r="AF141" s="25"/>
@@ -12555,7 +12508,7 @@
       <c r="Z142" s="51"/>
       <c r="AA142" s="51"/>
       <c r="AB142" s="25"/>
-      <c r="AC142" s="102"/>
+      <c r="AC142" s="97"/>
       <c r="AD142" s="25"/>
       <c r="AE142" s="25"/>
       <c r="AF142" s="25"/>
@@ -12589,7 +12542,7 @@
       <c r="Z143" s="51"/>
       <c r="AA143" s="51"/>
       <c r="AB143" s="25"/>
-      <c r="AC143" s="102"/>
+      <c r="AC143" s="97"/>
       <c r="AD143" s="25"/>
       <c r="AE143" s="25"/>
       <c r="AF143" s="25"/>
@@ -12623,7 +12576,7 @@
       <c r="Z144" s="51"/>
       <c r="AA144" s="51"/>
       <c r="AB144" s="25"/>
-      <c r="AC144" s="102"/>
+      <c r="AC144" s="97"/>
       <c r="AD144" s="25"/>
       <c r="AE144" s="25"/>
       <c r="AF144" s="25"/>
@@ -12657,7 +12610,7 @@
       <c r="Z145" s="51"/>
       <c r="AA145" s="51"/>
       <c r="AB145" s="25"/>
-      <c r="AC145" s="102"/>
+      <c r="AC145" s="97"/>
       <c r="AD145" s="25"/>
       <c r="AE145" s="25"/>
       <c r="AF145" s="25"/>
@@ -12691,7 +12644,7 @@
       <c r="Z146" s="51"/>
       <c r="AA146" s="51"/>
       <c r="AB146" s="25"/>
-      <c r="AC146" s="102"/>
+      <c r="AC146" s="97"/>
       <c r="AD146" s="25"/>
       <c r="AE146" s="25"/>
       <c r="AF146" s="25"/>
@@ -12725,7 +12678,7 @@
       <c r="Z147" s="51"/>
       <c r="AA147" s="51"/>
       <c r="AB147" s="25"/>
-      <c r="AC147" s="102"/>
+      <c r="AC147" s="97"/>
       <c r="AD147" s="25"/>
       <c r="AE147" s="25"/>
       <c r="AF147" s="25"/>
@@ -12759,7 +12712,7 @@
       <c r="Z148" s="51"/>
       <c r="AA148" s="51"/>
       <c r="AB148" s="25"/>
-      <c r="AC148" s="102"/>
+      <c r="AC148" s="97"/>
       <c r="AD148" s="25"/>
       <c r="AE148" s="25"/>
       <c r="AF148" s="25"/>
@@ -12793,7 +12746,7 @@
       <c r="Z149" s="51"/>
       <c r="AA149" s="51"/>
       <c r="AB149" s="25"/>
-      <c r="AC149" s="102"/>
+      <c r="AC149" s="97"/>
       <c r="AD149" s="25"/>
       <c r="AE149" s="25"/>
       <c r="AF149" s="25"/>
@@ -12827,7 +12780,7 @@
       <c r="Z150" s="51"/>
       <c r="AA150" s="51"/>
       <c r="AB150" s="25"/>
-      <c r="AC150" s="102"/>
+      <c r="AC150" s="97"/>
       <c r="AD150" s="25"/>
       <c r="AE150" s="25"/>
       <c r="AF150" s="25"/>
@@ -12861,7 +12814,7 @@
       <c r="Z151" s="51"/>
       <c r="AA151" s="51"/>
       <c r="AB151" s="25"/>
-      <c r="AC151" s="102"/>
+      <c r="AC151" s="97"/>
       <c r="AD151" s="25"/>
       <c r="AE151" s="25"/>
       <c r="AF151" s="25"/>
@@ -12895,7 +12848,7 @@
       <c r="Z152" s="51"/>
       <c r="AA152" s="51"/>
       <c r="AB152" s="25"/>
-      <c r="AC152" s="102"/>
+      <c r="AC152" s="97"/>
       <c r="AD152" s="25"/>
       <c r="AE152" s="25"/>
       <c r="AF152" s="25"/>
@@ -12929,7 +12882,7 @@
       <c r="Z153" s="51"/>
       <c r="AA153" s="51"/>
       <c r="AB153" s="25"/>
-      <c r="AC153" s="102"/>
+      <c r="AC153" s="97"/>
       <c r="AD153" s="25"/>
       <c r="AE153" s="25"/>
       <c r="AF153" s="25"/>
@@ -12963,7 +12916,7 @@
       <c r="Z154" s="51"/>
       <c r="AA154" s="51"/>
       <c r="AB154" s="25"/>
-      <c r="AC154" s="102"/>
+      <c r="AC154" s="97"/>
       <c r="AD154" s="25"/>
       <c r="AE154" s="25"/>
       <c r="AF154" s="25"/>
@@ -12997,7 +12950,7 @@
       <c r="Z155" s="51"/>
       <c r="AA155" s="51"/>
       <c r="AB155" s="25"/>
-      <c r="AC155" s="102"/>
+      <c r="AC155" s="97"/>
       <c r="AD155" s="25"/>
       <c r="AE155" s="25"/>
       <c r="AF155" s="25"/>
@@ -13031,7 +12984,7 @@
       <c r="Z156" s="51"/>
       <c r="AA156" s="51"/>
       <c r="AB156" s="25"/>
-      <c r="AC156" s="102"/>
+      <c r="AC156" s="97"/>
       <c r="AD156" s="25"/>
       <c r="AE156" s="25"/>
       <c r="AF156" s="25"/>
@@ -13065,7 +13018,7 @@
       <c r="Z157" s="51"/>
       <c r="AA157" s="51"/>
       <c r="AB157" s="25"/>
-      <c r="AC157" s="102"/>
+      <c r="AC157" s="97"/>
       <c r="AD157" s="25"/>
       <c r="AE157" s="25"/>
       <c r="AF157" s="25"/>
@@ -13099,7 +13052,7 @@
       <c r="Z158" s="51"/>
       <c r="AA158" s="51"/>
       <c r="AB158" s="25"/>
-      <c r="AC158" s="102"/>
+      <c r="AC158" s="97"/>
       <c r="AD158" s="25"/>
       <c r="AE158" s="25"/>
       <c r="AF158" s="25"/>
@@ -13133,7 +13086,7 @@
       <c r="Z159" s="51"/>
       <c r="AA159" s="51"/>
       <c r="AB159" s="25"/>
-      <c r="AC159" s="102"/>
+      <c r="AC159" s="97"/>
       <c r="AD159" s="25"/>
       <c r="AE159" s="25"/>
       <c r="AF159" s="25"/>
@@ -13167,7 +13120,7 @@
       <c r="Z160" s="51"/>
       <c r="AA160" s="51"/>
       <c r="AB160" s="25"/>
-      <c r="AC160" s="102"/>
+      <c r="AC160" s="97"/>
       <c r="AD160" s="25"/>
       <c r="AE160" s="25"/>
       <c r="AF160" s="25"/>
@@ -13201,7 +13154,7 @@
       <c r="Z161" s="51"/>
       <c r="AA161" s="51"/>
       <c r="AB161" s="25"/>
-      <c r="AC161" s="102"/>
+      <c r="AC161" s="97"/>
       <c r="AD161" s="25"/>
       <c r="AE161" s="25"/>
       <c r="AF161" s="25"/>
@@ -13235,7 +13188,7 @@
       <c r="Z162" s="51"/>
       <c r="AA162" s="51"/>
       <c r="AB162" s="25"/>
-      <c r="AC162" s="102"/>
+      <c r="AC162" s="97"/>
       <c r="AD162" s="25"/>
       <c r="AE162" s="25"/>
       <c r="AF162" s="25"/>
@@ -13269,7 +13222,7 @@
       <c r="Z163" s="51"/>
       <c r="AA163" s="51"/>
       <c r="AB163" s="25"/>
-      <c r="AC163" s="102"/>
+      <c r="AC163" s="97"/>
       <c r="AD163" s="25"/>
       <c r="AE163" s="25"/>
       <c r="AF163" s="25"/>
@@ -13303,7 +13256,7 @@
       <c r="Z164" s="51"/>
       <c r="AA164" s="51"/>
       <c r="AB164" s="25"/>
-      <c r="AC164" s="102"/>
+      <c r="AC164" s="97"/>
       <c r="AD164" s="25"/>
       <c r="AE164" s="25"/>
       <c r="AF164" s="25"/>
@@ -13337,7 +13290,7 @@
       <c r="Z165" s="51"/>
       <c r="AA165" s="51"/>
       <c r="AB165" s="25"/>
-      <c r="AC165" s="102"/>
+      <c r="AC165" s="97"/>
       <c r="AD165" s="25"/>
       <c r="AE165" s="25"/>
       <c r="AF165" s="25"/>
@@ -13371,7 +13324,7 @@
       <c r="Z166" s="51"/>
       <c r="AA166" s="51"/>
       <c r="AB166" s="25"/>
-      <c r="AC166" s="102"/>
+      <c r="AC166" s="97"/>
       <c r="AD166" s="25"/>
       <c r="AE166" s="25"/>
       <c r="AF166" s="25"/>
@@ -13405,7 +13358,7 @@
       <c r="Z167" s="51"/>
       <c r="AA167" s="51"/>
       <c r="AB167" s="25"/>
-      <c r="AC167" s="102"/>
+      <c r="AC167" s="97"/>
       <c r="AD167" s="25"/>
       <c r="AE167" s="25"/>
       <c r="AF167" s="25"/>
@@ -13439,7 +13392,7 @@
       <c r="Z168" s="51"/>
       <c r="AA168" s="51"/>
       <c r="AB168" s="25"/>
-      <c r="AC168" s="102"/>
+      <c r="AC168" s="97"/>
       <c r="AD168" s="25"/>
       <c r="AE168" s="25"/>
       <c r="AF168" s="25"/>
@@ -13473,7 +13426,7 @@
       <c r="Z169" s="51"/>
       <c r="AA169" s="51"/>
       <c r="AB169" s="25"/>
-      <c r="AC169" s="102"/>
+      <c r="AC169" s="97"/>
       <c r="AD169" s="25"/>
       <c r="AE169" s="25"/>
       <c r="AF169" s="25"/>
@@ -13507,7 +13460,7 @@
       <c r="Z170" s="51"/>
       <c r="AA170" s="51"/>
       <c r="AB170" s="25"/>
-      <c r="AC170" s="102"/>
+      <c r="AC170" s="97"/>
       <c r="AD170" s="25"/>
       <c r="AE170" s="25"/>
       <c r="AF170" s="25"/>
@@ -13541,7 +13494,7 @@
       <c r="Z171" s="51"/>
       <c r="AA171" s="51"/>
       <c r="AB171" s="25"/>
-      <c r="AC171" s="102"/>
+      <c r="AC171" s="97"/>
       <c r="AD171" s="25"/>
       <c r="AE171" s="25"/>
       <c r="AF171" s="25"/>
@@ -13575,7 +13528,7 @@
       <c r="Z172" s="51"/>
       <c r="AA172" s="51"/>
       <c r="AB172" s="25"/>
-      <c r="AC172" s="102"/>
+      <c r="AC172" s="97"/>
       <c r="AD172" s="25"/>
       <c r="AE172" s="25"/>
       <c r="AF172" s="25"/>
@@ -13609,7 +13562,7 @@
       <c r="Z173" s="51"/>
       <c r="AA173" s="51"/>
       <c r="AB173" s="25"/>
-      <c r="AC173" s="102"/>
+      <c r="AC173" s="97"/>
       <c r="AD173" s="25"/>
       <c r="AE173" s="25"/>
       <c r="AF173" s="25"/>
@@ -13643,7 +13596,7 @@
       <c r="Z174" s="51"/>
       <c r="AA174" s="51"/>
       <c r="AB174" s="25"/>
-      <c r="AC174" s="102"/>
+      <c r="AC174" s="97"/>
       <c r="AD174" s="25"/>
       <c r="AE174" s="25"/>
       <c r="AF174" s="25"/>
@@ -13677,7 +13630,7 @@
       <c r="Z175" s="51"/>
       <c r="AA175" s="51"/>
       <c r="AB175" s="25"/>
-      <c r="AC175" s="102"/>
+      <c r="AC175" s="97"/>
       <c r="AD175" s="25"/>
       <c r="AE175" s="25"/>
       <c r="AF175" s="25"/>
@@ -13711,7 +13664,7 @@
       <c r="Z176" s="51"/>
       <c r="AA176" s="51"/>
       <c r="AB176" s="25"/>
-      <c r="AC176" s="102"/>
+      <c r="AC176" s="97"/>
       <c r="AD176" s="25"/>
       <c r="AE176" s="25"/>
       <c r="AF176" s="25"/>
@@ -13745,7 +13698,7 @@
       <c r="Z177" s="51"/>
       <c r="AA177" s="51"/>
       <c r="AB177" s="25"/>
-      <c r="AC177" s="102"/>
+      <c r="AC177" s="97"/>
       <c r="AD177" s="25"/>
       <c r="AE177" s="25"/>
       <c r="AF177" s="25"/>
@@ -13779,7 +13732,7 @@
       <c r="Z178" s="51"/>
       <c r="AA178" s="51"/>
       <c r="AB178" s="25"/>
-      <c r="AC178" s="102"/>
+      <c r="AC178" s="97"/>
       <c r="AD178" s="25"/>
       <c r="AE178" s="25"/>
       <c r="AF178" s="25"/>
@@ -13813,7 +13766,7 @@
       <c r="Z179" s="51"/>
       <c r="AA179" s="51"/>
       <c r="AB179" s="25"/>
-      <c r="AC179" s="102"/>
+      <c r="AC179" s="97"/>
       <c r="AD179" s="25"/>
       <c r="AE179" s="25"/>
       <c r="AF179" s="25"/>
@@ -13847,7 +13800,7 @@
       <c r="Z180" s="51"/>
       <c r="AA180" s="51"/>
       <c r="AB180" s="25"/>
-      <c r="AC180" s="102"/>
+      <c r="AC180" s="97"/>
       <c r="AD180" s="25"/>
       <c r="AE180" s="25"/>
       <c r="AF180" s="25"/>
@@ -13881,7 +13834,7 @@
       <c r="Z181" s="51"/>
       <c r="AA181" s="51"/>
       <c r="AB181" s="25"/>
-      <c r="AC181" s="102"/>
+      <c r="AC181" s="97"/>
       <c r="AD181" s="25"/>
       <c r="AE181" s="25"/>
       <c r="AF181" s="25"/>
@@ -13915,7 +13868,7 @@
       <c r="Z182" s="51"/>
       <c r="AA182" s="51"/>
       <c r="AB182" s="25"/>
-      <c r="AC182" s="102"/>
+      <c r="AC182" s="97"/>
       <c r="AD182" s="25"/>
       <c r="AE182" s="25"/>
       <c r="AF182" s="25"/>
@@ -13949,7 +13902,7 @@
       <c r="Z183" s="51"/>
       <c r="AA183" s="51"/>
       <c r="AB183" s="25"/>
-      <c r="AC183" s="102"/>
+      <c r="AC183" s="97"/>
       <c r="AD183" s="25"/>
       <c r="AE183" s="25"/>
       <c r="AF183" s="25"/>
@@ -13983,7 +13936,7 @@
       <c r="Z184" s="51"/>
       <c r="AA184" s="51"/>
       <c r="AB184" s="25"/>
-      <c r="AC184" s="102"/>
+      <c r="AC184" s="97"/>
       <c r="AD184" s="25"/>
       <c r="AE184" s="25"/>
       <c r="AF184" s="25"/>
@@ -14017,7 +13970,7 @@
       <c r="Z185" s="51"/>
       <c r="AA185" s="51"/>
       <c r="AB185" s="25"/>
-      <c r="AC185" s="102"/>
+      <c r="AC185" s="97"/>
       <c r="AD185" s="25"/>
       <c r="AE185" s="25"/>
       <c r="AF185" s="25"/>
@@ -14051,7 +14004,7 @@
       <c r="Z186" s="51"/>
       <c r="AA186" s="51"/>
       <c r="AB186" s="25"/>
-      <c r="AC186" s="102"/>
+      <c r="AC186" s="97"/>
       <c r="AD186" s="25"/>
       <c r="AE186" s="25"/>
       <c r="AF186" s="25"/>
@@ -14085,7 +14038,7 @@
       <c r="Z187" s="51"/>
       <c r="AA187" s="51"/>
       <c r="AB187" s="25"/>
-      <c r="AC187" s="102"/>
+      <c r="AC187" s="97"/>
       <c r="AD187" s="25"/>
       <c r="AE187" s="25"/>
       <c r="AF187" s="25"/>
@@ -14119,7 +14072,7 @@
       <c r="Z188" s="51"/>
       <c r="AA188" s="51"/>
       <c r="AB188" s="25"/>
-      <c r="AC188" s="102"/>
+      <c r="AC188" s="97"/>
       <c r="AD188" s="25"/>
       <c r="AE188" s="25"/>
       <c r="AF188" s="25"/>
@@ -14153,7 +14106,7 @@
       <c r="Z189" s="51"/>
       <c r="AA189" s="51"/>
       <c r="AB189" s="25"/>
-      <c r="AC189" s="102"/>
+      <c r="AC189" s="97"/>
       <c r="AD189" s="25"/>
       <c r="AE189" s="25"/>
       <c r="AF189" s="25"/>
@@ -14187,7 +14140,7 @@
       <c r="Z190" s="51"/>
       <c r="AA190" s="51"/>
       <c r="AB190" s="25"/>
-      <c r="AC190" s="102"/>
+      <c r="AC190" s="97"/>
       <c r="AD190" s="25"/>
       <c r="AE190" s="25"/>
       <c r="AF190" s="25"/>
@@ -14221,7 +14174,7 @@
       <c r="Z191" s="51"/>
       <c r="AA191" s="51"/>
       <c r="AB191" s="25"/>
-      <c r="AC191" s="102"/>
+      <c r="AC191" s="97"/>
       <c r="AD191" s="25"/>
       <c r="AE191" s="25"/>
       <c r="AF191" s="25"/>
@@ -14255,7 +14208,7 @@
       <c r="Z192" s="51"/>
       <c r="AA192" s="51"/>
       <c r="AB192" s="25"/>
-      <c r="AC192" s="102"/>
+      <c r="AC192" s="97"/>
       <c r="AD192" s="25"/>
       <c r="AE192" s="25"/>
       <c r="AF192" s="25"/>
@@ -14289,7 +14242,7 @@
       <c r="Z193" s="51"/>
       <c r="AA193" s="51"/>
       <c r="AB193" s="25"/>
-      <c r="AC193" s="102"/>
+      <c r="AC193" s="97"/>
       <c r="AD193" s="25"/>
       <c r="AE193" s="25"/>
       <c r="AF193" s="25"/>
@@ -14323,7 +14276,7 @@
       <c r="Z194" s="51"/>
       <c r="AA194" s="51"/>
       <c r="AB194" s="25"/>
-      <c r="AC194" s="102"/>
+      <c r="AC194" s="97"/>
       <c r="AD194" s="25"/>
       <c r="AE194" s="25"/>
       <c r="AF194" s="25"/>
@@ -14357,7 +14310,7 @@
       <c r="Z195" s="51"/>
       <c r="AA195" s="51"/>
       <c r="AB195" s="25"/>
-      <c r="AC195" s="102"/>
+      <c r="AC195" s="97"/>
       <c r="AD195" s="25"/>
       <c r="AE195" s="25"/>
       <c r="AF195" s="25"/>
@@ -14391,7 +14344,7 @@
       <c r="Z196" s="51"/>
       <c r="AA196" s="51"/>
       <c r="AB196" s="25"/>
-      <c r="AC196" s="102"/>
+      <c r="AC196" s="97"/>
       <c r="AD196" s="25"/>
       <c r="AE196" s="25"/>
       <c r="AF196" s="25"/>
@@ -14425,7 +14378,7 @@
       <c r="Z197" s="51"/>
       <c r="AA197" s="51"/>
       <c r="AB197" s="25"/>
-      <c r="AC197" s="102"/>
+      <c r="AC197" s="97"/>
       <c r="AD197" s="25"/>
       <c r="AE197" s="25"/>
       <c r="AF197" s="25"/>
@@ -14459,7 +14412,7 @@
       <c r="Z198" s="51"/>
       <c r="AA198" s="51"/>
       <c r="AB198" s="25"/>
-      <c r="AC198" s="102"/>
+      <c r="AC198" s="97"/>
       <c r="AD198" s="25"/>
       <c r="AE198" s="25"/>
       <c r="AF198" s="25"/>
@@ -14493,7 +14446,7 @@
       <c r="Z199" s="51"/>
       <c r="AA199" s="51"/>
       <c r="AB199" s="25"/>
-      <c r="AC199" s="102"/>
+      <c r="AC199" s="97"/>
       <c r="AD199" s="25"/>
       <c r="AE199" s="25"/>
       <c r="AF199" s="25"/>
@@ -14527,7 +14480,7 @@
       <c r="Z200" s="51"/>
       <c r="AA200" s="51"/>
       <c r="AB200" s="25"/>
-      <c r="AC200" s="102"/>
+      <c r="AC200" s="97"/>
       <c r="AD200" s="25"/>
       <c r="AE200" s="25"/>
       <c r="AF200" s="25"/>
@@ -14561,7 +14514,7 @@
       <c r="Z201" s="51"/>
       <c r="AA201" s="51"/>
       <c r="AB201" s="25"/>
-      <c r="AC201" s="102"/>
+      <c r="AC201" s="97"/>
       <c r="AD201" s="25"/>
       <c r="AE201" s="25"/>
       <c r="AF201" s="25"/>
@@ -14595,7 +14548,7 @@
       <c r="Z202" s="51"/>
       <c r="AA202" s="51"/>
       <c r="AB202" s="25"/>
-      <c r="AC202" s="102"/>
+      <c r="AC202" s="97"/>
       <c r="AD202" s="25"/>
       <c r="AE202" s="25"/>
       <c r="AF202" s="25"/>
@@ -14629,7 +14582,7 @@
       <c r="Z203" s="51"/>
       <c r="AA203" s="51"/>
       <c r="AB203" s="25"/>
-      <c r="AC203" s="102"/>
+      <c r="AC203" s="97"/>
       <c r="AD203" s="25"/>
       <c r="AE203" s="25"/>
       <c r="AF203" s="25"/>
@@ -14663,7 +14616,7 @@
       <c r="Z204" s="51"/>
       <c r="AA204" s="51"/>
       <c r="AB204" s="25"/>
-      <c r="AC204" s="102"/>
+      <c r="AC204" s="97"/>
       <c r="AD204" s="25"/>
       <c r="AE204" s="25"/>
       <c r="AF204" s="25"/>
@@ -14697,7 +14650,7 @@
       <c r="Z205" s="51"/>
       <c r="AA205" s="51"/>
       <c r="AB205" s="25"/>
-      <c r="AC205" s="102"/>
+      <c r="AC205" s="97"/>
       <c r="AD205" s="25"/>
       <c r="AE205" s="25"/>
       <c r="AF205" s="25"/>
@@ -14731,29 +14684,161 @@
       <c r="Z206" s="51"/>
       <c r="AA206" s="51"/>
       <c r="AB206" s="25"/>
-      <c r="AC206" s="102"/>
+      <c r="AC206" s="97"/>
       <c r="AD206" s="25"/>
       <c r="AE206" s="25"/>
       <c r="AF206" s="25"/>
     </row>
-    <row r="207" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="208" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="207" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="48"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="48"/>
+      <c r="N207" s="24"/>
+      <c r="O207" s="21"/>
+      <c r="P207" s="21"/>
+      <c r="Q207" s="21"/>
+      <c r="R207" s="21"/>
+      <c r="S207" s="24"/>
+      <c r="T207" s="21"/>
+      <c r="U207" s="47"/>
+      <c r="V207" s="21"/>
+      <c r="W207" s="21"/>
+      <c r="X207" s="21"/>
+      <c r="Y207" s="21"/>
+      <c r="Z207" s="51"/>
+      <c r="AA207" s="51"/>
+      <c r="AB207" s="25"/>
+      <c r="AC207" s="97"/>
+      <c r="AD207" s="25"/>
+      <c r="AE207" s="25"/>
+      <c r="AF207" s="25"/>
+    </row>
+    <row r="208" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A208" s="21"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="48"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="48"/>
+      <c r="N208" s="24"/>
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
+      <c r="Q208" s="21"/>
+      <c r="R208" s="21"/>
+      <c r="S208" s="24"/>
+      <c r="T208" s="21"/>
+      <c r="U208" s="47"/>
+      <c r="V208" s="21"/>
+      <c r="W208" s="21"/>
+      <c r="X208" s="21"/>
+      <c r="Y208" s="21"/>
+      <c r="Z208" s="51"/>
+      <c r="AA208" s="51"/>
+      <c r="AB208" s="25"/>
+      <c r="AC208" s="97"/>
+      <c r="AD208" s="25"/>
+      <c r="AE208" s="25"/>
+      <c r="AF208" s="25"/>
+    </row>
+    <row r="209" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A209" s="21"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="48"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="48"/>
+      <c r="N209" s="24"/>
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
+      <c r="Q209" s="21"/>
+      <c r="R209" s="21"/>
+      <c r="S209" s="24"/>
+      <c r="T209" s="21"/>
+      <c r="U209" s="47"/>
+      <c r="V209" s="21"/>
+      <c r="W209" s="21"/>
+      <c r="X209" s="21"/>
+      <c r="Y209" s="21"/>
+      <c r="Z209" s="51"/>
+      <c r="AA209" s="51"/>
+      <c r="AB209" s="25"/>
+      <c r="AC209" s="97"/>
+      <c r="AD209" s="25"/>
+      <c r="AE209" s="25"/>
+      <c r="AF209" s="25"/>
+    </row>
+    <row r="210" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A210" s="21"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="48"/>
+      <c r="L210" s="48"/>
+      <c r="M210" s="48"/>
+      <c r="N210" s="24"/>
+      <c r="O210" s="21"/>
+      <c r="P210" s="21"/>
+      <c r="Q210" s="21"/>
+      <c r="R210" s="21"/>
+      <c r="S210" s="24"/>
+      <c r="T210" s="21"/>
+      <c r="U210" s="47"/>
+      <c r="V210" s="21"/>
+      <c r="W210" s="21"/>
+      <c r="X210" s="21"/>
+      <c r="Y210" s="21"/>
+      <c r="Z210" s="51"/>
+      <c r="AA210" s="51"/>
+      <c r="AB210" s="25"/>
+      <c r="AC210" s="97"/>
+      <c r="AD210" s="25"/>
+      <c r="AE210" s="25"/>
+      <c r="AF210" s="25"/>
+    </row>
+    <row r="211" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="212" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="213" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="214" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="215" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="216" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="217" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="218" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="219" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="220" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="221" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="222" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="223" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="224" spans="1:32" ht="16.5" customHeight="1"/>
     <row r="225" ht="16.5" customHeight="1"/>
     <row r="226" ht="16.5" customHeight="1"/>
     <row r="227" ht="16.5" customHeight="1"/>
@@ -15518,8 +15603,40 @@
     <row r="986" ht="16.5" customHeight="1"/>
     <row r="987" ht="16.5" customHeight="1"/>
     <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="52">
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AB1:AB2"/>
@@ -15529,21 +15646,21 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
     <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag_8\Documents\GitHub\Yaho\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED37DD8-33D1-42F9-AD29-B9ABD53B6B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104B1FD-47B9-4922-A410-F2DEAE5FE9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2745" windowWidth="25725" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="434">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -380,6 +380,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>시가지_
+대피 시작 퀘스트 도착 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>마크를 따라 캠프장 취사구역의 (취사구역NPC)에게 이동하여 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +547,14 @@
   </si>
   <si>
     <t>옆 방으로 이동(Q_Chapter01_1_01) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화(Q_Chapter01_1_03) 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피 시작(Q_Chapter01_1_04) 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1627,77 +1640,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아들과 대화하였다는 것을 확인하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 다시 인트로를 실행하지 않도록 하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 획득하였다는 것을 확인하고, 이를 이용해 무기 이벤트를 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지에 도착하면 해당 이벤트의 반복을 막기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>메인 변수지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>고블린을 처치한 후 해당 이벤트의 반복을 막기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ00_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ01_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M05_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M06_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M07_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M08_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M09_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ02_M10_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ03_M01_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M01_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M01_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M01_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M05_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M06_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M07_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S04_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M08_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S02_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ04_M03_S02_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(몇)레벨 도달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 용도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 진행에 필요한 변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수의 사용 용도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼란한 도심</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴물들이 도처에 나타나고 있다. 도심을 가로질러 오른쪽으로 이동하여 목표 지점에 도착하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대피시작() 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아파트 복도_
-엄마 생성위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집 밖으로 탈출() 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼란한 도심() 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가지_
-혼란한 도심 퀘스트 도착 지점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_V001_검선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_V003_창선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_V002_망치선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_V004_선택미룸</t>
+    <t>vQ05_M02_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M03_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M04_S00_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S04_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M01_S05_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M05_S01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M05_S02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vQ05_M05_S03_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1878,7 +2021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2357,6 +2500,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -2440,100 +2594,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2541,7 +2601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2800,13 +2860,28 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,7 +2896,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2838,15 +2913,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2872,6 +2938,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2893,12 +2965,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2908,62 +2974,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3183,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3208,14 +3223,14 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="U2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3223,27 +3238,27 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="U3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="107" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="108"/>
+      <c r="E4" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="111"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>23</v>
@@ -3251,10 +3266,10 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="105"/>
       <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3269,10 +3284,10 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B7" s="2" t="s">
@@ -3284,10 +3299,10 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="103"/>
+      <c r="G7" s="105"/>
     </row>
     <row r="8" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B8" s="2" t="s">
@@ -3297,11 +3312,11 @@
         <v>34</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="50" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -3312,11 +3327,11 @@
         <v>9</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -3327,11 +3342,11 @@
         <v>20</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="50" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
@@ -3347,12 +3362,12 @@
     </row>
     <row r="12" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
@@ -3431,23 +3446,15 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:7" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B20" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>384</v>
-      </c>
+    <row r="20" spans="2:7" ht="27.95" customHeight="1">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:7" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B21" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>385</v>
-      </c>
+    <row r="21" spans="2:7" ht="27.95" customHeight="1">
+      <c r="B21" s="20"/>
+      <c r="C21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
@@ -4521,7 +4528,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -5260,13 +5267,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF992"/>
+  <dimension ref="A1:AF988"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="AE50" sqref="AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5299,7 +5306,7 @@
     <col min="26" max="26" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="9.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="0.875" style="98" customWidth="1"/>
+    <col min="29" max="29" width="0.875" style="103" customWidth="1"/>
     <col min="30" max="30" width="18.5" style="19" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="65" style="19" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.875" style="19" customWidth="1"/>
@@ -5308,361 +5315,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
       <c r="Z1" s="71"/>
       <c r="AA1" s="71"/>
-      <c r="AB1" s="117" t="s">
+      <c r="AB1" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE1" s="117" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF1" s="117"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="112" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE1" s="112" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF1" s="112"/>
     </row>
     <row r="2" spans="1:32" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A2" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="87" t="s">
+      <c r="J2" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="87" t="s">
+      <c r="K2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="M2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="87" t="s">
+      <c r="P2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="87" t="s">
+      <c r="R2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="87" t="s">
+      <c r="U2" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="87" t="s">
+      <c r="V2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="87" t="s">
+      <c r="W2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-    </row>
-    <row r="3" spans="1:32" ht="17.25" thickTop="1">
-      <c r="A3" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="127" t="s">
+      <c r="Y2" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+    </row>
+    <row r="3" spans="1:32" ht="33.75" thickTop="1">
+      <c r="A3" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="133" t="s">
+      <c r="C3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="127" t="s">
+      <c r="J3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="127" t="s">
+      <c r="O3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="139" t="s">
+      <c r="T3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="139" t="s">
-        <v>159</v>
-      </c>
-      <c r="V3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="86" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-    </row>
-    <row r="4" spans="1:32" ht="16.5">
-      <c r="A4" s="125"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-    </row>
-    <row r="5" spans="1:32" ht="16.5">
-      <c r="A5" s="125"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="86" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-    </row>
-    <row r="6" spans="1:32" ht="16.5">
-      <c r="A6" s="123"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
+      <c r="U3" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE3" s="87" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF3" s="87"/>
+    </row>
+    <row r="4" spans="1:32" ht="33">
+      <c r="A4" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE4" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF4" s="95"/>
+    </row>
+    <row r="5" spans="1:32" ht="33">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="87" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE5" s="84" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF5" s="95"/>
+    </row>
+    <row r="6" spans="1:32" ht="33">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="V6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE6" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF6" s="95"/>
     </row>
     <row r="7" spans="1:32" ht="33">
-      <c r="A7" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="56" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>86</v>
+        <v>131</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>88</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>52</v>
@@ -5680,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O7" s="53" t="s">
         <v>44</v>
@@ -5695,13 +5858,13 @@
         <v>44</v>
       </c>
       <c r="S7" s="53" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="T7" s="53" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="U7" s="53" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="V7" s="53" t="s">
         <v>44</v>
@@ -5722,34 +5885,42 @@
         <v>44</v>
       </c>
       <c r="AB7" s="70"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="90"/>
-    </row>
-    <row r="8" spans="1:32" ht="33">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE7" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF7" s="95"/>
+    </row>
+    <row r="8" spans="1:32" ht="49.5">
+      <c r="A8" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>76</v>
+      </c>
       <c r="C8" s="56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>222</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>44</v>
@@ -5764,13 +5935,13 @@
         <v>44</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="53">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="Q8" s="53" t="s">
         <v>44</v>
@@ -5779,13 +5950,13 @@
         <v>44</v>
       </c>
       <c r="S8" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="U8" s="53" t="s">
-        <v>143</v>
+        <v>62</v>
+      </c>
+      <c r="T8" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="54" t="s">
+        <v>144</v>
       </c>
       <c r="V8" s="53" t="s">
         <v>44</v>
@@ -5806,31 +5977,33 @@
         <v>44</v>
       </c>
       <c r="AB8" s="70"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="86"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="87" t="s">
+        <v>394</v>
+      </c>
       <c r="AE8" s="84"/>
-      <c r="AF8" s="90"/>
-    </row>
-    <row r="9" spans="1:32" ht="33">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
+      <c r="AF8" s="95"/>
+    </row>
+    <row r="9" spans="1:32" ht="49.5">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>389</v>
+        <v>223</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>52</v>
@@ -5848,7 +6021,7 @@
         <v>44</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="O9" s="53" t="s">
         <v>44</v>
@@ -5863,13 +6036,13 @@
         <v>44</v>
       </c>
       <c r="S9" s="53" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="T9" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="U9" s="53" t="s">
-        <v>142</v>
+        <v>232</v>
+      </c>
+      <c r="U9" s="54" t="s">
+        <v>143</v>
       </c>
       <c r="V9" s="53" t="s">
         <v>44</v>
@@ -5890,131 +6063,129 @@
         <v>44</v>
       </c>
       <c r="AB9" s="70"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="86"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="87" t="s">
+        <v>395</v>
+      </c>
       <c r="AE9" s="84"/>
-      <c r="AF9" s="90"/>
-    </row>
-    <row r="10" spans="1:32" ht="33">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="101"/>
+      <c r="AF9" s="95"/>
+    </row>
+    <row r="10" spans="1:32" ht="49.5">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="56" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" s="72" t="s">
-        <v>386</v>
+        <v>210</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>388</v>
+      <c r="F10" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>134</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="U10" s="101" t="s">
-        <v>391</v>
-      </c>
-      <c r="V10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="X10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" s="101" t="s">
+      <c r="J10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="U10" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="V10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="X10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="53" t="s">
         <v>44</v>
       </c>
       <c r="Z10" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="101"/>
+      <c r="AA10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="87" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="95"/>
     </row>
     <row r="11" spans="1:32" ht="33">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="56" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E11" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>393</v>
+        <v>225</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>44</v>
-      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="53" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="O11" s="53" t="s">
         <v>44</v>
@@ -6029,13 +6200,13 @@
         <v>44</v>
       </c>
       <c r="S11" s="53" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="T11" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="53" t="s">
-        <v>160</v>
+        <v>226</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="V11" s="53" t="s">
         <v>44</v>
@@ -6056,38 +6227,36 @@
         <v>44</v>
       </c>
       <c r="AB11" s="70"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="86"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="87" t="s">
+        <v>397</v>
+      </c>
       <c r="AE11" s="84"/>
-      <c r="AF11" s="90"/>
+      <c r="AF11" s="95"/>
     </row>
     <row r="12" spans="1:32" ht="49.5">
-      <c r="A12" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>76</v>
-      </c>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="56" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>44</v>
@@ -6101,8 +6270,8 @@
       <c r="M12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="53" t="s">
-        <v>79</v>
+      <c r="N12" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="O12" s="53" t="s">
         <v>44</v>
@@ -6117,19 +6286,19 @@
         <v>44</v>
       </c>
       <c r="S12" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="54" t="s">
-        <v>231</v>
+        <v>103</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>227</v>
       </c>
       <c r="U12" s="54" t="s">
         <v>141</v>
       </c>
       <c r="V12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="53" t="s">
-        <v>44</v>
+        <v>104</v>
+      </c>
+      <c r="W12" s="53">
+        <v>1</v>
       </c>
       <c r="X12" s="53" t="s">
         <v>44</v>
@@ -6144,34 +6313,36 @@
         <v>44</v>
       </c>
       <c r="AB12" s="70"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="86"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="87" t="s">
+        <v>398</v>
+      </c>
       <c r="AE12" s="84"/>
-      <c r="AF12" s="90"/>
-    </row>
-    <row r="13" spans="1:32" ht="49.5">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
+      <c r="AF12" s="95"/>
+    </row>
+    <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="56" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>209</v>
+      <c r="F13" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>220</v>
+        <v>135</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>227</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>44</v>
@@ -6186,33 +6357,29 @@
         <v>44</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="O13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="53" t="s">
-        <v>44</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P13" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="U13" s="53" t="s">
         <v>140</v>
       </c>
       <c r="V13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="53" t="s">
+      <c r="W13" s="58" t="s">
         <v>44</v>
       </c>
       <c r="X13" s="53" t="s">
@@ -6228,31 +6395,33 @@
         <v>44</v>
       </c>
       <c r="AB13" s="70"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="86"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="87" t="s">
+        <v>399</v>
+      </c>
       <c r="AE13" s="84"/>
-      <c r="AF13" s="90"/>
-    </row>
-    <row r="14" spans="1:32" ht="49.5">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
+      <c r="AF13" s="95"/>
+    </row>
+    <row r="14" spans="1:32" ht="33">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="56" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E14" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="I14" s="53" t="s">
         <v>52</v>
@@ -6270,7 +6439,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="53" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="O14" s="53" t="s">
         <v>44</v>
@@ -6285,19 +6454,19 @@
         <v>44</v>
       </c>
       <c r="S14" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="T14" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="U14" s="54" t="s">
-        <v>236</v>
+        <v>62</v>
+      </c>
+      <c r="T14" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="V14" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="53" t="s">
-        <v>199</v>
+        <v>44</v>
+      </c>
+      <c r="W14" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="X14" s="53" t="s">
         <v>44</v>
@@ -6312,41 +6481,51 @@
         <v>44</v>
       </c>
       <c r="AB14" s="70"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="86"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="87" t="s">
+        <v>400</v>
+      </c>
       <c r="AE14" s="84"/>
-      <c r="AF14" s="90"/>
+      <c r="AF14" s="95"/>
     </row>
     <row r="15" spans="1:32" ht="33">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="56" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="J15" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="N15" s="53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O15" s="53" t="s">
         <v>44</v>
@@ -6361,18 +6540,18 @@
         <v>44</v>
       </c>
       <c r="S15" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="T15" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="U15" s="54" t="s">
-        <v>139</v>
+        <v>62</v>
+      </c>
+      <c r="T15" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>138</v>
       </c>
       <c r="V15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="58" t="s">
         <v>44</v>
       </c>
       <c r="X15" s="53" t="s">
@@ -6388,34 +6567,36 @@
         <v>44</v>
       </c>
       <c r="AB15" s="70"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="86"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="87" t="s">
+        <v>401</v>
+      </c>
       <c r="AE15" s="84"/>
-      <c r="AF15" s="90"/>
-    </row>
-    <row r="16" spans="1:32" ht="49.5">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
+      <c r="AF15" s="95"/>
+    </row>
+    <row r="16" spans="1:32" ht="66">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>223</v>
+        <v>149</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>229</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>44</v>
@@ -6430,7 +6611,7 @@
         <v>44</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>44</v>
@@ -6445,19 +6626,19 @@
         <v>44</v>
       </c>
       <c r="S16" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="U16" s="54" t="s">
-        <v>138</v>
+        <v>62</v>
+      </c>
+      <c r="T16" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="V16" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="W16" s="53">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="W16" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="X16" s="53" t="s">
         <v>44</v>
@@ -6472,34 +6653,36 @@
         <v>44</v>
       </c>
       <c r="AB16" s="70"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="86"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="87" t="s">
+        <v>402</v>
+      </c>
       <c r="AE16" s="84"/>
-      <c r="AF16" s="90"/>
-    </row>
-    <row r="17" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
+      <c r="AF16" s="95"/>
+    </row>
+    <row r="17" spans="1:32" ht="33">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="56" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>224</v>
+        <v>155</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>230</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>44</v>
@@ -6514,24 +6697,28 @@
         <v>44</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="O17" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
+        <v>44</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="S17" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" s="53" t="s">
-        <v>223</v>
+        <v>62</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>238</v>
       </c>
       <c r="U17" s="53" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="V17" s="53" t="s">
         <v>44</v>
@@ -6552,34 +6739,40 @@
         <v>44</v>
       </c>
       <c r="AB17" s="70"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="86"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="87" t="s">
+        <v>403</v>
+      </c>
       <c r="AE17" s="84"/>
-      <c r="AF17" s="90"/>
+      <c r="AF17" s="95"/>
     </row>
     <row r="18" spans="1:32" ht="33">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="C18" s="56" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="E18" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="53" t="s">
-        <v>180</v>
+      <c r="F18" s="54" t="s">
+        <v>219</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>223</v>
+        <v>157</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>44</v>
@@ -6594,7 +6787,7 @@
         <v>44</v>
       </c>
       <c r="N18" s="53" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="O18" s="53" t="s">
         <v>44</v>
@@ -6615,13 +6808,13 @@
         <v>231</v>
       </c>
       <c r="U18" s="53" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="V18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="58" t="s">
-        <v>44</v>
+        <v>160</v>
+      </c>
+      <c r="W18" s="58">
+        <v>1</v>
       </c>
       <c r="X18" s="53" t="s">
         <v>44</v>
@@ -6636,31 +6829,37 @@
         <v>44</v>
       </c>
       <c r="AB18" s="70"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="86"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="87" t="s">
+        <v>404</v>
+      </c>
       <c r="AE18" s="84"/>
-      <c r="AF18" s="90"/>
+      <c r="AF18" s="95"/>
     </row>
     <row r="19" spans="1:32" ht="33">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>168</v>
+      </c>
       <c r="C19" s="56" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="I19" s="53" t="s">
         <v>52</v>
@@ -6678,7 +6877,7 @@
         <v>44</v>
       </c>
       <c r="N19" s="53" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O19" s="53" t="s">
         <v>44</v>
@@ -6693,19 +6892,19 @@
         <v>44</v>
       </c>
       <c r="S19" s="53" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="V19" s="53" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="W19" s="58" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="X19" s="53" t="s">
         <v>44</v>
@@ -6720,31 +6919,33 @@
         <v>44</v>
       </c>
       <c r="AB19" s="70"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="86"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="87" t="s">
+        <v>406</v>
+      </c>
       <c r="AE19" s="84"/>
-      <c r="AF19" s="90"/>
-    </row>
-    <row r="20" spans="1:32" ht="66">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
+      <c r="AF19" s="95"/>
+    </row>
+    <row r="20" spans="1:32" ht="33">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="56" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="E20" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>52</v>
@@ -6762,7 +6963,7 @@
         <v>44</v>
       </c>
       <c r="N20" s="54" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="O20" s="53" t="s">
         <v>44</v>
@@ -6777,19 +6978,19 @@
         <v>44</v>
       </c>
       <c r="S20" s="53" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="T20" s="54" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="W20" s="58" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="X20" s="53" t="s">
         <v>44</v>
@@ -6804,1668 +7005,1700 @@
         <v>44</v>
       </c>
       <c r="AB20" s="70"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="86"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="87" t="s">
+        <v>407</v>
+      </c>
       <c r="AE20" s="84"/>
-      <c r="AF20" s="90"/>
-    </row>
-    <row r="21" spans="1:32" ht="33">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
+      <c r="AF20" s="95"/>
+    </row>
+    <row r="21" spans="1:32" ht="49.5">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="56" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="E21" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="53" t="s">
-        <v>151</v>
+      <c r="F21" s="54" t="s">
+        <v>216</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="U21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="W21" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="95"/>
+    </row>
+    <row r="22" spans="1:32" ht="49.5">
+      <c r="A22" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="T22" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="U22" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="V22" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="W22" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="87" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+    </row>
+    <row r="23" spans="1:32" ht="49.5">
+      <c r="A23" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="60">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T23" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U23" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V23" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W23" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y23" s="60">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="94"/>
+    </row>
+    <row r="24" spans="1:32" ht="33">
+      <c r="A24" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="O24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="U24" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="V24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="76" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE24" s="85"/>
+      <c r="AF24" s="96"/>
+    </row>
+    <row r="25" spans="1:32" ht="49.5" customHeight="1">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="P25" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="U25" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="V25" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="W25" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y25" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="96"/>
+    </row>
+    <row r="26" spans="1:32" ht="33">
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="76">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V26" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="W26" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X26" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB26" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="96"/>
+    </row>
+    <row r="27" spans="1:32" ht="33">
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" s="76">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U27" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V27" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="W27" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X27" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y27" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB27" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="96"/>
+    </row>
+    <row r="28" spans="1:32" ht="33">
+      <c r="A28" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="P28" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T28" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U28" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="V28" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W28" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X28" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y28" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="94"/>
+    </row>
+    <row r="29" spans="1:32" ht="33">
+      <c r="A29" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I29" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="O29" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T29" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U29" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="V29" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W29" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X29" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y29" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="94"/>
+    </row>
+    <row r="30" spans="1:32" ht="33">
+      <c r="A30" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="O30" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="P30" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="T30" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="U30" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="V30" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X30" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="94"/>
+    </row>
+    <row r="31" spans="1:32" ht="33">
+      <c r="A31" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="O31" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U31" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="V31" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W31" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X31" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y31" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE31" s="83"/>
+      <c r="AF31" s="94"/>
+    </row>
+    <row r="32" spans="1:32" ht="49.5">
+      <c r="A32" s="118" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T32" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="U32" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="V32" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W32" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA32" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="94" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="94"/>
+    </row>
+    <row r="33" spans="1:32" ht="33">
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T33" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="U33" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="V33" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W33" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="94" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="94"/>
+    </row>
+    <row r="34" spans="1:32" ht="33">
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I34" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="53" t="s">
+      <c r="J34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="O34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="U21" s="53" t="s">
+      <c r="T34" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="U34" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="V34" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W34" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA34" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="94"/>
+    </row>
+    <row r="35" spans="1:32" ht="49.5">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="V21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="X21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA21" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="90"/>
-    </row>
-    <row r="22" spans="1:32" ht="33">
-      <c r="A22" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="74" t="s">
+      <c r="T35" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U35" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W35" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X35" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z35" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA35" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="94"/>
+    </row>
+    <row r="36" spans="1:32" ht="33">
+      <c r="A36" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="53" t="s">
+      <c r="F36" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="H36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="O36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="T36" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="U36" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="V36" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="W36" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="95"/>
+    </row>
+    <row r="37" spans="1:32" ht="33">
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="P37" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="T37" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="U37" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="V37" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="W37" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA37" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE37" s="84"/>
+      <c r="AF37" s="95"/>
+    </row>
+    <row r="38" spans="1:32" ht="33">
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="P38" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="T22" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="U22" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="V22" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="W22" s="58">
-        <v>1</v>
-      </c>
-      <c r="X22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA22" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="90"/>
-    </row>
-    <row r="23" spans="1:32" ht="33">
-      <c r="A23" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="T23" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="U23" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="V23" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="W23" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="X23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="90"/>
-    </row>
-    <row r="24" spans="1:32" ht="33">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="72" t="s">
+      <c r="T38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="V38" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="W38" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="O24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="T24" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="U24" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="V24" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="W24" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="X24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="90"/>
-    </row>
-    <row r="25" spans="1:32" ht="49.5">
-      <c r="A25" s="111"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="O25" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="P25" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="T25" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="U25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="V25" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="W25" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="X25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z25" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA25" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="90"/>
-    </row>
-    <row r="26" spans="1:32" ht="49.5">
-      <c r="A26" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="O26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="T26" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="V26" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="W26" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="X26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA26" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-    </row>
-    <row r="27" spans="1:32" ht="49.5">
-      <c r="A27" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="K27" s="60">
-        <v>1</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="O27" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="P27" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="T27" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="U27" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="V27" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W27" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X27" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y27" s="60">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA27" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="89"/>
-    </row>
-    <row r="28" spans="1:32" ht="33">
-      <c r="A28" s="113" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="113" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>381</v>
-      </c>
-      <c r="H28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="O28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S28" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="T28" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="U28" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="V28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="W28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="X28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA28" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB28" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="91"/>
-    </row>
-    <row r="29" spans="1:32" ht="49.5" customHeight="1">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="O29" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="P29" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="T29" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="U29" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="V29" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="W29" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="X29" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y29" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB29" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="76"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="91"/>
-    </row>
-    <row r="30" spans="1:32" ht="33">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="P30" s="76">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="T30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U30" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="V30" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="W30" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="X30" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y30" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA30" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB30" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="76"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="91"/>
-    </row>
-    <row r="31" spans="1:32" ht="33">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="H31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="O31" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="P31" s="76">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="T31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U31" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="V31" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="W31" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="X31" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y31" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB31" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="76"/>
-      <c r="AE31" s="85"/>
-      <c r="AF31" s="91"/>
-    </row>
-    <row r="32" spans="1:32" ht="33">
-      <c r="A32" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="O32" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="P32" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="T32" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="U32" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="V32" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W32" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X32" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y32" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="89"/>
-    </row>
-    <row r="33" spans="1:32" ht="33">
-      <c r="A33" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="O33" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="P33" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="T33" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="U33" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="V33" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W33" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X33" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y33" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="89"/>
-    </row>
-    <row r="34" spans="1:32" ht="33">
-      <c r="A34" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="O34" s="60" t="s">
-        <v>356</v>
-      </c>
-      <c r="P34" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="T34" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="U34" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="V34" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W34" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X34" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y34" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="89"/>
-    </row>
-    <row r="35" spans="1:32" ht="33">
-      <c r="A35" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>315</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="O35" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="P35" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="T35" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="U35" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="V35" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W35" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X35" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y35" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA35" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="89"/>
-    </row>
-    <row r="36" spans="1:32" ht="49.5">
-      <c r="A36" s="114" t="s">
-        <v>340</v>
-      </c>
-      <c r="B36" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="O36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="T36" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="U36" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="V36" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W36" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="89"/>
-    </row>
-    <row r="37" spans="1:32" ht="33">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="O37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T37" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="U37" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="V37" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W37" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="100"/>
-      <c r="AE37" s="83"/>
-      <c r="AF37" s="89"/>
-    </row>
-    <row r="38" spans="1:32" ht="33">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="I38" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="O38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T38" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="U38" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="V38" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W38" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA38" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB38" s="81"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="100"/>
-      <c r="AE38" s="83"/>
-      <c r="AF38" s="89"/>
-    </row>
-    <row r="39" spans="1:32" ht="49.5">
+      <c r="X38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE38" s="84"/>
+      <c r="AF38" s="95"/>
+    </row>
+    <row r="39" spans="1:32" ht="33">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
-      <c r="C39" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="E39" s="61" t="s">
+      <c r="C39" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="G39" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="I39" s="60" t="s">
+      <c r="F39" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="O39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="T39" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="U39" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="V39" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W39" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X39" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y39" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z39" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA39" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="100"/>
-      <c r="AE39" s="83"/>
-      <c r="AF39" s="89"/>
+      <c r="J39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="P39" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="V39" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="W39" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="X39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="95"/>
     </row>
     <row r="40" spans="1:32" ht="33">
-      <c r="A40" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="112" t="s">
-        <v>178</v>
-      </c>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="56" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="E40" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>297</v>
+      <c r="F40" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>269</v>
       </c>
       <c r="H40" s="56" t="s">
         <v>44</v>
@@ -8486,13 +8719,13 @@
         <v>44</v>
       </c>
       <c r="N40" s="56" t="s">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="O40" s="56" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="P40" s="56" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q40" s="56" t="s">
         <v>44</v>
@@ -8501,19 +8734,19 @@
         <v>44</v>
       </c>
       <c r="S40" s="56" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="T40" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="U40" s="56" t="s">
-        <v>200</v>
+        <v>44</v>
+      </c>
+      <c r="U40" s="54" t="s">
+        <v>280</v>
       </c>
       <c r="V40" s="56" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W40" s="56" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X40" s="56" t="s">
         <v>44</v>
@@ -8528,510 +8761,526 @@
         <v>44</v>
       </c>
       <c r="AB40" s="70"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="70"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="70" t="s">
+        <v>430</v>
+      </c>
       <c r="AE40" s="84"/>
-      <c r="AF40" s="90"/>
+      <c r="AF40" s="95"/>
     </row>
     <row r="41" spans="1:32" ht="33">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="56" t="s">
+      <c r="A41" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="O41" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="P41" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S41" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T41" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U41" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V41" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W41" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X41" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y41" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB41" s="81"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="94"/>
+    </row>
+    <row r="42" spans="1:32" ht="33">
+      <c r="A42" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="55" t="s">
+      <c r="H42" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="P42" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T42" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U42" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V42" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W42" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X42" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y42" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE42" s="83"/>
+      <c r="AF42" s="94"/>
+    </row>
+    <row r="43" spans="1:32" ht="33">
+      <c r="A43" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="O43" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="P43" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T43" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U43" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V43" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W43" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X43" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y43" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB43" s="81"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="94"/>
+    </row>
+    <row r="44" spans="1:32" ht="49.5">
+      <c r="A44" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="I41" s="56" t="s">
+      <c r="F44" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="O44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S44" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="T44" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U44" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="V44" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W44" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE44" s="83"/>
+      <c r="AF44" s="94"/>
+    </row>
+    <row r="45" spans="1:32" ht="33">
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="O45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="U45" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="V45" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W45" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="100"/>
+      <c r="AD45" s="81" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="94"/>
+    </row>
+    <row r="46" spans="1:32" ht="33">
+      <c r="A46" s="114"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="I46" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="O41" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="P41" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="T41" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="U41" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="V41" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="W41" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="X41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB41" s="70"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="101"/>
-      <c r="AE41" s="84"/>
-      <c r="AF41" s="90"/>
-    </row>
-    <row r="42" spans="1:32" ht="33">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="O42" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="P42" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="T42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U42" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="V42" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="W42" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="X42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA42" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="84"/>
-      <c r="AF42" s="90"/>
-    </row>
-    <row r="43" spans="1:32" ht="33">
-      <c r="A43" s="112"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="G43" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="O43" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="P43" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S43" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="T43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U43" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="V43" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="W43" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="X43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA43" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="84"/>
-      <c r="AF43" s="90"/>
-    </row>
-    <row r="44" spans="1:32" ht="33">
-      <c r="A44" s="112"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="O44" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="P44" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S44" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="T44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U44" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="V44" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="W44" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="X44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB44" s="70"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="101"/>
-      <c r="AE44" s="84"/>
-      <c r="AF44" s="90"/>
-    </row>
-    <row r="45" spans="1:32" ht="33">
-      <c r="A45" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="O45" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="P45" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S45" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="T45" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="U45" s="60" t="s">
+      <c r="J46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="O46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T46" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U46" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V46" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W46" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X46" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="V45" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W45" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X45" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y45" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="83"/>
-      <c r="AF45" s="89"/>
-    </row>
-    <row r="46" spans="1:32" ht="33">
-      <c r="A46" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="O46" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="P46" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R46" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S46" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="T46" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="U46" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="V46" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W46" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X46" s="60" t="s">
-        <v>198</v>
-      </c>
       <c r="Y46" s="60" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z46" s="60" t="s">
         <v>44</v>
@@ -9040,350 +9289,148 @@
         <v>44</v>
       </c>
       <c r="AB46" s="81"/>
-      <c r="AC46" s="95"/>
-      <c r="AD46" s="100"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="81" t="s">
+        <v>433</v>
+      </c>
       <c r="AE46" s="83"/>
-      <c r="AF46" s="89"/>
-    </row>
-    <row r="47" spans="1:32" ht="33">
-      <c r="A47" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="G47" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="O47" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="P47" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S47" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="T47" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="U47" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="V47" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W47" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X47" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y47" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA47" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="100"/>
-      <c r="AE47" s="83"/>
-      <c r="AF47" s="89"/>
-    </row>
-    <row r="48" spans="1:32" ht="49.5">
-      <c r="A48" s="110" t="s">
-        <v>357</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>364</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="O48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S48" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="T48" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="U48" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="V48" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W48" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="95"/>
-      <c r="AD48" s="100"/>
-      <c r="AE48" s="83"/>
-      <c r="AF48" s="89"/>
-    </row>
-    <row r="49" spans="1:32" ht="33">
-      <c r="A49" s="110"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="60" t="s">
-        <v>363</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>366</v>
-      </c>
-      <c r="G49" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="I49" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N49" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="O49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T49" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="U49" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="V49" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W49" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="95"/>
-      <c r="AD49" s="100"/>
-      <c r="AE49" s="83"/>
-      <c r="AF49" s="89"/>
-    </row>
-    <row r="50" spans="1:32" ht="33">
-      <c r="A50" s="110"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="E50" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="G50" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="H50" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="I50" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N50" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="O50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S50" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="T50" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="U50" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="V50" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W50" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="X50" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y50" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="95"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="83"/>
-      <c r="AF50" s="89"/>
+      <c r="AF46" s="94"/>
+    </row>
+    <row r="47" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+    </row>
+    <row r="48" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="102"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+    </row>
+    <row r="49" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="102"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+    </row>
+    <row r="50" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="102"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+      <c r="AF50" s="25"/>
     </row>
     <row r="51" spans="1:32" ht="16.5" customHeight="1">
       <c r="A51" s="21"/>
@@ -9414,7 +9461,7 @@
       <c r="Z51" s="51"/>
       <c r="AA51" s="51"/>
       <c r="AB51" s="25"/>
-      <c r="AC51" s="97"/>
+      <c r="AC51" s="102"/>
       <c r="AD51" s="25"/>
       <c r="AE51" s="25"/>
       <c r="AF51" s="25"/>
@@ -9448,7 +9495,7 @@
       <c r="Z52" s="51"/>
       <c r="AA52" s="51"/>
       <c r="AB52" s="25"/>
-      <c r="AC52" s="97"/>
+      <c r="AC52" s="102"/>
       <c r="AD52" s="25"/>
       <c r="AE52" s="25"/>
       <c r="AF52" s="25"/>
@@ -9482,7 +9529,7 @@
       <c r="Z53" s="51"/>
       <c r="AA53" s="51"/>
       <c r="AB53" s="25"/>
-      <c r="AC53" s="97"/>
+      <c r="AC53" s="102"/>
       <c r="AD53" s="25"/>
       <c r="AE53" s="25"/>
       <c r="AF53" s="25"/>
@@ -9516,7 +9563,7 @@
       <c r="Z54" s="51"/>
       <c r="AA54" s="51"/>
       <c r="AB54" s="25"/>
-      <c r="AC54" s="97"/>
+      <c r="AC54" s="102"/>
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
       <c r="AF54" s="25"/>
@@ -9550,7 +9597,7 @@
       <c r="Z55" s="51"/>
       <c r="AA55" s="51"/>
       <c r="AB55" s="25"/>
-      <c r="AC55" s="97"/>
+      <c r="AC55" s="102"/>
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
       <c r="AF55" s="25"/>
@@ -9584,7 +9631,7 @@
       <c r="Z56" s="51"/>
       <c r="AA56" s="51"/>
       <c r="AB56" s="25"/>
-      <c r="AC56" s="97"/>
+      <c r="AC56" s="102"/>
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
       <c r="AF56" s="25"/>
@@ -9618,7 +9665,7 @@
       <c r="Z57" s="51"/>
       <c r="AA57" s="51"/>
       <c r="AB57" s="25"/>
-      <c r="AC57" s="97"/>
+      <c r="AC57" s="102"/>
       <c r="AD57" s="25"/>
       <c r="AE57" s="25"/>
       <c r="AF57" s="25"/>
@@ -9652,7 +9699,7 @@
       <c r="Z58" s="51"/>
       <c r="AA58" s="51"/>
       <c r="AB58" s="25"/>
-      <c r="AC58" s="97"/>
+      <c r="AC58" s="102"/>
       <c r="AD58" s="25"/>
       <c r="AE58" s="25"/>
       <c r="AF58" s="25"/>
@@ -9686,7 +9733,7 @@
       <c r="Z59" s="51"/>
       <c r="AA59" s="51"/>
       <c r="AB59" s="25"/>
-      <c r="AC59" s="97"/>
+      <c r="AC59" s="102"/>
       <c r="AD59" s="25"/>
       <c r="AE59" s="25"/>
       <c r="AF59" s="25"/>
@@ -9720,7 +9767,7 @@
       <c r="Z60" s="51"/>
       <c r="AA60" s="51"/>
       <c r="AB60" s="25"/>
-      <c r="AC60" s="97"/>
+      <c r="AC60" s="102"/>
       <c r="AD60" s="25"/>
       <c r="AE60" s="25"/>
       <c r="AF60" s="25"/>
@@ -9754,7 +9801,7 @@
       <c r="Z61" s="51"/>
       <c r="AA61" s="51"/>
       <c r="AB61" s="25"/>
-      <c r="AC61" s="97"/>
+      <c r="AC61" s="102"/>
       <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
       <c r="AF61" s="25"/>
@@ -9788,7 +9835,7 @@
       <c r="Z62" s="51"/>
       <c r="AA62" s="51"/>
       <c r="AB62" s="25"/>
-      <c r="AC62" s="97"/>
+      <c r="AC62" s="102"/>
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
       <c r="AF62" s="25"/>
@@ -9822,7 +9869,7 @@
       <c r="Z63" s="51"/>
       <c r="AA63" s="51"/>
       <c r="AB63" s="25"/>
-      <c r="AC63" s="97"/>
+      <c r="AC63" s="102"/>
       <c r="AD63" s="25"/>
       <c r="AE63" s="25"/>
       <c r="AF63" s="25"/>
@@ -9856,7 +9903,7 @@
       <c r="Z64" s="51"/>
       <c r="AA64" s="51"/>
       <c r="AB64" s="25"/>
-      <c r="AC64" s="97"/>
+      <c r="AC64" s="102"/>
       <c r="AD64" s="25"/>
       <c r="AE64" s="25"/>
       <c r="AF64" s="25"/>
@@ -9890,7 +9937,7 @@
       <c r="Z65" s="51"/>
       <c r="AA65" s="51"/>
       <c r="AB65" s="25"/>
-      <c r="AC65" s="97"/>
+      <c r="AC65" s="102"/>
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
       <c r="AF65" s="25"/>
@@ -9924,7 +9971,7 @@
       <c r="Z66" s="51"/>
       <c r="AA66" s="51"/>
       <c r="AB66" s="25"/>
-      <c r="AC66" s="97"/>
+      <c r="AC66" s="102"/>
       <c r="AD66" s="25"/>
       <c r="AE66" s="25"/>
       <c r="AF66" s="25"/>
@@ -9958,7 +10005,7 @@
       <c r="Z67" s="51"/>
       <c r="AA67" s="51"/>
       <c r="AB67" s="25"/>
-      <c r="AC67" s="97"/>
+      <c r="AC67" s="102"/>
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
       <c r="AF67" s="25"/>
@@ -9992,7 +10039,7 @@
       <c r="Z68" s="51"/>
       <c r="AA68" s="51"/>
       <c r="AB68" s="25"/>
-      <c r="AC68" s="97"/>
+      <c r="AC68" s="102"/>
       <c r="AD68" s="25"/>
       <c r="AE68" s="25"/>
       <c r="AF68" s="25"/>
@@ -10026,7 +10073,7 @@
       <c r="Z69" s="51"/>
       <c r="AA69" s="51"/>
       <c r="AB69" s="25"/>
-      <c r="AC69" s="97"/>
+      <c r="AC69" s="102"/>
       <c r="AD69" s="25"/>
       <c r="AE69" s="25"/>
       <c r="AF69" s="25"/>
@@ -10060,7 +10107,7 @@
       <c r="Z70" s="51"/>
       <c r="AA70" s="51"/>
       <c r="AB70" s="25"/>
-      <c r="AC70" s="97"/>
+      <c r="AC70" s="102"/>
       <c r="AD70" s="25"/>
       <c r="AE70" s="25"/>
       <c r="AF70" s="25"/>
@@ -10094,7 +10141,7 @@
       <c r="Z71" s="51"/>
       <c r="AA71" s="51"/>
       <c r="AB71" s="25"/>
-      <c r="AC71" s="97"/>
+      <c r="AC71" s="102"/>
       <c r="AD71" s="25"/>
       <c r="AE71" s="25"/>
       <c r="AF71" s="25"/>
@@ -10128,7 +10175,7 @@
       <c r="Z72" s="51"/>
       <c r="AA72" s="51"/>
       <c r="AB72" s="25"/>
-      <c r="AC72" s="97"/>
+      <c r="AC72" s="102"/>
       <c r="AD72" s="25"/>
       <c r="AE72" s="25"/>
       <c r="AF72" s="25"/>
@@ -10162,7 +10209,7 @@
       <c r="Z73" s="51"/>
       <c r="AA73" s="51"/>
       <c r="AB73" s="25"/>
-      <c r="AC73" s="97"/>
+      <c r="AC73" s="102"/>
       <c r="AD73" s="25"/>
       <c r="AE73" s="25"/>
       <c r="AF73" s="25"/>
@@ -10196,7 +10243,7 @@
       <c r="Z74" s="51"/>
       <c r="AA74" s="51"/>
       <c r="AB74" s="25"/>
-      <c r="AC74" s="97"/>
+      <c r="AC74" s="102"/>
       <c r="AD74" s="25"/>
       <c r="AE74" s="25"/>
       <c r="AF74" s="25"/>
@@ -10230,7 +10277,7 @@
       <c r="Z75" s="51"/>
       <c r="AA75" s="51"/>
       <c r="AB75" s="25"/>
-      <c r="AC75" s="97"/>
+      <c r="AC75" s="102"/>
       <c r="AD75" s="25"/>
       <c r="AE75" s="25"/>
       <c r="AF75" s="25"/>
@@ -10264,7 +10311,7 @@
       <c r="Z76" s="51"/>
       <c r="AA76" s="51"/>
       <c r="AB76" s="25"/>
-      <c r="AC76" s="97"/>
+      <c r="AC76" s="102"/>
       <c r="AD76" s="25"/>
       <c r="AE76" s="25"/>
       <c r="AF76" s="25"/>
@@ -10298,7 +10345,7 @@
       <c r="Z77" s="51"/>
       <c r="AA77" s="51"/>
       <c r="AB77" s="25"/>
-      <c r="AC77" s="97"/>
+      <c r="AC77" s="102"/>
       <c r="AD77" s="25"/>
       <c r="AE77" s="25"/>
       <c r="AF77" s="25"/>
@@ -10332,7 +10379,7 @@
       <c r="Z78" s="51"/>
       <c r="AA78" s="51"/>
       <c r="AB78" s="25"/>
-      <c r="AC78" s="97"/>
+      <c r="AC78" s="102"/>
       <c r="AD78" s="25"/>
       <c r="AE78" s="25"/>
       <c r="AF78" s="25"/>
@@ -10366,7 +10413,7 @@
       <c r="Z79" s="51"/>
       <c r="AA79" s="51"/>
       <c r="AB79" s="25"/>
-      <c r="AC79" s="97"/>
+      <c r="AC79" s="102"/>
       <c r="AD79" s="25"/>
       <c r="AE79" s="25"/>
       <c r="AF79" s="25"/>
@@ -10400,7 +10447,7 @@
       <c r="Z80" s="51"/>
       <c r="AA80" s="51"/>
       <c r="AB80" s="25"/>
-      <c r="AC80" s="97"/>
+      <c r="AC80" s="102"/>
       <c r="AD80" s="25"/>
       <c r="AE80" s="25"/>
       <c r="AF80" s="25"/>
@@ -10434,7 +10481,7 @@
       <c r="Z81" s="51"/>
       <c r="AA81" s="51"/>
       <c r="AB81" s="25"/>
-      <c r="AC81" s="97"/>
+      <c r="AC81" s="102"/>
       <c r="AD81" s="25"/>
       <c r="AE81" s="25"/>
       <c r="AF81" s="25"/>
@@ -10468,7 +10515,7 @@
       <c r="Z82" s="51"/>
       <c r="AA82" s="51"/>
       <c r="AB82" s="25"/>
-      <c r="AC82" s="97"/>
+      <c r="AC82" s="102"/>
       <c r="AD82" s="25"/>
       <c r="AE82" s="25"/>
       <c r="AF82" s="25"/>
@@ -10502,7 +10549,7 @@
       <c r="Z83" s="51"/>
       <c r="AA83" s="51"/>
       <c r="AB83" s="25"/>
-      <c r="AC83" s="97"/>
+      <c r="AC83" s="102"/>
       <c r="AD83" s="25"/>
       <c r="AE83" s="25"/>
       <c r="AF83" s="25"/>
@@ -10536,7 +10583,7 @@
       <c r="Z84" s="51"/>
       <c r="AA84" s="51"/>
       <c r="AB84" s="25"/>
-      <c r="AC84" s="97"/>
+      <c r="AC84" s="102"/>
       <c r="AD84" s="25"/>
       <c r="AE84" s="25"/>
       <c r="AF84" s="25"/>
@@ -10570,7 +10617,7 @@
       <c r="Z85" s="51"/>
       <c r="AA85" s="51"/>
       <c r="AB85" s="25"/>
-      <c r="AC85" s="97"/>
+      <c r="AC85" s="102"/>
       <c r="AD85" s="25"/>
       <c r="AE85" s="25"/>
       <c r="AF85" s="25"/>
@@ -10604,7 +10651,7 @@
       <c r="Z86" s="51"/>
       <c r="AA86" s="51"/>
       <c r="AB86" s="25"/>
-      <c r="AC86" s="97"/>
+      <c r="AC86" s="102"/>
       <c r="AD86" s="25"/>
       <c r="AE86" s="25"/>
       <c r="AF86" s="25"/>
@@ -10638,7 +10685,7 @@
       <c r="Z87" s="51"/>
       <c r="AA87" s="51"/>
       <c r="AB87" s="25"/>
-      <c r="AC87" s="97"/>
+      <c r="AC87" s="102"/>
       <c r="AD87" s="25"/>
       <c r="AE87" s="25"/>
       <c r="AF87" s="25"/>
@@ -10672,7 +10719,7 @@
       <c r="Z88" s="51"/>
       <c r="AA88" s="51"/>
       <c r="AB88" s="25"/>
-      <c r="AC88" s="97"/>
+      <c r="AC88" s="102"/>
       <c r="AD88" s="25"/>
       <c r="AE88" s="25"/>
       <c r="AF88" s="25"/>
@@ -10706,7 +10753,7 @@
       <c r="Z89" s="51"/>
       <c r="AA89" s="51"/>
       <c r="AB89" s="25"/>
-      <c r="AC89" s="97"/>
+      <c r="AC89" s="102"/>
       <c r="AD89" s="25"/>
       <c r="AE89" s="25"/>
       <c r="AF89" s="25"/>
@@ -10740,7 +10787,7 @@
       <c r="Z90" s="51"/>
       <c r="AA90" s="51"/>
       <c r="AB90" s="25"/>
-      <c r="AC90" s="97"/>
+      <c r="AC90" s="102"/>
       <c r="AD90" s="25"/>
       <c r="AE90" s="25"/>
       <c r="AF90" s="25"/>
@@ -10774,7 +10821,7 @@
       <c r="Z91" s="51"/>
       <c r="AA91" s="51"/>
       <c r="AB91" s="25"/>
-      <c r="AC91" s="97"/>
+      <c r="AC91" s="102"/>
       <c r="AD91" s="25"/>
       <c r="AE91" s="25"/>
       <c r="AF91" s="25"/>
@@ -10808,7 +10855,7 @@
       <c r="Z92" s="51"/>
       <c r="AA92" s="51"/>
       <c r="AB92" s="25"/>
-      <c r="AC92" s="97"/>
+      <c r="AC92" s="102"/>
       <c r="AD92" s="25"/>
       <c r="AE92" s="25"/>
       <c r="AF92" s="25"/>
@@ -10842,7 +10889,7 @@
       <c r="Z93" s="51"/>
       <c r="AA93" s="51"/>
       <c r="AB93" s="25"/>
-      <c r="AC93" s="97"/>
+      <c r="AC93" s="102"/>
       <c r="AD93" s="25"/>
       <c r="AE93" s="25"/>
       <c r="AF93" s="25"/>
@@ -10876,7 +10923,7 @@
       <c r="Z94" s="51"/>
       <c r="AA94" s="51"/>
       <c r="AB94" s="25"/>
-      <c r="AC94" s="97"/>
+      <c r="AC94" s="102"/>
       <c r="AD94" s="25"/>
       <c r="AE94" s="25"/>
       <c r="AF94" s="25"/>
@@ -10910,7 +10957,7 @@
       <c r="Z95" s="51"/>
       <c r="AA95" s="51"/>
       <c r="AB95" s="25"/>
-      <c r="AC95" s="97"/>
+      <c r="AC95" s="102"/>
       <c r="AD95" s="25"/>
       <c r="AE95" s="25"/>
       <c r="AF95" s="25"/>
@@ -10944,7 +10991,7 @@
       <c r="Z96" s="51"/>
       <c r="AA96" s="51"/>
       <c r="AB96" s="25"/>
-      <c r="AC96" s="97"/>
+      <c r="AC96" s="102"/>
       <c r="AD96" s="25"/>
       <c r="AE96" s="25"/>
       <c r="AF96" s="25"/>
@@ -10978,7 +11025,7 @@
       <c r="Z97" s="51"/>
       <c r="AA97" s="51"/>
       <c r="AB97" s="25"/>
-      <c r="AC97" s="97"/>
+      <c r="AC97" s="102"/>
       <c r="AD97" s="25"/>
       <c r="AE97" s="25"/>
       <c r="AF97" s="25"/>
@@ -11012,7 +11059,7 @@
       <c r="Z98" s="51"/>
       <c r="AA98" s="51"/>
       <c r="AB98" s="25"/>
-      <c r="AC98" s="97"/>
+      <c r="AC98" s="102"/>
       <c r="AD98" s="25"/>
       <c r="AE98" s="25"/>
       <c r="AF98" s="25"/>
@@ -11046,7 +11093,7 @@
       <c r="Z99" s="51"/>
       <c r="AA99" s="51"/>
       <c r="AB99" s="25"/>
-      <c r="AC99" s="97"/>
+      <c r="AC99" s="102"/>
       <c r="AD99" s="25"/>
       <c r="AE99" s="25"/>
       <c r="AF99" s="25"/>
@@ -11080,7 +11127,7 @@
       <c r="Z100" s="51"/>
       <c r="AA100" s="51"/>
       <c r="AB100" s="25"/>
-      <c r="AC100" s="97"/>
+      <c r="AC100" s="102"/>
       <c r="AD100" s="25"/>
       <c r="AE100" s="25"/>
       <c r="AF100" s="25"/>
@@ -11114,7 +11161,7 @@
       <c r="Z101" s="51"/>
       <c r="AA101" s="51"/>
       <c r="AB101" s="25"/>
-      <c r="AC101" s="97"/>
+      <c r="AC101" s="102"/>
       <c r="AD101" s="25"/>
       <c r="AE101" s="25"/>
       <c r="AF101" s="25"/>
@@ -11148,7 +11195,7 @@
       <c r="Z102" s="51"/>
       <c r="AA102" s="51"/>
       <c r="AB102" s="25"/>
-      <c r="AC102" s="97"/>
+      <c r="AC102" s="102"/>
       <c r="AD102" s="25"/>
       <c r="AE102" s="25"/>
       <c r="AF102" s="25"/>
@@ -11182,7 +11229,7 @@
       <c r="Z103" s="51"/>
       <c r="AA103" s="51"/>
       <c r="AB103" s="25"/>
-      <c r="AC103" s="97"/>
+      <c r="AC103" s="102"/>
       <c r="AD103" s="25"/>
       <c r="AE103" s="25"/>
       <c r="AF103" s="25"/>
@@ -11216,7 +11263,7 @@
       <c r="Z104" s="51"/>
       <c r="AA104" s="51"/>
       <c r="AB104" s="25"/>
-      <c r="AC104" s="97"/>
+      <c r="AC104" s="102"/>
       <c r="AD104" s="25"/>
       <c r="AE104" s="25"/>
       <c r="AF104" s="25"/>
@@ -11250,7 +11297,7 @@
       <c r="Z105" s="51"/>
       <c r="AA105" s="51"/>
       <c r="AB105" s="25"/>
-      <c r="AC105" s="97"/>
+      <c r="AC105" s="102"/>
       <c r="AD105" s="25"/>
       <c r="AE105" s="25"/>
       <c r="AF105" s="25"/>
@@ -11259,32 +11306,32 @@
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="21"/>
+      <c r="D106" s="48"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="48"/>
       <c r="J106" s="48"/>
       <c r="K106" s="48"/>
       <c r="L106" s="48"/>
       <c r="M106" s="48"/>
       <c r="N106" s="24"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
+      <c r="O106" s="48"/>
+      <c r="P106" s="48"/>
+      <c r="Q106" s="48"/>
+      <c r="R106" s="48"/>
       <c r="S106" s="24"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="47"/>
-      <c r="V106" s="21"/>
-      <c r="W106" s="21"/>
-      <c r="X106" s="21"/>
-      <c r="Y106" s="21"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
+      <c r="V106" s="48"/>
+      <c r="W106" s="48"/>
+      <c r="X106" s="48"/>
+      <c r="Y106" s="48"/>
       <c r="Z106" s="51"/>
       <c r="AA106" s="51"/>
       <c r="AB106" s="25"/>
-      <c r="AC106" s="97"/>
+      <c r="AC106" s="102"/>
       <c r="AD106" s="25"/>
       <c r="AE106" s="25"/>
       <c r="AF106" s="25"/>
@@ -11318,7 +11365,7 @@
       <c r="Z107" s="51"/>
       <c r="AA107" s="51"/>
       <c r="AB107" s="25"/>
-      <c r="AC107" s="97"/>
+      <c r="AC107" s="102"/>
       <c r="AD107" s="25"/>
       <c r="AE107" s="25"/>
       <c r="AF107" s="25"/>
@@ -11352,7 +11399,7 @@
       <c r="Z108" s="51"/>
       <c r="AA108" s="51"/>
       <c r="AB108" s="25"/>
-      <c r="AC108" s="97"/>
+      <c r="AC108" s="102"/>
       <c r="AD108" s="25"/>
       <c r="AE108" s="25"/>
       <c r="AF108" s="25"/>
@@ -11386,7 +11433,7 @@
       <c r="Z109" s="51"/>
       <c r="AA109" s="51"/>
       <c r="AB109" s="25"/>
-      <c r="AC109" s="97"/>
+      <c r="AC109" s="102"/>
       <c r="AD109" s="25"/>
       <c r="AE109" s="25"/>
       <c r="AF109" s="25"/>
@@ -11395,32 +11442,32 @@
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
-      <c r="D110" s="48"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="48"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
       <c r="J110" s="48"/>
       <c r="K110" s="48"/>
       <c r="L110" s="48"/>
       <c r="M110" s="48"/>
       <c r="N110" s="24"/>
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
-      <c r="Q110" s="48"/>
-      <c r="R110" s="48"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
       <c r="S110" s="24"/>
-      <c r="T110" s="49"/>
-      <c r="U110" s="49"/>
-      <c r="V110" s="48"/>
-      <c r="W110" s="48"/>
-      <c r="X110" s="48"/>
-      <c r="Y110" s="48"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="47"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
       <c r="Z110" s="51"/>
       <c r="AA110" s="51"/>
       <c r="AB110" s="25"/>
-      <c r="AC110" s="97"/>
+      <c r="AC110" s="102"/>
       <c r="AD110" s="25"/>
       <c r="AE110" s="25"/>
       <c r="AF110" s="25"/>
@@ -11454,7 +11501,7 @@
       <c r="Z111" s="51"/>
       <c r="AA111" s="51"/>
       <c r="AB111" s="25"/>
-      <c r="AC111" s="97"/>
+      <c r="AC111" s="102"/>
       <c r="AD111" s="25"/>
       <c r="AE111" s="25"/>
       <c r="AF111" s="25"/>
@@ -11488,7 +11535,7 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="51"/>
       <c r="AB112" s="25"/>
-      <c r="AC112" s="97"/>
+      <c r="AC112" s="102"/>
       <c r="AD112" s="25"/>
       <c r="AE112" s="25"/>
       <c r="AF112" s="25"/>
@@ -11522,7 +11569,7 @@
       <c r="Z113" s="51"/>
       <c r="AA113" s="51"/>
       <c r="AB113" s="25"/>
-      <c r="AC113" s="97"/>
+      <c r="AC113" s="102"/>
       <c r="AD113" s="25"/>
       <c r="AE113" s="25"/>
       <c r="AF113" s="25"/>
@@ -11556,7 +11603,7 @@
       <c r="Z114" s="51"/>
       <c r="AA114" s="51"/>
       <c r="AB114" s="25"/>
-      <c r="AC114" s="97"/>
+      <c r="AC114" s="102"/>
       <c r="AD114" s="25"/>
       <c r="AE114" s="25"/>
       <c r="AF114" s="25"/>
@@ -11590,7 +11637,7 @@
       <c r="Z115" s="51"/>
       <c r="AA115" s="51"/>
       <c r="AB115" s="25"/>
-      <c r="AC115" s="97"/>
+      <c r="AC115" s="102"/>
       <c r="AD115" s="25"/>
       <c r="AE115" s="25"/>
       <c r="AF115" s="25"/>
@@ -11624,7 +11671,7 @@
       <c r="Z116" s="51"/>
       <c r="AA116" s="51"/>
       <c r="AB116" s="25"/>
-      <c r="AC116" s="97"/>
+      <c r="AC116" s="102"/>
       <c r="AD116" s="25"/>
       <c r="AE116" s="25"/>
       <c r="AF116" s="25"/>
@@ -11658,7 +11705,7 @@
       <c r="Z117" s="51"/>
       <c r="AA117" s="51"/>
       <c r="AB117" s="25"/>
-      <c r="AC117" s="97"/>
+      <c r="AC117" s="102"/>
       <c r="AD117" s="25"/>
       <c r="AE117" s="25"/>
       <c r="AF117" s="25"/>
@@ -11692,7 +11739,7 @@
       <c r="Z118" s="51"/>
       <c r="AA118" s="51"/>
       <c r="AB118" s="25"/>
-      <c r="AC118" s="97"/>
+      <c r="AC118" s="102"/>
       <c r="AD118" s="25"/>
       <c r="AE118" s="25"/>
       <c r="AF118" s="25"/>
@@ -11726,7 +11773,7 @@
       <c r="Z119" s="51"/>
       <c r="AA119" s="51"/>
       <c r="AB119" s="25"/>
-      <c r="AC119" s="97"/>
+      <c r="AC119" s="102"/>
       <c r="AD119" s="25"/>
       <c r="AE119" s="25"/>
       <c r="AF119" s="25"/>
@@ -11760,7 +11807,7 @@
       <c r="Z120" s="51"/>
       <c r="AA120" s="51"/>
       <c r="AB120" s="25"/>
-      <c r="AC120" s="97"/>
+      <c r="AC120" s="102"/>
       <c r="AD120" s="25"/>
       <c r="AE120" s="25"/>
       <c r="AF120" s="25"/>
@@ -11794,7 +11841,7 @@
       <c r="Z121" s="51"/>
       <c r="AA121" s="51"/>
       <c r="AB121" s="25"/>
-      <c r="AC121" s="97"/>
+      <c r="AC121" s="102"/>
       <c r="AD121" s="25"/>
       <c r="AE121" s="25"/>
       <c r="AF121" s="25"/>
@@ -11828,7 +11875,7 @@
       <c r="Z122" s="51"/>
       <c r="AA122" s="51"/>
       <c r="AB122" s="25"/>
-      <c r="AC122" s="97"/>
+      <c r="AC122" s="102"/>
       <c r="AD122" s="25"/>
       <c r="AE122" s="25"/>
       <c r="AF122" s="25"/>
@@ -11862,7 +11909,7 @@
       <c r="Z123" s="51"/>
       <c r="AA123" s="51"/>
       <c r="AB123" s="25"/>
-      <c r="AC123" s="97"/>
+      <c r="AC123" s="102"/>
       <c r="AD123" s="25"/>
       <c r="AE123" s="25"/>
       <c r="AF123" s="25"/>
@@ -11896,7 +11943,7 @@
       <c r="Z124" s="51"/>
       <c r="AA124" s="51"/>
       <c r="AB124" s="25"/>
-      <c r="AC124" s="97"/>
+      <c r="AC124" s="102"/>
       <c r="AD124" s="25"/>
       <c r="AE124" s="25"/>
       <c r="AF124" s="25"/>
@@ -11930,7 +11977,7 @@
       <c r="Z125" s="51"/>
       <c r="AA125" s="51"/>
       <c r="AB125" s="25"/>
-      <c r="AC125" s="97"/>
+      <c r="AC125" s="102"/>
       <c r="AD125" s="25"/>
       <c r="AE125" s="25"/>
       <c r="AF125" s="25"/>
@@ -11964,7 +12011,7 @@
       <c r="Z126" s="51"/>
       <c r="AA126" s="51"/>
       <c r="AB126" s="25"/>
-      <c r="AC126" s="97"/>
+      <c r="AC126" s="102"/>
       <c r="AD126" s="25"/>
       <c r="AE126" s="25"/>
       <c r="AF126" s="25"/>
@@ -11998,7 +12045,7 @@
       <c r="Z127" s="51"/>
       <c r="AA127" s="51"/>
       <c r="AB127" s="25"/>
-      <c r="AC127" s="97"/>
+      <c r="AC127" s="102"/>
       <c r="AD127" s="25"/>
       <c r="AE127" s="25"/>
       <c r="AF127" s="25"/>
@@ -12032,7 +12079,7 @@
       <c r="Z128" s="51"/>
       <c r="AA128" s="51"/>
       <c r="AB128" s="25"/>
-      <c r="AC128" s="97"/>
+      <c r="AC128" s="102"/>
       <c r="AD128" s="25"/>
       <c r="AE128" s="25"/>
       <c r="AF128" s="25"/>
@@ -12066,7 +12113,7 @@
       <c r="Z129" s="51"/>
       <c r="AA129" s="51"/>
       <c r="AB129" s="25"/>
-      <c r="AC129" s="97"/>
+      <c r="AC129" s="102"/>
       <c r="AD129" s="25"/>
       <c r="AE129" s="25"/>
       <c r="AF129" s="25"/>
@@ -12100,7 +12147,7 @@
       <c r="Z130" s="51"/>
       <c r="AA130" s="51"/>
       <c r="AB130" s="25"/>
-      <c r="AC130" s="97"/>
+      <c r="AC130" s="102"/>
       <c r="AD130" s="25"/>
       <c r="AE130" s="25"/>
       <c r="AF130" s="25"/>
@@ -12134,7 +12181,7 @@
       <c r="Z131" s="51"/>
       <c r="AA131" s="51"/>
       <c r="AB131" s="25"/>
-      <c r="AC131" s="97"/>
+      <c r="AC131" s="102"/>
       <c r="AD131" s="25"/>
       <c r="AE131" s="25"/>
       <c r="AF131" s="25"/>
@@ -12168,7 +12215,7 @@
       <c r="Z132" s="51"/>
       <c r="AA132" s="51"/>
       <c r="AB132" s="25"/>
-      <c r="AC132" s="97"/>
+      <c r="AC132" s="102"/>
       <c r="AD132" s="25"/>
       <c r="AE132" s="25"/>
       <c r="AF132" s="25"/>
@@ -12202,7 +12249,7 @@
       <c r="Z133" s="51"/>
       <c r="AA133" s="51"/>
       <c r="AB133" s="25"/>
-      <c r="AC133" s="97"/>
+      <c r="AC133" s="102"/>
       <c r="AD133" s="25"/>
       <c r="AE133" s="25"/>
       <c r="AF133" s="25"/>
@@ -12236,7 +12283,7 @@
       <c r="Z134" s="51"/>
       <c r="AA134" s="51"/>
       <c r="AB134" s="25"/>
-      <c r="AC134" s="97"/>
+      <c r="AC134" s="102"/>
       <c r="AD134" s="25"/>
       <c r="AE134" s="25"/>
       <c r="AF134" s="25"/>
@@ -12270,7 +12317,7 @@
       <c r="Z135" s="51"/>
       <c r="AA135" s="51"/>
       <c r="AB135" s="25"/>
-      <c r="AC135" s="97"/>
+      <c r="AC135" s="102"/>
       <c r="AD135" s="25"/>
       <c r="AE135" s="25"/>
       <c r="AF135" s="25"/>
@@ -12304,7 +12351,7 @@
       <c r="Z136" s="51"/>
       <c r="AA136" s="51"/>
       <c r="AB136" s="25"/>
-      <c r="AC136" s="97"/>
+      <c r="AC136" s="102"/>
       <c r="AD136" s="25"/>
       <c r="AE136" s="25"/>
       <c r="AF136" s="25"/>
@@ -12338,7 +12385,7 @@
       <c r="Z137" s="51"/>
       <c r="AA137" s="51"/>
       <c r="AB137" s="25"/>
-      <c r="AC137" s="97"/>
+      <c r="AC137" s="102"/>
       <c r="AD137" s="25"/>
       <c r="AE137" s="25"/>
       <c r="AF137" s="25"/>
@@ -12372,7 +12419,7 @@
       <c r="Z138" s="51"/>
       <c r="AA138" s="51"/>
       <c r="AB138" s="25"/>
-      <c r="AC138" s="97"/>
+      <c r="AC138" s="102"/>
       <c r="AD138" s="25"/>
       <c r="AE138" s="25"/>
       <c r="AF138" s="25"/>
@@ -12406,7 +12453,7 @@
       <c r="Z139" s="51"/>
       <c r="AA139" s="51"/>
       <c r="AB139" s="25"/>
-      <c r="AC139" s="97"/>
+      <c r="AC139" s="102"/>
       <c r="AD139" s="25"/>
       <c r="AE139" s="25"/>
       <c r="AF139" s="25"/>
@@ -12440,7 +12487,7 @@
       <c r="Z140" s="51"/>
       <c r="AA140" s="51"/>
       <c r="AB140" s="25"/>
-      <c r="AC140" s="97"/>
+      <c r="AC140" s="102"/>
       <c r="AD140" s="25"/>
       <c r="AE140" s="25"/>
       <c r="AF140" s="25"/>
@@ -12474,7 +12521,7 @@
       <c r="Z141" s="51"/>
       <c r="AA141" s="51"/>
       <c r="AB141" s="25"/>
-      <c r="AC141" s="97"/>
+      <c r="AC141" s="102"/>
       <c r="AD141" s="25"/>
       <c r="AE141" s="25"/>
       <c r="AF141" s="25"/>
@@ -12508,7 +12555,7 @@
       <c r="Z142" s="51"/>
       <c r="AA142" s="51"/>
       <c r="AB142" s="25"/>
-      <c r="AC142" s="97"/>
+      <c r="AC142" s="102"/>
       <c r="AD142" s="25"/>
       <c r="AE142" s="25"/>
       <c r="AF142" s="25"/>
@@ -12542,7 +12589,7 @@
       <c r="Z143" s="51"/>
       <c r="AA143" s="51"/>
       <c r="AB143" s="25"/>
-      <c r="AC143" s="97"/>
+      <c r="AC143" s="102"/>
       <c r="AD143" s="25"/>
       <c r="AE143" s="25"/>
       <c r="AF143" s="25"/>
@@ -12576,7 +12623,7 @@
       <c r="Z144" s="51"/>
       <c r="AA144" s="51"/>
       <c r="AB144" s="25"/>
-      <c r="AC144" s="97"/>
+      <c r="AC144" s="102"/>
       <c r="AD144" s="25"/>
       <c r="AE144" s="25"/>
       <c r="AF144" s="25"/>
@@ -12610,7 +12657,7 @@
       <c r="Z145" s="51"/>
       <c r="AA145" s="51"/>
       <c r="AB145" s="25"/>
-      <c r="AC145" s="97"/>
+      <c r="AC145" s="102"/>
       <c r="AD145" s="25"/>
       <c r="AE145" s="25"/>
       <c r="AF145" s="25"/>
@@ -12644,7 +12691,7 @@
       <c r="Z146" s="51"/>
       <c r="AA146" s="51"/>
       <c r="AB146" s="25"/>
-      <c r="AC146" s="97"/>
+      <c r="AC146" s="102"/>
       <c r="AD146" s="25"/>
       <c r="AE146" s="25"/>
       <c r="AF146" s="25"/>
@@ -12678,7 +12725,7 @@
       <c r="Z147" s="51"/>
       <c r="AA147" s="51"/>
       <c r="AB147" s="25"/>
-      <c r="AC147" s="97"/>
+      <c r="AC147" s="102"/>
       <c r="AD147" s="25"/>
       <c r="AE147" s="25"/>
       <c r="AF147" s="25"/>
@@ -12712,7 +12759,7 @@
       <c r="Z148" s="51"/>
       <c r="AA148" s="51"/>
       <c r="AB148" s="25"/>
-      <c r="AC148" s="97"/>
+      <c r="AC148" s="102"/>
       <c r="AD148" s="25"/>
       <c r="AE148" s="25"/>
       <c r="AF148" s="25"/>
@@ -12746,7 +12793,7 @@
       <c r="Z149" s="51"/>
       <c r="AA149" s="51"/>
       <c r="AB149" s="25"/>
-      <c r="AC149" s="97"/>
+      <c r="AC149" s="102"/>
       <c r="AD149" s="25"/>
       <c r="AE149" s="25"/>
       <c r="AF149" s="25"/>
@@ -12780,7 +12827,7 @@
       <c r="Z150" s="51"/>
       <c r="AA150" s="51"/>
       <c r="AB150" s="25"/>
-      <c r="AC150" s="97"/>
+      <c r="AC150" s="102"/>
       <c r="AD150" s="25"/>
       <c r="AE150" s="25"/>
       <c r="AF150" s="25"/>
@@ -12814,7 +12861,7 @@
       <c r="Z151" s="51"/>
       <c r="AA151" s="51"/>
       <c r="AB151" s="25"/>
-      <c r="AC151" s="97"/>
+      <c r="AC151" s="102"/>
       <c r="AD151" s="25"/>
       <c r="AE151" s="25"/>
       <c r="AF151" s="25"/>
@@ -12848,7 +12895,7 @@
       <c r="Z152" s="51"/>
       <c r="AA152" s="51"/>
       <c r="AB152" s="25"/>
-      <c r="AC152" s="97"/>
+      <c r="AC152" s="102"/>
       <c r="AD152" s="25"/>
       <c r="AE152" s="25"/>
       <c r="AF152" s="25"/>
@@ -12882,7 +12929,7 @@
       <c r="Z153" s="51"/>
       <c r="AA153" s="51"/>
       <c r="AB153" s="25"/>
-      <c r="AC153" s="97"/>
+      <c r="AC153" s="102"/>
       <c r="AD153" s="25"/>
       <c r="AE153" s="25"/>
       <c r="AF153" s="25"/>
@@ -12916,7 +12963,7 @@
       <c r="Z154" s="51"/>
       <c r="AA154" s="51"/>
       <c r="AB154" s="25"/>
-      <c r="AC154" s="97"/>
+      <c r="AC154" s="102"/>
       <c r="AD154" s="25"/>
       <c r="AE154" s="25"/>
       <c r="AF154" s="25"/>
@@ -12950,7 +12997,7 @@
       <c r="Z155" s="51"/>
       <c r="AA155" s="51"/>
       <c r="AB155" s="25"/>
-      <c r="AC155" s="97"/>
+      <c r="AC155" s="102"/>
       <c r="AD155" s="25"/>
       <c r="AE155" s="25"/>
       <c r="AF155" s="25"/>
@@ -12984,7 +13031,7 @@
       <c r="Z156" s="51"/>
       <c r="AA156" s="51"/>
       <c r="AB156" s="25"/>
-      <c r="AC156" s="97"/>
+      <c r="AC156" s="102"/>
       <c r="AD156" s="25"/>
       <c r="AE156" s="25"/>
       <c r="AF156" s="25"/>
@@ -13018,7 +13065,7 @@
       <c r="Z157" s="51"/>
       <c r="AA157" s="51"/>
       <c r="AB157" s="25"/>
-      <c r="AC157" s="97"/>
+      <c r="AC157" s="102"/>
       <c r="AD157" s="25"/>
       <c r="AE157" s="25"/>
       <c r="AF157" s="25"/>
@@ -13052,7 +13099,7 @@
       <c r="Z158" s="51"/>
       <c r="AA158" s="51"/>
       <c r="AB158" s="25"/>
-      <c r="AC158" s="97"/>
+      <c r="AC158" s="102"/>
       <c r="AD158" s="25"/>
       <c r="AE158" s="25"/>
       <c r="AF158" s="25"/>
@@ -13086,7 +13133,7 @@
       <c r="Z159" s="51"/>
       <c r="AA159" s="51"/>
       <c r="AB159" s="25"/>
-      <c r="AC159" s="97"/>
+      <c r="AC159" s="102"/>
       <c r="AD159" s="25"/>
       <c r="AE159" s="25"/>
       <c r="AF159" s="25"/>
@@ -13120,7 +13167,7 @@
       <c r="Z160" s="51"/>
       <c r="AA160" s="51"/>
       <c r="AB160" s="25"/>
-      <c r="AC160" s="97"/>
+      <c r="AC160" s="102"/>
       <c r="AD160" s="25"/>
       <c r="AE160" s="25"/>
       <c r="AF160" s="25"/>
@@ -13154,7 +13201,7 @@
       <c r="Z161" s="51"/>
       <c r="AA161" s="51"/>
       <c r="AB161" s="25"/>
-      <c r="AC161" s="97"/>
+      <c r="AC161" s="102"/>
       <c r="AD161" s="25"/>
       <c r="AE161" s="25"/>
       <c r="AF161" s="25"/>
@@ -13188,7 +13235,7 @@
       <c r="Z162" s="51"/>
       <c r="AA162" s="51"/>
       <c r="AB162" s="25"/>
-      <c r="AC162" s="97"/>
+      <c r="AC162" s="102"/>
       <c r="AD162" s="25"/>
       <c r="AE162" s="25"/>
       <c r="AF162" s="25"/>
@@ -13222,7 +13269,7 @@
       <c r="Z163" s="51"/>
       <c r="AA163" s="51"/>
       <c r="AB163" s="25"/>
-      <c r="AC163" s="97"/>
+      <c r="AC163" s="102"/>
       <c r="AD163" s="25"/>
       <c r="AE163" s="25"/>
       <c r="AF163" s="25"/>
@@ -13256,7 +13303,7 @@
       <c r="Z164" s="51"/>
       <c r="AA164" s="51"/>
       <c r="AB164" s="25"/>
-      <c r="AC164" s="97"/>
+      <c r="AC164" s="102"/>
       <c r="AD164" s="25"/>
       <c r="AE164" s="25"/>
       <c r="AF164" s="25"/>
@@ -13290,7 +13337,7 @@
       <c r="Z165" s="51"/>
       <c r="AA165" s="51"/>
       <c r="AB165" s="25"/>
-      <c r="AC165" s="97"/>
+      <c r="AC165" s="102"/>
       <c r="AD165" s="25"/>
       <c r="AE165" s="25"/>
       <c r="AF165" s="25"/>
@@ -13324,7 +13371,7 @@
       <c r="Z166" s="51"/>
       <c r="AA166" s="51"/>
       <c r="AB166" s="25"/>
-      <c r="AC166" s="97"/>
+      <c r="AC166" s="102"/>
       <c r="AD166" s="25"/>
       <c r="AE166" s="25"/>
       <c r="AF166" s="25"/>
@@ -13358,7 +13405,7 @@
       <c r="Z167" s="51"/>
       <c r="AA167" s="51"/>
       <c r="AB167" s="25"/>
-      <c r="AC167" s="97"/>
+      <c r="AC167" s="102"/>
       <c r="AD167" s="25"/>
       <c r="AE167" s="25"/>
       <c r="AF167" s="25"/>
@@ -13392,7 +13439,7 @@
       <c r="Z168" s="51"/>
       <c r="AA168" s="51"/>
       <c r="AB168" s="25"/>
-      <c r="AC168" s="97"/>
+      <c r="AC168" s="102"/>
       <c r="AD168" s="25"/>
       <c r="AE168" s="25"/>
       <c r="AF168" s="25"/>
@@ -13426,7 +13473,7 @@
       <c r="Z169" s="51"/>
       <c r="AA169" s="51"/>
       <c r="AB169" s="25"/>
-      <c r="AC169" s="97"/>
+      <c r="AC169" s="102"/>
       <c r="AD169" s="25"/>
       <c r="AE169" s="25"/>
       <c r="AF169" s="25"/>
@@ -13460,7 +13507,7 @@
       <c r="Z170" s="51"/>
       <c r="AA170" s="51"/>
       <c r="AB170" s="25"/>
-      <c r="AC170" s="97"/>
+      <c r="AC170" s="102"/>
       <c r="AD170" s="25"/>
       <c r="AE170" s="25"/>
       <c r="AF170" s="25"/>
@@ -13494,7 +13541,7 @@
       <c r="Z171" s="51"/>
       <c r="AA171" s="51"/>
       <c r="AB171" s="25"/>
-      <c r="AC171" s="97"/>
+      <c r="AC171" s="102"/>
       <c r="AD171" s="25"/>
       <c r="AE171" s="25"/>
       <c r="AF171" s="25"/>
@@ -13528,7 +13575,7 @@
       <c r="Z172" s="51"/>
       <c r="AA172" s="51"/>
       <c r="AB172" s="25"/>
-      <c r="AC172" s="97"/>
+      <c r="AC172" s="102"/>
       <c r="AD172" s="25"/>
       <c r="AE172" s="25"/>
       <c r="AF172" s="25"/>
@@ -13562,7 +13609,7 @@
       <c r="Z173" s="51"/>
       <c r="AA173" s="51"/>
       <c r="AB173" s="25"/>
-      <c r="AC173" s="97"/>
+      <c r="AC173" s="102"/>
       <c r="AD173" s="25"/>
       <c r="AE173" s="25"/>
       <c r="AF173" s="25"/>
@@ -13596,7 +13643,7 @@
       <c r="Z174" s="51"/>
       <c r="AA174" s="51"/>
       <c r="AB174" s="25"/>
-      <c r="AC174" s="97"/>
+      <c r="AC174" s="102"/>
       <c r="AD174" s="25"/>
       <c r="AE174" s="25"/>
       <c r="AF174" s="25"/>
@@ -13630,7 +13677,7 @@
       <c r="Z175" s="51"/>
       <c r="AA175" s="51"/>
       <c r="AB175" s="25"/>
-      <c r="AC175" s="97"/>
+      <c r="AC175" s="102"/>
       <c r="AD175" s="25"/>
       <c r="AE175" s="25"/>
       <c r="AF175" s="25"/>
@@ -13664,7 +13711,7 @@
       <c r="Z176" s="51"/>
       <c r="AA176" s="51"/>
       <c r="AB176" s="25"/>
-      <c r="AC176" s="97"/>
+      <c r="AC176" s="102"/>
       <c r="AD176" s="25"/>
       <c r="AE176" s="25"/>
       <c r="AF176" s="25"/>
@@ -13698,7 +13745,7 @@
       <c r="Z177" s="51"/>
       <c r="AA177" s="51"/>
       <c r="AB177" s="25"/>
-      <c r="AC177" s="97"/>
+      <c r="AC177" s="102"/>
       <c r="AD177" s="25"/>
       <c r="AE177" s="25"/>
       <c r="AF177" s="25"/>
@@ -13732,7 +13779,7 @@
       <c r="Z178" s="51"/>
       <c r="AA178" s="51"/>
       <c r="AB178" s="25"/>
-      <c r="AC178" s="97"/>
+      <c r="AC178" s="102"/>
       <c r="AD178" s="25"/>
       <c r="AE178" s="25"/>
       <c r="AF178" s="25"/>
@@ -13766,7 +13813,7 @@
       <c r="Z179" s="51"/>
       <c r="AA179" s="51"/>
       <c r="AB179" s="25"/>
-      <c r="AC179" s="97"/>
+      <c r="AC179" s="102"/>
       <c r="AD179" s="25"/>
       <c r="AE179" s="25"/>
       <c r="AF179" s="25"/>
@@ -13800,7 +13847,7 @@
       <c r="Z180" s="51"/>
       <c r="AA180" s="51"/>
       <c r="AB180" s="25"/>
-      <c r="AC180" s="97"/>
+      <c r="AC180" s="102"/>
       <c r="AD180" s="25"/>
       <c r="AE180" s="25"/>
       <c r="AF180" s="25"/>
@@ -13834,7 +13881,7 @@
       <c r="Z181" s="51"/>
       <c r="AA181" s="51"/>
       <c r="AB181" s="25"/>
-      <c r="AC181" s="97"/>
+      <c r="AC181" s="102"/>
       <c r="AD181" s="25"/>
       <c r="AE181" s="25"/>
       <c r="AF181" s="25"/>
@@ -13868,7 +13915,7 @@
       <c r="Z182" s="51"/>
       <c r="AA182" s="51"/>
       <c r="AB182" s="25"/>
-      <c r="AC182" s="97"/>
+      <c r="AC182" s="102"/>
       <c r="AD182" s="25"/>
       <c r="AE182" s="25"/>
       <c r="AF182" s="25"/>
@@ -13902,7 +13949,7 @@
       <c r="Z183" s="51"/>
       <c r="AA183" s="51"/>
       <c r="AB183" s="25"/>
-      <c r="AC183" s="97"/>
+      <c r="AC183" s="102"/>
       <c r="AD183" s="25"/>
       <c r="AE183" s="25"/>
       <c r="AF183" s="25"/>
@@ -13936,7 +13983,7 @@
       <c r="Z184" s="51"/>
       <c r="AA184" s="51"/>
       <c r="AB184" s="25"/>
-      <c r="AC184" s="97"/>
+      <c r="AC184" s="102"/>
       <c r="AD184" s="25"/>
       <c r="AE184" s="25"/>
       <c r="AF184" s="25"/>
@@ -13970,7 +14017,7 @@
       <c r="Z185" s="51"/>
       <c r="AA185" s="51"/>
       <c r="AB185" s="25"/>
-      <c r="AC185" s="97"/>
+      <c r="AC185" s="102"/>
       <c r="AD185" s="25"/>
       <c r="AE185" s="25"/>
       <c r="AF185" s="25"/>
@@ -14004,7 +14051,7 @@
       <c r="Z186" s="51"/>
       <c r="AA186" s="51"/>
       <c r="AB186" s="25"/>
-      <c r="AC186" s="97"/>
+      <c r="AC186" s="102"/>
       <c r="AD186" s="25"/>
       <c r="AE186" s="25"/>
       <c r="AF186" s="25"/>
@@ -14038,7 +14085,7 @@
       <c r="Z187" s="51"/>
       <c r="AA187" s="51"/>
       <c r="AB187" s="25"/>
-      <c r="AC187" s="97"/>
+      <c r="AC187" s="102"/>
       <c r="AD187" s="25"/>
       <c r="AE187" s="25"/>
       <c r="AF187" s="25"/>
@@ -14072,7 +14119,7 @@
       <c r="Z188" s="51"/>
       <c r="AA188" s="51"/>
       <c r="AB188" s="25"/>
-      <c r="AC188" s="97"/>
+      <c r="AC188" s="102"/>
       <c r="AD188" s="25"/>
       <c r="AE188" s="25"/>
       <c r="AF188" s="25"/>
@@ -14106,7 +14153,7 @@
       <c r="Z189" s="51"/>
       <c r="AA189" s="51"/>
       <c r="AB189" s="25"/>
-      <c r="AC189" s="97"/>
+      <c r="AC189" s="102"/>
       <c r="AD189" s="25"/>
       <c r="AE189" s="25"/>
       <c r="AF189" s="25"/>
@@ -14140,7 +14187,7 @@
       <c r="Z190" s="51"/>
       <c r="AA190" s="51"/>
       <c r="AB190" s="25"/>
-      <c r="AC190" s="97"/>
+      <c r="AC190" s="102"/>
       <c r="AD190" s="25"/>
       <c r="AE190" s="25"/>
       <c r="AF190" s="25"/>
@@ -14174,7 +14221,7 @@
       <c r="Z191" s="51"/>
       <c r="AA191" s="51"/>
       <c r="AB191" s="25"/>
-      <c r="AC191" s="97"/>
+      <c r="AC191" s="102"/>
       <c r="AD191" s="25"/>
       <c r="AE191" s="25"/>
       <c r="AF191" s="25"/>
@@ -14208,7 +14255,7 @@
       <c r="Z192" s="51"/>
       <c r="AA192" s="51"/>
       <c r="AB192" s="25"/>
-      <c r="AC192" s="97"/>
+      <c r="AC192" s="102"/>
       <c r="AD192" s="25"/>
       <c r="AE192" s="25"/>
       <c r="AF192" s="25"/>
@@ -14242,7 +14289,7 @@
       <c r="Z193" s="51"/>
       <c r="AA193" s="51"/>
       <c r="AB193" s="25"/>
-      <c r="AC193" s="97"/>
+      <c r="AC193" s="102"/>
       <c r="AD193" s="25"/>
       <c r="AE193" s="25"/>
       <c r="AF193" s="25"/>
@@ -14276,7 +14323,7 @@
       <c r="Z194" s="51"/>
       <c r="AA194" s="51"/>
       <c r="AB194" s="25"/>
-      <c r="AC194" s="97"/>
+      <c r="AC194" s="102"/>
       <c r="AD194" s="25"/>
       <c r="AE194" s="25"/>
       <c r="AF194" s="25"/>
@@ -14310,7 +14357,7 @@
       <c r="Z195" s="51"/>
       <c r="AA195" s="51"/>
       <c r="AB195" s="25"/>
-      <c r="AC195" s="97"/>
+      <c r="AC195" s="102"/>
       <c r="AD195" s="25"/>
       <c r="AE195" s="25"/>
       <c r="AF195" s="25"/>
@@ -14344,7 +14391,7 @@
       <c r="Z196" s="51"/>
       <c r="AA196" s="51"/>
       <c r="AB196" s="25"/>
-      <c r="AC196" s="97"/>
+      <c r="AC196" s="102"/>
       <c r="AD196" s="25"/>
       <c r="AE196" s="25"/>
       <c r="AF196" s="25"/>
@@ -14378,7 +14425,7 @@
       <c r="Z197" s="51"/>
       <c r="AA197" s="51"/>
       <c r="AB197" s="25"/>
-      <c r="AC197" s="97"/>
+      <c r="AC197" s="102"/>
       <c r="AD197" s="25"/>
       <c r="AE197" s="25"/>
       <c r="AF197" s="25"/>
@@ -14412,7 +14459,7 @@
       <c r="Z198" s="51"/>
       <c r="AA198" s="51"/>
       <c r="AB198" s="25"/>
-      <c r="AC198" s="97"/>
+      <c r="AC198" s="102"/>
       <c r="AD198" s="25"/>
       <c r="AE198" s="25"/>
       <c r="AF198" s="25"/>
@@ -14446,7 +14493,7 @@
       <c r="Z199" s="51"/>
       <c r="AA199" s="51"/>
       <c r="AB199" s="25"/>
-      <c r="AC199" s="97"/>
+      <c r="AC199" s="102"/>
       <c r="AD199" s="25"/>
       <c r="AE199" s="25"/>
       <c r="AF199" s="25"/>
@@ -14480,7 +14527,7 @@
       <c r="Z200" s="51"/>
       <c r="AA200" s="51"/>
       <c r="AB200" s="25"/>
-      <c r="AC200" s="97"/>
+      <c r="AC200" s="102"/>
       <c r="AD200" s="25"/>
       <c r="AE200" s="25"/>
       <c r="AF200" s="25"/>
@@ -14514,7 +14561,7 @@
       <c r="Z201" s="51"/>
       <c r="AA201" s="51"/>
       <c r="AB201" s="25"/>
-      <c r="AC201" s="97"/>
+      <c r="AC201" s="102"/>
       <c r="AD201" s="25"/>
       <c r="AE201" s="25"/>
       <c r="AF201" s="25"/>
@@ -14548,7 +14595,7 @@
       <c r="Z202" s="51"/>
       <c r="AA202" s="51"/>
       <c r="AB202" s="25"/>
-      <c r="AC202" s="97"/>
+      <c r="AC202" s="102"/>
       <c r="AD202" s="25"/>
       <c r="AE202" s="25"/>
       <c r="AF202" s="25"/>
@@ -14582,7 +14629,7 @@
       <c r="Z203" s="51"/>
       <c r="AA203" s="51"/>
       <c r="AB203" s="25"/>
-      <c r="AC203" s="97"/>
+      <c r="AC203" s="102"/>
       <c r="AD203" s="25"/>
       <c r="AE203" s="25"/>
       <c r="AF203" s="25"/>
@@ -14616,7 +14663,7 @@
       <c r="Z204" s="51"/>
       <c r="AA204" s="51"/>
       <c r="AB204" s="25"/>
-      <c r="AC204" s="97"/>
+      <c r="AC204" s="102"/>
       <c r="AD204" s="25"/>
       <c r="AE204" s="25"/>
       <c r="AF204" s="25"/>
@@ -14650,7 +14697,7 @@
       <c r="Z205" s="51"/>
       <c r="AA205" s="51"/>
       <c r="AB205" s="25"/>
-      <c r="AC205" s="97"/>
+      <c r="AC205" s="102"/>
       <c r="AD205" s="25"/>
       <c r="AE205" s="25"/>
       <c r="AF205" s="25"/>
@@ -14684,161 +14731,29 @@
       <c r="Z206" s="51"/>
       <c r="AA206" s="51"/>
       <c r="AB206" s="25"/>
-      <c r="AC206" s="97"/>
+      <c r="AC206" s="102"/>
       <c r="AD206" s="25"/>
       <c r="AE206" s="25"/>
       <c r="AF206" s="25"/>
     </row>
-    <row r="207" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="23"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="48"/>
-      <c r="L207" s="48"/>
-      <c r="M207" s="48"/>
-      <c r="N207" s="24"/>
-      <c r="O207" s="21"/>
-      <c r="P207" s="21"/>
-      <c r="Q207" s="21"/>
-      <c r="R207" s="21"/>
-      <c r="S207" s="24"/>
-      <c r="T207" s="21"/>
-      <c r="U207" s="47"/>
-      <c r="V207" s="21"/>
-      <c r="W207" s="21"/>
-      <c r="X207" s="21"/>
-      <c r="Y207" s="21"/>
-      <c r="Z207" s="51"/>
-      <c r="AA207" s="51"/>
-      <c r="AB207" s="25"/>
-      <c r="AC207" s="97"/>
-      <c r="AD207" s="25"/>
-      <c r="AE207" s="25"/>
-      <c r="AF207" s="25"/>
-    </row>
-    <row r="208" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A208" s="21"/>
-      <c r="B208" s="21"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="23"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="48"/>
-      <c r="L208" s="48"/>
-      <c r="M208" s="48"/>
-      <c r="N208" s="24"/>
-      <c r="O208" s="21"/>
-      <c r="P208" s="21"/>
-      <c r="Q208" s="21"/>
-      <c r="R208" s="21"/>
-      <c r="S208" s="24"/>
-      <c r="T208" s="21"/>
-      <c r="U208" s="47"/>
-      <c r="V208" s="21"/>
-      <c r="W208" s="21"/>
-      <c r="X208" s="21"/>
-      <c r="Y208" s="21"/>
-      <c r="Z208" s="51"/>
-      <c r="AA208" s="51"/>
-      <c r="AB208" s="25"/>
-      <c r="AC208" s="97"/>
-      <c r="AD208" s="25"/>
-      <c r="AE208" s="25"/>
-      <c r="AF208" s="25"/>
-    </row>
-    <row r="209" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A209" s="21"/>
-      <c r="B209" s="21"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="23"/>
-      <c r="F209" s="24"/>
-      <c r="G209" s="21"/>
-      <c r="H209" s="21"/>
-      <c r="I209" s="21"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="48"/>
-      <c r="L209" s="48"/>
-      <c r="M209" s="48"/>
-      <c r="N209" s="24"/>
-      <c r="O209" s="21"/>
-      <c r="P209" s="21"/>
-      <c r="Q209" s="21"/>
-      <c r="R209" s="21"/>
-      <c r="S209" s="24"/>
-      <c r="T209" s="21"/>
-      <c r="U209" s="47"/>
-      <c r="V209" s="21"/>
-      <c r="W209" s="21"/>
-      <c r="X209" s="21"/>
-      <c r="Y209" s="21"/>
-      <c r="Z209" s="51"/>
-      <c r="AA209" s="51"/>
-      <c r="AB209" s="25"/>
-      <c r="AC209" s="97"/>
-      <c r="AD209" s="25"/>
-      <c r="AE209" s="25"/>
-      <c r="AF209" s="25"/>
-    </row>
-    <row r="210" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A210" s="21"/>
-      <c r="B210" s="21"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="23"/>
-      <c r="F210" s="24"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="21"/>
-      <c r="I210" s="21"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="48"/>
-      <c r="L210" s="48"/>
-      <c r="M210" s="48"/>
-      <c r="N210" s="24"/>
-      <c r="O210" s="21"/>
-      <c r="P210" s="21"/>
-      <c r="Q210" s="21"/>
-      <c r="R210" s="21"/>
-      <c r="S210" s="24"/>
-      <c r="T210" s="21"/>
-      <c r="U210" s="47"/>
-      <c r="V210" s="21"/>
-      <c r="W210" s="21"/>
-      <c r="X210" s="21"/>
-      <c r="Y210" s="21"/>
-      <c r="Z210" s="51"/>
-      <c r="AA210" s="51"/>
-      <c r="AB210" s="25"/>
-      <c r="AC210" s="97"/>
-      <c r="AD210" s="25"/>
-      <c r="AE210" s="25"/>
-      <c r="AF210" s="25"/>
-    </row>
-    <row r="211" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="212" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="213" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="214" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="215" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="216" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="217" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="218" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="219" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="220" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="221" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="222" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="223" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="224" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="207" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="208" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
     <row r="225" ht="16.5" customHeight="1"/>
     <row r="226" ht="16.5" customHeight="1"/>
     <row r="227" ht="16.5" customHeight="1"/>
@@ -15603,40 +15518,8 @@
     <row r="986" ht="16.5" customHeight="1"/>
     <row r="987" ht="16.5" customHeight="1"/>
     <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="W3:W6"/>
-    <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
+  <mergeCells count="24">
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AB1:AB2"/>
@@ -15646,21 +15529,21 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/퀘스트 기획/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag_8\Documents\GitHub\Yaho\개인 작업 폴더\조승희\퀘스트 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\퀘스트 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104B1FD-47B9-4922-A410-F2DEAE5FE9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9374C3-2E85-4FB9-8CF1-5BF8C553F1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="780" windowWidth="16875" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="436">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -1841,6 +1841,14 @@
   </si>
   <si>
     <t>vQ05_M05_S03_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란한 도심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승과 합류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2021,7 +2029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2594,6 +2602,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2601,7 +2618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2914,6 +2931,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2944,6 +2967,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2965,19 +3000,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3223,14 +3261,14 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:21" ht="56.25" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="U2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3238,23 +3276,23 @@
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
       <c r="U3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="110"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B5" s="2" t="s">
@@ -3266,10 +3304,10 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="105"/>
+      <c r="G5" s="107"/>
       <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3284,10 +3322,10 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="105"/>
+      <c r="G6" s="107"/>
     </row>
     <row r="7" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B7" s="2" t="s">
@@ -3299,10 +3337,10 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="107"/>
     </row>
     <row r="8" spans="2:21" ht="27.95" customHeight="1" thickBot="1">
       <c r="B8" s="2" t="s">
@@ -5267,13 +5305,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF988"/>
+  <dimension ref="A1:AF990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE50" sqref="AE50"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5315,56 +5353,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121" t="s">
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121" t="s">
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
       <c r="Z1" s="71"/>
       <c r="AA1" s="71"/>
-      <c r="AB1" s="112" t="s">
+      <c r="AB1" s="114" t="s">
         <v>32</v>
       </c>
       <c r="AC1" s="97"/>
-      <c r="AD1" s="112" t="s">
+      <c r="AD1" s="114" t="s">
         <v>387</v>
       </c>
-      <c r="AE1" s="112" t="s">
+      <c r="AE1" s="114" t="s">
         <v>382</v>
       </c>
-      <c r="AF1" s="112"/>
+      <c r="AF1" s="114"/>
     </row>
     <row r="2" spans="1:32" s="18" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="92" t="s">
@@ -5379,7 +5417,7 @@
       <c r="D2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="124"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="92" t="s">
         <v>42</v>
       </c>
@@ -5442,11 +5480,11 @@
       </c>
       <c r="Z2" s="92"/>
       <c r="AA2" s="92"/>
-      <c r="AB2" s="113"/>
+      <c r="AB2" s="115"/>
       <c r="AC2" s="98"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
     </row>
     <row r="3" spans="1:32" ht="33.75" thickTop="1">
       <c r="A3" s="86" t="s">
@@ -5539,10 +5577,10 @@
       <c r="AF3" s="87"/>
     </row>
     <row r="4" spans="1:32" ht="33">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -5631,8 +5669,8 @@
       <c r="AF4" s="95"/>
     </row>
     <row r="5" spans="1:32" ht="33">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="56" t="s">
         <v>113</v>
       </c>
@@ -5719,8 +5757,8 @@
       <c r="AF5" s="95"/>
     </row>
     <row r="6" spans="1:32" ht="33">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="56" t="s">
         <v>114</v>
       </c>
@@ -5806,118 +5844,62 @@
       </c>
       <c r="AF6" s="95"/>
     </row>
-    <row r="7" spans="1:32" ht="33">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="56" t="s">
+    <row r="7" spans="1:32" ht="16.5">
+      <c r="A7" s="131"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+    </row>
+    <row r="8" spans="1:32" ht="33">
+      <c r="A8" s="131"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D8" s="72" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="V7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE7" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF7" s="95"/>
-    </row>
-    <row r="8" spans="1:32" ht="49.5">
-      <c r="A8" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>77</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>52</v>
@@ -5935,7 +5917,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="O8" s="53" t="s">
         <v>44</v>
@@ -5952,11 +5934,11 @@
       <c r="S8" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="U8" s="54" t="s">
-        <v>144</v>
+      <c r="T8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="V8" s="53" t="s">
         <v>44</v>
@@ -5979,117 +5961,73 @@
       <c r="AB8" s="70"/>
       <c r="AC8" s="100"/>
       <c r="AD8" s="87" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE8" s="84"/>
+        <v>393</v>
+      </c>
+      <c r="AE8" s="84" t="s">
+        <v>388</v>
+      </c>
       <c r="AF8" s="95"/>
     </row>
-    <row r="9" spans="1:32" ht="49.5">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="56" t="s">
-        <v>117</v>
-      </c>
+    <row r="9" spans="1:32" ht="16.5">
+      <c r="A9" s="132"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="U9" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="V9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="70"/>
+        <v>435</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
       <c r="AC9" s="100"/>
-      <c r="AD9" s="87" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="95"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
     </row>
     <row r="10" spans="1:32" ht="49.5">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>76</v>
+      </c>
       <c r="C10" s="56" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>84</v>
+      <c r="F10" s="54" t="s">
+        <v>78</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>52</v>
@@ -6107,7 +6045,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="53" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O10" s="53" t="s">
         <v>44</v>
@@ -6122,19 +6060,19 @@
         <v>44</v>
       </c>
       <c r="S10" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="T10" s="53" t="s">
-        <v>235</v>
+        <v>62</v>
+      </c>
+      <c r="T10" s="54" t="s">
+        <v>234</v>
       </c>
       <c r="U10" s="54" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="V10" s="53" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="W10" s="53" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X10" s="53" t="s">
         <v>44</v>
@@ -6151,41 +6089,49 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="100"/>
       <c r="AD10" s="87" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AE10" s="84"/>
       <c r="AF10" s="95"/>
     </row>
-    <row r="11" spans="1:32" ht="33">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
+    <row r="11" spans="1:32" ht="49.5">
+      <c r="A11" s="121"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="E11" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="J11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="N11" s="53" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="O11" s="53" t="s">
         <v>44</v>
@@ -6200,13 +6146,13 @@
         <v>44</v>
       </c>
       <c r="S11" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="53" t="s">
-        <v>226</v>
+        <v>90</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="U11" s="54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V11" s="53" t="s">
         <v>44</v>
@@ -6229,34 +6175,34 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="100"/>
       <c r="AD11" s="87" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AE11" s="84"/>
       <c r="AF11" s="95"/>
     </row>
     <row r="12" spans="1:32" ht="49.5">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>214</v>
+      <c r="F12" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>226</v>
+        <v>134</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>224</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>44</v>
@@ -6270,8 +6216,8 @@
       <c r="M12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="54" t="s">
-        <v>106</v>
+      <c r="N12" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="O12" s="53" t="s">
         <v>44</v>
@@ -6286,19 +6232,19 @@
         <v>44</v>
       </c>
       <c r="S12" s="53" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T12" s="53" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="U12" s="54" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="V12" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="W12" s="53">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>202</v>
       </c>
       <c r="X12" s="53" t="s">
         <v>44</v>
@@ -6315,71 +6261,67 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="100"/>
       <c r="AD12" s="87" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE12" s="84"/>
       <c r="AF12" s="95"/>
     </row>
-    <row r="13" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
+    <row r="13" spans="1:32" ht="33">
+      <c r="A13" s="121"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="53" t="s">
-        <v>107</v>
+      <c r="F13" s="54" t="s">
+        <v>213</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>227</v>
+        <v>220</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>225</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="53" t="s">
         <v>108</v>
       </c>
       <c r="O13" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
+        <v>44</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="S13" s="53" t="s">
         <v>96</v>
       </c>
       <c r="T13" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="U13" s="53" t="s">
-        <v>140</v>
+      <c r="U13" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="V13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="58" t="s">
+      <c r="W13" s="53" t="s">
         <v>44</v>
       </c>
       <c r="X13" s="53" t="s">
@@ -6397,34 +6339,34 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="100"/>
       <c r="AD13" s="87" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AE13" s="84"/>
       <c r="AF13" s="95"/>
     </row>
-    <row r="14" spans="1:32" ht="33">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
+    <row r="14" spans="1:32" ht="49.5">
+      <c r="A14" s="121"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E14" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="53" t="s">
-        <v>183</v>
+      <c r="F14" s="54" t="s">
+        <v>214</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="H14" s="53" t="s">
         <v>226</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>44</v>
@@ -6438,8 +6380,8 @@
       <c r="M14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="53" t="s">
-        <v>184</v>
+      <c r="N14" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="O14" s="53" t="s">
         <v>44</v>
@@ -6454,19 +6396,19 @@
         <v>44</v>
       </c>
       <c r="S14" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>139</v>
+        <v>103</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="U14" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="V14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="58" t="s">
-        <v>44</v>
+        <v>104</v>
+      </c>
+      <c r="W14" s="53">
+        <v>1</v>
       </c>
       <c r="X14" s="53" t="s">
         <v>44</v>
@@ -6483,34 +6425,34 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="100"/>
       <c r="AD14" s="87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE14" s="84"/>
       <c r="AF14" s="95"/>
     </row>
-    <row r="15" spans="1:32" ht="33">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
+    <row r="15" spans="1:32" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="121"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>215</v>
+      <c r="F15" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>228</v>
+        <v>135</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>227</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>44</v>
@@ -6525,28 +6467,24 @@
         <v>44</v>
       </c>
       <c r="N15" s="53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="53" t="s">
-        <v>44</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P15" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="54" t="s">
-        <v>236</v>
+        <v>96</v>
+      </c>
+      <c r="T15" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="U15" s="53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V15" s="53" t="s">
         <v>44</v>
@@ -6569,31 +6507,31 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="100"/>
       <c r="AD15" s="87" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AE15" s="84"/>
       <c r="AF15" s="95"/>
     </row>
-    <row r="16" spans="1:32" ht="66">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
+    <row r="16" spans="1:32" ht="33">
+      <c r="A16" s="121"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>148</v>
+      <c r="F16" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>229</v>
+        <v>136</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="I16" s="53" t="s">
         <v>52</v>
@@ -6610,8 +6548,8 @@
       <c r="M16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="54" t="s">
-        <v>150</v>
+      <c r="N16" s="53" t="s">
+        <v>184</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>44</v>
@@ -6629,10 +6567,10 @@
         <v>62</v>
       </c>
       <c r="T16" s="54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U16" s="53" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="V16" s="53" t="s">
         <v>44</v>
@@ -6655,31 +6593,31 @@
       <c r="AB16" s="70"/>
       <c r="AC16" s="100"/>
       <c r="AD16" s="87" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE16" s="84"/>
       <c r="AF16" s="95"/>
     </row>
     <row r="17" spans="1:32" ht="33">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="56" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="53" t="s">
-        <v>154</v>
+      <c r="F17" s="54" t="s">
+        <v>215</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I17" s="53" t="s">
         <v>52</v>
@@ -6697,7 +6635,7 @@
         <v>44</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="O17" s="53" t="s">
         <v>44</v>
@@ -6715,10 +6653,10 @@
         <v>62</v>
       </c>
       <c r="T17" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U17" s="53" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="V17" s="53" t="s">
         <v>44</v>
@@ -6741,38 +6679,34 @@
       <c r="AB17" s="70"/>
       <c r="AC17" s="100"/>
       <c r="AD17" s="87" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AE17" s="84"/>
       <c r="AF17" s="95"/>
     </row>
-    <row r="18" spans="1:32" ht="33">
-      <c r="A18" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>166</v>
-      </c>
+    <row r="18" spans="1:32" ht="66">
+      <c r="A18" s="121"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="56" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="E18" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>44</v>
@@ -6786,8 +6720,8 @@
       <c r="M18" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="53" t="s">
-        <v>159</v>
+      <c r="N18" s="54" t="s">
+        <v>150</v>
       </c>
       <c r="O18" s="53" t="s">
         <v>44</v>
@@ -6805,16 +6739,16 @@
         <v>62</v>
       </c>
       <c r="T18" s="54" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="U18" s="53" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="V18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="W18" s="58">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="W18" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="X18" s="53" t="s">
         <v>44</v>
@@ -6831,35 +6765,31 @@
       <c r="AB18" s="70"/>
       <c r="AC18" s="100"/>
       <c r="AD18" s="87" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AE18" s="84"/>
       <c r="AF18" s="95"/>
     </row>
     <row r="19" spans="1:32" ht="33">
-      <c r="A19" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>168</v>
-      </c>
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="56" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>44</v>
+      <c r="F19" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>230</v>
       </c>
       <c r="I19" s="53" t="s">
         <v>52</v>
@@ -6877,7 +6807,7 @@
         <v>44</v>
       </c>
       <c r="N19" s="53" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="O19" s="53" t="s">
         <v>44</v>
@@ -6892,19 +6822,19 @@
         <v>44</v>
       </c>
       <c r="S19" s="53" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="V19" s="53" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="W19" s="58" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X19" s="53" t="s">
         <v>44</v>
@@ -6921,34 +6851,38 @@
       <c r="AB19" s="70"/>
       <c r="AC19" s="100"/>
       <c r="AD19" s="87" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AE19" s="84"/>
       <c r="AF19" s="95"/>
     </row>
     <row r="20" spans="1:32" ht="33">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="C20" s="56" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="E20" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>44</v>
@@ -6962,8 +6896,8 @@
       <c r="M20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="54" t="s">
-        <v>206</v>
+      <c r="N20" s="53" t="s">
+        <v>159</v>
       </c>
       <c r="O20" s="53" t="s">
         <v>44</v>
@@ -6978,19 +6912,19 @@
         <v>44</v>
       </c>
       <c r="S20" s="53" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="T20" s="54" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="W20" s="58" t="s">
-        <v>202</v>
+        <v>160</v>
+      </c>
+      <c r="W20" s="58">
+        <v>1</v>
       </c>
       <c r="X20" s="53" t="s">
         <v>44</v>
@@ -7007,34 +6941,38 @@
       <c r="AB20" s="70"/>
       <c r="AC20" s="100"/>
       <c r="AD20" s="87" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AE20" s="84"/>
       <c r="AF20" s="95"/>
     </row>
-    <row r="21" spans="1:32" ht="49.5">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
+    <row r="21" spans="1:32" ht="33">
+      <c r="A21" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>168</v>
+      </c>
       <c r="C21" s="56" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="E21" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>209</v>
+        <v>171</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>187</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>44</v>
@@ -7048,14 +6986,14 @@
       <c r="M21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="54" t="s">
-        <v>240</v>
+      <c r="N21" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="O21" s="53" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="P21" s="53" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="53" t="s">
         <v>44</v>
@@ -7064,13 +7002,13 @@
         <v>44</v>
       </c>
       <c r="S21" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="53" t="s">
-        <v>232</v>
+        <v>172</v>
+      </c>
+      <c r="T21" s="54" t="s">
+        <v>173</v>
       </c>
       <c r="U21" s="53" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="V21" s="53" t="s">
         <v>313</v>
@@ -7093,85 +7031,81 @@
       <c r="AB21" s="70"/>
       <c r="AC21" s="100"/>
       <c r="AD21" s="87" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AE21" s="84"/>
       <c r="AF21" s="95"/>
     </row>
-    <row r="22" spans="1:32" ht="49.5">
-      <c r="A22" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="75" t="s">
+    <row r="22" spans="1:32" ht="33">
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="58" t="s">
+      <c r="F22" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="U22" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="V22" s="58" t="s">
+      <c r="J22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="T22" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="V22" s="53" t="s">
         <v>313</v>
       </c>
       <c r="W22" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="X22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" s="58" t="s">
+      <c r="X22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="53" t="s">
         <v>44</v>
       </c>
       <c r="Z22" s="58" t="s">
@@ -7180,301 +7114,301 @@
       <c r="AA22" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="101"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="100"/>
       <c r="AD22" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="95"/>
+    </row>
+    <row r="23" spans="1:32" ht="49.5">
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="U23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="W23" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="95"/>
+    </row>
+    <row r="24" spans="1:32" ht="49.5">
+      <c r="A24" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="U24" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="V24" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="W24" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="87" t="s">
         <v>405</v>
       </c>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-    </row>
-    <row r="23" spans="1:32" ht="49.5">
-      <c r="A23" s="60" t="s">
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+    </row>
+    <row r="25" spans="1:32" ht="49.5">
+      <c r="A25" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B25" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="61" t="s">
+      <c r="C25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F25" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G25" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H25" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I25" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J25" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K25" s="60">
         <v>1</v>
       </c>
-      <c r="L23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="60" t="s">
+      <c r="L25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="O23" s="60" t="s">
+      <c r="O25" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="P23" s="60">
+      <c r="P25" s="60">
         <v>1</v>
       </c>
-      <c r="Q23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="60" t="s">
+      <c r="Q25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="T23" s="60" t="s">
+      <c r="T25" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="U23" s="60" t="s">
+      <c r="U25" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="V23" s="60" t="s">
+      <c r="V25" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="W23" s="60" t="s">
+      <c r="W25" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="X23" s="60" t="s">
+      <c r="X25" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="Y23" s="60">
+      <c r="Y25" s="60">
         <v>1</v>
       </c>
-      <c r="Z23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="81" t="s">
+      <c r="Z25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="81" t="s">
         <v>409</v>
       </c>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="94"/>
-    </row>
-    <row r="24" spans="1:32" ht="33">
-      <c r="A24" s="117" t="s">
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="94"/>
+    </row>
+    <row r="26" spans="1:32" ht="33">
+      <c r="A26" s="123" t="s">
         <v>242</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B26" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C26" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D26" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E26" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F26" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G26" s="77" t="s">
         <v>422</v>
-      </c>
-      <c r="H24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="O24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T24" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="U24" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="V24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="X24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="76" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="96"/>
-    </row>
-    <row r="25" spans="1:32" ht="49.5" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="P25" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="U25" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X25" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y25" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA25" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB25" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="76" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="96"/>
-    </row>
-    <row r="26" spans="1:32" ht="33">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="77" t="s">
-        <v>256</v>
       </c>
       <c r="H26" s="76" t="s">
         <v>44</v>
@@ -7495,13 +7429,13 @@
         <v>44</v>
       </c>
       <c r="N26" s="76" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="O26" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" s="76">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="P26" s="76" t="s">
+        <v>44</v>
       </c>
       <c r="Q26" s="76" t="s">
         <v>44</v>
@@ -7510,25 +7444,25 @@
         <v>44</v>
       </c>
       <c r="S26" s="76" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="T26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U26" s="76" t="s">
-        <v>204</v>
+        <v>190</v>
+      </c>
+      <c r="U26" s="77" t="s">
+        <v>253</v>
       </c>
       <c r="V26" s="76" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="W26" s="76" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X26" s="76" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y26" s="76" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="Z26" s="76" t="s">
         <v>44</v>
@@ -7537,38 +7471,38 @@
         <v>44</v>
       </c>
       <c r="AB26" s="76" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AC26" s="100"/>
       <c r="AD26" s="76" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AE26" s="85"/>
       <c r="AF26" s="96"/>
     </row>
-    <row r="27" spans="1:32" ht="33">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
+    <row r="27" spans="1:32" ht="49.5" customHeight="1">
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="76" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="E27" s="78" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="H27" s="76" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="I27" s="76" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="J27" s="76" t="s">
         <v>44</v>
@@ -7582,14 +7516,14 @@
       <c r="M27" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="76" t="s">
-        <v>198</v>
+      <c r="N27" s="77" t="s">
+        <v>257</v>
       </c>
       <c r="O27" s="76" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="P27" s="76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="76" t="s">
         <v>44</v>
@@ -7598,13 +7532,13 @@
         <v>44</v>
       </c>
       <c r="S27" s="76" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="T27" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U27" s="76" t="s">
-        <v>204</v>
+        <v>190</v>
+      </c>
+      <c r="U27" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="V27" s="76" t="s">
         <v>313</v>
@@ -7613,7 +7547,7 @@
         <v>202</v>
       </c>
       <c r="X27" s="76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y27" s="76" t="s">
         <v>202</v>
@@ -7625,201 +7559,197 @@
         <v>44</v>
       </c>
       <c r="AB27" s="76" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AC27" s="100"/>
       <c r="AD27" s="76" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AE27" s="85"/>
       <c r="AF27" s="96"/>
     </row>
     <row r="28" spans="1:32" ht="33">
-      <c r="A28" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="O28" s="60" t="s">
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="P28" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S28" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="T28" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="U28" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="V28" s="60" t="s">
+      <c r="P28" s="76">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V28" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="W28" s="60" t="s">
+      <c r="W28" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="X28" s="60" t="s">
+      <c r="X28" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="Y28" s="60" t="s">
+      <c r="Y28" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="Z28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB28" s="81"/>
+      <c r="Z28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="76" t="s">
+        <v>250</v>
+      </c>
       <c r="AC28" s="100"/>
-      <c r="AD28" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="94"/>
+      <c r="AD28" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="96"/>
     </row>
     <row r="29" spans="1:32" ht="33">
-      <c r="A29" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="O29" s="60" t="s">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="T29" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U29" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="V29" s="60" t="s">
+      <c r="P29" s="76">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U29" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V29" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="W29" s="60" t="s">
+      <c r="W29" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="X29" s="60" t="s">
+      <c r="X29" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="Y29" s="60" t="s">
+      <c r="Y29" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="Z29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB29" s="81"/>
+      <c r="Z29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="76" t="s">
+        <v>250</v>
+      </c>
       <c r="AC29" s="100"/>
-      <c r="AD29" s="94" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="94"/>
+      <c r="AD29" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="96"/>
     </row>
     <row r="30" spans="1:32" ht="33">
       <c r="A30" s="60" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>44</v>
@@ -7831,26 +7761,34 @@
         <v>55</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="G30" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="H30" s="62" t="s">
-        <v>235</v>
+      <c r="H30" s="60" t="s">
+        <v>226</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
+        <v>96</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="60" t="s">
+        <v>44</v>
+      </c>
       <c r="N30" s="62" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="O30" s="60" t="s">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="P30" s="60" t="s">
         <v>94</v>
@@ -7862,13 +7800,13 @@
         <v>44</v>
       </c>
       <c r="S30" s="60" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T30" s="60" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="U30" s="62" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
       <c r="V30" s="60" t="s">
         <v>313</v>
@@ -7877,7 +7815,7 @@
         <v>202</v>
       </c>
       <c r="X30" s="60" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="Y30" s="60" t="s">
         <v>202</v>
@@ -7891,17 +7829,17 @@
       <c r="AB30" s="81"/>
       <c r="AC30" s="100"/>
       <c r="AD30" s="94" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AE30" s="83"/>
       <c r="AF30" s="94"/>
     </row>
     <row r="31" spans="1:32" ht="33">
       <c r="A31" s="60" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>44</v>
@@ -7913,12 +7851,12 @@
         <v>55</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="H31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="62" t="s">
         <v>227</v>
       </c>
       <c r="I31" s="60" t="s">
@@ -7937,10 +7875,10 @@
         <v>44</v>
       </c>
       <c r="N31" s="62" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O31" s="60" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="P31" s="60" t="s">
         <v>94</v>
@@ -7958,7 +7896,7 @@
         <v>227</v>
       </c>
       <c r="U31" s="62" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="V31" s="60" t="s">
         <v>313</v>
@@ -7967,7 +7905,7 @@
         <v>202</v>
       </c>
       <c r="X31" s="60" t="s">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="Y31" s="60" t="s">
         <v>202</v>
@@ -7981,59 +7919,51 @@
       <c r="AB31" s="81"/>
       <c r="AC31" s="100"/>
       <c r="AD31" s="94" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AE31" s="83"/>
       <c r="AF31" s="94"/>
     </row>
-    <row r="32" spans="1:32" ht="49.5">
-      <c r="A32" s="118" t="s">
-        <v>343</v>
-      </c>
-      <c r="B32" s="118" t="s">
-        <v>301</v>
+    <row r="32" spans="1:32" ht="33">
+      <c r="A32" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>354</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>235</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="60" t="s">
-        <v>249</v>
+        <v>298</v>
+      </c>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="62" t="s">
+        <v>358</v>
       </c>
       <c r="O32" s="60" t="s">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="60" t="s">
         <v>44</v>
@@ -8042,13 +7972,13 @@
         <v>44</v>
       </c>
       <c r="S32" s="60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T32" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="U32" s="60" t="s">
-        <v>353</v>
+        <v>235</v>
+      </c>
+      <c r="U32" s="62" t="s">
+        <v>204</v>
       </c>
       <c r="V32" s="60" t="s">
         <v>313</v>
@@ -8057,10 +7987,10 @@
         <v>202</v>
       </c>
       <c r="X32" s="60" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="Y32" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z32" s="60" t="s">
         <v>44</v>
@@ -8071,34 +8001,38 @@
       <c r="AB32" s="81"/>
       <c r="AC32" s="100"/>
       <c r="AD32" s="94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AE32" s="83"/>
       <c r="AF32" s="94"/>
     </row>
     <row r="33" spans="1:32" ht="33">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>315</v>
+      </c>
       <c r="C33" s="60" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>350</v>
+        <v>318</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>361</v>
       </c>
       <c r="H33" s="60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J33" s="60" t="s">
         <v>44</v>
@@ -8113,13 +8047,13 @@
         <v>44</v>
       </c>
       <c r="N33" s="62" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="O33" s="60" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="P33" s="60" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="60" t="s">
         <v>44</v>
@@ -8128,13 +8062,13 @@
         <v>44</v>
       </c>
       <c r="S33" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T33" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="U33" s="60" t="s">
-        <v>352</v>
+        <v>103</v>
+      </c>
+      <c r="T33" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U33" s="62" t="s">
+        <v>326</v>
       </c>
       <c r="V33" s="60" t="s">
         <v>313</v>
@@ -8143,10 +8077,10 @@
         <v>202</v>
       </c>
       <c r="X33" s="60" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="Y33" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z33" s="60" t="s">
         <v>44</v>
@@ -8157,34 +8091,38 @@
       <c r="AB33" s="81"/>
       <c r="AC33" s="100"/>
       <c r="AD33" s="94" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AE33" s="83"/>
       <c r="AF33" s="94"/>
     </row>
-    <row r="34" spans="1:32" ht="33">
-      <c r="A34" s="119"/>
-      <c r="B34" s="119"/>
+    <row r="34" spans="1:32" ht="49.5">
+      <c r="A34" s="124" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" s="124" t="s">
+        <v>301</v>
+      </c>
       <c r="C34" s="60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E34" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>349</v>
+        <v>363</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>300</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="J34" s="60" t="s">
         <v>44</v>
@@ -8198,8 +8136,8 @@
       <c r="M34" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="62" t="s">
-        <v>311</v>
+      <c r="N34" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="O34" s="60" t="s">
         <v>44</v>
@@ -8214,13 +8152,13 @@
         <v>44</v>
       </c>
       <c r="S34" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T34" s="62" t="s">
-        <v>308</v>
+        <v>96</v>
+      </c>
+      <c r="T34" s="60" t="s">
+        <v>226</v>
       </c>
       <c r="U34" s="60" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="V34" s="60" t="s">
         <v>313</v>
@@ -8243,34 +8181,34 @@
       <c r="AB34" s="81"/>
       <c r="AC34" s="100"/>
       <c r="AD34" s="94" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AE34" s="83"/>
       <c r="AF34" s="94"/>
     </row>
-    <row r="35" spans="1:32" ht="49.5">
-      <c r="A35" s="120"/>
-      <c r="B35" s="120"/>
+    <row r="35" spans="1:32" ht="33">
+      <c r="A35" s="125"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E35" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>348</v>
+        <v>304</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="H35" s="60" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="J35" s="60" t="s">
         <v>44</v>
@@ -8284,8 +8222,8 @@
       <c r="M35" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="N35" s="60" t="s">
-        <v>312</v>
+      <c r="N35" s="62" t="s">
+        <v>305</v>
       </c>
       <c r="O35" s="60" t="s">
         <v>44</v>
@@ -8300,13 +8238,13 @@
         <v>44</v>
       </c>
       <c r="S35" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T35" s="60" t="s">
-        <v>190</v>
+        <v>62</v>
+      </c>
+      <c r="T35" s="62" t="s">
+        <v>303</v>
       </c>
       <c r="U35" s="60" t="s">
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="V35" s="60" t="s">
         <v>313</v>
@@ -8315,220 +8253,220 @@
         <v>202</v>
       </c>
       <c r="X35" s="60" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y35" s="60" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="Z35" s="60" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AA35" s="60" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="AB35" s="81"/>
       <c r="AC35" s="100"/>
       <c r="AD35" s="94" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AE35" s="83"/>
       <c r="AF35" s="94"/>
     </row>
     <row r="36" spans="1:32" ht="33">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="125"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T36" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="U36" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="V36" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W36" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="94"/>
+    </row>
+    <row r="37" spans="1:32" ht="49.5">
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T37" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U37" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V37" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W37" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X37" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y37" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z37" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA37" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="94"/>
+    </row>
+    <row r="38" spans="1:32" ht="33">
+      <c r="A38" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="116" t="s">
+      <c r="B38" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C38" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D38" s="80" t="s">
         <v>186</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="O36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="T36" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="U36" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="V36" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W36" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="100"/>
-      <c r="AD36" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="95"/>
-    </row>
-    <row r="37" spans="1:32" ht="33">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="O37" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="P37" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="T37" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="U37" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="V37" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="W37" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="X37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA37" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="95"/>
-    </row>
-    <row r="38" spans="1:32" ht="33">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>262</v>
       </c>
       <c r="E38" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="54" t="s">
+      <c r="F38" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38" s="56" t="s">
         <v>44</v>
       </c>
       <c r="I38" s="56" t="s">
@@ -8547,13 +8485,13 @@
         <v>44</v>
       </c>
       <c r="N38" s="56" t="s">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="O38" s="56" t="s">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="P38" s="56" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="56" t="s">
         <v>44</v>
@@ -8562,13 +8500,13 @@
         <v>44</v>
       </c>
       <c r="S38" s="56" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="T38" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" s="54" t="s">
-        <v>265</v>
+        <v>190</v>
+      </c>
+      <c r="U38" s="56" t="s">
+        <v>203</v>
       </c>
       <c r="V38" s="56" t="s">
         <v>313</v>
@@ -8591,31 +8529,31 @@
       <c r="AB38" s="70"/>
       <c r="AC38" s="100"/>
       <c r="AD38" s="70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AE38" s="84"/>
       <c r="AF38" s="95"/>
     </row>
     <row r="39" spans="1:32" ht="33">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="E39" s="55" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="G39" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>44</v>
+        <v>272</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I39" s="56" t="s">
         <v>52</v>
@@ -8633,7 +8571,7 @@
         <v>44</v>
       </c>
       <c r="N39" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O39" s="56" t="s">
         <v>325</v>
@@ -8648,13 +8586,13 @@
         <v>44</v>
       </c>
       <c r="S39" s="56" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="T39" s="56" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="U39" s="54" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="V39" s="56" t="s">
         <v>313</v>
@@ -8677,30 +8615,30 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="100"/>
       <c r="AD39" s="70" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AE39" s="84"/>
       <c r="AF39" s="95"/>
     </row>
     <row r="40" spans="1:32" ht="33">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E40" s="55" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G40" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" s="54" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="56" t="s">
@@ -8719,7 +8657,7 @@
         <v>44</v>
       </c>
       <c r="N40" s="56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O40" s="56" t="s">
         <v>325</v>
@@ -8740,7 +8678,7 @@
         <v>44</v>
       </c>
       <c r="U40" s="54" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="V40" s="56" t="s">
         <v>313</v>
@@ -8763,212 +8701,204 @@
       <c r="AB40" s="70"/>
       <c r="AC40" s="100"/>
       <c r="AD40" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AE40" s="84"/>
       <c r="AF40" s="95"/>
     </row>
     <row r="41" spans="1:32" ht="33">
-      <c r="A41" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="H41" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="O41" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="P41" s="60" t="s">
+      <c r="A41" s="122"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="P41" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="Q41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T41" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U41" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V41" s="60" t="s">
+      <c r="Q41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S41" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U41" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="V41" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="W41" s="60" t="s">
+      <c r="W41" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="X41" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y41" s="60" t="s">
+      <c r="X41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE41" s="84"/>
+      <c r="AF41" s="95"/>
+    </row>
+    <row r="42" spans="1:32" ht="33">
+      <c r="A42" s="122"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="P42" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="R42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="V42" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="W42" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="Z41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="100"/>
-      <c r="AD41" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="94"/>
-    </row>
-    <row r="42" spans="1:32" ht="33">
-      <c r="A42" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I42" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="J42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="O42" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="P42" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="T42" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="U42" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="V42" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="W42" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X42" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y42" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA42" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB42" s="81"/>
+      <c r="X42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB42" s="70"/>
       <c r="AC42" s="100"/>
-      <c r="AD42" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE42" s="83"/>
-      <c r="AF42" s="94"/>
+      <c r="AD42" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE42" s="84"/>
+      <c r="AF42" s="95"/>
     </row>
     <row r="43" spans="1:32" ht="33">
       <c r="A43" s="60" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="125" t="s">
+      <c r="D43" s="105" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="61" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H43" s="60" t="s">
         <v>190</v>
@@ -8989,7 +8919,7 @@
         <v>44</v>
       </c>
       <c r="N43" s="60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O43" s="60" t="s">
         <v>339</v>
@@ -9033,32 +8963,32 @@
       <c r="AB43" s="81"/>
       <c r="AC43" s="100"/>
       <c r="AD43" s="81" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AE43" s="83"/>
       <c r="AF43" s="94"/>
     </row>
-    <row r="44" spans="1:32" ht="49.5">
-      <c r="A44" s="114" t="s">
-        <v>360</v>
-      </c>
-      <c r="B44" s="114" t="s">
-        <v>367</v>
+    <row r="44" spans="1:32" ht="33">
+      <c r="A44" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>331</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>371</v>
+        <v>44</v>
+      </c>
+      <c r="D44" s="105" t="s">
+        <v>44</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>190</v>
@@ -9079,13 +9009,13 @@
         <v>44</v>
       </c>
       <c r="N44" s="60" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="O44" s="60" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q44" s="60" t="s">
         <v>44</v>
@@ -9094,13 +9024,13 @@
         <v>44</v>
       </c>
       <c r="S44" s="60" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="T44" s="60" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="U44" s="60" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
       <c r="V44" s="60" t="s">
         <v>313</v>
@@ -9109,10 +9039,10 @@
         <v>202</v>
       </c>
       <c r="X44" s="60" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="Y44" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z44" s="60" t="s">
         <v>44</v>
@@ -9123,34 +9053,38 @@
       <c r="AB44" s="81"/>
       <c r="AC44" s="100"/>
       <c r="AD44" s="81" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AE44" s="83"/>
       <c r="AF44" s="94"/>
     </row>
     <row r="45" spans="1:32" ht="33">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
+      <c r="A45" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>332</v>
+      </c>
       <c r="C45" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>368</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>44</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="62" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="H45" s="60" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="I45" s="60" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="J45" s="60" t="s">
         <v>44</v>
@@ -9165,24 +9099,28 @@
         <v>44</v>
       </c>
       <c r="N45" s="60" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="O45" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" s="60"/>
+        <v>339</v>
+      </c>
+      <c r="P45" s="60" t="s">
+        <v>94</v>
+      </c>
       <c r="Q45" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="R45" s="60"/>
+      <c r="R45" s="60" t="s">
+        <v>44</v>
+      </c>
       <c r="S45" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="62" t="s">
-        <v>374</v>
+        <v>158</v>
+      </c>
+      <c r="T45" s="60" t="s">
+        <v>190</v>
       </c>
       <c r="U45" s="60" t="s">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="V45" s="60" t="s">
         <v>313</v>
@@ -9191,10 +9129,10 @@
         <v>202</v>
       </c>
       <c r="X45" s="60" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="Y45" s="60" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Z45" s="60" t="s">
         <v>44</v>
@@ -9205,34 +9143,38 @@
       <c r="AB45" s="81"/>
       <c r="AC45" s="100"/>
       <c r="AD45" s="81" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AE45" s="83"/>
       <c r="AF45" s="94"/>
     </row>
-    <row r="46" spans="1:32" ht="33">
-      <c r="A46" s="114"/>
-      <c r="B46" s="114"/>
+    <row r="46" spans="1:32" ht="49.5">
+      <c r="A46" s="120" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>367</v>
+      </c>
       <c r="C46" s="60" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>374</v>
+        <v>365</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>190</v>
       </c>
       <c r="I46" s="60" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="J46" s="60" t="s">
         <v>44</v>
@@ -9247,7 +9189,7 @@
         <v>44</v>
       </c>
       <c r="N46" s="60" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O46" s="60" t="s">
         <v>44</v>
@@ -9262,13 +9204,13 @@
         <v>44</v>
       </c>
       <c r="S46" s="60" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="T46" s="60" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="U46" s="60" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="V46" s="60" t="s">
         <v>313</v>
@@ -9277,10 +9219,10 @@
         <v>202</v>
       </c>
       <c r="X46" s="60" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="Y46" s="60" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="Z46" s="60" t="s">
         <v>44</v>
@@ -9291,78 +9233,178 @@
       <c r="AB46" s="81"/>
       <c r="AC46" s="100"/>
       <c r="AD46" s="81" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AE46" s="83"/>
       <c r="AF46" s="94"/>
     </row>
-    <row r="47" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="102"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-    </row>
-    <row r="48" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="102"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
+    <row r="47" spans="1:32" ht="33">
+      <c r="A47" s="120"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="O47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T47" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="U47" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="V47" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W47" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="100"/>
+      <c r="AD47" s="81" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="94"/>
+    </row>
+    <row r="48" spans="1:32" ht="33">
+      <c r="A48" s="120"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="S48" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="T48" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="U48" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="V48" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="W48" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="X48" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y48" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="100"/>
+      <c r="AD48" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE48" s="83"/>
+      <c r="AF48" s="94"/>
     </row>
     <row r="49" spans="1:32" ht="16.5" customHeight="1">
       <c r="A49" s="21"/>
@@ -11306,28 +11348,28 @@
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="48"/>
+      <c r="D106" s="21"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="48"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="48"/>
       <c r="K106" s="48"/>
       <c r="L106" s="48"/>
       <c r="M106" s="48"/>
       <c r="N106" s="24"/>
-      <c r="O106" s="48"/>
-      <c r="P106" s="48"/>
-      <c r="Q106" s="48"/>
-      <c r="R106" s="48"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
       <c r="S106" s="24"/>
-      <c r="T106" s="49"/>
-      <c r="U106" s="49"/>
-      <c r="V106" s="48"/>
-      <c r="W106" s="48"/>
-      <c r="X106" s="48"/>
-      <c r="Y106" s="48"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="47"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
       <c r="Z106" s="51"/>
       <c r="AA106" s="51"/>
       <c r="AB106" s="25"/>
@@ -11374,28 +11416,28 @@
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
-      <c r="D108" s="21"/>
+      <c r="D108" s="48"/>
       <c r="E108" s="23"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="48"/>
       <c r="J108" s="48"/>
       <c r="K108" s="48"/>
       <c r="L108" s="48"/>
       <c r="M108" s="48"/>
       <c r="N108" s="24"/>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="48"/>
+      <c r="Q108" s="48"/>
+      <c r="R108" s="48"/>
       <c r="S108" s="24"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="47"/>
-      <c r="V108" s="21"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
+      <c r="T108" s="49"/>
+      <c r="U108" s="49"/>
+      <c r="V108" s="48"/>
+      <c r="W108" s="48"/>
+      <c r="X108" s="48"/>
+      <c r="Y108" s="48"/>
       <c r="Z108" s="51"/>
       <c r="AA108" s="51"/>
       <c r="AB108" s="25"/>
@@ -14736,8 +14778,74 @@
       <c r="AE206" s="25"/>
       <c r="AF206" s="25"/>
     </row>
-    <row r="207" spans="1:32" ht="16.5" customHeight="1"/>
-    <row r="208" spans="1:32" ht="16.5" customHeight="1"/>
+    <row r="207" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="48"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="48"/>
+      <c r="N207" s="24"/>
+      <c r="O207" s="21"/>
+      <c r="P207" s="21"/>
+      <c r="Q207" s="21"/>
+      <c r="R207" s="21"/>
+      <c r="S207" s="24"/>
+      <c r="T207" s="21"/>
+      <c r="U207" s="47"/>
+      <c r="V207" s="21"/>
+      <c r="W207" s="21"/>
+      <c r="X207" s="21"/>
+      <c r="Y207" s="21"/>
+      <c r="Z207" s="51"/>
+      <c r="AA207" s="51"/>
+      <c r="AB207" s="25"/>
+      <c r="AC207" s="102"/>
+      <c r="AD207" s="25"/>
+      <c r="AE207" s="25"/>
+      <c r="AF207" s="25"/>
+    </row>
+    <row r="208" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A208" s="21"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="48"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="48"/>
+      <c r="N208" s="24"/>
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
+      <c r="Q208" s="21"/>
+      <c r="R208" s="21"/>
+      <c r="S208" s="24"/>
+      <c r="T208" s="21"/>
+      <c r="U208" s="47"/>
+      <c r="V208" s="21"/>
+      <c r="W208" s="21"/>
+      <c r="X208" s="21"/>
+      <c r="Y208" s="21"/>
+      <c r="Z208" s="51"/>
+      <c r="AA208" s="51"/>
+      <c r="AB208" s="25"/>
+      <c r="AC208" s="102"/>
+      <c r="AD208" s="25"/>
+      <c r="AE208" s="25"/>
+      <c r="AF208" s="25"/>
+    </row>
     <row r="209" ht="16.5" customHeight="1"/>
     <row r="210" ht="16.5" customHeight="1"/>
     <row r="211" ht="16.5" customHeight="1"/>
@@ -15518,8 +15626,24 @@
     <row r="986" ht="16.5" customHeight="1"/>
     <row r="987" ht="16.5" customHeight="1"/>
     <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AB1:AB2"/>
@@ -15529,20 +15653,6 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
     <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
